--- a/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
+++ b/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPT AC\Licenta\An_2\Sem_1\M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E1F8CB-40D4-484F-BA21-A7A4D7FA021F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904707A6-F8D5-4FC4-A86E-7191D71661C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="O2pZeXeucL6OySNC7AknZdZAyXoN/m0/9At13Y17SnJe3PRhRKhh5R2CulRtevnypPEYgGoXIEttHB4aNlfRwQ==" workbookSaltValue="uQIfLlIkgsrrIpl+3gXPNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="994" activeTab="2" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="3" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -851,36 +851,6 @@
     <t>Dividends Received from Affiliates</t>
   </si>
   <si>
-    <t>The company is owned by Melinda R. Tackett and Timothy Tackett, with each having 50% share.</t>
-  </si>
-  <si>
-    <t>Madison, Indiana</t>
-  </si>
-  <si>
-    <t>We will offer children books in printed, e-book, audiobook versions.</t>
-  </si>
-  <si>
-    <t>It's hard to convince the children of the new era to read books, so our products will introduce children with books via the devices they like.</t>
-  </si>
-  <si>
-    <t>Our products have the advantage of offering possibility to be read from any device any where.</t>
-  </si>
-  <si>
-    <t>The e-book and audiobook market for children's literature is still on the Introduction stage. There are some e-book and audiobook providers for general readers, which also provides children books. But our brand will be focusing only on children literature.</t>
-  </si>
-  <si>
-    <t>Our pricing for the printed books will be decided with cost-based pricing strategy. The subscription pricing will be made in terms of value-based strategy.</t>
-  </si>
-  <si>
-    <t>The e-book and audiobook versions of each book will be published at the same time with the printed version.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printed books will be distributed through XYZ Distribution Company, a leader book distributer across the country. The e-book and audiobook versions will be sold from our online platform. </t>
-  </si>
-  <si>
-    <t>All the copyright and intellectual property issues will be held through our intellectual property agency partner.</t>
-  </si>
-  <si>
     <t>Total e-book and audiobook industry is expected to reach US$2.5 billion (estimated by PP Agency).</t>
   </si>
   <si>
@@ -1202,9 +1172,6 @@
     <t>Production</t>
   </si>
   <si>
-    <t>Our products will be prepared by freelance writers and translators.</t>
-  </si>
-  <si>
     <t>3. MARKETING / INDUSTRY ANALYSIS</t>
   </si>
   <si>
@@ -1265,9 +1232,6 @@
     <t>6. SUMMARY / EXECUTIVE SUMMARY</t>
   </si>
   <si>
-    <t>The company is founded as Limited Liability Corporation.</t>
-  </si>
-  <si>
     <t>Threat of Substitutes</t>
   </si>
   <si>
@@ -1298,13 +1262,49 @@
     <t>ZIMBRU SRL</t>
   </si>
   <si>
-    <t>Misiunea noastră este să aducem bucătăria tradițională moldovenească în Timișoara.</t>
+    <t>Viziunea noastră este să fim un brand gastronomic recunoscut la nivel local și să ocupăm un loc de frunte printre preferințele clienților.</t>
   </si>
   <si>
-    <t>Ospitalitate, Responsabilitate, Agilitate, Autenticitate, Colaborare</t>
+    <t>SRL D (Societate cu Răspundere Limitată Debutant)</t>
   </si>
   <si>
-    <t xml:space="preserve">Viziunea noastră este să </t>
+    <t>Compania este deținută de Ursu Dumitru și Semenenco Stanislav, fiecare deținând 50% din acțiuni.</t>
+  </si>
+  <si>
+    <t>Timișoara, Complex</t>
+  </si>
+  <si>
+    <t>Misiunea noastră este să aducem bucătăria tradițională moldovenească în Timișoara prin servicii de catering.</t>
+  </si>
+  <si>
+    <t>Ospitalitate, Responsabilitate, Agilitate, Autenticitate, Colaborare, Viteză</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noi prestăm servicii gastronomice cu specific moldovenesc prin intermediul platformelor de catering.  </t>
+  </si>
+  <si>
+    <t>Este greu să găsești un restaurant cu specific moldovenesc în Timișoara, de aceea oferim clienților șansa de a degusta cele mai alese bucate de pe meleagurile moldave.</t>
+  </si>
+  <si>
+    <t>Produsele noastre beneficiază de mobilitate înaltă, fiind livrate la domiciliu într-un timp scurt. Bucătăria noastră este unică pe piața locală, prezintă niște bucate originale moldovenești, gătite cu suflet și pasiune.</t>
+  </si>
+  <si>
+    <t>Sectorul HoReCa se află în stadiu de maturitate în general, dar nișa gastronomică moldovenească se află la o etapă de introducere pe plan local. Brandul nostru se va focusa în principal pe bucătăria moldovenească.</t>
+  </si>
+  <si>
+    <t>Prețul nostru pentru serviciul prestat va fi decis pe baza strategiei de acoperire a costului de producție. Marja profitului va fi inițial mică, pentru a atrage o bază largă de clienți.</t>
+  </si>
+  <si>
+    <t>Produsele noastre vor fi distribuite prin intermediul platformei de catering TAZ, un lider în acest domeniu la nivel național. Meniurile și ofertele curente vor fi distribuite pe site-ul platformei.</t>
+  </si>
+  <si>
+    <t>Produsele noastre vor fi preparate de către bucătarii noștri iscusiți.</t>
+  </si>
+  <si>
+    <t>Toate problemele privind drepturile de autor și proprietatea intelectuală vor fi deținute prin intermediul agenției noastre de proprietate intelectuală partener.</t>
+  </si>
+  <si>
+    <t>Comenzile plasate sunt pregătite și livrate cât mai rapid posibil, pentru a asigura satisfacția maximă clienților noștri.</t>
   </si>
 </sst>
 </file>
@@ -4104,12 +4104,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4120,19 +4120,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -4192,6 +4192,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -4204,24 +4212,8 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4240,6 +4232,14 @@
       <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4252,6 +4252,18 @@
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4261,18 +4273,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -8850,8 +8850,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11869774" y="202410"/>
-          <a:ext cx="1952318" cy="295450"/>
+          <a:off x="11562516" y="202410"/>
+          <a:ext cx="1915447" cy="287257"/>
           <a:chOff x="11182351" y="287833"/>
           <a:chExt cx="1905000" cy="289100"/>
         </a:xfrm>
@@ -11078,8 +11078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9166860" y="129120"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8924925" y="131025"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -11700,8 +11700,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9151620" y="129120"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8915400" y="131025"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -12315,8 +12315,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9144000" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8915400" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -12862,8 +12862,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9509760" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="9277350" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -13554,8 +13554,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9509760" y="129120"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="9277350" y="131025"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -14225,8 +14225,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9509760" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="9277350" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -15651,8 +15651,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9471660" y="129120"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="9267825" y="131025"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -29325,8 +29325,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11974770" y="131445"/>
-          <a:ext cx="1055430" cy="453810"/>
+          <a:off x="11490900" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -29872,8 +29872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9166860" y="112395"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8924925" y="114300"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -30643,8 +30643,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9189720" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8943975" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -32082,8 +32082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7178040" y="138645"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="6981825" y="140550"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -32339,8 +32339,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10591209" y="102870"/>
-          <a:ext cx="1082100" cy="453810"/>
+          <a:off x="10309269" y="104775"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -33241,8 +33241,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9166860" y="121920"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8928011" y="125301"/>
+          <a:ext cx="1043731" cy="450536"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -34245,8 +34245,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9166860" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8931519" y="135548"/>
+          <a:ext cx="1046931" cy="451465"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -34909,8 +34909,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9166860" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8931519" y="135548"/>
+          <a:ext cx="1046931" cy="451465"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -35942,8 +35942,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9166860" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8924925" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -36667,8 +36667,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9144000" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="8915400" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -37950,8 +37950,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11750040" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="11458575" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -39335,8 +39335,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12054840" y="131445"/>
-          <a:ext cx="1063050" cy="453810"/>
+          <a:off x="11744325" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -39809,37 +39809,37 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="1.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="1.44140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="4.5546875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="44.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="1.44140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" style="18" customWidth="1"/>
-    <col min="16" max="19" width="8.88671875" style="18"/>
-    <col min="20" max="20" width="40.6640625" style="18" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="2" width="3.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="18" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="18" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" style="18" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" style="18" customWidth="1"/>
+    <col min="16" max="19" width="8.85546875" style="18"/>
+    <col min="20" max="20" width="40.7109375" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:15" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="248"/>
@@ -39855,9 +39855,9 @@
       <c r="N2" s="219"/>
       <c r="O2" s="220"/>
     </row>
-    <row r="3" spans="1:15" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="249"/>
@@ -39873,7 +39873,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -39890,7 +39890,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -39907,7 +39907,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -39924,10 +39924,10 @@
       <c r="N6" s="14"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="168" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D7" s="168"/>
       <c r="E7" s="168"/>
@@ -39941,7 +39941,7 @@
       <c r="M7" s="153"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:15" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="158"/>
@@ -39956,18 +39956,18 @@
       <c r="M8" s="16"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="165"/>
       <c r="D9" s="245" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E9" s="245"/>
       <c r="F9" s="245"/>
       <c r="G9" s="155"/>
       <c r="H9" s="160"/>
       <c r="I9" s="245" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J9" s="245"/>
       <c r="K9" s="245"/>
@@ -39975,7 +39975,7 @@
       <c r="M9" s="153"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="155"/>
@@ -39990,7 +39990,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="117"/>
@@ -40009,7 +40009,7 @@
       <c r="M11" s="154"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="155"/>
@@ -40024,18 +40024,18 @@
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="164"/>
       <c r="D13" s="245" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E13" s="245"/>
       <c r="F13" s="245"/>
       <c r="G13" s="155"/>
       <c r="H13" s="161"/>
       <c r="I13" s="245" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J13" s="245"/>
       <c r="K13" s="245"/>
@@ -40043,7 +40043,7 @@
       <c r="M13" s="153"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="155"/>
@@ -40058,7 +40058,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:15" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="117"/>
@@ -40077,7 +40077,7 @@
       <c r="M15" s="154"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:15" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="155"/>
@@ -40092,7 +40092,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:20" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="117"/>
@@ -40111,7 +40111,7 @@
       <c r="M17" s="154"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:20" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="155"/>
@@ -40126,11 +40126,11 @@
       <c r="M18" s="16"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:20" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="163"/>
       <c r="D19" s="245" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E19" s="245"/>
       <c r="F19" s="245"/>
@@ -40145,7 +40145,7 @@
       <c r="M19" s="154"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:20" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="155"/>
@@ -40160,7 +40160,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:20" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="117"/>
@@ -40179,7 +40179,7 @@
       <c r="M21" s="154"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:20" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="155"/>
@@ -40194,7 +40194,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:20" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="117"/>
@@ -40215,7 +40215,7 @@
       <c r="S23" s="166"/>
       <c r="T23" s="166"/>
     </row>
-    <row r="24" spans="2:20" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="155"/>
@@ -40230,7 +40230,7 @@
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:20" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="117"/>
@@ -40241,7 +40241,7 @@
       <c r="G25" s="155"/>
       <c r="H25" s="162"/>
       <c r="I25" s="245" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="J25" s="245"/>
       <c r="K25" s="245"/>
@@ -40249,7 +40249,7 @@
       <c r="M25" s="153"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:20" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="155"/>
@@ -40264,7 +40264,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:20" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="117"/>
@@ -40283,7 +40283,7 @@
       <c r="M27" s="154"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:20" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="155"/>
@@ -40298,7 +40298,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:20" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="117"/>
@@ -40317,7 +40317,7 @@
       <c r="M29" s="154"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:20" s="10" customFormat="1" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="155"/>
@@ -40332,7 +40332,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:20" s="10" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="117"/>
@@ -40351,7 +40351,7 @@
       <c r="M31" s="154"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:20" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:20" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="155"/>
@@ -40366,7 +40366,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -40400,8 +40400,8 @@
       <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
     </row>
-    <row r="34" spans="2:33" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:33" s="22" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:33" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:33" s="22" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="24"/>
@@ -40444,46 +40444,46 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="9" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="88.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="18"/>
+    <col min="3" max="3" width="28.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="88.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="291" t="s">
         <v>44</v>
       </c>
@@ -40494,7 +40494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="180" t="s">
         <v>9</v>
       </c>
@@ -40502,10 +40502,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="236" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="180" t="s">
         <v>10</v>
       </c>
@@ -40513,10 +40513,10 @@
         <v>39</v>
       </c>
       <c r="D8" s="236" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="180" t="s">
         <v>10</v>
       </c>
@@ -40524,10 +40524,10 @@
         <v>40</v>
       </c>
       <c r="D9" s="236" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="180" t="s">
         <v>9</v>
       </c>
@@ -40536,7 +40536,7 @@
       </c>
       <c r="D10" s="235"/>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="180" t="s">
         <v>10</v>
       </c>
@@ -40544,10 +40544,10 @@
         <v>42</v>
       </c>
       <c r="D11" s="236" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="180" t="s">
         <v>9</v>
       </c>
@@ -40556,7 +40556,7 @@
       </c>
       <c r="D12" s="235"/>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="180" t="s">
         <v>10</v>
       </c>
@@ -40565,114 +40565,109 @@
       </c>
       <c r="D13" s="236"/>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="180"/>
       <c r="C14" s="235"/>
       <c r="D14" s="235"/>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="360" t="s">
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="362" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="361"/>
-      <c r="D16" s="362"/>
-    </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="342" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="364"/>
-      <c r="D17" s="343"/>
-    </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="363"/>
+      <c r="D16" s="364"/>
+    </row>
+    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="344" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="365"/>
+      <c r="D17" s="345"/>
+    </row>
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="340" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="363"/>
+        <v>246</v>
+      </c>
+      <c r="C18" s="361"/>
       <c r="D18" s="341"/>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="340" t="s">
-        <v>344</v>
-      </c>
-      <c r="C19" s="363"/>
+        <v>332</v>
+      </c>
+      <c r="C19" s="361"/>
       <c r="D19" s="341"/>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="340" t="s">
-        <v>257</v>
-      </c>
-      <c r="C20" s="363"/>
+        <v>247</v>
+      </c>
+      <c r="C20" s="361"/>
       <c r="D20" s="341"/>
     </row>
-    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="340"/>
-      <c r="C21" s="363"/>
+      <c r="C21" s="361"/>
       <c r="D21" s="341"/>
     </row>
-    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="340"/>
-      <c r="C22" s="363"/>
+      <c r="C22" s="361"/>
       <c r="D22" s="341"/>
     </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="340"/>
-      <c r="C23" s="363"/>
+      <c r="C23" s="361"/>
       <c r="D23" s="341"/>
     </row>
-    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="340"/>
-      <c r="C24" s="363"/>
+      <c r="C24" s="361"/>
       <c r="D24" s="341"/>
     </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="340"/>
-      <c r="C25" s="363"/>
+      <c r="C25" s="361"/>
       <c r="D25" s="341"/>
     </row>
-    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="340"/>
-      <c r="C26" s="363"/>
+      <c r="C26" s="361"/>
       <c r="D26" s="341"/>
     </row>
-    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="340"/>
-      <c r="C27" s="363"/>
+      <c r="C27" s="361"/>
       <c r="D27" s="341"/>
     </row>
-    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="340"/>
-      <c r="C28" s="363"/>
+      <c r="C28" s="361"/>
       <c r="D28" s="341"/>
     </row>
-    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340"/>
-      <c r="C29" s="363"/>
+      <c r="C29" s="361"/>
       <c r="D29" s="341"/>
     </row>
-    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340"/>
-      <c r="C30" s="363"/>
+      <c r="C30" s="361"/>
       <c r="D30" s="341"/>
     </row>
-    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="344"/>
-      <c r="C31" s="365"/>
-      <c r="D31" s="345"/>
+    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="338"/>
+      <c r="C31" s="360"/>
+      <c r="D31" s="339"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="UCGY9eszZs9CIViHMThBw7fwHHrsg74VWMxEdvt0AHxwFsPjJ4F5bHDEwJjqVw/86ZZUZWi5kfaxgDbTVsh5+A==" saltValue="sp2iB7I+4IjtyrsJwv1w1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B20:D20"/>
@@ -40684,6 +40679,11 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B14" xr:uid="{CF462609-70FD-4174-95B0-56CFEBAF0773}">
@@ -40711,51 +40711,51 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="18" customWidth="1"/>
-    <col min="3" max="5" width="30.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="18" customWidth="1"/>
+    <col min="3" max="5" width="30.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="293" t="s">
         <v>32</v>
       </c>
@@ -40763,133 +40763,133 @@
       <c r="D6" s="294"/>
       <c r="E6" s="296"/>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="297" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="297" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="371" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="371"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="182" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="183" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="370" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="366"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="182" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="183" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="370" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="366"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="182" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="183" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="370" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="366"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="182" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="183" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="370" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="366"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="182" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="366" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="366"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="182" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="183" t="s">
+      <c r="C12" s="183" t="s">
         <v>261</v>
       </c>
-      <c r="D8" s="367" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="368"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="182" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="183" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="367" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="368"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="182" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="183" t="s">
+      <c r="D12" s="370" t="s">
         <v>262</v>
       </c>
-      <c r="D10" s="367" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="368"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="182" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="183" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="367" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="368"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="182" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="183" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="367" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="368"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="366"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="181"/>
       <c r="C13" s="184"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="366"/>
+      <c r="E13" s="366"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="235"/>
       <c r="C14" s="184"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="235"/>
       <c r="C15" s="184"/>
-      <c r="D15" s="368"/>
-      <c r="E15" s="368"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="366"/>
+      <c r="E15" s="366"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="235"/>
       <c r="C16" s="184"/>
-      <c r="D16" s="368"/>
-      <c r="E16" s="368"/>
-    </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="366"/>
+      <c r="E16" s="366"/>
+    </row>
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="181"/>
       <c r="C17" s="184"/>
-      <c r="D17" s="368"/>
-      <c r="E17" s="368"/>
-    </row>
-    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="366"/>
+      <c r="E17" s="366"/>
+    </row>
+    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="181"/>
       <c r="C18" s="184"/>
-      <c r="D18" s="368"/>
-      <c r="E18" s="368"/>
-    </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="366"/>
+      <c r="E18" s="366"/>
+    </row>
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="181"/>
       <c r="C19" s="184"/>
-      <c r="D19" s="368"/>
-      <c r="E19" s="368"/>
-    </row>
-    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="366"/>
+      <c r="E19" s="366"/>
+    </row>
+    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="181"/>
       <c r="C20" s="184"/>
-      <c r="D20" s="368"/>
-      <c r="E20" s="368"/>
-    </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="366"/>
+      <c r="E20" s="366"/>
+    </row>
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="300"/>
       <c r="C21" s="300"/>
       <c r="D21" s="300"/>
       <c r="E21" s="300"/>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="293" t="s">
         <v>33</v>
       </c>
@@ -40897,7 +40897,7 @@
       <c r="D22" s="294"/>
       <c r="E22" s="295"/>
     </row>
-    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="298" t="s">
         <v>34</v>
       </c>
@@ -40905,15 +40905,15 @@
         <v>35</v>
       </c>
       <c r="D23" s="290" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E23" s="299" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="185" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C24" s="186">
         <v>5</v>
@@ -40926,9 +40926,9 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="188" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C25" s="189">
         <v>20</v>
@@ -40941,9 +40941,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="188" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C26" s="191">
         <v>10</v>
@@ -40956,9 +40956,9 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="188" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C27" s="189">
         <v>3</v>
@@ -40971,9 +40971,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="188" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C28" s="189">
         <v>8</v>
@@ -40986,7 +40986,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="192"/>
       <c r="C29" s="189"/>
       <c r="D29" s="190"/>
@@ -40995,7 +40995,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="192"/>
       <c r="C30" s="189"/>
       <c r="D30" s="190"/>
@@ -41004,7 +41004,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="192"/>
       <c r="C31" s="189"/>
       <c r="D31" s="334"/>
@@ -41013,7 +41013,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="192"/>
       <c r="C32" s="189"/>
       <c r="D32" s="190"/>
@@ -41022,7 +41022,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="192"/>
       <c r="C33" s="189"/>
       <c r="D33" s="190"/>
@@ -41031,7 +41031,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="192"/>
       <c r="C34" s="189"/>
       <c r="D34" s="190"/>
@@ -41040,7 +41040,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="192"/>
       <c r="C35" s="189"/>
       <c r="D35" s="190"/>
@@ -41049,7 +41049,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="192"/>
       <c r="C36" s="189"/>
       <c r="D36" s="190"/>
@@ -41058,7 +41058,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="192"/>
       <c r="C37" s="189"/>
       <c r="D37" s="190"/>
@@ -41067,7 +41067,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="193"/>
       <c r="C38" s="194"/>
       <c r="D38" s="335"/>
@@ -41076,7 +41076,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="121" t="s">
         <v>101</v>
       </c>
@@ -41093,124 +41093,124 @@
         <v>1110000</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="119"/>
       <c r="C40" s="119"/>
       <c r="D40" s="120"/>
       <c r="E40" s="120"/>
     </row>
-    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="360" t="s">
+    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="362" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="361"/>
-      <c r="D41" s="361"/>
-      <c r="E41" s="362"/>
-    </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="342" t="s">
-        <v>276</v>
-      </c>
-      <c r="C42" s="364"/>
-      <c r="D42" s="364"/>
-      <c r="E42" s="343"/>
-    </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="363"/>
+      <c r="D41" s="363"/>
+      <c r="E41" s="364"/>
+    </row>
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="344" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="365"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="345"/>
+    </row>
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="340" t="s">
-        <v>345</v>
-      </c>
-      <c r="C43" s="363"/>
-      <c r="D43" s="363"/>
+        <v>333</v>
+      </c>
+      <c r="C43" s="361"/>
+      <c r="D43" s="361"/>
       <c r="E43" s="341"/>
     </row>
-    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="340"/>
-      <c r="C44" s="363"/>
-      <c r="D44" s="363"/>
+      <c r="C44" s="361"/>
+      <c r="D44" s="361"/>
       <c r="E44" s="341"/>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="340"/>
-      <c r="C45" s="363"/>
-      <c r="D45" s="363"/>
+      <c r="C45" s="361"/>
+      <c r="D45" s="361"/>
       <c r="E45" s="341"/>
     </row>
-    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="340"/>
-      <c r="C46" s="363"/>
-      <c r="D46" s="363"/>
+      <c r="C46" s="361"/>
+      <c r="D46" s="361"/>
       <c r="E46" s="341"/>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="340"/>
-      <c r="C47" s="363"/>
-      <c r="D47" s="363"/>
+      <c r="C47" s="361"/>
+      <c r="D47" s="361"/>
       <c r="E47" s="341"/>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="340"/>
-      <c r="C48" s="363"/>
-      <c r="D48" s="363"/>
+      <c r="C48" s="361"/>
+      <c r="D48" s="361"/>
       <c r="E48" s="341"/>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="340"/>
-      <c r="C49" s="363"/>
-      <c r="D49" s="363"/>
+      <c r="C49" s="361"/>
+      <c r="D49" s="361"/>
       <c r="E49" s="341"/>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="340"/>
-      <c r="C50" s="363"/>
-      <c r="D50" s="363"/>
+      <c r="C50" s="361"/>
+      <c r="D50" s="361"/>
       <c r="E50" s="341"/>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="340"/>
-      <c r="C51" s="363"/>
-      <c r="D51" s="363"/>
+      <c r="C51" s="361"/>
+      <c r="D51" s="361"/>
       <c r="E51" s="341"/>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="340"/>
-      <c r="C52" s="363"/>
-      <c r="D52" s="363"/>
+      <c r="C52" s="361"/>
+      <c r="D52" s="361"/>
       <c r="E52" s="341"/>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="340"/>
-      <c r="C53" s="363"/>
-      <c r="D53" s="363"/>
+      <c r="C53" s="361"/>
+      <c r="D53" s="361"/>
       <c r="E53" s="341"/>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="340"/>
-      <c r="C54" s="363"/>
-      <c r="D54" s="363"/>
+      <c r="C54" s="361"/>
+      <c r="D54" s="361"/>
       <c r="E54" s="341"/>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="340"/>
-      <c r="C55" s="363"/>
-      <c r="D55" s="363"/>
+      <c r="C55" s="361"/>
+      <c r="D55" s="361"/>
       <c r="E55" s="341"/>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="369"/>
-      <c r="C56" s="370"/>
-      <c r="D56" s="370"/>
-      <c r="E56" s="371"/>
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="367"/>
+      <c r="C56" s="368"/>
+      <c r="D56" s="368"/>
+      <c r="E56" s="369"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="e4a8gfQMjh4F1WptukkvjE8HcYVgUpCGWf/8UGwKLcz+N4IzQLzinn0d6xUTcUbW9DX3QmFf2ogb9IrTdJp5gw==" saltValue="JUcmWnwf5nO+ZNUUF9Qhww==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="30">
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
@@ -41227,13 +41227,13 @@
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B46:E46"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41259,21 +41259,21 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="48" customWidth="1"/>
-    <col min="3" max="7" width="18.6640625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" style="48" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="48"/>
+    <col min="1" max="1" width="3.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="48" customWidth="1"/>
+    <col min="3" max="7" width="18.7109375" style="48" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="48" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -41281,9 +41281,9 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -41291,7 +41291,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -41300,7 +41300,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -41309,7 +41309,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="200" t="s">
         <v>103</v>
       </c>
@@ -41329,9 +41329,9 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="202" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C7" s="203">
         <v>1000000</v>
@@ -41349,9 +41349,9 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="188" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C8" s="190">
         <v>5000000</v>
@@ -41369,7 +41369,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="192"/>
       <c r="C9" s="190"/>
       <c r="D9" s="190"/>
@@ -41377,7 +41377,7 @@
       <c r="F9" s="190"/>
       <c r="G9" s="205"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="192"/>
       <c r="C10" s="190"/>
       <c r="D10" s="190"/>
@@ -41385,7 +41385,7 @@
       <c r="F10" s="190"/>
       <c r="G10" s="205"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="192"/>
       <c r="C11" s="190"/>
       <c r="D11" s="190"/>
@@ -41393,7 +41393,7 @@
       <c r="F11" s="190"/>
       <c r="G11" s="205"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="192"/>
       <c r="C12" s="190"/>
       <c r="D12" s="190"/>
@@ -41401,7 +41401,7 @@
       <c r="F12" s="190"/>
       <c r="G12" s="205"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="192"/>
       <c r="C13" s="190"/>
       <c r="D13" s="190"/>
@@ -41409,7 +41409,7 @@
       <c r="F13" s="190"/>
       <c r="G13" s="205"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="192"/>
       <c r="C14" s="190"/>
       <c r="D14" s="190"/>
@@ -41417,7 +41417,7 @@
       <c r="F14" s="190"/>
       <c r="G14" s="205"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="192"/>
       <c r="C15" s="190"/>
       <c r="D15" s="190"/>
@@ -41425,7 +41425,7 @@
       <c r="F15" s="190"/>
       <c r="G15" s="205"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="192"/>
       <c r="C16" s="190"/>
       <c r="D16" s="190"/>
@@ -41433,7 +41433,7 @@
       <c r="F16" s="190"/>
       <c r="G16" s="205"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="192"/>
       <c r="C17" s="190"/>
       <c r="D17" s="190"/>
@@ -41441,7 +41441,7 @@
       <c r="F17" s="190"/>
       <c r="G17" s="205"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="192"/>
       <c r="C18" s="190"/>
       <c r="D18" s="190"/>
@@ -41449,7 +41449,7 @@
       <c r="F18" s="190"/>
       <c r="G18" s="205"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="192"/>
       <c r="C19" s="190"/>
       <c r="D19" s="190"/>
@@ -41457,7 +41457,7 @@
       <c r="F19" s="190"/>
       <c r="G19" s="205"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="192"/>
       <c r="C20" s="190"/>
       <c r="D20" s="190"/>
@@ -41465,7 +41465,7 @@
       <c r="F20" s="190"/>
       <c r="G20" s="205"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="206"/>
       <c r="C21" s="207"/>
       <c r="D21" s="207"/>
@@ -41473,8 +41473,8 @@
       <c r="F21" s="207"/>
       <c r="G21" s="208"/>
     </row>
-    <row r="22" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="233" t="s">
         <v>105</v>
       </c>
@@ -41499,8 +41499,8 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="149" t="s">
         <v>107</v>
       </c>
@@ -41524,7 +41524,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="150" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" s="150" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="372" t="s">
         <v>106</v>
       </c>
@@ -41534,131 +41534,131 @@
       <c r="F27" s="373"/>
       <c r="G27" s="374"/>
     </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="342" t="s">
-        <v>279</v>
-      </c>
-      <c r="C28" s="364"/>
-      <c r="D28" s="364"/>
-      <c r="E28" s="364"/>
-      <c r="F28" s="364"/>
-      <c r="G28" s="343"/>
-    </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="344" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="365"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="365"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="345"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340" t="s">
-        <v>346</v>
-      </c>
-      <c r="C29" s="363"/>
-      <c r="D29" s="363"/>
-      <c r="E29" s="363"/>
-      <c r="F29" s="363"/>
+        <v>334</v>
+      </c>
+      <c r="C29" s="361"/>
+      <c r="D29" s="361"/>
+      <c r="E29" s="361"/>
+      <c r="F29" s="361"/>
       <c r="G29" s="341"/>
     </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340" t="s">
-        <v>347</v>
-      </c>
-      <c r="C30" s="363"/>
-      <c r="D30" s="363"/>
-      <c r="E30" s="363"/>
-      <c r="F30" s="363"/>
+        <v>335</v>
+      </c>
+      <c r="C30" s="361"/>
+      <c r="D30" s="361"/>
+      <c r="E30" s="361"/>
+      <c r="F30" s="361"/>
       <c r="G30" s="341"/>
     </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="340"/>
-      <c r="C31" s="363"/>
-      <c r="D31" s="363"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="363"/>
+      <c r="C31" s="361"/>
+      <c r="D31" s="361"/>
+      <c r="E31" s="361"/>
+      <c r="F31" s="361"/>
       <c r="G31" s="341"/>
     </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="340"/>
-      <c r="C32" s="363"/>
-      <c r="D32" s="363"/>
-      <c r="E32" s="363"/>
-      <c r="F32" s="363"/>
+      <c r="C32" s="361"/>
+      <c r="D32" s="361"/>
+      <c r="E32" s="361"/>
+      <c r="F32" s="361"/>
       <c r="G32" s="341"/>
     </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="340"/>
-      <c r="C33" s="363"/>
-      <c r="D33" s="363"/>
-      <c r="E33" s="363"/>
-      <c r="F33" s="363"/>
+      <c r="C33" s="361"/>
+      <c r="D33" s="361"/>
+      <c r="E33" s="361"/>
+      <c r="F33" s="361"/>
       <c r="G33" s="341"/>
     </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="340"/>
-      <c r="C34" s="363"/>
-      <c r="D34" s="363"/>
-      <c r="E34" s="363"/>
-      <c r="F34" s="363"/>
+      <c r="C34" s="361"/>
+      <c r="D34" s="361"/>
+      <c r="E34" s="361"/>
+      <c r="F34" s="361"/>
       <c r="G34" s="341"/>
     </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="340"/>
-      <c r="C35" s="363"/>
-      <c r="D35" s="363"/>
-      <c r="E35" s="363"/>
-      <c r="F35" s="363"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="361"/>
+      <c r="E35" s="361"/>
+      <c r="F35" s="361"/>
       <c r="G35" s="341"/>
     </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="340"/>
-      <c r="C36" s="363"/>
-      <c r="D36" s="363"/>
-      <c r="E36" s="363"/>
-      <c r="F36" s="363"/>
+      <c r="C36" s="361"/>
+      <c r="D36" s="361"/>
+      <c r="E36" s="361"/>
+      <c r="F36" s="361"/>
       <c r="G36" s="341"/>
     </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="340"/>
-      <c r="C37" s="363"/>
-      <c r="D37" s="363"/>
-      <c r="E37" s="363"/>
-      <c r="F37" s="363"/>
+      <c r="C37" s="361"/>
+      <c r="D37" s="361"/>
+      <c r="E37" s="361"/>
+      <c r="F37" s="361"/>
       <c r="G37" s="341"/>
     </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="340"/>
-      <c r="C38" s="363"/>
-      <c r="D38" s="363"/>
-      <c r="E38" s="363"/>
-      <c r="F38" s="363"/>
+      <c r="C38" s="361"/>
+      <c r="D38" s="361"/>
+      <c r="E38" s="361"/>
+      <c r="F38" s="361"/>
       <c r="G38" s="341"/>
     </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="340"/>
-      <c r="C39" s="363"/>
-      <c r="D39" s="363"/>
-      <c r="E39" s="363"/>
-      <c r="F39" s="363"/>
+      <c r="C39" s="361"/>
+      <c r="D39" s="361"/>
+      <c r="E39" s="361"/>
+      <c r="F39" s="361"/>
       <c r="G39" s="341"/>
     </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="340"/>
-      <c r="C40" s="363"/>
-      <c r="D40" s="363"/>
-      <c r="E40" s="363"/>
-      <c r="F40" s="363"/>
+      <c r="C40" s="361"/>
+      <c r="D40" s="361"/>
+      <c r="E40" s="361"/>
+      <c r="F40" s="361"/>
       <c r="G40" s="341"/>
     </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="340"/>
-      <c r="C41" s="363"/>
-      <c r="D41" s="363"/>
-      <c r="E41" s="363"/>
-      <c r="F41" s="363"/>
+      <c r="C41" s="361"/>
+      <c r="D41" s="361"/>
+      <c r="E41" s="361"/>
+      <c r="F41" s="361"/>
       <c r="G41" s="341"/>
     </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="344"/>
-      <c r="C42" s="365"/>
-      <c r="D42" s="365"/>
-      <c r="E42" s="365"/>
-      <c r="F42" s="365"/>
-      <c r="G42" s="345"/>
+    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="338"/>
+      <c r="C42" s="360"/>
+      <c r="D42" s="360"/>
+      <c r="E42" s="360"/>
+      <c r="F42" s="360"/>
+      <c r="G42" s="339"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fQP+Jv3I/2eakwwoAbpnp38SkuAQCSBy9ZRWJ7AYqMbhBRa3xGQ0yEaEypBQp9PF9wx2ZNLoQfQHD2WqBfYWnA==" saltValue="jvb+VeOyKduV2x6Yw6QtYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -41701,23 +41701,23 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="18" customWidth="1"/>
-    <col min="4" max="8" width="18.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="18" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -41727,9 +41727,9 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -41739,21 +41739,21 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -41763,7 +41763,7 @@
       <c r="H6" s="72"/>
       <c r="I6" s="73"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="74"/>
       <c r="C7" s="70"/>
       <c r="D7" s="311">
@@ -41783,7 +41783,7 @@
       </c>
       <c r="I7" s="75"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
       <c r="C8" s="307" t="s">
         <v>116</v>
@@ -41795,7 +41795,7 @@
       <c r="H8" s="308"/>
       <c r="I8" s="75"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="74"/>
       <c r="C9" s="210" t="s">
         <v>108</v>
@@ -41817,7 +41817,7 @@
       </c>
       <c r="I9" s="75"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74"/>
       <c r="C10" s="211" t="s">
         <v>110</v>
@@ -41839,7 +41839,7 @@
       </c>
       <c r="I10" s="75"/>
     </row>
-    <row r="11" spans="1:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74"/>
       <c r="C11" s="129"/>
       <c r="D11" s="303"/>
@@ -41849,7 +41849,7 @@
       <c r="H11" s="303"/>
       <c r="I11" s="75"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="74"/>
       <c r="C12" s="134" t="s">
         <v>111</v>
@@ -41876,7 +41876,7 @@
       </c>
       <c r="I12" s="75"/>
     </row>
-    <row r="13" spans="1:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74"/>
       <c r="C13" s="135"/>
       <c r="D13" s="305"/>
@@ -41886,7 +41886,7 @@
       <c r="H13" s="305"/>
       <c r="I13" s="75"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="74"/>
       <c r="C14" s="210" t="s">
         <v>113</v>
@@ -41908,7 +41908,7 @@
       </c>
       <c r="I14" s="75"/>
     </row>
-    <row r="15" spans="1:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="74"/>
       <c r="C15" s="129"/>
       <c r="D15" s="303"/>
@@ -41918,7 +41918,7 @@
       <c r="H15" s="303"/>
       <c r="I15" s="75"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="74"/>
       <c r="C16" s="134" t="s">
         <v>117</v>
@@ -41945,7 +41945,7 @@
       </c>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="74"/>
       <c r="C17" s="129"/>
       <c r="D17" s="303"/>
@@ -41955,7 +41955,7 @@
       <c r="H17" s="303"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74"/>
       <c r="C18" s="307" t="s">
         <v>115</v>
@@ -41967,7 +41967,7 @@
       <c r="H18" s="309"/>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="74"/>
       <c r="C19" s="212" t="s">
         <v>50</v>
@@ -41989,7 +41989,7 @@
       </c>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
       <c r="C20" s="211" t="s">
         <v>51</v>
@@ -42011,7 +42011,7 @@
       </c>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="74"/>
       <c r="C21" s="211" t="s">
         <v>30</v>
@@ -42033,7 +42033,7 @@
       </c>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="211" t="s">
         <v>52</v>
@@ -42055,7 +42055,7 @@
       </c>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="211" t="s">
         <v>53</v>
@@ -42077,7 +42077,7 @@
       </c>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="211" t="s">
         <v>54</v>
@@ -42099,7 +42099,7 @@
       </c>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="211" t="s">
         <v>55</v>
@@ -42111,7 +42111,7 @@
       <c r="H25" s="302"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="74"/>
       <c r="C26" s="211" t="s">
         <v>56</v>
@@ -42123,7 +42123,7 @@
       <c r="H26" s="302"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="74"/>
       <c r="C27" s="211" t="s">
         <v>57</v>
@@ -42135,7 +42135,7 @@
       <c r="H27" s="302"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="74"/>
       <c r="C28" s="211" t="s">
         <v>58</v>
@@ -42147,7 +42147,7 @@
       <c r="H28" s="302"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="74"/>
       <c r="C29" s="211" t="s">
         <v>59</v>
@@ -42159,7 +42159,7 @@
       <c r="H29" s="302"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="74"/>
       <c r="C30" s="211" t="s">
         <v>60</v>
@@ -42171,7 +42171,7 @@
       <c r="H30" s="302"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="74"/>
       <c r="C31" s="211" t="s">
         <v>61</v>
@@ -42183,7 +42183,7 @@
       <c r="H31" s="302"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="74"/>
       <c r="C32" s="211" t="s">
         <v>62</v>
@@ -42195,7 +42195,7 @@
       <c r="H32" s="302"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="74"/>
       <c r="C33" s="211" t="s">
         <v>63</v>
@@ -42207,7 +42207,7 @@
       <c r="H33" s="302"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="74"/>
       <c r="C34" s="211" t="s">
         <v>53</v>
@@ -42219,7 +42219,7 @@
       <c r="H34" s="302"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="74"/>
       <c r="C35" s="211" t="s">
         <v>64</v>
@@ -42231,7 +42231,7 @@
       <c r="H35" s="302"/>
       <c r="I35" s="75"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="74"/>
       <c r="C36" s="211" t="s">
         <v>65</v>
@@ -42243,7 +42243,7 @@
       <c r="H36" s="302"/>
       <c r="I36" s="75"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="74"/>
       <c r="C37" s="211"/>
       <c r="D37" s="302"/>
@@ -42253,7 +42253,7 @@
       <c r="H37" s="302"/>
       <c r="I37" s="75"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="74"/>
       <c r="C38" s="211"/>
       <c r="D38" s="302"/>
@@ -42263,7 +42263,7 @@
       <c r="H38" s="302"/>
       <c r="I38" s="75"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="74"/>
       <c r="C39" s="211"/>
       <c r="D39" s="302"/>
@@ -42273,7 +42273,7 @@
       <c r="H39" s="302"/>
       <c r="I39" s="75"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="74"/>
       <c r="C40" s="211"/>
       <c r="D40" s="302"/>
@@ -42283,7 +42283,7 @@
       <c r="H40" s="302"/>
       <c r="I40" s="75"/>
     </row>
-    <row r="41" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="74"/>
       <c r="C41" s="129"/>
       <c r="D41" s="303"/>
@@ -42293,7 +42293,7 @@
       <c r="H41" s="303"/>
       <c r="I41" s="75"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
       <c r="C42" s="134" t="s">
         <v>112</v>
@@ -42320,7 +42320,7 @@
       </c>
       <c r="I42" s="75"/>
     </row>
-    <row r="43" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="74"/>
       <c r="C43" s="129"/>
       <c r="D43" s="303"/>
@@ -42330,7 +42330,7 @@
       <c r="H43" s="303"/>
       <c r="I43" s="75"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="74"/>
       <c r="C44" s="134" t="s">
         <v>118</v>
@@ -42357,7 +42357,7 @@
       </c>
       <c r="I44" s="75"/>
     </row>
-    <row r="45" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="74"/>
       <c r="C45" s="129"/>
       <c r="D45" s="303"/>
@@ -42367,7 +42367,7 @@
       <c r="H45" s="303"/>
       <c r="I45" s="75"/>
     </row>
-    <row r="46" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="74"/>
       <c r="C46" s="307" t="s">
         <v>114</v>
@@ -42379,7 +42379,7 @@
       <c r="H46" s="309"/>
       <c r="I46" s="75"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="74"/>
       <c r="C47" s="212" t="s">
         <v>47</v>
@@ -42401,7 +42401,7 @@
       </c>
       <c r="I47" s="75"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="74"/>
       <c r="C48" s="211" t="s">
         <v>48</v>
@@ -42413,7 +42413,7 @@
       <c r="H48" s="302"/>
       <c r="I48" s="75"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="74"/>
       <c r="C49" s="211" t="s">
         <v>49</v>
@@ -42425,7 +42425,7 @@
       <c r="H49" s="302"/>
       <c r="I49" s="75"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="74"/>
       <c r="C50" s="129"/>
       <c r="D50" s="303"/>
@@ -42435,7 +42435,7 @@
       <c r="H50" s="303"/>
       <c r="I50" s="75"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="74"/>
       <c r="C51" s="134" t="s">
         <v>119</v>
@@ -42462,7 +42462,7 @@
       </c>
       <c r="I51" s="75"/>
     </row>
-    <row r="52" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="74"/>
       <c r="C52" s="129"/>
       <c r="D52" s="303"/>
@@ -42472,7 +42472,7 @@
       <c r="H52" s="303"/>
       <c r="I52" s="75"/>
     </row>
-    <row r="53" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="74"/>
       <c r="C53" s="307" t="s">
         <v>67</v>
@@ -42484,7 +42484,7 @@
       <c r="H53" s="309"/>
       <c r="I53" s="76"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="74"/>
       <c r="C54" s="212" t="s">
         <v>68</v>
@@ -42506,7 +42506,7 @@
       </c>
       <c r="I54" s="75"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="74"/>
       <c r="C55" s="211" t="s">
         <v>121</v>
@@ -42518,7 +42518,7 @@
       <c r="H55" s="302"/>
       <c r="I55" s="75"/>
     </row>
-    <row r="56" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="74"/>
       <c r="C56" s="129"/>
       <c r="D56" s="303"/>
@@ -42528,7 +42528,7 @@
       <c r="H56" s="303"/>
       <c r="I56" s="75"/>
     </row>
-    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="74"/>
       <c r="C57" s="134" t="s">
         <v>122</v>
@@ -42555,7 +42555,7 @@
       </c>
       <c r="I57" s="75"/>
     </row>
-    <row r="58" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="74"/>
       <c r="C58" s="129"/>
       <c r="D58" s="303"/>
@@ -42565,7 +42565,7 @@
       <c r="H58" s="303"/>
       <c r="I58" s="75"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="74"/>
       <c r="C59" s="134" t="s">
         <v>120</v>
@@ -42592,7 +42592,7 @@
       </c>
       <c r="I59" s="75"/>
     </row>
-    <row r="60" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="77"/>
       <c r="C60" s="78"/>
       <c r="D60" s="78"/>
@@ -42625,21 +42625,21 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="18" customWidth="1"/>
-    <col min="4" max="8" width="18.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="18" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
@@ -42649,9 +42649,9 @@
       <c r="H2" s="219"/>
       <c r="I2" s="219"/>
     </row>
-    <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -42661,15 +42661,15 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -42679,7 +42679,7 @@
       <c r="H6" s="72"/>
       <c r="I6" s="73"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="74"/>
       <c r="C7" s="70"/>
       <c r="D7" s="311">
@@ -42699,7 +42699,7 @@
       </c>
       <c r="I7" s="75"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
       <c r="C8" s="307" t="s">
         <v>69</v>
@@ -42711,7 +42711,7 @@
       <c r="H8" s="308"/>
       <c r="I8" s="75"/>
     </row>
-    <row r="9" spans="1:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="74"/>
       <c r="C9" s="129"/>
       <c r="D9" s="82"/>
@@ -42721,7 +42721,7 @@
       <c r="H9" s="82"/>
       <c r="I9" s="75"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74"/>
       <c r="C10" s="126" t="s">
         <v>123</v>
@@ -42733,7 +42733,7 @@
       <c r="H10" s="81"/>
       <c r="I10" s="75"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="213" t="s">
         <v>124</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="214" t="s">
         <v>139</v>
@@ -42777,7 +42777,7 @@
       </c>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="214" t="s">
         <v>140</v>
@@ -42789,7 +42789,7 @@
       <c r="H13" s="313"/>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="214" t="s">
         <v>142</v>
@@ -42801,7 +42801,7 @@
       <c r="H14" s="313"/>
       <c r="I14" s="60"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="59"/>
       <c r="C15" s="130" t="s">
         <v>125</v>
@@ -42828,7 +42828,7 @@
       </c>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
       <c r="C16" s="131"/>
       <c r="D16" s="315"/>
@@ -42838,7 +42838,7 @@
       <c r="H16" s="315"/>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="59"/>
       <c r="C17" s="126" t="s">
         <v>126</v>
@@ -42850,7 +42850,7 @@
       <c r="H17" s="316"/>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
       <c r="C18" s="214" t="s">
         <v>127</v>
@@ -42872,7 +42872,7 @@
       </c>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="C19" s="214" t="s">
         <v>128</v>
@@ -42894,7 +42894,7 @@
       </c>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="132" t="s">
         <v>129</v>
@@ -42921,7 +42921,7 @@
       </c>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
       <c r="C21" s="131"/>
       <c r="D21" s="315"/>
@@ -42931,7 +42931,7 @@
       <c r="H21" s="315"/>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="59"/>
       <c r="C22" s="133" t="s">
         <v>71</v>
@@ -42958,7 +42958,7 @@
       </c>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" spans="2:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
       <c r="C23" s="131"/>
       <c r="D23" s="315"/>
@@ -42968,7 +42968,7 @@
       <c r="H23" s="315"/>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="59"/>
       <c r="C24" s="307" t="s">
         <v>70</v>
@@ -42980,7 +42980,7 @@
       <c r="H24" s="309"/>
       <c r="I24" s="60"/>
     </row>
-    <row r="25" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59"/>
       <c r="C25" s="131"/>
       <c r="D25" s="315"/>
@@ -42990,7 +42990,7 @@
       <c r="H25" s="315"/>
       <c r="I25" s="60"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
       <c r="C26" s="126" t="s">
         <v>130</v>
@@ -43002,7 +43002,7 @@
       <c r="H26" s="316"/>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="59"/>
       <c r="C27" s="215" t="s">
         <v>131</v>
@@ -43024,7 +43024,7 @@
       </c>
       <c r="I27" s="60"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="214" t="s">
         <v>141</v>
@@ -43046,7 +43046,7 @@
       </c>
       <c r="I28" s="60"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="59"/>
       <c r="C29" s="214" t="s">
         <v>132</v>
@@ -43058,7 +43058,7 @@
       <c r="H29" s="313"/>
       <c r="I29" s="60"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="132" t="s">
         <v>133</v>
@@ -43085,7 +43085,7 @@
       </c>
       <c r="I30" s="60"/>
     </row>
-    <row r="31" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
       <c r="C31" s="131"/>
       <c r="D31" s="315"/>
@@ -43095,7 +43095,7 @@
       <c r="H31" s="315"/>
       <c r="I31" s="60"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="126" t="s">
         <v>136</v>
@@ -43107,7 +43107,7 @@
       <c r="H32" s="316"/>
       <c r="I32" s="60"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="59"/>
       <c r="C33" s="214" t="s">
         <v>134</v>
@@ -43129,7 +43129,7 @@
       </c>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="59"/>
       <c r="C34" s="216" t="s">
         <v>146</v>
@@ -43141,7 +43141,7 @@
       <c r="H34" s="313"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="59"/>
       <c r="C35" s="132" t="s">
         <v>135</v>
@@ -43168,7 +43168,7 @@
       </c>
       <c r="I35" s="60"/>
     </row>
-    <row r="36" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="59"/>
       <c r="C36" s="131"/>
       <c r="D36" s="315"/>
@@ -43178,7 +43178,7 @@
       <c r="H36" s="315"/>
       <c r="I36" s="60"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="59"/>
       <c r="C37" s="126" t="s">
         <v>143</v>
@@ -43190,7 +43190,7 @@
       <c r="H37" s="316"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="59"/>
       <c r="C38" s="214" t="s">
         <v>144</v>
@@ -43212,7 +43212,7 @@
       </c>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="59"/>
       <c r="C39" s="214" t="s">
         <v>137</v>
@@ -43224,7 +43224,7 @@
       <c r="H39" s="313"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="59"/>
       <c r="C40" s="214" t="s">
         <v>138</v>
@@ -43236,7 +43236,7 @@
       <c r="H40" s="313"/>
       <c r="I40" s="60"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="132" t="s">
         <v>145</v>
@@ -43263,7 +43263,7 @@
       </c>
       <c r="I41" s="60"/>
     </row>
-    <row r="42" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="59"/>
       <c r="C42" s="131"/>
       <c r="D42" s="315"/>
@@ -43273,7 +43273,7 @@
       <c r="H42" s="315"/>
       <c r="I42" s="60"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="59"/>
       <c r="C43" s="133" t="s">
         <v>72</v>
@@ -43300,7 +43300,7 @@
       </c>
       <c r="I43" s="60"/>
     </row>
-    <row r="44" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
       <c r="C44" s="62"/>
       <c r="D44" s="62"/>
@@ -43333,23 +43333,23 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="56" customWidth="1"/>
-    <col min="4" max="8" width="18.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="56" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="52"/>
     </row>
-    <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="226"/>
@@ -43359,9 +43359,9 @@
       <c r="H2" s="226"/>
       <c r="I2" s="226"/>
     </row>
-    <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="53"/>
@@ -43371,17 +43371,17 @@
       <c r="H3" s="53"/>
       <c r="I3" s="53"/>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="54"/>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="55"/>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="58"/>
       <c r="C6" s="84"/>
@@ -43392,7 +43392,7 @@
       <c r="H6" s="67"/>
       <c r="I6" s="68"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="59"/>
       <c r="C7" s="70"/>
       <c r="D7" s="311">
@@ -43412,7 +43412,7 @@
       </c>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="59"/>
       <c r="C8" s="307" t="s">
         <v>184</v>
@@ -43424,7 +43424,7 @@
       <c r="H8" s="310"/>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="59"/>
       <c r="C9" s="122"/>
       <c r="D9" s="65"/>
@@ -43434,7 +43434,7 @@
       <c r="H9" s="65"/>
       <c r="I9" s="60"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="123" t="s">
         <v>147</v>
@@ -43446,7 +43446,7 @@
       <c r="H10" s="85"/>
       <c r="I10" s="60"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="217" t="s">
         <v>109</v>
@@ -43468,7 +43468,7 @@
       </c>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="217" t="s">
         <v>148</v>
@@ -43480,7 +43480,7 @@
       <c r="H12" s="313"/>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="130" t="s">
         <v>153</v>
@@ -43507,7 +43507,7 @@
       </c>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="125" t="s">
         <v>73</v>
@@ -43519,7 +43519,7 @@
       <c r="H14" s="315"/>
       <c r="I14" s="60"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="59"/>
       <c r="C15" s="123" t="s">
         <v>149</v>
@@ -43531,7 +43531,7 @@
       <c r="H15" s="318"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
       <c r="C16" s="217" t="s">
         <v>150</v>
@@ -43553,7 +43553,7 @@
       </c>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="59"/>
       <c r="C17" s="217" t="s">
         <v>50</v>
@@ -43575,7 +43575,7 @@
       </c>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
       <c r="C18" s="217" t="s">
         <v>151</v>
@@ -43597,7 +43597,7 @@
       </c>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="C19" s="217" t="s">
         <v>200</v>
@@ -43619,7 +43619,7 @@
       </c>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="217" t="s">
         <v>68</v>
@@ -43641,7 +43641,7 @@
       </c>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
       <c r="C21" s="124" t="s">
         <v>152</v>
@@ -43668,7 +43668,7 @@
       </c>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="59"/>
       <c r="C22" s="122"/>
       <c r="D22" s="315"/>
@@ -43678,7 +43678,7 @@
       <c r="H22" s="315"/>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
       <c r="C23" s="126" t="s">
         <v>154</v>
@@ -43705,7 +43705,7 @@
       </c>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="59"/>
       <c r="C24" s="122"/>
       <c r="D24" s="315"/>
@@ -43715,7 +43715,7 @@
       <c r="H24" s="315"/>
       <c r="I24" s="60"/>
     </row>
-    <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
       <c r="C25" s="307" t="s">
         <v>185</v>
@@ -43727,7 +43727,7 @@
       <c r="H25" s="309"/>
       <c r="I25" s="60"/>
     </row>
-    <row r="26" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
       <c r="C26" s="122"/>
       <c r="D26" s="315"/>
@@ -43737,7 +43737,7 @@
       <c r="H26" s="315"/>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="59"/>
       <c r="C27" s="123" t="s">
         <v>155</v>
@@ -43749,7 +43749,7 @@
       <c r="H27" s="318"/>
       <c r="I27" s="60"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="217" t="s">
         <v>156</v>
@@ -43771,7 +43771,7 @@
       </c>
       <c r="I28" s="60"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="59"/>
       <c r="C29" s="217" t="s">
         <v>157</v>
@@ -43783,7 +43783,7 @@
       <c r="H29" s="313"/>
       <c r="I29" s="60"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="217" t="s">
         <v>158</v>
@@ -43795,7 +43795,7 @@
       <c r="H30" s="313"/>
       <c r="I30" s="60"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
       <c r="C31" s="217" t="s">
         <v>201</v>
@@ -43807,7 +43807,7 @@
       <c r="H31" s="313"/>
       <c r="I31" s="60"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="217" t="s">
         <v>159</v>
@@ -43819,7 +43819,7 @@
       <c r="H32" s="313"/>
       <c r="I32" s="60"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="59"/>
       <c r="C33" s="130" t="s">
         <v>166</v>
@@ -43846,7 +43846,7 @@
       </c>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="59"/>
       <c r="C34" s="125" t="s">
         <v>73</v>
@@ -43858,7 +43858,7 @@
       <c r="H34" s="315"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="59"/>
       <c r="C35" s="123" t="s">
         <v>160</v>
@@ -43870,7 +43870,7 @@
       <c r="H35" s="318"/>
       <c r="I35" s="60"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="59"/>
       <c r="C36" s="217" t="s">
         <v>161</v>
@@ -43892,7 +43892,7 @@
       </c>
       <c r="I36" s="60"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="59"/>
       <c r="C37" s="217" t="s">
         <v>162</v>
@@ -43904,7 +43904,7 @@
       <c r="H37" s="313"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="59"/>
       <c r="C38" s="217" t="s">
         <v>163</v>
@@ -43916,7 +43916,7 @@
       <c r="H38" s="313"/>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="59"/>
       <c r="C39" s="217" t="s">
         <v>164</v>
@@ -43928,7 +43928,7 @@
       <c r="H39" s="313"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="59"/>
       <c r="C40" s="217" t="s">
         <v>165</v>
@@ -43940,7 +43940,7 @@
       <c r="H40" s="313"/>
       <c r="I40" s="60"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="130" t="s">
         <v>168</v>
@@ -43967,7 +43967,7 @@
       </c>
       <c r="I41" s="60"/>
     </row>
-    <row r="42" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="59"/>
       <c r="C42" s="122"/>
       <c r="D42" s="315"/>
@@ -43977,7 +43977,7 @@
       <c r="H42" s="315"/>
       <c r="I42" s="60"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="59"/>
       <c r="C43" s="126" t="s">
         <v>167</v>
@@ -44004,7 +44004,7 @@
       </c>
       <c r="I43" s="60"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="59"/>
       <c r="C44" s="125" t="s">
         <v>73</v>
@@ -44016,7 +44016,7 @@
       <c r="H44" s="315"/>
       <c r="I44" s="60"/>
     </row>
-    <row r="45" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="59"/>
       <c r="C45" s="307" t="s">
         <v>186</v>
@@ -44028,7 +44028,7 @@
       <c r="H45" s="309"/>
       <c r="I45" s="60"/>
     </row>
-    <row r="46" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="59"/>
       <c r="C46" s="127"/>
       <c r="D46" s="320"/>
@@ -44038,7 +44038,7 @@
       <c r="H46" s="320"/>
       <c r="I46" s="60"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="59"/>
       <c r="C47" s="123" t="s">
         <v>169</v>
@@ -44050,7 +44050,7 @@
       <c r="H47" s="318"/>
       <c r="I47" s="60"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="59"/>
       <c r="C48" s="217" t="s">
         <v>170</v>
@@ -44072,7 +44072,7 @@
       </c>
       <c r="I48" s="60"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="59"/>
       <c r="C49" s="217" t="s">
         <v>171</v>
@@ -44084,7 +44084,7 @@
       <c r="H49" s="313"/>
       <c r="I49" s="60"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="59"/>
       <c r="C50" s="217" t="s">
         <v>172</v>
@@ -44096,7 +44096,7 @@
       <c r="H50" s="313"/>
       <c r="I50" s="60"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="59"/>
       <c r="C51" s="130" t="s">
         <v>181</v>
@@ -44123,7 +44123,7 @@
       </c>
       <c r="I51" s="60"/>
     </row>
-    <row r="52" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="59"/>
       <c r="C52" s="125" t="s">
         <v>73</v>
@@ -44135,7 +44135,7 @@
       <c r="H52" s="315"/>
       <c r="I52" s="60"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="59"/>
       <c r="C53" s="123" t="s">
         <v>173</v>
@@ -44147,7 +44147,7 @@
       <c r="H53" s="318"/>
       <c r="I53" s="60"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="59"/>
       <c r="C54" s="217" t="s">
         <v>174</v>
@@ -44169,7 +44169,7 @@
       </c>
       <c r="I54" s="60"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="59"/>
       <c r="C55" s="217" t="s">
         <v>175</v>
@@ -44191,7 +44191,7 @@
       </c>
       <c r="I55" s="60"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="59"/>
       <c r="C56" s="217" t="s">
         <v>176</v>
@@ -44203,7 +44203,7 @@
       <c r="H56" s="313"/>
       <c r="I56" s="60"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="59"/>
       <c r="C57" s="217" t="s">
         <v>177</v>
@@ -44215,7 +44215,7 @@
       <c r="H57" s="313"/>
       <c r="I57" s="60"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="59"/>
       <c r="C58" s="217" t="s">
         <v>178</v>
@@ -44227,7 +44227,7 @@
       <c r="H58" s="313"/>
       <c r="I58" s="60"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
       <c r="C59" s="130" t="s">
         <v>180</v>
@@ -44254,7 +44254,7 @@
       </c>
       <c r="I59" s="60"/>
     </row>
-    <row r="60" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="122"/>
       <c r="D60" s="315"/>
@@ -44264,7 +44264,7 @@
       <c r="H60" s="315"/>
       <c r="I60" s="60"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
       <c r="C61" s="126" t="s">
         <v>179</v>
@@ -44291,7 +44291,7 @@
       </c>
       <c r="I61" s="60"/>
     </row>
-    <row r="62" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59"/>
       <c r="C62" s="122"/>
       <c r="D62" s="315"/>
@@ -44301,7 +44301,7 @@
       <c r="H62" s="315"/>
       <c r="I62" s="60"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
       <c r="C63" s="128" t="s">
         <v>182</v>
@@ -44328,10 +44328,10 @@
       </c>
       <c r="I63" s="60"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
       <c r="C64" s="217" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D64" s="313">
         <v>1000000</v>
@@ -44342,7 +44342,7 @@
       <c r="H64" s="313"/>
       <c r="I64" s="60"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
       <c r="C65" s="123" t="s">
         <v>183</v>
@@ -44369,7 +44369,7 @@
       </c>
       <c r="I65" s="60"/>
     </row>
-    <row r="66" spans="2:9" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="61"/>
       <c r="C66" s="83"/>
       <c r="D66" s="69"/>
@@ -44379,7 +44379,7 @@
       <c r="H66" s="62"/>
       <c r="I66" s="63"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C67" s="50"/>
       <c r="D67" s="49"/>
       <c r="E67" s="49"/>
@@ -44409,38 +44409,38 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="18" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" style="18" customWidth="1"/>
-    <col min="19" max="20" width="2.6640625" style="18" customWidth="1"/>
-    <col min="21" max="21" width="3.6640625" style="18" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="18" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="18" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="18" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="18" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="18" customWidth="1"/>
+    <col min="19" max="20" width="2.7109375" style="18" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="26"/>
@@ -44461,9 +44461,9 @@
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="6"/>
@@ -44484,7 +44484,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -44495,7 +44495,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:26" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -44506,7 +44506,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
@@ -44527,7 +44527,7 @@
       <c r="S6" s="67"/>
       <c r="T6" s="68"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="59"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
@@ -44548,7 +44548,7 @@
       <c r="S7" s="89"/>
       <c r="T7" s="60"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="59"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
@@ -44569,7 +44569,7 @@
       <c r="S8" s="91"/>
       <c r="T8" s="60"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="59"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
@@ -44595,7 +44595,7 @@
       <c r="Y9" s="64"/>
       <c r="Z9" s="64"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="114" t="s">
         <v>192</v>
@@ -44630,7 +44630,7 @@
       <c r="S10" s="91"/>
       <c r="T10" s="60"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="115" t="s">
         <v>193</v>
@@ -44665,7 +44665,7 @@
       <c r="S11" s="91"/>
       <c r="T11" s="60"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="115" t="s">
         <v>194</v>
@@ -44700,7 +44700,7 @@
       <c r="S12" s="91"/>
       <c r="T12" s="60"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="115" t="s">
         <v>195</v>
@@ -44735,7 +44735,7 @@
       <c r="S13" s="91"/>
       <c r="T13" s="60"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="116" t="s">
         <v>196</v>
@@ -44770,7 +44770,7 @@
       <c r="S14" s="91"/>
       <c r="T14" s="60"/>
     </row>
-    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="59"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -44791,7 +44791,7 @@
       <c r="S15" s="92"/>
       <c r="T15" s="60"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -44812,7 +44812,7 @@
       <c r="S16" s="47"/>
       <c r="T16" s="60"/>
     </row>
-    <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="59"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -44833,7 +44833,7 @@
       <c r="S17" s="47"/>
       <c r="T17" s="60"/>
     </row>
-    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -44854,7 +44854,7 @@
       <c r="S18" s="47"/>
       <c r="T18" s="60"/>
     </row>
-    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -44875,7 +44875,7 @@
       <c r="S19" s="47"/>
       <c r="T19" s="60"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -44896,7 +44896,7 @@
       <c r="S20" s="47"/>
       <c r="T20" s="60"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -44917,7 +44917,7 @@
       <c r="S21" s="47"/>
       <c r="T21" s="60"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="59"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -44938,7 +44938,7 @@
       <c r="S22" s="47"/>
       <c r="T22" s="60"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -44959,7 +44959,7 @@
       <c r="S23" s="47"/>
       <c r="T23" s="60"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="59"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -44980,7 +44980,7 @@
       <c r="S24" s="47"/>
       <c r="T24" s="60"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="59"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -45001,7 +45001,7 @@
       <c r="S25" s="47"/>
       <c r="T25" s="60"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -45022,7 +45022,7 @@
       <c r="S26" s="47"/>
       <c r="T26" s="60"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="59"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -45043,7 +45043,7 @@
       <c r="S27" s="47"/>
       <c r="T27" s="60"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -45064,7 +45064,7 @@
       <c r="S28" s="47"/>
       <c r="T28" s="60"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="59"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -45085,7 +45085,7 @@
       <c r="S29" s="47"/>
       <c r="T29" s="60"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -45106,7 +45106,7 @@
       <c r="S30" s="47"/>
       <c r="T30" s="60"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -45127,7 +45127,7 @@
       <c r="S31" s="47"/>
       <c r="T31" s="60"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -45148,7 +45148,7 @@
       <c r="S32" s="47"/>
       <c r="T32" s="60"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="59"/>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -45169,7 +45169,7 @@
       <c r="S33" s="47"/>
       <c r="T33" s="60"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="59"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -45190,7 +45190,7 @@
       <c r="S34" s="47"/>
       <c r="T34" s="60"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="59"/>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -45211,7 +45211,7 @@
       <c r="S35" s="47"/>
       <c r="T35" s="60"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="59"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -45232,7 +45232,7 @@
       <c r="S36" s="47"/>
       <c r="T36" s="60"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="59"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -45253,7 +45253,7 @@
       <c r="S37" s="47"/>
       <c r="T37" s="60"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="59"/>
       <c r="C38" s="47"/>
       <c r="D38" s="47"/>
@@ -45274,7 +45274,7 @@
       <c r="S38" s="47"/>
       <c r="T38" s="60"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="59"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -45295,7 +45295,7 @@
       <c r="S39" s="47"/>
       <c r="T39" s="60"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="59"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -45316,7 +45316,7 @@
       <c r="S40" s="47"/>
       <c r="T40" s="60"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
@@ -45337,7 +45337,7 @@
       <c r="S41" s="47"/>
       <c r="T41" s="60"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="59"/>
       <c r="C42" s="47"/>
       <c r="D42" s="47"/>
@@ -45358,7 +45358,7 @@
       <c r="S42" s="47"/>
       <c r="T42" s="60"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="59"/>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
@@ -45379,7 +45379,7 @@
       <c r="S43" s="47"/>
       <c r="T43" s="60"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="59"/>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
@@ -45400,7 +45400,7 @@
       <c r="S44" s="47"/>
       <c r="T44" s="60"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="59"/>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -45421,7 +45421,7 @@
       <c r="S45" s="47"/>
       <c r="T45" s="60"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="59"/>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -45442,7 +45442,7 @@
       <c r="S46" s="47"/>
       <c r="T46" s="60"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="59"/>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -45463,7 +45463,7 @@
       <c r="S47" s="47"/>
       <c r="T47" s="60"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="59"/>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -45484,7 +45484,7 @@
       <c r="S48" s="47"/>
       <c r="T48" s="60"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="59"/>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -45505,7 +45505,7 @@
       <c r="S49" s="47"/>
       <c r="T49" s="60"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="59"/>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -45526,7 +45526,7 @@
       <c r="S50" s="47"/>
       <c r="T50" s="60"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="59"/>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
@@ -45547,7 +45547,7 @@
       <c r="S51" s="47"/>
       <c r="T51" s="60"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="59"/>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -45568,7 +45568,7 @@
       <c r="S52" s="47"/>
       <c r="T52" s="60"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="59"/>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -45589,7 +45589,7 @@
       <c r="S53" s="47"/>
       <c r="T53" s="60"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="59"/>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -45610,7 +45610,7 @@
       <c r="S54" s="47"/>
       <c r="T54" s="60"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="59"/>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
@@ -45631,7 +45631,7 @@
       <c r="S55" s="47"/>
       <c r="T55" s="60"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="59"/>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
@@ -45652,7 +45652,7 @@
       <c r="S56" s="47"/>
       <c r="T56" s="60"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="59"/>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
@@ -45673,7 +45673,7 @@
       <c r="S57" s="47"/>
       <c r="T57" s="60"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="59"/>
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
@@ -45694,9 +45694,9 @@
       <c r="S58" s="47"/>
       <c r="T58" s="60"/>
     </row>
-    <row r="59" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
-      <c r="C59" s="338" t="s">
+      <c r="C59" s="342" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="350"/>
@@ -45714,13 +45714,13 @@
       <c r="P59" s="350"/>
       <c r="Q59" s="350"/>
       <c r="R59" s="350"/>
-      <c r="S59" s="339"/>
+      <c r="S59" s="343"/>
       <c r="T59" s="60"/>
     </row>
-    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="381" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D60" s="382"/>
       <c r="E60" s="382"/>
@@ -45740,303 +45740,303 @@
       <c r="S60" s="383"/>
       <c r="T60" s="60"/>
     </row>
-    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
-      <c r="C61" s="375" t="s">
-        <v>281</v>
-      </c>
-      <c r="D61" s="376"/>
-      <c r="E61" s="376"/>
-      <c r="F61" s="376"/>
-      <c r="G61" s="376"/>
-      <c r="H61" s="376"/>
-      <c r="I61" s="376"/>
-      <c r="J61" s="376"/>
-      <c r="K61" s="376"/>
-      <c r="L61" s="376"/>
-      <c r="M61" s="376"/>
-      <c r="N61" s="376"/>
-      <c r="O61" s="376"/>
-      <c r="P61" s="376"/>
-      <c r="Q61" s="376"/>
-      <c r="R61" s="376"/>
-      <c r="S61" s="377"/>
+      <c r="C61" s="378" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="379"/>
+      <c r="E61" s="379"/>
+      <c r="F61" s="379"/>
+      <c r="G61" s="379"/>
+      <c r="H61" s="379"/>
+      <c r="I61" s="379"/>
+      <c r="J61" s="379"/>
+      <c r="K61" s="379"/>
+      <c r="L61" s="379"/>
+      <c r="M61" s="379"/>
+      <c r="N61" s="379"/>
+      <c r="O61" s="379"/>
+      <c r="P61" s="379"/>
+      <c r="Q61" s="379"/>
+      <c r="R61" s="379"/>
+      <c r="S61" s="380"/>
       <c r="T61" s="60"/>
     </row>
-    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59"/>
-      <c r="C62" s="375"/>
-      <c r="D62" s="376"/>
-      <c r="E62" s="376"/>
-      <c r="F62" s="376"/>
-      <c r="G62" s="376"/>
-      <c r="H62" s="376"/>
-      <c r="I62" s="376"/>
-      <c r="J62" s="376"/>
-      <c r="K62" s="376"/>
-      <c r="L62" s="376"/>
-      <c r="M62" s="376"/>
-      <c r="N62" s="376"/>
-      <c r="O62" s="376"/>
-      <c r="P62" s="376"/>
-      <c r="Q62" s="376"/>
-      <c r="R62" s="376"/>
-      <c r="S62" s="377"/>
+      <c r="C62" s="378"/>
+      <c r="D62" s="379"/>
+      <c r="E62" s="379"/>
+      <c r="F62" s="379"/>
+      <c r="G62" s="379"/>
+      <c r="H62" s="379"/>
+      <c r="I62" s="379"/>
+      <c r="J62" s="379"/>
+      <c r="K62" s="379"/>
+      <c r="L62" s="379"/>
+      <c r="M62" s="379"/>
+      <c r="N62" s="379"/>
+      <c r="O62" s="379"/>
+      <c r="P62" s="379"/>
+      <c r="Q62" s="379"/>
+      <c r="R62" s="379"/>
+      <c r="S62" s="380"/>
       <c r="T62" s="60"/>
     </row>
-    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
-      <c r="C63" s="375"/>
-      <c r="D63" s="376"/>
-      <c r="E63" s="376"/>
-      <c r="F63" s="376"/>
-      <c r="G63" s="376"/>
-      <c r="H63" s="376"/>
-      <c r="I63" s="376"/>
-      <c r="J63" s="376"/>
-      <c r="K63" s="376"/>
-      <c r="L63" s="376"/>
-      <c r="M63" s="376"/>
-      <c r="N63" s="376"/>
-      <c r="O63" s="376"/>
-      <c r="P63" s="376"/>
-      <c r="Q63" s="376"/>
-      <c r="R63" s="376"/>
-      <c r="S63" s="377"/>
+      <c r="C63" s="378"/>
+      <c r="D63" s="379"/>
+      <c r="E63" s="379"/>
+      <c r="F63" s="379"/>
+      <c r="G63" s="379"/>
+      <c r="H63" s="379"/>
+      <c r="I63" s="379"/>
+      <c r="J63" s="379"/>
+      <c r="K63" s="379"/>
+      <c r="L63" s="379"/>
+      <c r="M63" s="379"/>
+      <c r="N63" s="379"/>
+      <c r="O63" s="379"/>
+      <c r="P63" s="379"/>
+      <c r="Q63" s="379"/>
+      <c r="R63" s="379"/>
+      <c r="S63" s="380"/>
       <c r="T63" s="60"/>
     </row>
-    <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
-      <c r="C64" s="375"/>
-      <c r="D64" s="376"/>
-      <c r="E64" s="376"/>
-      <c r="F64" s="376"/>
-      <c r="G64" s="376"/>
-      <c r="H64" s="376"/>
-      <c r="I64" s="376"/>
-      <c r="J64" s="376"/>
-      <c r="K64" s="376"/>
-      <c r="L64" s="376"/>
-      <c r="M64" s="376"/>
-      <c r="N64" s="376"/>
-      <c r="O64" s="376"/>
-      <c r="P64" s="376"/>
-      <c r="Q64" s="376"/>
-      <c r="R64" s="376"/>
-      <c r="S64" s="377"/>
+      <c r="C64" s="378"/>
+      <c r="D64" s="379"/>
+      <c r="E64" s="379"/>
+      <c r="F64" s="379"/>
+      <c r="G64" s="379"/>
+      <c r="H64" s="379"/>
+      <c r="I64" s="379"/>
+      <c r="J64" s="379"/>
+      <c r="K64" s="379"/>
+      <c r="L64" s="379"/>
+      <c r="M64" s="379"/>
+      <c r="N64" s="379"/>
+      <c r="O64" s="379"/>
+      <c r="P64" s="379"/>
+      <c r="Q64" s="379"/>
+      <c r="R64" s="379"/>
+      <c r="S64" s="380"/>
       <c r="T64" s="60"/>
     </row>
-    <row r="65" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
-      <c r="C65" s="375"/>
-      <c r="D65" s="376"/>
-      <c r="E65" s="376"/>
-      <c r="F65" s="376"/>
-      <c r="G65" s="376"/>
-      <c r="H65" s="376"/>
-      <c r="I65" s="376"/>
-      <c r="J65" s="376"/>
-      <c r="K65" s="376"/>
-      <c r="L65" s="376"/>
-      <c r="M65" s="376"/>
-      <c r="N65" s="376"/>
-      <c r="O65" s="376"/>
-      <c r="P65" s="376"/>
-      <c r="Q65" s="376"/>
-      <c r="R65" s="376"/>
-      <c r="S65" s="377"/>
+      <c r="C65" s="378"/>
+      <c r="D65" s="379"/>
+      <c r="E65" s="379"/>
+      <c r="F65" s="379"/>
+      <c r="G65" s="379"/>
+      <c r="H65" s="379"/>
+      <c r="I65" s="379"/>
+      <c r="J65" s="379"/>
+      <c r="K65" s="379"/>
+      <c r="L65" s="379"/>
+      <c r="M65" s="379"/>
+      <c r="N65" s="379"/>
+      <c r="O65" s="379"/>
+      <c r="P65" s="379"/>
+      <c r="Q65" s="379"/>
+      <c r="R65" s="379"/>
+      <c r="S65" s="380"/>
       <c r="T65" s="60"/>
     </row>
-    <row r="66" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="59"/>
-      <c r="C66" s="375"/>
-      <c r="D66" s="376"/>
-      <c r="E66" s="376"/>
-      <c r="F66" s="376"/>
-      <c r="G66" s="376"/>
-      <c r="H66" s="376"/>
-      <c r="I66" s="376"/>
-      <c r="J66" s="376"/>
-      <c r="K66" s="376"/>
-      <c r="L66" s="376"/>
-      <c r="M66" s="376"/>
-      <c r="N66" s="376"/>
-      <c r="O66" s="376"/>
-      <c r="P66" s="376"/>
-      <c r="Q66" s="376"/>
-      <c r="R66" s="376"/>
-      <c r="S66" s="377"/>
+      <c r="C66" s="378"/>
+      <c r="D66" s="379"/>
+      <c r="E66" s="379"/>
+      <c r="F66" s="379"/>
+      <c r="G66" s="379"/>
+      <c r="H66" s="379"/>
+      <c r="I66" s="379"/>
+      <c r="J66" s="379"/>
+      <c r="K66" s="379"/>
+      <c r="L66" s="379"/>
+      <c r="M66" s="379"/>
+      <c r="N66" s="379"/>
+      <c r="O66" s="379"/>
+      <c r="P66" s="379"/>
+      <c r="Q66" s="379"/>
+      <c r="R66" s="379"/>
+      <c r="S66" s="380"/>
       <c r="T66" s="60"/>
     </row>
-    <row r="67" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="59"/>
-      <c r="C67" s="375"/>
-      <c r="D67" s="376"/>
-      <c r="E67" s="376"/>
-      <c r="F67" s="376"/>
-      <c r="G67" s="376"/>
-      <c r="H67" s="376"/>
-      <c r="I67" s="376"/>
-      <c r="J67" s="376"/>
-      <c r="K67" s="376"/>
-      <c r="L67" s="376"/>
-      <c r="M67" s="376"/>
-      <c r="N67" s="376"/>
-      <c r="O67" s="376"/>
-      <c r="P67" s="376"/>
-      <c r="Q67" s="376"/>
-      <c r="R67" s="376"/>
-      <c r="S67" s="377"/>
+      <c r="C67" s="378"/>
+      <c r="D67" s="379"/>
+      <c r="E67" s="379"/>
+      <c r="F67" s="379"/>
+      <c r="G67" s="379"/>
+      <c r="H67" s="379"/>
+      <c r="I67" s="379"/>
+      <c r="J67" s="379"/>
+      <c r="K67" s="379"/>
+      <c r="L67" s="379"/>
+      <c r="M67" s="379"/>
+      <c r="N67" s="379"/>
+      <c r="O67" s="379"/>
+      <c r="P67" s="379"/>
+      <c r="Q67" s="379"/>
+      <c r="R67" s="379"/>
+      <c r="S67" s="380"/>
       <c r="T67" s="60"/>
     </row>
-    <row r="68" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="59"/>
-      <c r="C68" s="375"/>
-      <c r="D68" s="376"/>
-      <c r="E68" s="376"/>
-      <c r="F68" s="376"/>
-      <c r="G68" s="376"/>
-      <c r="H68" s="376"/>
-      <c r="I68" s="376"/>
-      <c r="J68" s="376"/>
-      <c r="K68" s="376"/>
-      <c r="L68" s="376"/>
-      <c r="M68" s="376"/>
-      <c r="N68" s="376"/>
-      <c r="O68" s="376"/>
-      <c r="P68" s="376"/>
-      <c r="Q68" s="376"/>
-      <c r="R68" s="376"/>
-      <c r="S68" s="377"/>
+      <c r="C68" s="378"/>
+      <c r="D68" s="379"/>
+      <c r="E68" s="379"/>
+      <c r="F68" s="379"/>
+      <c r="G68" s="379"/>
+      <c r="H68" s="379"/>
+      <c r="I68" s="379"/>
+      <c r="J68" s="379"/>
+      <c r="K68" s="379"/>
+      <c r="L68" s="379"/>
+      <c r="M68" s="379"/>
+      <c r="N68" s="379"/>
+      <c r="O68" s="379"/>
+      <c r="P68" s="379"/>
+      <c r="Q68" s="379"/>
+      <c r="R68" s="379"/>
+      <c r="S68" s="380"/>
       <c r="T68" s="60"/>
     </row>
-    <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="59"/>
-      <c r="C69" s="375"/>
-      <c r="D69" s="376"/>
-      <c r="E69" s="376"/>
-      <c r="F69" s="376"/>
-      <c r="G69" s="376"/>
-      <c r="H69" s="376"/>
-      <c r="I69" s="376"/>
-      <c r="J69" s="376"/>
-      <c r="K69" s="376"/>
-      <c r="L69" s="376"/>
-      <c r="M69" s="376"/>
-      <c r="N69" s="376"/>
-      <c r="O69" s="376"/>
-      <c r="P69" s="376"/>
-      <c r="Q69" s="376"/>
-      <c r="R69" s="376"/>
-      <c r="S69" s="377"/>
+      <c r="C69" s="378"/>
+      <c r="D69" s="379"/>
+      <c r="E69" s="379"/>
+      <c r="F69" s="379"/>
+      <c r="G69" s="379"/>
+      <c r="H69" s="379"/>
+      <c r="I69" s="379"/>
+      <c r="J69" s="379"/>
+      <c r="K69" s="379"/>
+      <c r="L69" s="379"/>
+      <c r="M69" s="379"/>
+      <c r="N69" s="379"/>
+      <c r="O69" s="379"/>
+      <c r="P69" s="379"/>
+      <c r="Q69" s="379"/>
+      <c r="R69" s="379"/>
+      <c r="S69" s="380"/>
       <c r="T69" s="60"/>
     </row>
-    <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="59"/>
-      <c r="C70" s="375"/>
-      <c r="D70" s="376"/>
-      <c r="E70" s="376"/>
-      <c r="F70" s="376"/>
-      <c r="G70" s="376"/>
-      <c r="H70" s="376"/>
-      <c r="I70" s="376"/>
-      <c r="J70" s="376"/>
-      <c r="K70" s="376"/>
-      <c r="L70" s="376"/>
-      <c r="M70" s="376"/>
-      <c r="N70" s="376"/>
-      <c r="O70" s="376"/>
-      <c r="P70" s="376"/>
-      <c r="Q70" s="376"/>
-      <c r="R70" s="376"/>
-      <c r="S70" s="377"/>
+      <c r="C70" s="378"/>
+      <c r="D70" s="379"/>
+      <c r="E70" s="379"/>
+      <c r="F70" s="379"/>
+      <c r="G70" s="379"/>
+      <c r="H70" s="379"/>
+      <c r="I70" s="379"/>
+      <c r="J70" s="379"/>
+      <c r="K70" s="379"/>
+      <c r="L70" s="379"/>
+      <c r="M70" s="379"/>
+      <c r="N70" s="379"/>
+      <c r="O70" s="379"/>
+      <c r="P70" s="379"/>
+      <c r="Q70" s="379"/>
+      <c r="R70" s="379"/>
+      <c r="S70" s="380"/>
       <c r="T70" s="60"/>
     </row>
-    <row r="71" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="59"/>
-      <c r="C71" s="375"/>
-      <c r="D71" s="376"/>
-      <c r="E71" s="376"/>
-      <c r="F71" s="376"/>
-      <c r="G71" s="376"/>
-      <c r="H71" s="376"/>
-      <c r="I71" s="376"/>
-      <c r="J71" s="376"/>
-      <c r="K71" s="376"/>
-      <c r="L71" s="376"/>
-      <c r="M71" s="376"/>
-      <c r="N71" s="376"/>
-      <c r="O71" s="376"/>
-      <c r="P71" s="376"/>
-      <c r="Q71" s="376"/>
-      <c r="R71" s="376"/>
-      <c r="S71" s="377"/>
+      <c r="C71" s="378"/>
+      <c r="D71" s="379"/>
+      <c r="E71" s="379"/>
+      <c r="F71" s="379"/>
+      <c r="G71" s="379"/>
+      <c r="H71" s="379"/>
+      <c r="I71" s="379"/>
+      <c r="J71" s="379"/>
+      <c r="K71" s="379"/>
+      <c r="L71" s="379"/>
+      <c r="M71" s="379"/>
+      <c r="N71" s="379"/>
+      <c r="O71" s="379"/>
+      <c r="P71" s="379"/>
+      <c r="Q71" s="379"/>
+      <c r="R71" s="379"/>
+      <c r="S71" s="380"/>
       <c r="T71" s="60"/>
     </row>
-    <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="59"/>
-      <c r="C72" s="375"/>
-      <c r="D72" s="376"/>
-      <c r="E72" s="376"/>
-      <c r="F72" s="376"/>
-      <c r="G72" s="376"/>
-      <c r="H72" s="376"/>
-      <c r="I72" s="376"/>
-      <c r="J72" s="376"/>
-      <c r="K72" s="376"/>
-      <c r="L72" s="376"/>
-      <c r="M72" s="376"/>
-      <c r="N72" s="376"/>
-      <c r="O72" s="376"/>
-      <c r="P72" s="376"/>
-      <c r="Q72" s="376"/>
-      <c r="R72" s="376"/>
-      <c r="S72" s="377"/>
+      <c r="C72" s="378"/>
+      <c r="D72" s="379"/>
+      <c r="E72" s="379"/>
+      <c r="F72" s="379"/>
+      <c r="G72" s="379"/>
+      <c r="H72" s="379"/>
+      <c r="I72" s="379"/>
+      <c r="J72" s="379"/>
+      <c r="K72" s="379"/>
+      <c r="L72" s="379"/>
+      <c r="M72" s="379"/>
+      <c r="N72" s="379"/>
+      <c r="O72" s="379"/>
+      <c r="P72" s="379"/>
+      <c r="Q72" s="379"/>
+      <c r="R72" s="379"/>
+      <c r="S72" s="380"/>
       <c r="T72" s="60"/>
     </row>
-    <row r="73" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="59"/>
-      <c r="C73" s="375"/>
-      <c r="D73" s="376"/>
-      <c r="E73" s="376"/>
-      <c r="F73" s="376"/>
-      <c r="G73" s="376"/>
-      <c r="H73" s="376"/>
-      <c r="I73" s="376"/>
-      <c r="J73" s="376"/>
-      <c r="K73" s="376"/>
-      <c r="L73" s="376"/>
-      <c r="M73" s="376"/>
-      <c r="N73" s="376"/>
-      <c r="O73" s="376"/>
-      <c r="P73" s="376"/>
-      <c r="Q73" s="376"/>
-      <c r="R73" s="376"/>
-      <c r="S73" s="377"/>
+      <c r="C73" s="378"/>
+      <c r="D73" s="379"/>
+      <c r="E73" s="379"/>
+      <c r="F73" s="379"/>
+      <c r="G73" s="379"/>
+      <c r="H73" s="379"/>
+      <c r="I73" s="379"/>
+      <c r="J73" s="379"/>
+      <c r="K73" s="379"/>
+      <c r="L73" s="379"/>
+      <c r="M73" s="379"/>
+      <c r="N73" s="379"/>
+      <c r="O73" s="379"/>
+      <c r="P73" s="379"/>
+      <c r="Q73" s="379"/>
+      <c r="R73" s="379"/>
+      <c r="S73" s="380"/>
       <c r="T73" s="60"/>
     </row>
-    <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
-      <c r="C74" s="378"/>
-      <c r="D74" s="379"/>
-      <c r="E74" s="379"/>
-      <c r="F74" s="379"/>
-      <c r="G74" s="379"/>
-      <c r="H74" s="379"/>
-      <c r="I74" s="379"/>
-      <c r="J74" s="379"/>
-      <c r="K74" s="379"/>
-      <c r="L74" s="379"/>
-      <c r="M74" s="379"/>
-      <c r="N74" s="379"/>
-      <c r="O74" s="379"/>
-      <c r="P74" s="379"/>
-      <c r="Q74" s="379"/>
-      <c r="R74" s="379"/>
-      <c r="S74" s="380"/>
+      <c r="C74" s="375"/>
+      <c r="D74" s="376"/>
+      <c r="E74" s="376"/>
+      <c r="F74" s="376"/>
+      <c r="G74" s="376"/>
+      <c r="H74" s="376"/>
+      <c r="I74" s="376"/>
+      <c r="J74" s="376"/>
+      <c r="K74" s="376"/>
+      <c r="L74" s="376"/>
+      <c r="M74" s="376"/>
+      <c r="N74" s="376"/>
+      <c r="O74" s="376"/>
+      <c r="P74" s="376"/>
+      <c r="Q74" s="376"/>
+      <c r="R74" s="376"/>
+      <c r="S74" s="377"/>
       <c r="T74" s="60"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" s="61"/>
       <c r="C75" s="62"/>
       <c r="D75" s="62"/>
@@ -46060,6 +46060,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrvXTNEyg6ecmYncpmv63lHNkpCjj8zGGjyL/TJQBr5/3IiD3LSnAlxGpWZY2KJcUE/YM0fQ1in6NcWorcIWfw==" saltValue="gcPC3KzDvckzqrICh2VFzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
+    <mergeCell ref="C59:S59"/>
+    <mergeCell ref="C70:S70"/>
+    <mergeCell ref="C69:S69"/>
+    <mergeCell ref="C68:S68"/>
+    <mergeCell ref="C62:S62"/>
+    <mergeCell ref="C61:S61"/>
     <mergeCell ref="C74:S74"/>
     <mergeCell ref="C73:S73"/>
     <mergeCell ref="C72:S72"/>
@@ -46070,12 +46076,6 @@
     <mergeCell ref="C65:S65"/>
     <mergeCell ref="C66:S66"/>
     <mergeCell ref="C67:S67"/>
-    <mergeCell ref="C59:S59"/>
-    <mergeCell ref="C70:S70"/>
-    <mergeCell ref="C69:S69"/>
-    <mergeCell ref="C68:S68"/>
-    <mergeCell ref="C62:S62"/>
-    <mergeCell ref="C61:S61"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -46098,19 +46098,19 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="64" customWidth="1"/>
-    <col min="2" max="51" width="3.33203125" style="64" customWidth="1"/>
-    <col min="52" max="52" width="3.6640625" style="64" customWidth="1"/>
-    <col min="53" max="64" width="2.6640625" style="64" customWidth="1"/>
-    <col min="65" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="3.7109375" style="64" customWidth="1"/>
+    <col min="2" max="51" width="3.28515625" style="64" customWidth="1"/>
+    <col min="52" max="52" width="3.7109375" style="64" customWidth="1"/>
+    <col min="53" max="64" width="2.7109375" style="64" customWidth="1"/>
+    <col min="65" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:64" s="231" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:64" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:64" s="231" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="333" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="228"/>
       <c r="D2" s="229"/>
@@ -46162,9 +46162,9 @@
       <c r="AX2" s="229"/>
       <c r="AY2" s="227"/>
     </row>
-    <row r="3" spans="2:64" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:64" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="7"/>
@@ -46216,9 +46216,9 @@
       <c r="AX3" s="7"/>
       <c r="AY3" s="5"/>
     </row>
-    <row r="4" spans="2:64" ht="3.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:64" ht="3.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:64" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:64" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA6" s="384" t="s">
         <v>197</v>
       </c>
@@ -46234,7 +46234,7 @@
       <c r="BK6" s="385"/>
       <c r="BL6" s="386"/>
     </row>
-    <row r="7" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA7" s="387"/>
       <c r="BB7" s="388"/>
       <c r="BC7" s="388"/>
@@ -46248,7 +46248,7 @@
       <c r="BK7" s="388"/>
       <c r="BL7" s="389"/>
     </row>
-    <row r="8" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA8" s="237"/>
       <c r="BB8" s="238"/>
       <c r="BC8" s="238"/>
@@ -46262,7 +46262,7 @@
       <c r="BK8" s="238"/>
       <c r="BL8" s="239"/>
     </row>
-    <row r="9" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA9" s="240"/>
       <c r="BB9" s="117"/>
       <c r="BC9" s="117"/>
@@ -46276,7 +46276,7 @@
       <c r="BK9" s="117"/>
       <c r="BL9" s="241"/>
     </row>
-    <row r="10" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA10" s="240"/>
       <c r="BB10" s="117"/>
       <c r="BC10" s="117"/>
@@ -46290,7 +46290,7 @@
       <c r="BK10" s="117"/>
       <c r="BL10" s="241"/>
     </row>
-    <row r="11" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA11" s="240"/>
       <c r="BB11" s="117"/>
       <c r="BC11" s="117"/>
@@ -46304,7 +46304,7 @@
       <c r="BK11" s="117"/>
       <c r="BL11" s="241"/>
     </row>
-    <row r="12" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA12" s="240"/>
       <c r="BB12" s="117"/>
       <c r="BC12" s="117"/>
@@ -46318,7 +46318,7 @@
       <c r="BK12" s="117"/>
       <c r="BL12" s="241"/>
     </row>
-    <row r="13" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA13" s="240"/>
       <c r="BB13" s="117"/>
       <c r="BC13" s="117"/>
@@ -46332,7 +46332,7 @@
       <c r="BK13" s="117"/>
       <c r="BL13" s="241"/>
     </row>
-    <row r="14" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA14" s="240"/>
       <c r="BB14" s="117"/>
       <c r="BC14" s="117"/>
@@ -46346,7 +46346,7 @@
       <c r="BK14" s="117"/>
       <c r="BL14" s="241"/>
     </row>
-    <row r="15" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA15" s="240"/>
       <c r="BB15" s="117"/>
       <c r="BC15" s="117"/>
@@ -46360,7 +46360,7 @@
       <c r="BK15" s="117"/>
       <c r="BL15" s="241"/>
     </row>
-    <row r="16" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA16" s="240"/>
       <c r="BB16" s="117"/>
       <c r="BC16" s="117"/>
@@ -46374,7 +46374,7 @@
       <c r="BK16" s="117"/>
       <c r="BL16" s="241"/>
     </row>
-    <row r="17" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA17" s="240"/>
       <c r="BB17" s="117"/>
       <c r="BC17" s="117"/>
@@ -46388,7 +46388,7 @@
       <c r="BK17" s="117"/>
       <c r="BL17" s="241"/>
     </row>
-    <row r="18" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA18" s="240"/>
       <c r="BB18" s="117"/>
       <c r="BC18" s="117"/>
@@ -46402,7 +46402,7 @@
       <c r="BK18" s="117"/>
       <c r="BL18" s="241"/>
     </row>
-    <row r="19" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA19" s="240"/>
       <c r="BB19" s="117"/>
       <c r="BC19" s="117"/>
@@ -46416,7 +46416,7 @@
       <c r="BK19" s="117"/>
       <c r="BL19" s="241"/>
     </row>
-    <row r="20" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA20" s="242"/>
       <c r="BB20" s="243"/>
       <c r="BC20" s="243"/>
@@ -46430,39 +46430,39 @@
       <c r="BK20" s="243"/>
       <c r="BL20" s="244"/>
     </row>
-    <row r="21" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dKoQUEaTZ36SuXs+DjUTXhwaqXWnA3KzrONy2XuwlEwsvp2EMNAi4TH+lNplcoSoI8vA6/yAD3woWhKT4+faAA==" saltValue="6R/wklVyhs+5FF2X2djQyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
@@ -46489,43 +46489,43 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="18" customWidth="1"/>
     <col min="4" max="4" width="20" style="18" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="18"/>
+    <col min="5" max="5" width="3.7109375" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="291" t="s">
         <v>191</v>
       </c>
@@ -46536,298 +46536,298 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="323" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C6" s="323" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D6" s="324">
         <v>44593</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="325" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C7" s="325" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D7" s="326">
         <v>44597</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="325" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C8" s="325"/>
       <c r="D8" s="326">
         <v>44652</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="325" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C9" s="325"/>
       <c r="D9" s="326">
         <v>44652</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="325" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C10" s="325" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D10" s="326">
         <v>44926</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="325" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C11" s="325" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D11" s="326">
         <v>44926</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="325" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C12" s="325"/>
       <c r="D12" s="326">
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="325" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C13" s="325"/>
       <c r="D13" s="326">
         <v>45291</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="325" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C14" s="325" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D14" s="326">
         <v>46387</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="325"/>
       <c r="C15" s="325"/>
       <c r="D15" s="326"/>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="325"/>
       <c r="C16" s="325"/>
       <c r="D16" s="326"/>
     </row>
-    <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="325"/>
       <c r="C17" s="325"/>
       <c r="D17" s="326"/>
     </row>
-    <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="325"/>
       <c r="C18" s="325"/>
       <c r="D18" s="326"/>
     </row>
-    <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="325"/>
       <c r="C19" s="325"/>
       <c r="D19" s="326"/>
     </row>
-    <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="325"/>
       <c r="C20" s="325"/>
       <c r="D20" s="326"/>
     </row>
-    <row r="21" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="325"/>
       <c r="C21" s="325"/>
       <c r="D21" s="326"/>
     </row>
-    <row r="22" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="325"/>
       <c r="C22" s="325"/>
       <c r="D22" s="326"/>
     </row>
-    <row r="23" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="325"/>
       <c r="C23" s="325"/>
       <c r="D23" s="326"/>
     </row>
-    <row r="24" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="325"/>
       <c r="C24" s="325"/>
       <c r="D24" s="326"/>
     </row>
-    <row r="25" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="325"/>
       <c r="C25" s="325"/>
       <c r="D25" s="326"/>
     </row>
-    <row r="26" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="325"/>
       <c r="C26" s="325"/>
       <c r="D26" s="326"/>
     </row>
-    <row r="27" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="325"/>
       <c r="C27" s="325"/>
       <c r="D27" s="326"/>
     </row>
-    <row r="28" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="325"/>
       <c r="C28" s="325"/>
       <c r="D28" s="326"/>
     </row>
-    <row r="29" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="325"/>
       <c r="C29" s="325"/>
       <c r="D29" s="326"/>
     </row>
-    <row r="30" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="325"/>
       <c r="C30" s="325"/>
       <c r="D30" s="326"/>
     </row>
-    <row r="31" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="325"/>
       <c r="C31" s="325"/>
       <c r="D31" s="326"/>
     </row>
-    <row r="32" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="325"/>
       <c r="C32" s="325"/>
       <c r="D32" s="326"/>
     </row>
-    <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="325"/>
       <c r="C33" s="325"/>
       <c r="D33" s="326"/>
     </row>
-    <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="325"/>
       <c r="C34" s="325"/>
       <c r="D34" s="326"/>
     </row>
-    <row r="35" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="325"/>
       <c r="C35" s="325"/>
       <c r="D35" s="326"/>
     </row>
-    <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="325"/>
       <c r="C36" s="325"/>
       <c r="D36" s="326"/>
     </row>
-    <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="325"/>
       <c r="C37" s="325"/>
       <c r="D37" s="326"/>
     </row>
-    <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="325"/>
       <c r="C38" s="325"/>
       <c r="D38" s="326"/>
     </row>
-    <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="325"/>
       <c r="C39" s="325"/>
       <c r="D39" s="326"/>
     </row>
-    <row r="40" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="325"/>
       <c r="C40" s="325"/>
       <c r="D40" s="326"/>
     </row>
-    <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="325"/>
       <c r="C41" s="325"/>
       <c r="D41" s="326"/>
     </row>
-    <row r="42" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="325"/>
       <c r="C42" s="325"/>
       <c r="D42" s="326"/>
     </row>
-    <row r="43" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="325"/>
       <c r="C43" s="325"/>
       <c r="D43" s="326"/>
     </row>
-    <row r="44" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="325"/>
       <c r="C44" s="325"/>
       <c r="D44" s="326"/>
     </row>
-    <row r="45" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="325"/>
       <c r="C45" s="325"/>
       <c r="D45" s="326"/>
     </row>
-    <row r="46" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="325"/>
       <c r="C46" s="325"/>
       <c r="D46" s="326"/>
     </row>
-    <row r="47" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="325"/>
       <c r="C47" s="325"/>
       <c r="D47" s="326"/>
     </row>
-    <row r="48" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="325"/>
       <c r="C48" s="325"/>
       <c r="D48" s="326"/>
     </row>
-    <row r="49" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="325"/>
       <c r="C49" s="325"/>
       <c r="D49" s="326"/>
     </row>
-    <row r="50" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="325"/>
       <c r="C50" s="325"/>
       <c r="D50" s="326"/>
     </row>
-    <row r="51" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="325"/>
       <c r="C51" s="325"/>
       <c r="D51" s="326"/>
     </row>
-    <row r="52" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="325"/>
       <c r="C52" s="325"/>
       <c r="D52" s="326"/>
     </row>
-    <row r="53" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="325"/>
       <c r="C53" s="325"/>
       <c r="D53" s="326"/>
     </row>
-    <row r="54" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="325"/>
       <c r="C54" s="325"/>
       <c r="D54" s="326"/>
     </row>
-    <row r="55" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="327"/>
       <c r="C55" s="327"/>
       <c r="D55" s="328"/>
@@ -46855,35 +46855,35 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="126.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="126.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -46906,44 +46906,44 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="2.33203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" style="18" customWidth="1"/>
     <col min="3" max="3" width="72" style="18" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="18"/>
+    <col min="4" max="4" width="20.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="220"/>
     </row>
-    <row r="3" spans="1:6" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -46951,7 +46951,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="3.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -46959,337 +46959,337 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="141"/>
       <c r="C6" s="142"/>
       <c r="D6" s="142"/>
       <c r="E6" s="143"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="144"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="E7" s="145"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="144"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
       <c r="E8" s="145"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="144"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="145"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="144"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="E10" s="145"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="144"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
       <c r="E11" s="145"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="144"/>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
       <c r="E12" s="145"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="144"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="E13" s="145"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="144"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="145"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="144"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
       <c r="E15" s="145"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="144"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
       <c r="E16" s="145"/>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="144"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
       <c r="E17" s="145"/>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="144"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
       <c r="E18" s="145"/>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="144"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
       <c r="E19" s="145"/>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="144"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
       <c r="E20" s="145"/>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="144"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="E21" s="145"/>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="144"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
       <c r="E22" s="145"/>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="144"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
       <c r="E23" s="145"/>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="144"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="E24" s="145"/>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="144"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
       <c r="E25" s="145"/>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="144"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
       <c r="E26" s="145"/>
     </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="144"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
       <c r="E27" s="145"/>
     </row>
-    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="144"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
       <c r="E28" s="145"/>
     </row>
-    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="144"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
       <c r="E29" s="145"/>
     </row>
-    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="144"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
       <c r="E30" s="145"/>
     </row>
-    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="144"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
       <c r="E31" s="145"/>
     </row>
-    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="144"/>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
       <c r="E32" s="145"/>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="144"/>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
       <c r="E33" s="145"/>
     </row>
-    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="144"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
       <c r="E34" s="145"/>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="144"/>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
       <c r="E35" s="145"/>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="144"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
       <c r="E36" s="145"/>
     </row>
-    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="144"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
       <c r="E37" s="145"/>
     </row>
-    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="144"/>
       <c r="C38" s="47"/>
       <c r="D38" s="47"/>
       <c r="E38" s="145"/>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="144"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="145"/>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="144"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
       <c r="E40" s="145"/>
     </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="144"/>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
       <c r="E41" s="145"/>
     </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="144"/>
       <c r="C42" s="47"/>
       <c r="D42" s="47"/>
       <c r="E42" s="145"/>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="144"/>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
       <c r="E43" s="145"/>
     </row>
-    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="144"/>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
       <c r="E44" s="145"/>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="144"/>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
       <c r="E45" s="145"/>
     </row>
-    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="144"/>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
       <c r="E46" s="145"/>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="144"/>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
       <c r="E47" s="145"/>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="144"/>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
       <c r="E48" s="145"/>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="144"/>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
       <c r="E49" s="145"/>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="144"/>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
       <c r="E50" s="145"/>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="144"/>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
       <c r="E51" s="145"/>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="144"/>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
       <c r="E52" s="145"/>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="144"/>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
       <c r="E53" s="145"/>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="144"/>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
       <c r="E54" s="145"/>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="144"/>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
       <c r="E55" s="145"/>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="144"/>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
       <c r="E56" s="145"/>
     </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="144"/>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
       <c r="E57" s="145"/>
     </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="144"/>
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
       <c r="E58" s="145"/>
     </row>
-    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="144"/>
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
       <c r="E59" s="145"/>
     </row>
-    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="144"/>
       <c r="C60" s="47"/>
       <c r="D60" s="47"/>
       <c r="E60" s="145"/>
     </row>
-    <row r="61" spans="2:5" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="146"/>
       <c r="C61" s="147"/>
       <c r="D61" s="147"/>
@@ -47317,17 +47317,17 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="147.109375" style="40" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="3.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="147.140625" style="40" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
         <v>6</v>
       </c>
@@ -47335,7 +47335,7 @@
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
         <v>7</v>
       </c>
@@ -47343,90 +47343,90 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="41"/>
     </row>
-    <row r="7" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="41"/>
     </row>
-    <row r="9" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41"/>
     </row>
-    <row r="11" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="41"/>
     </row>
-    <row r="13" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="41"/>
     </row>
-    <row r="15" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="45"/>
     </row>
-    <row r="18" spans="2:2" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:2" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="i7sePfB5FBztBRtA7d6aTqukOMXI1zRMfVnu7tBavC4cgagQBbgIrNRo4GxnV5BFao0qTM5n3HLoxmn/mHf80Q==" saltValue="OlWuHWXTIK3GI9ojc5wYIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <printOptions horizontalCentered="1"/>
@@ -47444,80 +47444,80 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="142" zoomScaleNormal="142" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="219"/>
     </row>
-    <row r="3" spans="1:3" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="292" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="292" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="169" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="292" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="292" t="s">
         <v>13</v>
       </c>
@@ -47525,20 +47525,20 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="292" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="292" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="169" t="s">
-        <v>203</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -47558,117 +47558,117 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="292" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="292" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="171" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="292" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="292" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="292" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="292" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="292" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="292" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>209</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -47688,63 +47688,63 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="292" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="292" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="292" t="s">
         <v>17</v>
       </c>
@@ -47752,114 +47752,109 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C9" s="250" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="292" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C10" s="250" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="292" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C11" s="250" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="338" t="s">
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="342" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="339"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="342" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="343"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="343"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="344" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="345"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="340" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C15" s="341"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="340" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C16" s="341"/>
     </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="340"/>
       <c r="C17" s="341"/>
     </row>
-    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="340"/>
       <c r="C18" s="341"/>
     </row>
-    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="340"/>
       <c r="C19" s="341"/>
     </row>
-    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="340"/>
       <c r="C20" s="341"/>
     </row>
-    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="340"/>
       <c r="C21" s="341"/>
     </row>
-    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="340"/>
       <c r="C22" s="341"/>
     </row>
-    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="340"/>
       <c r="C23" s="341"/>
     </row>
-    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="340"/>
       <c r="C24" s="341"/>
     </row>
-    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="340"/>
       <c r="C25" s="341"/>
     </row>
-    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="340"/>
       <c r="C26" s="341"/>
     </row>
-    <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="340"/>
       <c r="C27" s="341"/>
     </row>
-    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="344"/>
-      <c r="C28" s="345"/>
+    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="338"/>
+      <c r="C28" s="339"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QWAILGKV4ZR+dz45sQNjWVz1jknfFAxJFIx1hCSeiPEL6oYSelXKO0nkHyIjY2Xc01Xzw6ZhttEVShqaxrPiPA==" saltValue="k7C7+m0hzWH8JcqwKh2YCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
@@ -47871,6 +47866,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -47893,195 +47893,195 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="346" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="251" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="346"/>
       <c r="C7" s="251" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="346"/>
       <c r="C8" s="251" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="346"/>
       <c r="C9" s="251"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="346"/>
       <c r="C10" s="251"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="346"/>
       <c r="C11" s="251"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="346"/>
       <c r="C12" s="251"/>
     </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
       <c r="C13" s="252"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="347" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="253" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="347"/>
       <c r="C15" s="253" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="347"/>
       <c r="C16" s="253" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="347"/>
       <c r="C17" s="253" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="347"/>
       <c r="C18" s="253"/>
     </row>
-    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="347"/>
       <c r="C19" s="253"/>
     </row>
-    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="347"/>
       <c r="C20" s="253"/>
     </row>
-    <row r="21" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="49"/>
       <c r="C21" s="252"/>
     </row>
-    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="348" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="254" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="348"/>
       <c r="C23" s="254" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="348"/>
       <c r="C24" s="254" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="348"/>
       <c r="C25" s="254"/>
     </row>
-    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="348"/>
       <c r="C26" s="254"/>
     </row>
-    <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="348"/>
       <c r="C27" s="254"/>
     </row>
-    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="348"/>
       <c r="C28" s="254"/>
     </row>
-    <row r="29" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="49"/>
       <c r="C29" s="252"/>
     </row>
-    <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="349" t="s">
         <v>96</v>
       </c>
       <c r="C30" s="255" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="349"/>
       <c r="C31" s="255" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="349"/>
       <c r="C32" s="255" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="349"/>
       <c r="C33" s="255"/>
     </row>
-    <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="349"/>
       <c r="C34" s="255"/>
     </row>
-    <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="349"/>
       <c r="C35" s="255"/>
     </row>
-    <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="349"/>
       <c r="C36" s="255"/>
     </row>
@@ -48114,22 +48114,22 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="18" customWidth="1"/>
-    <col min="3" max="9" width="14.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="18" customWidth="1"/>
+    <col min="3" max="9" width="14.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -48139,9 +48139,9 @@
       <c r="H2" s="219"/>
       <c r="I2" s="219"/>
     </row>
-    <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -48151,7 +48151,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -48162,7 +48162,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -48173,7 +48173,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="177" t="s">
         <v>20</v>
       </c>
@@ -48184,13 +48184,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="337" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F6" s="337" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G6" s="337" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H6" s="337" t="s">
         <v>97</v>
@@ -48199,7 +48199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="174" t="s">
         <v>22</v>
       </c>
@@ -48221,7 +48221,7 @@
       <c r="H7" s="175"/>
       <c r="I7" s="175"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="174" t="s">
         <v>23</v>
       </c>
@@ -48243,7 +48243,7 @@
       <c r="H8" s="175"/>
       <c r="I8" s="175"/>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="174" t="s">
         <v>24</v>
       </c>
@@ -48265,7 +48265,7 @@
       <c r="H9" s="175"/>
       <c r="I9" s="175"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="174" t="s">
         <v>25</v>
       </c>
@@ -48287,7 +48287,7 @@
       <c r="H10" s="175"/>
       <c r="I10" s="175"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="174" t="s">
         <v>26</v>
       </c>
@@ -48309,7 +48309,7 @@
       <c r="H11" s="175"/>
       <c r="I11" s="175"/>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="174" t="s">
         <v>27</v>
       </c>
@@ -48331,7 +48331,7 @@
       <c r="H12" s="175"/>
       <c r="I12" s="175"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="174" t="s">
         <v>28</v>
       </c>
@@ -48353,7 +48353,7 @@
       <c r="H13" s="175"/>
       <c r="I13" s="175"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="174" t="s">
         <v>29</v>
       </c>
@@ -48375,7 +48375,7 @@
       <c r="H14" s="175"/>
       <c r="I14" s="175"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="174" t="s">
         <v>30</v>
       </c>
@@ -48397,7 +48397,7 @@
       <c r="H15" s="175"/>
       <c r="I15" s="175"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="174"/>
       <c r="C16" s="175"/>
       <c r="D16" s="175"/>
@@ -48407,7 +48407,7 @@
       <c r="H16" s="175"/>
       <c r="I16" s="175"/>
     </row>
-    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="174"/>
       <c r="C17" s="175"/>
       <c r="D17" s="175"/>
@@ -48417,7 +48417,7 @@
       <c r="H17" s="175"/>
       <c r="I17" s="175"/>
     </row>
-    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="174"/>
       <c r="C18" s="175"/>
       <c r="D18" s="175"/>
@@ -48427,7 +48427,7 @@
       <c r="H18" s="175"/>
       <c r="I18" s="175"/>
     </row>
-    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="174"/>
       <c r="C19" s="175"/>
       <c r="D19" s="175"/>
@@ -48437,7 +48437,7 @@
       <c r="H19" s="175"/>
       <c r="I19" s="175"/>
     </row>
-    <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="174"/>
       <c r="C20" s="175"/>
       <c r="D20" s="175"/>
@@ -48447,7 +48447,7 @@
       <c r="H20" s="175"/>
       <c r="I20" s="175"/>
     </row>
-    <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="174"/>
       <c r="C21" s="175"/>
       <c r="D21" s="175"/>
@@ -48457,7 +48457,7 @@
       <c r="H21" s="175"/>
       <c r="I21" s="175"/>
     </row>
-    <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="174"/>
       <c r="C22" s="175"/>
       <c r="D22" s="175"/>
@@ -48467,7 +48467,7 @@
       <c r="H22" s="175"/>
       <c r="I22" s="175"/>
     </row>
-    <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="174"/>
       <c r="C23" s="175"/>
       <c r="D23" s="175"/>
@@ -48477,7 +48477,7 @@
       <c r="H23" s="175"/>
       <c r="I23" s="175"/>
     </row>
-    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="174"/>
       <c r="C24" s="175"/>
       <c r="D24" s="175"/>
@@ -48487,7 +48487,7 @@
       <c r="H24" s="175"/>
       <c r="I24" s="175"/>
     </row>
-    <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="174"/>
       <c r="C25" s="175"/>
       <c r="D25" s="175"/>
@@ -48497,7 +48497,7 @@
       <c r="H25" s="175"/>
       <c r="I25" s="175"/>
     </row>
-    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="174"/>
       <c r="C26" s="175"/>
       <c r="D26" s="175"/>
@@ -48507,7 +48507,7 @@
       <c r="H26" s="175"/>
       <c r="I26" s="175"/>
     </row>
-    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="118" t="s">
         <v>99</v>
       </c>
@@ -48536,8 +48536,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="338" t="s">
+    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="342" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="350"/>
@@ -48546,11 +48546,11 @@
       <c r="F29" s="350"/>
       <c r="G29" s="350"/>
       <c r="H29" s="350"/>
-      <c r="I29" s="339"/>
-    </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="343"/>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="357" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C30" s="358"/>
       <c r="D30" s="358"/>
@@ -48560,9 +48560,9 @@
       <c r="H30" s="358"/>
       <c r="I30" s="359"/>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="354" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C31" s="355"/>
       <c r="D31" s="355"/>
@@ -48572,9 +48572,9 @@
       <c r="H31" s="355"/>
       <c r="I31" s="356"/>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="354" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C32" s="355"/>
       <c r="D32" s="355"/>
@@ -48584,7 +48584,7 @@
       <c r="H32" s="355"/>
       <c r="I32" s="356"/>
     </row>
-    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="354"/>
       <c r="C33" s="355"/>
       <c r="D33" s="355"/>
@@ -48594,7 +48594,7 @@
       <c r="H33" s="355"/>
       <c r="I33" s="356"/>
     </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="354"/>
       <c r="C34" s="355"/>
       <c r="D34" s="355"/>
@@ -48604,7 +48604,7 @@
       <c r="H34" s="355"/>
       <c r="I34" s="356"/>
     </row>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="354"/>
       <c r="C35" s="355"/>
       <c r="D35" s="355"/>
@@ -48614,7 +48614,7 @@
       <c r="H35" s="355"/>
       <c r="I35" s="356"/>
     </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="354"/>
       <c r="C36" s="355"/>
       <c r="D36" s="355"/>
@@ -48624,7 +48624,7 @@
       <c r="H36" s="355"/>
       <c r="I36" s="356"/>
     </row>
-    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="354"/>
       <c r="C37" s="355"/>
       <c r="D37" s="355"/>
@@ -48634,7 +48634,7 @@
       <c r="H37" s="355"/>
       <c r="I37" s="356"/>
     </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="354"/>
       <c r="C38" s="355"/>
       <c r="D38" s="355"/>
@@ -48644,7 +48644,7 @@
       <c r="H38" s="355"/>
       <c r="I38" s="356"/>
     </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="354"/>
       <c r="C39" s="355"/>
       <c r="D39" s="355"/>
@@ -48654,7 +48654,7 @@
       <c r="H39" s="355"/>
       <c r="I39" s="356"/>
     </row>
-    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="354"/>
       <c r="C40" s="355"/>
       <c r="D40" s="355"/>
@@ -48664,7 +48664,7 @@
       <c r="H40" s="355"/>
       <c r="I40" s="356"/>
     </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="354"/>
       <c r="C41" s="355"/>
       <c r="D41" s="355"/>
@@ -48674,7 +48674,7 @@
       <c r="H41" s="355"/>
       <c r="I41" s="356"/>
     </row>
-    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="354"/>
       <c r="C42" s="355"/>
       <c r="D42" s="355"/>
@@ -48684,7 +48684,7 @@
       <c r="H42" s="355"/>
       <c r="I42" s="356"/>
     </row>
-    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="354"/>
       <c r="C43" s="355"/>
       <c r="D43" s="355"/>
@@ -48694,7 +48694,7 @@
       <c r="H43" s="355"/>
       <c r="I43" s="356"/>
     </row>
-    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="351"/>
       <c r="C44" s="352"/>
       <c r="D44" s="352"/>
@@ -48754,23 +48754,23 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -48780,9 +48780,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -48793,9 +48793,9 @@
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -48806,7 +48806,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -48818,7 +48818,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -48830,7 +48830,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="264" t="s">
         <v>90</v>
       </c>
@@ -48844,79 +48844,79 @@
       </c>
       <c r="G6" s="256"/>
       <c r="H6" s="267" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="I6" s="256"/>
       <c r="J6" s="268" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="257" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C7" s="258"/>
       <c r="D7" s="259" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E7" s="260"/>
       <c r="F7" s="261" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G7" s="260"/>
       <c r="H7" s="262" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I7" s="260"/>
       <c r="J7" s="263" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="257" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C8" s="258"/>
       <c r="D8" s="259" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E8" s="260"/>
       <c r="F8" s="261" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G8" s="260"/>
       <c r="H8" s="262" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I8" s="260"/>
       <c r="J8" s="263" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="257" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C9" s="258"/>
       <c r="D9" s="259" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E9" s="260"/>
       <c r="F9" s="261" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G9" s="260"/>
       <c r="H9" s="262" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="I9" s="260"/>
       <c r="J9" s="263" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="257" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C10" s="258"/>
       <c r="D10" s="259"/>
@@ -48927,7 +48927,7 @@
       <c r="I10" s="260"/>
       <c r="J10" s="263"/>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="257"/>
       <c r="C11" s="258"/>
       <c r="D11" s="259"/>
@@ -48938,7 +48938,7 @@
       <c r="I11" s="260"/>
       <c r="J11" s="263"/>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="257"/>
       <c r="C12" s="258"/>
       <c r="D12" s="259"/>
@@ -48949,7 +48949,7 @@
       <c r="I12" s="260"/>
       <c r="J12" s="263"/>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="257"/>
       <c r="C13" s="258"/>
       <c r="D13" s="259"/>
@@ -48960,7 +48960,7 @@
       <c r="I13" s="260"/>
       <c r="J13" s="263"/>
     </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="257"/>
       <c r="C14" s="258"/>
       <c r="D14" s="259"/>
@@ -48971,7 +48971,7 @@
       <c r="I14" s="260"/>
       <c r="J14" s="263"/>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="257"/>
       <c r="C15" s="258"/>
       <c r="D15" s="259"/>
@@ -48982,7 +48982,7 @@
       <c r="I15" s="260"/>
       <c r="J15" s="263"/>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="257"/>
       <c r="C16" s="258"/>
       <c r="D16" s="259"/>
@@ -48993,7 +48993,7 @@
       <c r="I16" s="260"/>
       <c r="J16" s="263"/>
     </row>
-    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="257"/>
       <c r="C17" s="258"/>
       <c r="D17" s="259"/>
@@ -49004,7 +49004,7 @@
       <c r="I17" s="260"/>
       <c r="J17" s="263"/>
     </row>
-    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="257"/>
       <c r="C18" s="258"/>
       <c r="D18" s="259"/>
@@ -49015,7 +49015,7 @@
       <c r="I18" s="260"/>
       <c r="J18" s="263"/>
     </row>
-    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="257"/>
       <c r="C19" s="258"/>
       <c r="D19" s="259"/>
@@ -49026,7 +49026,7 @@
       <c r="I19" s="260"/>
       <c r="J19" s="263"/>
     </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="257"/>
       <c r="C20" s="258"/>
       <c r="D20" s="259"/>
@@ -49037,7 +49037,7 @@
       <c r="I20" s="260"/>
       <c r="J20" s="263"/>
     </row>
-    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="257"/>
       <c r="C21" s="258"/>
       <c r="D21" s="259"/>
@@ -49048,7 +49048,7 @@
       <c r="I21" s="260"/>
       <c r="J21" s="263"/>
     </row>
-    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="257"/>
       <c r="C22" s="258"/>
       <c r="D22" s="259"/>
@@ -49059,7 +49059,7 @@
       <c r="I22" s="260"/>
       <c r="J22" s="263"/>
     </row>
-    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="257"/>
       <c r="C23" s="258"/>
       <c r="D23" s="259"/>
@@ -49070,7 +49070,7 @@
       <c r="I23" s="260"/>
       <c r="J23" s="263"/>
     </row>
-    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="257"/>
       <c r="C24" s="258"/>
       <c r="D24" s="259"/>
@@ -49081,7 +49081,7 @@
       <c r="I24" s="260"/>
       <c r="J24" s="263"/>
     </row>
-    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="257"/>
       <c r="C25" s="258"/>
       <c r="D25" s="259"/>
@@ -49092,7 +49092,7 @@
       <c r="I25" s="260"/>
       <c r="J25" s="263"/>
     </row>
-    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="257"/>
       <c r="C26" s="258"/>
       <c r="D26" s="259"/>
@@ -49103,17 +49103,17 @@
       <c r="I26" s="260"/>
       <c r="J26" s="263"/>
     </row>
-    <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vjRJKNf31imLMnj6xeL/4DJOuJn67mL6nSuFKDb19H+JBvyoJ0cIS/xMnTpx9qJFd0bTuSPwSqxpLVRgBe0pKw==" saltValue="mfHUP3IR1/pzEQFejaaiTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <printOptions horizontalCentered="1"/>
@@ -49137,27 +49137,27 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="40.109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="40.109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -49166,9 +49166,9 @@
       <c r="G2" s="219"/>
       <c r="H2" s="219"/>
     </row>
-    <row r="3" spans="1:8" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -49177,7 +49177,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -49187,7 +49187,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -49197,7 +49197,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="272"/>
       <c r="C6" s="269"/>
       <c r="D6" s="276"/>
@@ -49206,7 +49206,7 @@
       <c r="G6" s="269"/>
       <c r="H6" s="284"/>
     </row>
-    <row r="7" spans="1:8" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="273" t="s">
         <v>75</v>
       </c>
@@ -49223,7 +49223,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="274" t="s">
         <v>187</v>
       </c>
@@ -49240,7 +49240,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="275"/>
       <c r="C9" s="269"/>
       <c r="D9" s="279"/>
@@ -49249,56 +49249,56 @@
       <c r="G9" s="269"/>
       <c r="H9" s="287"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="288" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C10" s="289"/>
       <c r="D10" s="262" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E10" s="289"/>
       <c r="F10" s="261" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G10" s="289"/>
       <c r="H10" s="263" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="288" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C11" s="289"/>
       <c r="D11" s="262" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E11" s="289"/>
       <c r="F11" s="261" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G11" s="289"/>
       <c r="H11" s="263" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="288" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C12" s="289"/>
       <c r="D12" s="262"/>
       <c r="E12" s="289"/>
       <c r="F12" s="261" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G12" s="289"/>
       <c r="H12" s="263"/>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="288" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C13" s="289"/>
       <c r="D13" s="262"/>
@@ -49307,7 +49307,7 @@
       <c r="G13" s="289"/>
       <c r="H13" s="263"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="288"/>
       <c r="C14" s="289"/>
       <c r="D14" s="262"/>
@@ -49316,7 +49316,7 @@
       <c r="G14" s="289"/>
       <c r="H14" s="263"/>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="288"/>
       <c r="C15" s="289"/>
       <c r="D15" s="262"/>
@@ -49325,7 +49325,7 @@
       <c r="G15" s="289"/>
       <c r="H15" s="263"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="288"/>
       <c r="C16" s="289"/>
       <c r="D16" s="262"/>
@@ -49334,7 +49334,7 @@
       <c r="G16" s="289"/>
       <c r="H16" s="263"/>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="288"/>
       <c r="C17" s="289"/>
       <c r="D17" s="262"/>
@@ -49343,7 +49343,7 @@
       <c r="G17" s="289"/>
       <c r="H17" s="263"/>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="288"/>
       <c r="C18" s="289"/>
       <c r="D18" s="262"/>
@@ -49352,7 +49352,7 @@
       <c r="G18" s="289"/>
       <c r="H18" s="263"/>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="288"/>
       <c r="C19" s="289"/>
       <c r="D19" s="262"/>
@@ -49361,7 +49361,7 @@
       <c r="G19" s="289"/>
       <c r="H19" s="263"/>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="288"/>
       <c r="C20" s="289"/>
       <c r="D20" s="262"/>
@@ -49370,7 +49370,7 @@
       <c r="G20" s="289"/>
       <c r="H20" s="263"/>
     </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="288"/>
       <c r="C21" s="289"/>
       <c r="D21" s="262"/>
@@ -49379,7 +49379,7 @@
       <c r="G21" s="289"/>
       <c r="H21" s="263"/>
     </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="288"/>
       <c r="C22" s="289"/>
       <c r="D22" s="262"/>
@@ -49388,7 +49388,7 @@
       <c r="G22" s="289"/>
       <c r="H22" s="263"/>
     </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="288"/>
       <c r="C23" s="289"/>
       <c r="D23" s="262"/>
@@ -49397,7 +49397,7 @@
       <c r="G23" s="289"/>
       <c r="H23" s="263"/>
     </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="288"/>
       <c r="C24" s="289"/>
       <c r="D24" s="262"/>
@@ -49406,7 +49406,7 @@
       <c r="G24" s="289"/>
       <c r="H24" s="263"/>
     </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="288"/>
       <c r="C25" s="289"/>
       <c r="D25" s="262"/>
@@ -49415,7 +49415,7 @@
       <c r="G25" s="289"/>
       <c r="H25" s="263"/>
     </row>
-    <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="288"/>
       <c r="C26" s="289"/>
       <c r="D26" s="262"/>
@@ -49424,7 +49424,7 @@
       <c r="G26" s="289"/>
       <c r="H26" s="263"/>
     </row>
-    <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="288"/>
       <c r="C27" s="289"/>
       <c r="D27" s="262"/>
@@ -49433,7 +49433,7 @@
       <c r="G27" s="289"/>
       <c r="H27" s="263"/>
     </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="288"/>
       <c r="C28" s="289"/>
       <c r="D28" s="262"/>
@@ -49442,7 +49442,7 @@
       <c r="G28" s="289"/>
       <c r="H28" s="263"/>
     </row>
-    <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="288"/>
       <c r="C29" s="289"/>
       <c r="D29" s="262"/>
@@ -49451,7 +49451,7 @@
       <c r="G29" s="289"/>
       <c r="H29" s="263"/>
     </row>
-    <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="288"/>
       <c r="C30" s="289"/>
       <c r="D30" s="262"/>
@@ -49460,7 +49460,7 @@
       <c r="G30" s="289"/>
       <c r="H30" s="263"/>
     </row>
-    <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="288"/>
       <c r="C31" s="289"/>
       <c r="D31" s="262"/>
@@ -49469,7 +49469,7 @@
       <c r="G31" s="289"/>
       <c r="H31" s="263"/>
     </row>
-    <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="288"/>
       <c r="C32" s="289"/>
       <c r="D32" s="262"/>
@@ -49478,7 +49478,7 @@
       <c r="G32" s="289"/>
       <c r="H32" s="263"/>
     </row>
-    <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="288"/>
       <c r="C33" s="289"/>
       <c r="D33" s="262"/>
@@ -49487,7 +49487,7 @@
       <c r="G33" s="289"/>
       <c r="H33" s="263"/>
     </row>
-    <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="288"/>
       <c r="C34" s="289"/>
       <c r="D34" s="262"/>

--- a/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
+++ b/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPT AC\Licenta\An_2\Sem_1\M\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c\source\repos\faculty\faculty\an_2\sem_1\M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904707A6-F8D5-4FC4-A86E-7191D71661C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7506FFB-4385-45F3-B115-F2857A801590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="O2pZeXeucL6OySNC7AknZdZAyXoN/m0/9At13Y17SnJe3PRhRKhh5R2CulRtevnypPEYgGoXIEttHB4aNlfRwQ==" workbookSaltValue="uQIfLlIkgsrrIpl+3gXPNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="3" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="4" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -851,9 +851,6 @@
     <t>Dividends Received from Affiliates</t>
   </si>
   <si>
-    <t>Total e-book and audiobook industry is expected to reach US$2.5 billion (estimated by PP Agency).</t>
-  </si>
-  <si>
     <t>We target a 10% share in five years.</t>
   </si>
   <si>
@@ -1305,6 +1302,9 @@
   </si>
   <si>
     <t>Comenzile plasate sunt pregătite și livrate cât mai rapid posibil, pentru a asigura satisfacția maximă clienților noștri.</t>
+  </si>
+  <si>
+    <t>Industria de catering se așteaptă să atingă valoarea US$2,540.05 billion (estimated by PP Agency).</t>
   </si>
 </sst>
 </file>
@@ -4104,12 +4104,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4120,19 +4120,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -4192,14 +4192,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -4212,8 +4204,24 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4232,14 +4240,6 @@
       <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4252,6 +4252,18 @@
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4261,18 +4273,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -39839,7 +39839,7 @@
     </row>
     <row r="2" spans="1:15" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="248"/>
@@ -39857,7 +39857,7 @@
     </row>
     <row r="3" spans="1:15" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="249"/>
@@ -39927,7 +39927,7 @@
     <row r="7" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="168" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D7" s="168"/>
       <c r="E7" s="168"/>
@@ -39960,14 +39960,14 @@
       <c r="B9" s="15"/>
       <c r="C9" s="165"/>
       <c r="D9" s="245" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="245"/>
       <c r="F9" s="245"/>
       <c r="G9" s="155"/>
       <c r="H9" s="160"/>
       <c r="I9" s="245" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J9" s="245"/>
       <c r="K9" s="245"/>
@@ -40028,14 +40028,14 @@
       <c r="B13" s="15"/>
       <c r="C13" s="164"/>
       <c r="D13" s="245" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E13" s="245"/>
       <c r="F13" s="245"/>
       <c r="G13" s="155"/>
       <c r="H13" s="161"/>
       <c r="I13" s="245" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J13" s="245"/>
       <c r="K13" s="245"/>
@@ -40130,7 +40130,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="163"/>
       <c r="D19" s="245" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E19" s="245"/>
       <c r="F19" s="245"/>
@@ -40241,7 +40241,7 @@
       <c r="G25" s="155"/>
       <c r="H25" s="162"/>
       <c r="I25" s="245" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J25" s="245"/>
       <c r="K25" s="245"/>
@@ -40459,14 +40459,14 @@
     </row>
     <row r="2" spans="1:4" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -40502,7 +40502,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40513,7 +40513,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="236" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40524,7 +40524,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="236" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40544,7 +40544,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="236" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40576,98 +40576,103 @@
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="362" t="s">
+      <c r="B16" s="360" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="363"/>
-      <c r="D16" s="364"/>
+      <c r="C16" s="361"/>
+      <c r="D16" s="362"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="344" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="365"/>
-      <c r="D17" s="345"/>
+      <c r="B17" s="342" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="364"/>
+      <c r="D17" s="343"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="340" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="361"/>
+        <v>245</v>
+      </c>
+      <c r="C18" s="363"/>
       <c r="D18" s="341"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="340" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" s="361"/>
+        <v>331</v>
+      </c>
+      <c r="C19" s="363"/>
       <c r="D19" s="341"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="340" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="361"/>
+        <v>246</v>
+      </c>
+      <c r="C20" s="363"/>
       <c r="D20" s="341"/>
     </row>
     <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="340"/>
-      <c r="C21" s="361"/>
+      <c r="C21" s="363"/>
       <c r="D21" s="341"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="340"/>
-      <c r="C22" s="361"/>
+      <c r="C22" s="363"/>
       <c r="D22" s="341"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="340"/>
-      <c r="C23" s="361"/>
+      <c r="C23" s="363"/>
       <c r="D23" s="341"/>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="340"/>
-      <c r="C24" s="361"/>
+      <c r="C24" s="363"/>
       <c r="D24" s="341"/>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="340"/>
-      <c r="C25" s="361"/>
+      <c r="C25" s="363"/>
       <c r="D25" s="341"/>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="340"/>
-      <c r="C26" s="361"/>
+      <c r="C26" s="363"/>
       <c r="D26" s="341"/>
     </row>
     <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="340"/>
-      <c r="C27" s="361"/>
+      <c r="C27" s="363"/>
       <c r="D27" s="341"/>
     </row>
     <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="340"/>
-      <c r="C28" s="361"/>
+      <c r="C28" s="363"/>
       <c r="D28" s="341"/>
     </row>
     <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340"/>
-      <c r="C29" s="361"/>
+      <c r="C29" s="363"/>
       <c r="D29" s="341"/>
     </row>
     <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340"/>
-      <c r="C30" s="361"/>
+      <c r="C30" s="363"/>
       <c r="D30" s="341"/>
     </row>
     <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="338"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="339"/>
+      <c r="B31" s="344"/>
+      <c r="C31" s="365"/>
+      <c r="D31" s="345"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="UCGY9eszZs9CIViHMThBw7fwHHrsg74VWMxEdvt0AHxwFsPjJ4F5bHDEwJjqVw/86ZZUZWi5kfaxgDbTVsh5+A==" saltValue="sp2iB7I+4IjtyrsJwv1w1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B20:D20"/>
@@ -40679,11 +40684,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B14" xr:uid="{CF462609-70FD-4174-95B0-56CFEBAF0773}">
@@ -40727,7 +40727,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -40735,7 +40735,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -40768,120 +40768,120 @@
         <v>100</v>
       </c>
       <c r="C7" s="297" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="371" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="366" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="371"/>
+      <c r="E7" s="366"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="182" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="183" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="370" t="s">
-        <v>255</v>
-      </c>
-      <c r="E8" s="366"/>
+        <v>250</v>
+      </c>
+      <c r="D8" s="367" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="368"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="182" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="183" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="370" t="s">
-        <v>256</v>
-      </c>
-      <c r="E9" s="366"/>
+        <v>250</v>
+      </c>
+      <c r="D9" s="367" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="368"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="183" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="367" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="183" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10" s="370" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="366"/>
+      <c r="E10" s="368"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="182" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="183" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="367" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="183" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="370" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" s="366"/>
+      <c r="E11" s="368"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="182" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="183" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="183" t="s">
+      <c r="D12" s="367" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="370" t="s">
-        <v>262</v>
-      </c>
-      <c r="E12" s="366"/>
+      <c r="E12" s="368"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="181"/>
       <c r="C13" s="184"/>
-      <c r="D13" s="366"/>
-      <c r="E13" s="366"/>
+      <c r="D13" s="368"/>
+      <c r="E13" s="368"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="235"/>
       <c r="C14" s="184"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="235"/>
       <c r="C15" s="184"/>
-      <c r="D15" s="366"/>
-      <c r="E15" s="366"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="368"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="235"/>
       <c r="C16" s="184"/>
-      <c r="D16" s="366"/>
-      <c r="E16" s="366"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="181"/>
       <c r="C17" s="184"/>
-      <c r="D17" s="366"/>
-      <c r="E17" s="366"/>
+      <c r="D17" s="368"/>
+      <c r="E17" s="368"/>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="181"/>
       <c r="C18" s="184"/>
-      <c r="D18" s="366"/>
-      <c r="E18" s="366"/>
+      <c r="D18" s="368"/>
+      <c r="E18" s="368"/>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="181"/>
       <c r="C19" s="184"/>
-      <c r="D19" s="366"/>
-      <c r="E19" s="366"/>
+      <c r="D19" s="368"/>
+      <c r="E19" s="368"/>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="181"/>
       <c r="C20" s="184"/>
-      <c r="D20" s="366"/>
-      <c r="E20" s="366"/>
+      <c r="D20" s="368"/>
+      <c r="E20" s="368"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="300"/>
@@ -40905,7 +40905,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="290" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="299" t="s">
         <v>36</v>
@@ -40913,7 +40913,7 @@
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="186">
         <v>5</v>
@@ -40928,7 +40928,7 @@
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="188" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C25" s="189">
         <v>20</v>
@@ -40943,7 +40943,7 @@
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="188" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26" s="191">
         <v>10</v>
@@ -40958,7 +40958,7 @@
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="188" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="189">
         <v>3</v>
@@ -40973,7 +40973,7 @@
     </row>
     <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="188" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C28" s="189">
         <v>8</v>
@@ -41100,117 +41100,117 @@
       <c r="E40" s="120"/>
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="362" t="s">
+      <c r="B41" s="360" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="363"/>
-      <c r="D41" s="363"/>
-      <c r="E41" s="364"/>
+      <c r="C41" s="361"/>
+      <c r="D41" s="361"/>
+      <c r="E41" s="362"/>
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="344" t="s">
-        <v>266</v>
-      </c>
-      <c r="C42" s="365"/>
-      <c r="D42" s="365"/>
-      <c r="E42" s="345"/>
+      <c r="B42" s="342" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="364"/>
+      <c r="D42" s="364"/>
+      <c r="E42" s="343"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="340" t="s">
-        <v>333</v>
-      </c>
-      <c r="C43" s="361"/>
-      <c r="D43" s="361"/>
+        <v>332</v>
+      </c>
+      <c r="C43" s="363"/>
+      <c r="D43" s="363"/>
       <c r="E43" s="341"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="340"/>
-      <c r="C44" s="361"/>
-      <c r="D44" s="361"/>
+      <c r="C44" s="363"/>
+      <c r="D44" s="363"/>
       <c r="E44" s="341"/>
     </row>
     <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="340"/>
-      <c r="C45" s="361"/>
-      <c r="D45" s="361"/>
+      <c r="C45" s="363"/>
+      <c r="D45" s="363"/>
       <c r="E45" s="341"/>
     </row>
     <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="340"/>
-      <c r="C46" s="361"/>
-      <c r="D46" s="361"/>
+      <c r="C46" s="363"/>
+      <c r="D46" s="363"/>
       <c r="E46" s="341"/>
     </row>
     <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="340"/>
-      <c r="C47" s="361"/>
-      <c r="D47" s="361"/>
+      <c r="C47" s="363"/>
+      <c r="D47" s="363"/>
       <c r="E47" s="341"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="340"/>
-      <c r="C48" s="361"/>
-      <c r="D48" s="361"/>
+      <c r="C48" s="363"/>
+      <c r="D48" s="363"/>
       <c r="E48" s="341"/>
     </row>
     <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="340"/>
-      <c r="C49" s="361"/>
-      <c r="D49" s="361"/>
+      <c r="C49" s="363"/>
+      <c r="D49" s="363"/>
       <c r="E49" s="341"/>
     </row>
     <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="340"/>
-      <c r="C50" s="361"/>
-      <c r="D50" s="361"/>
+      <c r="C50" s="363"/>
+      <c r="D50" s="363"/>
       <c r="E50" s="341"/>
     </row>
     <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="340"/>
-      <c r="C51" s="361"/>
-      <c r="D51" s="361"/>
+      <c r="C51" s="363"/>
+      <c r="D51" s="363"/>
       <c r="E51" s="341"/>
     </row>
     <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="340"/>
-      <c r="C52" s="361"/>
-      <c r="D52" s="361"/>
+      <c r="C52" s="363"/>
+      <c r="D52" s="363"/>
       <c r="E52" s="341"/>
     </row>
     <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="340"/>
-      <c r="C53" s="361"/>
-      <c r="D53" s="361"/>
+      <c r="C53" s="363"/>
+      <c r="D53" s="363"/>
       <c r="E53" s="341"/>
     </row>
     <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="340"/>
-      <c r="C54" s="361"/>
-      <c r="D54" s="361"/>
+      <c r="C54" s="363"/>
+      <c r="D54" s="363"/>
       <c r="E54" s="341"/>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="340"/>
-      <c r="C55" s="361"/>
-      <c r="D55" s="361"/>
+      <c r="C55" s="363"/>
+      <c r="D55" s="363"/>
       <c r="E55" s="341"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="367"/>
-      <c r="C56" s="368"/>
-      <c r="D56" s="368"/>
-      <c r="E56" s="369"/>
+      <c r="B56" s="369"/>
+      <c r="C56" s="370"/>
+      <c r="D56" s="370"/>
+      <c r="E56" s="371"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="e4a8gfQMjh4F1WptukkvjE8HcYVgUpCGWf/8UGwKLcz+N4IzQLzinn0d6xUTcUbW9DX3QmFf2ogb9IrTdJp5gw==" saltValue="JUcmWnwf5nO+ZNUUF9Qhww==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="30">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
@@ -41227,13 +41227,13 @@
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41273,7 +41273,7 @@
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -41283,7 +41283,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -41331,7 +41331,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="202" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="203">
         <v>1000000</v>
@@ -41351,7 +41351,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="188" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="190">
         <v>5000000</v>
@@ -41535,130 +41535,130 @@
       <c r="G27" s="374"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="344" t="s">
-        <v>269</v>
-      </c>
-      <c r="C28" s="365"/>
-      <c r="D28" s="365"/>
-      <c r="E28" s="365"/>
-      <c r="F28" s="365"/>
-      <c r="G28" s="345"/>
+      <c r="B28" s="342" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="364"/>
+      <c r="D28" s="364"/>
+      <c r="E28" s="364"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="343"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340" t="s">
-        <v>334</v>
-      </c>
-      <c r="C29" s="361"/>
-      <c r="D29" s="361"/>
-      <c r="E29" s="361"/>
-      <c r="F29" s="361"/>
+        <v>333</v>
+      </c>
+      <c r="C29" s="363"/>
+      <c r="D29" s="363"/>
+      <c r="E29" s="363"/>
+      <c r="F29" s="363"/>
       <c r="G29" s="341"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" s="361"/>
-      <c r="D30" s="361"/>
-      <c r="E30" s="361"/>
-      <c r="F30" s="361"/>
+        <v>334</v>
+      </c>
+      <c r="C30" s="363"/>
+      <c r="D30" s="363"/>
+      <c r="E30" s="363"/>
+      <c r="F30" s="363"/>
       <c r="G30" s="341"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="340"/>
-      <c r="C31" s="361"/>
-      <c r="D31" s="361"/>
-      <c r="E31" s="361"/>
-      <c r="F31" s="361"/>
+      <c r="C31" s="363"/>
+      <c r="D31" s="363"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="363"/>
       <c r="G31" s="341"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="340"/>
-      <c r="C32" s="361"/>
-      <c r="D32" s="361"/>
-      <c r="E32" s="361"/>
-      <c r="F32" s="361"/>
+      <c r="C32" s="363"/>
+      <c r="D32" s="363"/>
+      <c r="E32" s="363"/>
+      <c r="F32" s="363"/>
       <c r="G32" s="341"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="340"/>
-      <c r="C33" s="361"/>
-      <c r="D33" s="361"/>
-      <c r="E33" s="361"/>
-      <c r="F33" s="361"/>
+      <c r="C33" s="363"/>
+      <c r="D33" s="363"/>
+      <c r="E33" s="363"/>
+      <c r="F33" s="363"/>
       <c r="G33" s="341"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="340"/>
-      <c r="C34" s="361"/>
-      <c r="D34" s="361"/>
-      <c r="E34" s="361"/>
-      <c r="F34" s="361"/>
+      <c r="C34" s="363"/>
+      <c r="D34" s="363"/>
+      <c r="E34" s="363"/>
+      <c r="F34" s="363"/>
       <c r="G34" s="341"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="340"/>
-      <c r="C35" s="361"/>
-      <c r="D35" s="361"/>
-      <c r="E35" s="361"/>
-      <c r="F35" s="361"/>
+      <c r="C35" s="363"/>
+      <c r="D35" s="363"/>
+      <c r="E35" s="363"/>
+      <c r="F35" s="363"/>
       <c r="G35" s="341"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="340"/>
-      <c r="C36" s="361"/>
-      <c r="D36" s="361"/>
-      <c r="E36" s="361"/>
-      <c r="F36" s="361"/>
+      <c r="C36" s="363"/>
+      <c r="D36" s="363"/>
+      <c r="E36" s="363"/>
+      <c r="F36" s="363"/>
       <c r="G36" s="341"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="340"/>
-      <c r="C37" s="361"/>
-      <c r="D37" s="361"/>
-      <c r="E37" s="361"/>
-      <c r="F37" s="361"/>
+      <c r="C37" s="363"/>
+      <c r="D37" s="363"/>
+      <c r="E37" s="363"/>
+      <c r="F37" s="363"/>
       <c r="G37" s="341"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="340"/>
-      <c r="C38" s="361"/>
-      <c r="D38" s="361"/>
-      <c r="E38" s="361"/>
-      <c r="F38" s="361"/>
+      <c r="C38" s="363"/>
+      <c r="D38" s="363"/>
+      <c r="E38" s="363"/>
+      <c r="F38" s="363"/>
       <c r="G38" s="341"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="340"/>
-      <c r="C39" s="361"/>
-      <c r="D39" s="361"/>
-      <c r="E39" s="361"/>
-      <c r="F39" s="361"/>
+      <c r="C39" s="363"/>
+      <c r="D39" s="363"/>
+      <c r="E39" s="363"/>
+      <c r="F39" s="363"/>
       <c r="G39" s="341"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="340"/>
-      <c r="C40" s="361"/>
-      <c r="D40" s="361"/>
-      <c r="E40" s="361"/>
-      <c r="F40" s="361"/>
+      <c r="C40" s="363"/>
+      <c r="D40" s="363"/>
+      <c r="E40" s="363"/>
+      <c r="F40" s="363"/>
       <c r="G40" s="341"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="340"/>
-      <c r="C41" s="361"/>
-      <c r="D41" s="361"/>
-      <c r="E41" s="361"/>
-      <c r="F41" s="361"/>
+      <c r="C41" s="363"/>
+      <c r="D41" s="363"/>
+      <c r="E41" s="363"/>
+      <c r="F41" s="363"/>
       <c r="G41" s="341"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="338"/>
-      <c r="C42" s="360"/>
-      <c r="D42" s="360"/>
-      <c r="E42" s="360"/>
-      <c r="F42" s="360"/>
-      <c r="G42" s="339"/>
+      <c r="B42" s="344"/>
+      <c r="C42" s="365"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="365"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="345"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fQP+Jv3I/2eakwwoAbpnp38SkuAQCSBy9ZRWJ7AYqMbhBRa3xGQ0yEaEypBQp9PF9wx2ZNLoQfQHD2WqBfYWnA==" saltValue="jvb+VeOyKduV2x6Yw6QtYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -41717,7 +41717,7 @@
     </row>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -41729,7 +41729,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -42639,7 +42639,7 @@
     <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
@@ -42651,7 +42651,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -43349,7 +43349,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="226"/>
@@ -43361,7 +43361,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="53"/>
@@ -44331,7 +44331,7 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
       <c r="C64" s="217" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D64" s="313">
         <v>1000000</v>
@@ -44440,7 +44440,7 @@
     </row>
     <row r="2" spans="1:26" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="26"/>
@@ -44463,7 +44463,7 @@
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="6"/>
@@ -45696,7 +45696,7 @@
     </row>
     <row r="59" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
-      <c r="C59" s="342" t="s">
+      <c r="C59" s="338" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="350"/>
@@ -45714,13 +45714,13 @@
       <c r="P59" s="350"/>
       <c r="Q59" s="350"/>
       <c r="R59" s="350"/>
-      <c r="S59" s="343"/>
+      <c r="S59" s="339"/>
       <c r="T59" s="60"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="381" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D60" s="382"/>
       <c r="E60" s="382"/>
@@ -45742,298 +45742,298 @@
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
-      <c r="C61" s="378" t="s">
-        <v>271</v>
-      </c>
-      <c r="D61" s="379"/>
-      <c r="E61" s="379"/>
-      <c r="F61" s="379"/>
-      <c r="G61" s="379"/>
-      <c r="H61" s="379"/>
-      <c r="I61" s="379"/>
-      <c r="J61" s="379"/>
-      <c r="K61" s="379"/>
-      <c r="L61" s="379"/>
-      <c r="M61" s="379"/>
-      <c r="N61" s="379"/>
-      <c r="O61" s="379"/>
-      <c r="P61" s="379"/>
-      <c r="Q61" s="379"/>
-      <c r="R61" s="379"/>
-      <c r="S61" s="380"/>
+      <c r="C61" s="375" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="376"/>
+      <c r="E61" s="376"/>
+      <c r="F61" s="376"/>
+      <c r="G61" s="376"/>
+      <c r="H61" s="376"/>
+      <c r="I61" s="376"/>
+      <c r="J61" s="376"/>
+      <c r="K61" s="376"/>
+      <c r="L61" s="376"/>
+      <c r="M61" s="376"/>
+      <c r="N61" s="376"/>
+      <c r="O61" s="376"/>
+      <c r="P61" s="376"/>
+      <c r="Q61" s="376"/>
+      <c r="R61" s="376"/>
+      <c r="S61" s="377"/>
       <c r="T61" s="60"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59"/>
-      <c r="C62" s="378"/>
-      <c r="D62" s="379"/>
-      <c r="E62" s="379"/>
-      <c r="F62" s="379"/>
-      <c r="G62" s="379"/>
-      <c r="H62" s="379"/>
-      <c r="I62" s="379"/>
-      <c r="J62" s="379"/>
-      <c r="K62" s="379"/>
-      <c r="L62" s="379"/>
-      <c r="M62" s="379"/>
-      <c r="N62" s="379"/>
-      <c r="O62" s="379"/>
-      <c r="P62" s="379"/>
-      <c r="Q62" s="379"/>
-      <c r="R62" s="379"/>
-      <c r="S62" s="380"/>
+      <c r="C62" s="375"/>
+      <c r="D62" s="376"/>
+      <c r="E62" s="376"/>
+      <c r="F62" s="376"/>
+      <c r="G62" s="376"/>
+      <c r="H62" s="376"/>
+      <c r="I62" s="376"/>
+      <c r="J62" s="376"/>
+      <c r="K62" s="376"/>
+      <c r="L62" s="376"/>
+      <c r="M62" s="376"/>
+      <c r="N62" s="376"/>
+      <c r="O62" s="376"/>
+      <c r="P62" s="376"/>
+      <c r="Q62" s="376"/>
+      <c r="R62" s="376"/>
+      <c r="S62" s="377"/>
       <c r="T62" s="60"/>
     </row>
     <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
-      <c r="C63" s="378"/>
-      <c r="D63" s="379"/>
-      <c r="E63" s="379"/>
-      <c r="F63" s="379"/>
-      <c r="G63" s="379"/>
-      <c r="H63" s="379"/>
-      <c r="I63" s="379"/>
-      <c r="J63" s="379"/>
-      <c r="K63" s="379"/>
-      <c r="L63" s="379"/>
-      <c r="M63" s="379"/>
-      <c r="N63" s="379"/>
-      <c r="O63" s="379"/>
-      <c r="P63" s="379"/>
-      <c r="Q63" s="379"/>
-      <c r="R63" s="379"/>
-      <c r="S63" s="380"/>
+      <c r="C63" s="375"/>
+      <c r="D63" s="376"/>
+      <c r="E63" s="376"/>
+      <c r="F63" s="376"/>
+      <c r="G63" s="376"/>
+      <c r="H63" s="376"/>
+      <c r="I63" s="376"/>
+      <c r="J63" s="376"/>
+      <c r="K63" s="376"/>
+      <c r="L63" s="376"/>
+      <c r="M63" s="376"/>
+      <c r="N63" s="376"/>
+      <c r="O63" s="376"/>
+      <c r="P63" s="376"/>
+      <c r="Q63" s="376"/>
+      <c r="R63" s="376"/>
+      <c r="S63" s="377"/>
       <c r="T63" s="60"/>
     </row>
     <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
-      <c r="C64" s="378"/>
-      <c r="D64" s="379"/>
-      <c r="E64" s="379"/>
-      <c r="F64" s="379"/>
-      <c r="G64" s="379"/>
-      <c r="H64" s="379"/>
-      <c r="I64" s="379"/>
-      <c r="J64" s="379"/>
-      <c r="K64" s="379"/>
-      <c r="L64" s="379"/>
-      <c r="M64" s="379"/>
-      <c r="N64" s="379"/>
-      <c r="O64" s="379"/>
-      <c r="P64" s="379"/>
-      <c r="Q64" s="379"/>
-      <c r="R64" s="379"/>
-      <c r="S64" s="380"/>
+      <c r="C64" s="375"/>
+      <c r="D64" s="376"/>
+      <c r="E64" s="376"/>
+      <c r="F64" s="376"/>
+      <c r="G64" s="376"/>
+      <c r="H64" s="376"/>
+      <c r="I64" s="376"/>
+      <c r="J64" s="376"/>
+      <c r="K64" s="376"/>
+      <c r="L64" s="376"/>
+      <c r="M64" s="376"/>
+      <c r="N64" s="376"/>
+      <c r="O64" s="376"/>
+      <c r="P64" s="376"/>
+      <c r="Q64" s="376"/>
+      <c r="R64" s="376"/>
+      <c r="S64" s="377"/>
       <c r="T64" s="60"/>
     </row>
     <row r="65" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
-      <c r="C65" s="378"/>
-      <c r="D65" s="379"/>
-      <c r="E65" s="379"/>
-      <c r="F65" s="379"/>
-      <c r="G65" s="379"/>
-      <c r="H65" s="379"/>
-      <c r="I65" s="379"/>
-      <c r="J65" s="379"/>
-      <c r="K65" s="379"/>
-      <c r="L65" s="379"/>
-      <c r="M65" s="379"/>
-      <c r="N65" s="379"/>
-      <c r="O65" s="379"/>
-      <c r="P65" s="379"/>
-      <c r="Q65" s="379"/>
-      <c r="R65" s="379"/>
-      <c r="S65" s="380"/>
+      <c r="C65" s="375"/>
+      <c r="D65" s="376"/>
+      <c r="E65" s="376"/>
+      <c r="F65" s="376"/>
+      <c r="G65" s="376"/>
+      <c r="H65" s="376"/>
+      <c r="I65" s="376"/>
+      <c r="J65" s="376"/>
+      <c r="K65" s="376"/>
+      <c r="L65" s="376"/>
+      <c r="M65" s="376"/>
+      <c r="N65" s="376"/>
+      <c r="O65" s="376"/>
+      <c r="P65" s="376"/>
+      <c r="Q65" s="376"/>
+      <c r="R65" s="376"/>
+      <c r="S65" s="377"/>
       <c r="T65" s="60"/>
     </row>
     <row r="66" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="59"/>
-      <c r="C66" s="378"/>
-      <c r="D66" s="379"/>
-      <c r="E66" s="379"/>
-      <c r="F66" s="379"/>
-      <c r="G66" s="379"/>
-      <c r="H66" s="379"/>
-      <c r="I66" s="379"/>
-      <c r="J66" s="379"/>
-      <c r="K66" s="379"/>
-      <c r="L66" s="379"/>
-      <c r="M66" s="379"/>
-      <c r="N66" s="379"/>
-      <c r="O66" s="379"/>
-      <c r="P66" s="379"/>
-      <c r="Q66" s="379"/>
-      <c r="R66" s="379"/>
-      <c r="S66" s="380"/>
+      <c r="C66" s="375"/>
+      <c r="D66" s="376"/>
+      <c r="E66" s="376"/>
+      <c r="F66" s="376"/>
+      <c r="G66" s="376"/>
+      <c r="H66" s="376"/>
+      <c r="I66" s="376"/>
+      <c r="J66" s="376"/>
+      <c r="K66" s="376"/>
+      <c r="L66" s="376"/>
+      <c r="M66" s="376"/>
+      <c r="N66" s="376"/>
+      <c r="O66" s="376"/>
+      <c r="P66" s="376"/>
+      <c r="Q66" s="376"/>
+      <c r="R66" s="376"/>
+      <c r="S66" s="377"/>
       <c r="T66" s="60"/>
     </row>
     <row r="67" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="59"/>
-      <c r="C67" s="378"/>
-      <c r="D67" s="379"/>
-      <c r="E67" s="379"/>
-      <c r="F67" s="379"/>
-      <c r="G67" s="379"/>
-      <c r="H67" s="379"/>
-      <c r="I67" s="379"/>
-      <c r="J67" s="379"/>
-      <c r="K67" s="379"/>
-      <c r="L67" s="379"/>
-      <c r="M67" s="379"/>
-      <c r="N67" s="379"/>
-      <c r="O67" s="379"/>
-      <c r="P67" s="379"/>
-      <c r="Q67" s="379"/>
-      <c r="R67" s="379"/>
-      <c r="S67" s="380"/>
+      <c r="C67" s="375"/>
+      <c r="D67" s="376"/>
+      <c r="E67" s="376"/>
+      <c r="F67" s="376"/>
+      <c r="G67" s="376"/>
+      <c r="H67" s="376"/>
+      <c r="I67" s="376"/>
+      <c r="J67" s="376"/>
+      <c r="K67" s="376"/>
+      <c r="L67" s="376"/>
+      <c r="M67" s="376"/>
+      <c r="N67" s="376"/>
+      <c r="O67" s="376"/>
+      <c r="P67" s="376"/>
+      <c r="Q67" s="376"/>
+      <c r="R67" s="376"/>
+      <c r="S67" s="377"/>
       <c r="T67" s="60"/>
     </row>
     <row r="68" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="59"/>
-      <c r="C68" s="378"/>
-      <c r="D68" s="379"/>
-      <c r="E68" s="379"/>
-      <c r="F68" s="379"/>
-      <c r="G68" s="379"/>
-      <c r="H68" s="379"/>
-      <c r="I68" s="379"/>
-      <c r="J68" s="379"/>
-      <c r="K68" s="379"/>
-      <c r="L68" s="379"/>
-      <c r="M68" s="379"/>
-      <c r="N68" s="379"/>
-      <c r="O68" s="379"/>
-      <c r="P68" s="379"/>
-      <c r="Q68" s="379"/>
-      <c r="R68" s="379"/>
-      <c r="S68" s="380"/>
+      <c r="C68" s="375"/>
+      <c r="D68" s="376"/>
+      <c r="E68" s="376"/>
+      <c r="F68" s="376"/>
+      <c r="G68" s="376"/>
+      <c r="H68" s="376"/>
+      <c r="I68" s="376"/>
+      <c r="J68" s="376"/>
+      <c r="K68" s="376"/>
+      <c r="L68" s="376"/>
+      <c r="M68" s="376"/>
+      <c r="N68" s="376"/>
+      <c r="O68" s="376"/>
+      <c r="P68" s="376"/>
+      <c r="Q68" s="376"/>
+      <c r="R68" s="376"/>
+      <c r="S68" s="377"/>
       <c r="T68" s="60"/>
     </row>
     <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="59"/>
-      <c r="C69" s="378"/>
-      <c r="D69" s="379"/>
-      <c r="E69" s="379"/>
-      <c r="F69" s="379"/>
-      <c r="G69" s="379"/>
-      <c r="H69" s="379"/>
-      <c r="I69" s="379"/>
-      <c r="J69" s="379"/>
-      <c r="K69" s="379"/>
-      <c r="L69" s="379"/>
-      <c r="M69" s="379"/>
-      <c r="N69" s="379"/>
-      <c r="O69" s="379"/>
-      <c r="P69" s="379"/>
-      <c r="Q69" s="379"/>
-      <c r="R69" s="379"/>
-      <c r="S69" s="380"/>
+      <c r="C69" s="375"/>
+      <c r="D69" s="376"/>
+      <c r="E69" s="376"/>
+      <c r="F69" s="376"/>
+      <c r="G69" s="376"/>
+      <c r="H69" s="376"/>
+      <c r="I69" s="376"/>
+      <c r="J69" s="376"/>
+      <c r="K69" s="376"/>
+      <c r="L69" s="376"/>
+      <c r="M69" s="376"/>
+      <c r="N69" s="376"/>
+      <c r="O69" s="376"/>
+      <c r="P69" s="376"/>
+      <c r="Q69" s="376"/>
+      <c r="R69" s="376"/>
+      <c r="S69" s="377"/>
       <c r="T69" s="60"/>
     </row>
     <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="59"/>
-      <c r="C70" s="378"/>
-      <c r="D70" s="379"/>
-      <c r="E70" s="379"/>
-      <c r="F70" s="379"/>
-      <c r="G70" s="379"/>
-      <c r="H70" s="379"/>
-      <c r="I70" s="379"/>
-      <c r="J70" s="379"/>
-      <c r="K70" s="379"/>
-      <c r="L70" s="379"/>
-      <c r="M70" s="379"/>
-      <c r="N70" s="379"/>
-      <c r="O70" s="379"/>
-      <c r="P70" s="379"/>
-      <c r="Q70" s="379"/>
-      <c r="R70" s="379"/>
-      <c r="S70" s="380"/>
+      <c r="C70" s="375"/>
+      <c r="D70" s="376"/>
+      <c r="E70" s="376"/>
+      <c r="F70" s="376"/>
+      <c r="G70" s="376"/>
+      <c r="H70" s="376"/>
+      <c r="I70" s="376"/>
+      <c r="J70" s="376"/>
+      <c r="K70" s="376"/>
+      <c r="L70" s="376"/>
+      <c r="M70" s="376"/>
+      <c r="N70" s="376"/>
+      <c r="O70" s="376"/>
+      <c r="P70" s="376"/>
+      <c r="Q70" s="376"/>
+      <c r="R70" s="376"/>
+      <c r="S70" s="377"/>
       <c r="T70" s="60"/>
     </row>
     <row r="71" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="59"/>
-      <c r="C71" s="378"/>
-      <c r="D71" s="379"/>
-      <c r="E71" s="379"/>
-      <c r="F71" s="379"/>
-      <c r="G71" s="379"/>
-      <c r="H71" s="379"/>
-      <c r="I71" s="379"/>
-      <c r="J71" s="379"/>
-      <c r="K71" s="379"/>
-      <c r="L71" s="379"/>
-      <c r="M71" s="379"/>
-      <c r="N71" s="379"/>
-      <c r="O71" s="379"/>
-      <c r="P71" s="379"/>
-      <c r="Q71" s="379"/>
-      <c r="R71" s="379"/>
-      <c r="S71" s="380"/>
+      <c r="C71" s="375"/>
+      <c r="D71" s="376"/>
+      <c r="E71" s="376"/>
+      <c r="F71" s="376"/>
+      <c r="G71" s="376"/>
+      <c r="H71" s="376"/>
+      <c r="I71" s="376"/>
+      <c r="J71" s="376"/>
+      <c r="K71" s="376"/>
+      <c r="L71" s="376"/>
+      <c r="M71" s="376"/>
+      <c r="N71" s="376"/>
+      <c r="O71" s="376"/>
+      <c r="P71" s="376"/>
+      <c r="Q71" s="376"/>
+      <c r="R71" s="376"/>
+      <c r="S71" s="377"/>
       <c r="T71" s="60"/>
     </row>
     <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="59"/>
-      <c r="C72" s="378"/>
-      <c r="D72" s="379"/>
-      <c r="E72" s="379"/>
-      <c r="F72" s="379"/>
-      <c r="G72" s="379"/>
-      <c r="H72" s="379"/>
-      <c r="I72" s="379"/>
-      <c r="J72" s="379"/>
-      <c r="K72" s="379"/>
-      <c r="L72" s="379"/>
-      <c r="M72" s="379"/>
-      <c r="N72" s="379"/>
-      <c r="O72" s="379"/>
-      <c r="P72" s="379"/>
-      <c r="Q72" s="379"/>
-      <c r="R72" s="379"/>
-      <c r="S72" s="380"/>
+      <c r="C72" s="375"/>
+      <c r="D72" s="376"/>
+      <c r="E72" s="376"/>
+      <c r="F72" s="376"/>
+      <c r="G72" s="376"/>
+      <c r="H72" s="376"/>
+      <c r="I72" s="376"/>
+      <c r="J72" s="376"/>
+      <c r="K72" s="376"/>
+      <c r="L72" s="376"/>
+      <c r="M72" s="376"/>
+      <c r="N72" s="376"/>
+      <c r="O72" s="376"/>
+      <c r="P72" s="376"/>
+      <c r="Q72" s="376"/>
+      <c r="R72" s="376"/>
+      <c r="S72" s="377"/>
       <c r="T72" s="60"/>
     </row>
     <row r="73" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="59"/>
-      <c r="C73" s="378"/>
-      <c r="D73" s="379"/>
-      <c r="E73" s="379"/>
-      <c r="F73" s="379"/>
-      <c r="G73" s="379"/>
-      <c r="H73" s="379"/>
-      <c r="I73" s="379"/>
-      <c r="J73" s="379"/>
-      <c r="K73" s="379"/>
-      <c r="L73" s="379"/>
-      <c r="M73" s="379"/>
-      <c r="N73" s="379"/>
-      <c r="O73" s="379"/>
-      <c r="P73" s="379"/>
-      <c r="Q73" s="379"/>
-      <c r="R73" s="379"/>
-      <c r="S73" s="380"/>
+      <c r="C73" s="375"/>
+      <c r="D73" s="376"/>
+      <c r="E73" s="376"/>
+      <c r="F73" s="376"/>
+      <c r="G73" s="376"/>
+      <c r="H73" s="376"/>
+      <c r="I73" s="376"/>
+      <c r="J73" s="376"/>
+      <c r="K73" s="376"/>
+      <c r="L73" s="376"/>
+      <c r="M73" s="376"/>
+      <c r="N73" s="376"/>
+      <c r="O73" s="376"/>
+      <c r="P73" s="376"/>
+      <c r="Q73" s="376"/>
+      <c r="R73" s="376"/>
+      <c r="S73" s="377"/>
       <c r="T73" s="60"/>
     </row>
     <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
-      <c r="C74" s="375"/>
-      <c r="D74" s="376"/>
-      <c r="E74" s="376"/>
-      <c r="F74" s="376"/>
-      <c r="G74" s="376"/>
-      <c r="H74" s="376"/>
-      <c r="I74" s="376"/>
-      <c r="J74" s="376"/>
-      <c r="K74" s="376"/>
-      <c r="L74" s="376"/>
-      <c r="M74" s="376"/>
-      <c r="N74" s="376"/>
-      <c r="O74" s="376"/>
-      <c r="P74" s="376"/>
-      <c r="Q74" s="376"/>
-      <c r="R74" s="376"/>
-      <c r="S74" s="377"/>
+      <c r="C74" s="378"/>
+      <c r="D74" s="379"/>
+      <c r="E74" s="379"/>
+      <c r="F74" s="379"/>
+      <c r="G74" s="379"/>
+      <c r="H74" s="379"/>
+      <c r="I74" s="379"/>
+      <c r="J74" s="379"/>
+      <c r="K74" s="379"/>
+      <c r="L74" s="379"/>
+      <c r="M74" s="379"/>
+      <c r="N74" s="379"/>
+      <c r="O74" s="379"/>
+      <c r="P74" s="379"/>
+      <c r="Q74" s="379"/>
+      <c r="R74" s="379"/>
+      <c r="S74" s="380"/>
       <c r="T74" s="60"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
@@ -46060,12 +46060,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrvXTNEyg6ecmYncpmv63lHNkpCjj8zGGjyL/TJQBr5/3IiD3LSnAlxGpWZY2KJcUE/YM0fQ1in6NcWorcIWfw==" saltValue="gcPC3KzDvckzqrICh2VFzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
-    <mergeCell ref="C59:S59"/>
-    <mergeCell ref="C70:S70"/>
-    <mergeCell ref="C69:S69"/>
-    <mergeCell ref="C68:S68"/>
-    <mergeCell ref="C62:S62"/>
-    <mergeCell ref="C61:S61"/>
     <mergeCell ref="C74:S74"/>
     <mergeCell ref="C73:S73"/>
     <mergeCell ref="C72:S72"/>
@@ -46076,6 +46070,12 @@
     <mergeCell ref="C65:S65"/>
     <mergeCell ref="C66:S66"/>
     <mergeCell ref="C67:S67"/>
+    <mergeCell ref="C59:S59"/>
+    <mergeCell ref="C70:S70"/>
+    <mergeCell ref="C69:S69"/>
+    <mergeCell ref="C68:S68"/>
+    <mergeCell ref="C62:S62"/>
+    <mergeCell ref="C61:S61"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -46110,7 +46110,7 @@
     <row r="1" spans="2:64" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:64" s="231" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="333" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="228"/>
       <c r="D2" s="229"/>
@@ -46164,7 +46164,7 @@
     </row>
     <row r="3" spans="2:64" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="7"/>
@@ -46504,7 +46504,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -46512,7 +46512,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -46538,10 +46538,10 @@
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="323" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" s="323" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="324">
         <v>44593</v>
@@ -46549,10 +46549,10 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="325" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="325" t="s">
         <v>284</v>
-      </c>
-      <c r="C7" s="325" t="s">
-        <v>285</v>
       </c>
       <c r="D7" s="326">
         <v>44597</v>
@@ -46560,7 +46560,7 @@
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="325" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="325"/>
       <c r="D8" s="326">
@@ -46569,7 +46569,7 @@
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="325" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="325"/>
       <c r="D9" s="326">
@@ -46578,10 +46578,10 @@
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="325" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C10" s="325" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="326">
         <v>44926</v>
@@ -46589,10 +46589,10 @@
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="325" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="325" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="326">
         <v>44926</v>
@@ -46600,7 +46600,7 @@
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="325" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12" s="325"/>
       <c r="D12" s="326">
@@ -46609,7 +46609,7 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="325" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" s="325"/>
       <c r="D13" s="326">
@@ -46618,10 +46618,10 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="325" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C14" s="325" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="326">
         <v>46387</v>
@@ -46868,13 +46868,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -46927,7 +46927,7 @@
     </row>
     <row r="2" spans="1:6" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -46936,7 +46936,7 @@
     </row>
     <row r="3" spans="1:6" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -47465,13 +47465,13 @@
     </row>
     <row r="2" spans="1:3" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="219"/>
     </row>
     <row r="3" spans="1:3" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -47490,7 +47490,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47498,7 +47498,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="169" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47506,7 +47506,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47514,7 +47514,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47522,7 +47522,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47530,7 +47530,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47538,7 +47538,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="169" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -47558,10 +47558,10 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47579,13 +47579,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47604,7 +47604,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47612,7 +47612,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="171" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47620,7 +47620,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47628,7 +47628,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47636,7 +47636,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47644,15 +47644,15 @@
         <v>89</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="292" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47660,7 +47660,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47668,7 +47668,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -47688,10 +47688,10 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47708,13 +47708,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47733,7 +47733,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>202</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47741,7 +47741,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47754,26 +47754,26 @@
     </row>
     <row r="9" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="250" t="s">
         <v>310</v>
-      </c>
-      <c r="C9" s="250" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="292" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="250" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="292" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="250" t="s">
         <v>313</v>
-      </c>
-      <c r="C11" s="250" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -47781,26 +47781,26 @@
       <c r="C12" s="47"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="342" t="s">
+      <c r="B13" s="338" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="343"/>
+      <c r="C13" s="339"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="344" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="345"/>
+      <c r="B14" s="342" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="343"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="340" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="341"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="340" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" s="341"/>
     </row>
@@ -47849,12 +47849,17 @@
       <c r="C27" s="341"/>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="338"/>
-      <c r="C28" s="339"/>
+      <c r="B28" s="344"/>
+      <c r="C28" s="345"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QWAILGKV4ZR+dz45sQNjWVz1jknfFAxJFIx1hCSeiPEL6oYSelXKO0nkHyIjY2Xc01Xzw6ZhttEVShqaxrPiPA==" saltValue="k7C7+m0hzWH8JcqwKh2YCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
@@ -47866,11 +47871,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -47907,13 +47907,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -47932,19 +47932,19 @@
         <v>93</v>
       </c>
       <c r="C6" s="251" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="346"/>
       <c r="C7" s="251" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="346"/>
       <c r="C8" s="251" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -47972,25 +47972,25 @@
         <v>94</v>
       </c>
       <c r="C14" s="253" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="347"/>
       <c r="C15" s="253" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="347"/>
       <c r="C16" s="253" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="347"/>
       <c r="C17" s="253" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48014,19 +48014,19 @@
         <v>95</v>
       </c>
       <c r="C22" s="254" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="348"/>
       <c r="C23" s="254" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="348"/>
       <c r="C24" s="254" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48054,19 +48054,19 @@
         <v>96</v>
       </c>
       <c r="C30" s="255" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="349"/>
       <c r="C31" s="255" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="349"/>
       <c r="C32" s="255" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48129,7 +48129,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -48141,7 +48141,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -48184,13 +48184,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="337" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="337" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="337" t="s">
+      <c r="G6" s="337" t="s">
         <v>221</v>
-      </c>
-      <c r="G6" s="337" t="s">
-        <v>222</v>
       </c>
       <c r="H6" s="337" t="s">
         <v>97</v>
@@ -48537,7 +48537,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="342" t="s">
+      <c r="B29" s="338" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="350"/>
@@ -48546,11 +48546,11 @@
       <c r="F29" s="350"/>
       <c r="G29" s="350"/>
       <c r="H29" s="350"/>
-      <c r="I29" s="343"/>
+      <c r="I29" s="339"/>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="357" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" s="358"/>
       <c r="D30" s="358"/>
@@ -48562,7 +48562,7 @@
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="354" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31" s="355"/>
       <c r="D31" s="355"/>
@@ -48574,7 +48574,7 @@
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="354" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32" s="355"/>
       <c r="D32" s="355"/>
@@ -48782,7 +48782,7 @@
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -48795,7 +48795,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -48844,7 +48844,7 @@
       </c>
       <c r="G6" s="256"/>
       <c r="H6" s="267" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I6" s="256"/>
       <c r="J6" s="268" t="s">
@@ -48853,70 +48853,70 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="257" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="258"/>
       <c r="D7" s="259" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="260"/>
       <c r="F7" s="261" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G7" s="260"/>
       <c r="H7" s="262" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I7" s="260"/>
       <c r="J7" s="263" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="257" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="258"/>
       <c r="D8" s="259" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8" s="260"/>
       <c r="F8" s="261" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G8" s="260"/>
       <c r="H8" s="262" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I8" s="260"/>
       <c r="J8" s="263" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="257" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="258"/>
       <c r="D9" s="259" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" s="260"/>
       <c r="F9" s="261" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="260"/>
       <c r="H9" s="262" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I9" s="260"/>
       <c r="J9" s="263" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="257" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="258"/>
       <c r="D10" s="259"/>
@@ -49157,7 +49157,7 @@
     </row>
     <row r="2" spans="1:8" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -49168,7 +49168,7 @@
     </row>
     <row r="3" spans="1:8" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -49251,54 +49251,54 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="288" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="289"/>
       <c r="D10" s="262" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="289"/>
       <c r="F10" s="261" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G10" s="289"/>
       <c r="H10" s="263" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="288" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" s="289"/>
       <c r="D11" s="262" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="289"/>
       <c r="F11" s="261" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G11" s="289"/>
       <c r="H11" s="263" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="288" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="289"/>
       <c r="D12" s="262"/>
       <c r="E12" s="289"/>
       <c r="F12" s="261" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G12" s="289"/>
       <c r="H12" s="263"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="288" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" s="289"/>
       <c r="D13" s="262"/>

--- a/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
+++ b/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c\source\repos\faculty\faculty\an_2\sem_1\M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7506FFB-4385-45F3-B115-F2857A801590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931BC7DD-670E-45F9-B1A1-D7738312E19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="O2pZeXeucL6OySNC7AknZdZAyXoN/m0/9At13Y17SnJe3PRhRKhh5R2CulRtevnypPEYgGoXIEttHB4aNlfRwQ==" workbookSaltValue="uQIfLlIkgsrrIpl+3gXPNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="4" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="361">
   <si>
     <r>
       <t xml:space="preserve">This End-User License Agreement is a legal agreement between you and </t>
@@ -851,39 +851,6 @@
     <t>Dividends Received from Affiliates</t>
   </si>
   <si>
-    <t>We target a 10% share in five years.</t>
-  </si>
-  <si>
-    <t>Our targeted children books industry is about US$500 million.</t>
-  </si>
-  <si>
-    <t>So the children e-books industry is predicted to be at US$500 million.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total e-book industry is estimated by PP Agency to reach US$2.5 billion. In printed books, the children literature takes nearly 20% share. </t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>All genders</t>
-  </si>
-  <si>
-    <t>0-14 year-old children</t>
-  </si>
-  <si>
-    <t>Middle-to-High Income</t>
-  </si>
-  <si>
-    <t>Familiar with digital devices</t>
-  </si>
-  <si>
-    <t>Having lots of time on computer, tablet etc.</t>
-  </si>
-  <si>
-    <t>Parents with an wish to make their children read more.</t>
-  </si>
-  <si>
     <t>Does spend for intellectual products.</t>
   </si>
   <si>
@@ -891,15 +858,6 @@
   </si>
   <si>
     <t>Sticking to favorite apps</t>
-  </si>
-  <si>
-    <t>School kids</t>
-  </si>
-  <si>
-    <t>English speaking countries</t>
-  </si>
-  <si>
-    <t>Australia</t>
   </si>
   <si>
     <t>Panda Books</t>
@@ -1175,16 +1133,10 @@
     <t>Market Saturation</t>
   </si>
   <si>
-    <t>Introduction Stage</t>
-  </si>
-  <si>
     <t>Main Location</t>
   </si>
   <si>
     <t>Future Aspects</t>
-  </si>
-  <si>
-    <t>Great growth opportunity</t>
   </si>
   <si>
     <t>3. MARKETING / TARGET MARKET ANALYSIS</t>
@@ -1304,7 +1256,76 @@
     <t>Comenzile plasate sunt pregătite și livrate cât mai rapid posibil, pentru a asigura satisfacția maximă clienților noștri.</t>
   </si>
   <si>
-    <t>Industria de catering se așteaptă să atingă valoarea US$2,540.05 billion (estimated by PP Agency).</t>
+    <t>Dimensiunea industriei de catering se așteaptă să atingă valoarea US$2,540.05 miliarde (estimat de IBISWorld).</t>
+  </si>
+  <si>
+    <t>Stadiu introductiv</t>
+  </si>
+  <si>
+    <t>România</t>
+  </si>
+  <si>
+    <t>Dimensiunea industriei de catering (serviciilor de mâncărie gătite) se așteaptă să atingă valoarea US$2,540.05 miliarde (potrivit IBISWorld).</t>
+  </si>
+  <si>
+    <t>Dimensiunea pieței-țintă din România este de US$4 miliarde.</t>
+  </si>
+  <si>
+    <t>Pe plan local, în limitele României, dimensiunea pieței atinge valoarea de US$4 miliarde.</t>
+  </si>
+  <si>
+    <t>Noi țintim o cotă de 5% acțiuni în 5 ani.</t>
+  </si>
+  <si>
+    <t>excepția anului 2020, când pe fondul crizei pandemice rata de creștere a înregistrat -15%.</t>
+  </si>
+  <si>
+    <t>Principalii actori din această industrie sunt Tazz by Emag, FoodPanda, TakeAway, Bolt, UberEats.</t>
+  </si>
+  <si>
+    <t>Trendul general este în descreștere, din cauza ameliorării pandemiei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principalele provocări din domeniu sunt: încrederea în procesul de manipulare a alimentelor, metodele de livrare, cererea de </t>
+  </si>
+  <si>
+    <t>tranzacții fără contact, lipsa forței de muncă.</t>
+  </si>
+  <si>
+    <t>Oportunitate medie de creștere</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Timiș</t>
+  </si>
+  <si>
+    <t>Timișoara</t>
+  </si>
+  <si>
+    <t>Tineri, adulți</t>
+  </si>
+  <si>
+    <t>Venit mediu spre ridicat</t>
+  </si>
+  <si>
+    <t>Toate identitățile de gen</t>
+  </si>
+  <si>
+    <t>Familiari cu serviciile digitale, online banking, tranzacții online</t>
+  </si>
+  <si>
+    <t>Adulți încadrați în procesul de muncă, angajați</t>
+  </si>
+  <si>
+    <t>Persoane cu puțin timp pentru gătit</t>
+  </si>
+  <si>
+    <t>Persoane cu gusturi gurmande specifice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratele anuale de creștere a vânzărilor în industria de catering din România, în ultimii 5 ani, variază între 10 și 20%, cu </t>
   </si>
 </sst>
 </file>
@@ -4104,12 +4125,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4120,19 +4141,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -4192,6 +4213,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -4204,24 +4233,8 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4240,6 +4253,14 @@
       <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4252,6 +4273,18 @@
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4261,18 +4294,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -39839,7 +39860,7 @@
     </row>
     <row r="2" spans="1:15" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="248"/>
@@ -39857,7 +39878,7 @@
     </row>
     <row r="3" spans="1:15" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="249"/>
@@ -39927,7 +39948,7 @@
     <row r="7" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="168" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D7" s="168"/>
       <c r="E7" s="168"/>
@@ -39960,14 +39981,14 @@
       <c r="B9" s="15"/>
       <c r="C9" s="165"/>
       <c r="D9" s="245" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E9" s="245"/>
       <c r="F9" s="245"/>
       <c r="G9" s="155"/>
       <c r="H9" s="160"/>
       <c r="I9" s="245" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="J9" s="245"/>
       <c r="K9" s="245"/>
@@ -40028,14 +40049,14 @@
       <c r="B13" s="15"/>
       <c r="C13" s="164"/>
       <c r="D13" s="245" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E13" s="245"/>
       <c r="F13" s="245"/>
       <c r="G13" s="155"/>
       <c r="H13" s="161"/>
       <c r="I13" s="245" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="J13" s="245"/>
       <c r="K13" s="245"/>
@@ -40130,7 +40151,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="163"/>
       <c r="D19" s="245" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E19" s="245"/>
       <c r="F19" s="245"/>
@@ -40241,7 +40262,7 @@
       <c r="G25" s="155"/>
       <c r="H25" s="162"/>
       <c r="I25" s="245" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="J25" s="245"/>
       <c r="K25" s="245"/>
@@ -40459,14 +40480,14 @@
     </row>
     <row r="2" spans="1:4" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -40502,7 +40523,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="236" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40513,7 +40534,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="236" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40524,7 +40545,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="236" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40544,7 +40565,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="236" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40576,103 +40597,98 @@
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="360" t="s">
+      <c r="B16" s="362" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="361"/>
-      <c r="D16" s="362"/>
+      <c r="C16" s="363"/>
+      <c r="D16" s="364"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="342" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="364"/>
-      <c r="D17" s="343"/>
+      <c r="B17" s="344" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="365"/>
+      <c r="D17" s="345"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="340" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="363"/>
+        <v>231</v>
+      </c>
+      <c r="C18" s="361"/>
       <c r="D18" s="341"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="340" t="s">
-        <v>331</v>
-      </c>
-      <c r="C19" s="363"/>
+        <v>315</v>
+      </c>
+      <c r="C19" s="361"/>
       <c r="D19" s="341"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="340" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="363"/>
+        <v>232</v>
+      </c>
+      <c r="C20" s="361"/>
       <c r="D20" s="341"/>
     </row>
     <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="340"/>
-      <c r="C21" s="363"/>
+      <c r="C21" s="361"/>
       <c r="D21" s="341"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="340"/>
-      <c r="C22" s="363"/>
+      <c r="C22" s="361"/>
       <c r="D22" s="341"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="340"/>
-      <c r="C23" s="363"/>
+      <c r="C23" s="361"/>
       <c r="D23" s="341"/>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="340"/>
-      <c r="C24" s="363"/>
+      <c r="C24" s="361"/>
       <c r="D24" s="341"/>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="340"/>
-      <c r="C25" s="363"/>
+      <c r="C25" s="361"/>
       <c r="D25" s="341"/>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="340"/>
-      <c r="C26" s="363"/>
+      <c r="C26" s="361"/>
       <c r="D26" s="341"/>
     </row>
     <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="340"/>
-      <c r="C27" s="363"/>
+      <c r="C27" s="361"/>
       <c r="D27" s="341"/>
     </row>
     <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="340"/>
-      <c r="C28" s="363"/>
+      <c r="C28" s="361"/>
       <c r="D28" s="341"/>
     </row>
     <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340"/>
-      <c r="C29" s="363"/>
+      <c r="C29" s="361"/>
       <c r="D29" s="341"/>
     </row>
     <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340"/>
-      <c r="C30" s="363"/>
+      <c r="C30" s="361"/>
       <c r="D30" s="341"/>
     </row>
     <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="344"/>
-      <c r="C31" s="365"/>
-      <c r="D31" s="345"/>
+      <c r="B31" s="338"/>
+      <c r="C31" s="360"/>
+      <c r="D31" s="339"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="UCGY9eszZs9CIViHMThBw7fwHHrsg74VWMxEdvt0AHxwFsPjJ4F5bHDEwJjqVw/86ZZUZWi5kfaxgDbTVsh5+A==" saltValue="sp2iB7I+4IjtyrsJwv1w1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B20:D20"/>
@@ -40684,6 +40700,11 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B14" xr:uid="{CF462609-70FD-4174-95B0-56CFEBAF0773}">
@@ -40727,7 +40748,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -40735,7 +40756,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -40768,120 +40789,120 @@
         <v>100</v>
       </c>
       <c r="C7" s="297" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="366" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="371" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="366"/>
+      <c r="E7" s="371"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="182" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C8" s="183" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="367" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="368"/>
+        <v>236</v>
+      </c>
+      <c r="D8" s="370" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="366"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="182" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C9" s="183" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="367" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="368"/>
+        <v>236</v>
+      </c>
+      <c r="D9" s="370" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="366"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="182" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C10" s="183" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="367" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="368"/>
+        <v>237</v>
+      </c>
+      <c r="D10" s="370" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="366"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="182" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C11" s="183" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="367" t="s">
-        <v>257</v>
-      </c>
-      <c r="E11" s="368"/>
+        <v>244</v>
+      </c>
+      <c r="D11" s="370" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="366"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="182" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C12" s="183" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="367" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="368"/>
+        <v>246</v>
+      </c>
+      <c r="D12" s="370" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="366"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="181"/>
       <c r="C13" s="184"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
+      <c r="D13" s="366"/>
+      <c r="E13" s="366"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="235"/>
       <c r="C14" s="184"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="235"/>
       <c r="C15" s="184"/>
-      <c r="D15" s="368"/>
-      <c r="E15" s="368"/>
+      <c r="D15" s="366"/>
+      <c r="E15" s="366"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="235"/>
       <c r="C16" s="184"/>
-      <c r="D16" s="368"/>
-      <c r="E16" s="368"/>
+      <c r="D16" s="366"/>
+      <c r="E16" s="366"/>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="181"/>
       <c r="C17" s="184"/>
-      <c r="D17" s="368"/>
-      <c r="E17" s="368"/>
+      <c r="D17" s="366"/>
+      <c r="E17" s="366"/>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="181"/>
       <c r="C18" s="184"/>
-      <c r="D18" s="368"/>
-      <c r="E18" s="368"/>
+      <c r="D18" s="366"/>
+      <c r="E18" s="366"/>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="181"/>
       <c r="C19" s="184"/>
-      <c r="D19" s="368"/>
-      <c r="E19" s="368"/>
+      <c r="D19" s="366"/>
+      <c r="E19" s="366"/>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="181"/>
       <c r="C20" s="184"/>
-      <c r="D20" s="368"/>
-      <c r="E20" s="368"/>
+      <c r="D20" s="366"/>
+      <c r="E20" s="366"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="300"/>
@@ -40905,7 +40926,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="290" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E23" s="299" t="s">
         <v>36</v>
@@ -40913,7 +40934,7 @@
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="185" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C24" s="186">
         <v>5</v>
@@ -40928,7 +40949,7 @@
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="188" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C25" s="189">
         <v>20</v>
@@ -40943,7 +40964,7 @@
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="188" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C26" s="191">
         <v>10</v>
@@ -40958,7 +40979,7 @@
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="188" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C27" s="189">
         <v>3</v>
@@ -40973,7 +40994,7 @@
     </row>
     <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="188" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C28" s="189">
         <v>8</v>
@@ -41100,117 +41121,117 @@
       <c r="E40" s="120"/>
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="360" t="s">
+      <c r="B41" s="362" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="361"/>
-      <c r="D41" s="361"/>
-      <c r="E41" s="362"/>
+      <c r="C41" s="363"/>
+      <c r="D41" s="363"/>
+      <c r="E41" s="364"/>
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="342" t="s">
-        <v>265</v>
-      </c>
-      <c r="C42" s="364"/>
-      <c r="D42" s="364"/>
-      <c r="E42" s="343"/>
+      <c r="B42" s="344" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="365"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="345"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="340" t="s">
-        <v>332</v>
-      </c>
-      <c r="C43" s="363"/>
-      <c r="D43" s="363"/>
+        <v>316</v>
+      </c>
+      <c r="C43" s="361"/>
+      <c r="D43" s="361"/>
       <c r="E43" s="341"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="340"/>
-      <c r="C44" s="363"/>
-      <c r="D44" s="363"/>
+      <c r="C44" s="361"/>
+      <c r="D44" s="361"/>
       <c r="E44" s="341"/>
     </row>
     <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="340"/>
-      <c r="C45" s="363"/>
-      <c r="D45" s="363"/>
+      <c r="C45" s="361"/>
+      <c r="D45" s="361"/>
       <c r="E45" s="341"/>
     </row>
     <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="340"/>
-      <c r="C46" s="363"/>
-      <c r="D46" s="363"/>
+      <c r="C46" s="361"/>
+      <c r="D46" s="361"/>
       <c r="E46" s="341"/>
     </row>
     <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="340"/>
-      <c r="C47" s="363"/>
-      <c r="D47" s="363"/>
+      <c r="C47" s="361"/>
+      <c r="D47" s="361"/>
       <c r="E47" s="341"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="340"/>
-      <c r="C48" s="363"/>
-      <c r="D48" s="363"/>
+      <c r="C48" s="361"/>
+      <c r="D48" s="361"/>
       <c r="E48" s="341"/>
     </row>
     <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="340"/>
-      <c r="C49" s="363"/>
-      <c r="D49" s="363"/>
+      <c r="C49" s="361"/>
+      <c r="D49" s="361"/>
       <c r="E49" s="341"/>
     </row>
     <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="340"/>
-      <c r="C50" s="363"/>
-      <c r="D50" s="363"/>
+      <c r="C50" s="361"/>
+      <c r="D50" s="361"/>
       <c r="E50" s="341"/>
     </row>
     <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="340"/>
-      <c r="C51" s="363"/>
-      <c r="D51" s="363"/>
+      <c r="C51" s="361"/>
+      <c r="D51" s="361"/>
       <c r="E51" s="341"/>
     </row>
     <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="340"/>
-      <c r="C52" s="363"/>
-      <c r="D52" s="363"/>
+      <c r="C52" s="361"/>
+      <c r="D52" s="361"/>
       <c r="E52" s="341"/>
     </row>
     <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="340"/>
-      <c r="C53" s="363"/>
-      <c r="D53" s="363"/>
+      <c r="C53" s="361"/>
+      <c r="D53" s="361"/>
       <c r="E53" s="341"/>
     </row>
     <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="340"/>
-      <c r="C54" s="363"/>
-      <c r="D54" s="363"/>
+      <c r="C54" s="361"/>
+      <c r="D54" s="361"/>
       <c r="E54" s="341"/>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="340"/>
-      <c r="C55" s="363"/>
-      <c r="D55" s="363"/>
+      <c r="C55" s="361"/>
+      <c r="D55" s="361"/>
       <c r="E55" s="341"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="369"/>
-      <c r="C56" s="370"/>
-      <c r="D56" s="370"/>
-      <c r="E56" s="371"/>
+      <c r="B56" s="367"/>
+      <c r="C56" s="368"/>
+      <c r="D56" s="368"/>
+      <c r="E56" s="369"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="e4a8gfQMjh4F1WptukkvjE8HcYVgUpCGWf/8UGwKLcz+N4IzQLzinn0d6xUTcUbW9DX3QmFf2ogb9IrTdJp5gw==" saltValue="JUcmWnwf5nO+ZNUUF9Qhww==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="30">
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
@@ -41227,13 +41248,13 @@
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B46:E46"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41273,7 +41294,7 @@
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -41283,7 +41304,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -41331,7 +41352,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="202" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C7" s="203">
         <v>1000000</v>
@@ -41351,7 +41372,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="188" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C8" s="190">
         <v>5000000</v>
@@ -41535,130 +41556,130 @@
       <c r="G27" s="374"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="342" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="364"/>
-      <c r="D28" s="364"/>
-      <c r="E28" s="364"/>
-      <c r="F28" s="364"/>
-      <c r="G28" s="343"/>
+      <c r="B28" s="344" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="365"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="365"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="345"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340" t="s">
-        <v>333</v>
-      </c>
-      <c r="C29" s="363"/>
-      <c r="D29" s="363"/>
-      <c r="E29" s="363"/>
-      <c r="F29" s="363"/>
+        <v>317</v>
+      </c>
+      <c r="C29" s="361"/>
+      <c r="D29" s="361"/>
+      <c r="E29" s="361"/>
+      <c r="F29" s="361"/>
       <c r="G29" s="341"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340" t="s">
-        <v>334</v>
-      </c>
-      <c r="C30" s="363"/>
-      <c r="D30" s="363"/>
-      <c r="E30" s="363"/>
-      <c r="F30" s="363"/>
+        <v>318</v>
+      </c>
+      <c r="C30" s="361"/>
+      <c r="D30" s="361"/>
+      <c r="E30" s="361"/>
+      <c r="F30" s="361"/>
       <c r="G30" s="341"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="340"/>
-      <c r="C31" s="363"/>
-      <c r="D31" s="363"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="363"/>
+      <c r="C31" s="361"/>
+      <c r="D31" s="361"/>
+      <c r="E31" s="361"/>
+      <c r="F31" s="361"/>
       <c r="G31" s="341"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="340"/>
-      <c r="C32" s="363"/>
-      <c r="D32" s="363"/>
-      <c r="E32" s="363"/>
-      <c r="F32" s="363"/>
+      <c r="C32" s="361"/>
+      <c r="D32" s="361"/>
+      <c r="E32" s="361"/>
+      <c r="F32" s="361"/>
       <c r="G32" s="341"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="340"/>
-      <c r="C33" s="363"/>
-      <c r="D33" s="363"/>
-      <c r="E33" s="363"/>
-      <c r="F33" s="363"/>
+      <c r="C33" s="361"/>
+      <c r="D33" s="361"/>
+      <c r="E33" s="361"/>
+      <c r="F33" s="361"/>
       <c r="G33" s="341"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="340"/>
-      <c r="C34" s="363"/>
-      <c r="D34" s="363"/>
-      <c r="E34" s="363"/>
-      <c r="F34" s="363"/>
+      <c r="C34" s="361"/>
+      <c r="D34" s="361"/>
+      <c r="E34" s="361"/>
+      <c r="F34" s="361"/>
       <c r="G34" s="341"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="340"/>
-      <c r="C35" s="363"/>
-      <c r="D35" s="363"/>
-      <c r="E35" s="363"/>
-      <c r="F35" s="363"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="361"/>
+      <c r="E35" s="361"/>
+      <c r="F35" s="361"/>
       <c r="G35" s="341"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="340"/>
-      <c r="C36" s="363"/>
-      <c r="D36" s="363"/>
-      <c r="E36" s="363"/>
-      <c r="F36" s="363"/>
+      <c r="C36" s="361"/>
+      <c r="D36" s="361"/>
+      <c r="E36" s="361"/>
+      <c r="F36" s="361"/>
       <c r="G36" s="341"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="340"/>
-      <c r="C37" s="363"/>
-      <c r="D37" s="363"/>
-      <c r="E37" s="363"/>
-      <c r="F37" s="363"/>
+      <c r="C37" s="361"/>
+      <c r="D37" s="361"/>
+      <c r="E37" s="361"/>
+      <c r="F37" s="361"/>
       <c r="G37" s="341"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="340"/>
-      <c r="C38" s="363"/>
-      <c r="D38" s="363"/>
-      <c r="E38" s="363"/>
-      <c r="F38" s="363"/>
+      <c r="C38" s="361"/>
+      <c r="D38" s="361"/>
+      <c r="E38" s="361"/>
+      <c r="F38" s="361"/>
       <c r="G38" s="341"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="340"/>
-      <c r="C39" s="363"/>
-      <c r="D39" s="363"/>
-      <c r="E39" s="363"/>
-      <c r="F39" s="363"/>
+      <c r="C39" s="361"/>
+      <c r="D39" s="361"/>
+      <c r="E39" s="361"/>
+      <c r="F39" s="361"/>
       <c r="G39" s="341"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="340"/>
-      <c r="C40" s="363"/>
-      <c r="D40" s="363"/>
-      <c r="E40" s="363"/>
-      <c r="F40" s="363"/>
+      <c r="C40" s="361"/>
+      <c r="D40" s="361"/>
+      <c r="E40" s="361"/>
+      <c r="F40" s="361"/>
       <c r="G40" s="341"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="340"/>
-      <c r="C41" s="363"/>
-      <c r="D41" s="363"/>
-      <c r="E41" s="363"/>
-      <c r="F41" s="363"/>
+      <c r="C41" s="361"/>
+      <c r="D41" s="361"/>
+      <c r="E41" s="361"/>
+      <c r="F41" s="361"/>
       <c r="G41" s="341"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="344"/>
-      <c r="C42" s="365"/>
-      <c r="D42" s="365"/>
-      <c r="E42" s="365"/>
-      <c r="F42" s="365"/>
-      <c r="G42" s="345"/>
+      <c r="B42" s="338"/>
+      <c r="C42" s="360"/>
+      <c r="D42" s="360"/>
+      <c r="E42" s="360"/>
+      <c r="F42" s="360"/>
+      <c r="G42" s="339"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fQP+Jv3I/2eakwwoAbpnp38SkuAQCSBy9ZRWJ7AYqMbhBRa3xGQ0yEaEypBQp9PF9wx2ZNLoQfQHD2WqBfYWnA==" saltValue="jvb+VeOyKduV2x6Yw6QtYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -41717,7 +41738,7 @@
     </row>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -41729,7 +41750,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -42639,7 +42660,7 @@
     <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
@@ -42651,7 +42672,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -43349,7 +43370,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="226"/>
@@ -43361,7 +43382,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="53"/>
@@ -44331,7 +44352,7 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
       <c r="C64" s="217" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D64" s="313">
         <v>1000000</v>
@@ -44440,7 +44461,7 @@
     </row>
     <row r="2" spans="1:26" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="26"/>
@@ -44463,7 +44484,7 @@
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="6"/>
@@ -45696,7 +45717,7 @@
     </row>
     <row r="59" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
-      <c r="C59" s="338" t="s">
+      <c r="C59" s="342" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="350"/>
@@ -45714,13 +45735,13 @@
       <c r="P59" s="350"/>
       <c r="Q59" s="350"/>
       <c r="R59" s="350"/>
-      <c r="S59" s="339"/>
+      <c r="S59" s="343"/>
       <c r="T59" s="60"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="381" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D60" s="382"/>
       <c r="E60" s="382"/>
@@ -45742,298 +45763,298 @@
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
-      <c r="C61" s="375" t="s">
-        <v>270</v>
-      </c>
-      <c r="D61" s="376"/>
-      <c r="E61" s="376"/>
-      <c r="F61" s="376"/>
-      <c r="G61" s="376"/>
-      <c r="H61" s="376"/>
-      <c r="I61" s="376"/>
-      <c r="J61" s="376"/>
-      <c r="K61" s="376"/>
-      <c r="L61" s="376"/>
-      <c r="M61" s="376"/>
-      <c r="N61" s="376"/>
-      <c r="O61" s="376"/>
-      <c r="P61" s="376"/>
-      <c r="Q61" s="376"/>
-      <c r="R61" s="376"/>
-      <c r="S61" s="377"/>
+      <c r="C61" s="378" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="379"/>
+      <c r="E61" s="379"/>
+      <c r="F61" s="379"/>
+      <c r="G61" s="379"/>
+      <c r="H61" s="379"/>
+      <c r="I61" s="379"/>
+      <c r="J61" s="379"/>
+      <c r="K61" s="379"/>
+      <c r="L61" s="379"/>
+      <c r="M61" s="379"/>
+      <c r="N61" s="379"/>
+      <c r="O61" s="379"/>
+      <c r="P61" s="379"/>
+      <c r="Q61" s="379"/>
+      <c r="R61" s="379"/>
+      <c r="S61" s="380"/>
       <c r="T61" s="60"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59"/>
-      <c r="C62" s="375"/>
-      <c r="D62" s="376"/>
-      <c r="E62" s="376"/>
-      <c r="F62" s="376"/>
-      <c r="G62" s="376"/>
-      <c r="H62" s="376"/>
-      <c r="I62" s="376"/>
-      <c r="J62" s="376"/>
-      <c r="K62" s="376"/>
-      <c r="L62" s="376"/>
-      <c r="M62" s="376"/>
-      <c r="N62" s="376"/>
-      <c r="O62" s="376"/>
-      <c r="P62" s="376"/>
-      <c r="Q62" s="376"/>
-      <c r="R62" s="376"/>
-      <c r="S62" s="377"/>
+      <c r="C62" s="378"/>
+      <c r="D62" s="379"/>
+      <c r="E62" s="379"/>
+      <c r="F62" s="379"/>
+      <c r="G62" s="379"/>
+      <c r="H62" s="379"/>
+      <c r="I62" s="379"/>
+      <c r="J62" s="379"/>
+      <c r="K62" s="379"/>
+      <c r="L62" s="379"/>
+      <c r="M62" s="379"/>
+      <c r="N62" s="379"/>
+      <c r="O62" s="379"/>
+      <c r="P62" s="379"/>
+      <c r="Q62" s="379"/>
+      <c r="R62" s="379"/>
+      <c r="S62" s="380"/>
       <c r="T62" s="60"/>
     </row>
     <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
-      <c r="C63" s="375"/>
-      <c r="D63" s="376"/>
-      <c r="E63" s="376"/>
-      <c r="F63" s="376"/>
-      <c r="G63" s="376"/>
-      <c r="H63" s="376"/>
-      <c r="I63" s="376"/>
-      <c r="J63" s="376"/>
-      <c r="K63" s="376"/>
-      <c r="L63" s="376"/>
-      <c r="M63" s="376"/>
-      <c r="N63" s="376"/>
-      <c r="O63" s="376"/>
-      <c r="P63" s="376"/>
-      <c r="Q63" s="376"/>
-      <c r="R63" s="376"/>
-      <c r="S63" s="377"/>
+      <c r="C63" s="378"/>
+      <c r="D63" s="379"/>
+      <c r="E63" s="379"/>
+      <c r="F63" s="379"/>
+      <c r="G63" s="379"/>
+      <c r="H63" s="379"/>
+      <c r="I63" s="379"/>
+      <c r="J63" s="379"/>
+      <c r="K63" s="379"/>
+      <c r="L63" s="379"/>
+      <c r="M63" s="379"/>
+      <c r="N63" s="379"/>
+      <c r="O63" s="379"/>
+      <c r="P63" s="379"/>
+      <c r="Q63" s="379"/>
+      <c r="R63" s="379"/>
+      <c r="S63" s="380"/>
       <c r="T63" s="60"/>
     </row>
     <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
-      <c r="C64" s="375"/>
-      <c r="D64" s="376"/>
-      <c r="E64" s="376"/>
-      <c r="F64" s="376"/>
-      <c r="G64" s="376"/>
-      <c r="H64" s="376"/>
-      <c r="I64" s="376"/>
-      <c r="J64" s="376"/>
-      <c r="K64" s="376"/>
-      <c r="L64" s="376"/>
-      <c r="M64" s="376"/>
-      <c r="N64" s="376"/>
-      <c r="O64" s="376"/>
-      <c r="P64" s="376"/>
-      <c r="Q64" s="376"/>
-      <c r="R64" s="376"/>
-      <c r="S64" s="377"/>
+      <c r="C64" s="378"/>
+      <c r="D64" s="379"/>
+      <c r="E64" s="379"/>
+      <c r="F64" s="379"/>
+      <c r="G64" s="379"/>
+      <c r="H64" s="379"/>
+      <c r="I64" s="379"/>
+      <c r="J64" s="379"/>
+      <c r="K64" s="379"/>
+      <c r="L64" s="379"/>
+      <c r="M64" s="379"/>
+      <c r="N64" s="379"/>
+      <c r="O64" s="379"/>
+      <c r="P64" s="379"/>
+      <c r="Q64" s="379"/>
+      <c r="R64" s="379"/>
+      <c r="S64" s="380"/>
       <c r="T64" s="60"/>
     </row>
     <row r="65" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
-      <c r="C65" s="375"/>
-      <c r="D65" s="376"/>
-      <c r="E65" s="376"/>
-      <c r="F65" s="376"/>
-      <c r="G65" s="376"/>
-      <c r="H65" s="376"/>
-      <c r="I65" s="376"/>
-      <c r="J65" s="376"/>
-      <c r="K65" s="376"/>
-      <c r="L65" s="376"/>
-      <c r="M65" s="376"/>
-      <c r="N65" s="376"/>
-      <c r="O65" s="376"/>
-      <c r="P65" s="376"/>
-      <c r="Q65" s="376"/>
-      <c r="R65" s="376"/>
-      <c r="S65" s="377"/>
+      <c r="C65" s="378"/>
+      <c r="D65" s="379"/>
+      <c r="E65" s="379"/>
+      <c r="F65" s="379"/>
+      <c r="G65" s="379"/>
+      <c r="H65" s="379"/>
+      <c r="I65" s="379"/>
+      <c r="J65" s="379"/>
+      <c r="K65" s="379"/>
+      <c r="L65" s="379"/>
+      <c r="M65" s="379"/>
+      <c r="N65" s="379"/>
+      <c r="O65" s="379"/>
+      <c r="P65" s="379"/>
+      <c r="Q65" s="379"/>
+      <c r="R65" s="379"/>
+      <c r="S65" s="380"/>
       <c r="T65" s="60"/>
     </row>
     <row r="66" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="59"/>
-      <c r="C66" s="375"/>
-      <c r="D66" s="376"/>
-      <c r="E66" s="376"/>
-      <c r="F66" s="376"/>
-      <c r="G66" s="376"/>
-      <c r="H66" s="376"/>
-      <c r="I66" s="376"/>
-      <c r="J66" s="376"/>
-      <c r="K66" s="376"/>
-      <c r="L66" s="376"/>
-      <c r="M66" s="376"/>
-      <c r="N66" s="376"/>
-      <c r="O66" s="376"/>
-      <c r="P66" s="376"/>
-      <c r="Q66" s="376"/>
-      <c r="R66" s="376"/>
-      <c r="S66" s="377"/>
+      <c r="C66" s="378"/>
+      <c r="D66" s="379"/>
+      <c r="E66" s="379"/>
+      <c r="F66" s="379"/>
+      <c r="G66" s="379"/>
+      <c r="H66" s="379"/>
+      <c r="I66" s="379"/>
+      <c r="J66" s="379"/>
+      <c r="K66" s="379"/>
+      <c r="L66" s="379"/>
+      <c r="M66" s="379"/>
+      <c r="N66" s="379"/>
+      <c r="O66" s="379"/>
+      <c r="P66" s="379"/>
+      <c r="Q66" s="379"/>
+      <c r="R66" s="379"/>
+      <c r="S66" s="380"/>
       <c r="T66" s="60"/>
     </row>
     <row r="67" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="59"/>
-      <c r="C67" s="375"/>
-      <c r="D67" s="376"/>
-      <c r="E67" s="376"/>
-      <c r="F67" s="376"/>
-      <c r="G67" s="376"/>
-      <c r="H67" s="376"/>
-      <c r="I67" s="376"/>
-      <c r="J67" s="376"/>
-      <c r="K67" s="376"/>
-      <c r="L67" s="376"/>
-      <c r="M67" s="376"/>
-      <c r="N67" s="376"/>
-      <c r="O67" s="376"/>
-      <c r="P67" s="376"/>
-      <c r="Q67" s="376"/>
-      <c r="R67" s="376"/>
-      <c r="S67" s="377"/>
+      <c r="C67" s="378"/>
+      <c r="D67" s="379"/>
+      <c r="E67" s="379"/>
+      <c r="F67" s="379"/>
+      <c r="G67" s="379"/>
+      <c r="H67" s="379"/>
+      <c r="I67" s="379"/>
+      <c r="J67" s="379"/>
+      <c r="K67" s="379"/>
+      <c r="L67" s="379"/>
+      <c r="M67" s="379"/>
+      <c r="N67" s="379"/>
+      <c r="O67" s="379"/>
+      <c r="P67" s="379"/>
+      <c r="Q67" s="379"/>
+      <c r="R67" s="379"/>
+      <c r="S67" s="380"/>
       <c r="T67" s="60"/>
     </row>
     <row r="68" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="59"/>
-      <c r="C68" s="375"/>
-      <c r="D68" s="376"/>
-      <c r="E68" s="376"/>
-      <c r="F68" s="376"/>
-      <c r="G68" s="376"/>
-      <c r="H68" s="376"/>
-      <c r="I68" s="376"/>
-      <c r="J68" s="376"/>
-      <c r="K68" s="376"/>
-      <c r="L68" s="376"/>
-      <c r="M68" s="376"/>
-      <c r="N68" s="376"/>
-      <c r="O68" s="376"/>
-      <c r="P68" s="376"/>
-      <c r="Q68" s="376"/>
-      <c r="R68" s="376"/>
-      <c r="S68" s="377"/>
+      <c r="C68" s="378"/>
+      <c r="D68" s="379"/>
+      <c r="E68" s="379"/>
+      <c r="F68" s="379"/>
+      <c r="G68" s="379"/>
+      <c r="H68" s="379"/>
+      <c r="I68" s="379"/>
+      <c r="J68" s="379"/>
+      <c r="K68" s="379"/>
+      <c r="L68" s="379"/>
+      <c r="M68" s="379"/>
+      <c r="N68" s="379"/>
+      <c r="O68" s="379"/>
+      <c r="P68" s="379"/>
+      <c r="Q68" s="379"/>
+      <c r="R68" s="379"/>
+      <c r="S68" s="380"/>
       <c r="T68" s="60"/>
     </row>
     <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="59"/>
-      <c r="C69" s="375"/>
-      <c r="D69" s="376"/>
-      <c r="E69" s="376"/>
-      <c r="F69" s="376"/>
-      <c r="G69" s="376"/>
-      <c r="H69" s="376"/>
-      <c r="I69" s="376"/>
-      <c r="J69" s="376"/>
-      <c r="K69" s="376"/>
-      <c r="L69" s="376"/>
-      <c r="M69" s="376"/>
-      <c r="N69" s="376"/>
-      <c r="O69" s="376"/>
-      <c r="P69" s="376"/>
-      <c r="Q69" s="376"/>
-      <c r="R69" s="376"/>
-      <c r="S69" s="377"/>
+      <c r="C69" s="378"/>
+      <c r="D69" s="379"/>
+      <c r="E69" s="379"/>
+      <c r="F69" s="379"/>
+      <c r="G69" s="379"/>
+      <c r="H69" s="379"/>
+      <c r="I69" s="379"/>
+      <c r="J69" s="379"/>
+      <c r="K69" s="379"/>
+      <c r="L69" s="379"/>
+      <c r="M69" s="379"/>
+      <c r="N69" s="379"/>
+      <c r="O69" s="379"/>
+      <c r="P69" s="379"/>
+      <c r="Q69" s="379"/>
+      <c r="R69" s="379"/>
+      <c r="S69" s="380"/>
       <c r="T69" s="60"/>
     </row>
     <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="59"/>
-      <c r="C70" s="375"/>
-      <c r="D70" s="376"/>
-      <c r="E70" s="376"/>
-      <c r="F70" s="376"/>
-      <c r="G70" s="376"/>
-      <c r="H70" s="376"/>
-      <c r="I70" s="376"/>
-      <c r="J70" s="376"/>
-      <c r="K70" s="376"/>
-      <c r="L70" s="376"/>
-      <c r="M70" s="376"/>
-      <c r="N70" s="376"/>
-      <c r="O70" s="376"/>
-      <c r="P70" s="376"/>
-      <c r="Q70" s="376"/>
-      <c r="R70" s="376"/>
-      <c r="S70" s="377"/>
+      <c r="C70" s="378"/>
+      <c r="D70" s="379"/>
+      <c r="E70" s="379"/>
+      <c r="F70" s="379"/>
+      <c r="G70" s="379"/>
+      <c r="H70" s="379"/>
+      <c r="I70" s="379"/>
+      <c r="J70" s="379"/>
+      <c r="K70" s="379"/>
+      <c r="L70" s="379"/>
+      <c r="M70" s="379"/>
+      <c r="N70" s="379"/>
+      <c r="O70" s="379"/>
+      <c r="P70" s="379"/>
+      <c r="Q70" s="379"/>
+      <c r="R70" s="379"/>
+      <c r="S70" s="380"/>
       <c r="T70" s="60"/>
     </row>
     <row r="71" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="59"/>
-      <c r="C71" s="375"/>
-      <c r="D71" s="376"/>
-      <c r="E71" s="376"/>
-      <c r="F71" s="376"/>
-      <c r="G71" s="376"/>
-      <c r="H71" s="376"/>
-      <c r="I71" s="376"/>
-      <c r="J71" s="376"/>
-      <c r="K71" s="376"/>
-      <c r="L71" s="376"/>
-      <c r="M71" s="376"/>
-      <c r="N71" s="376"/>
-      <c r="O71" s="376"/>
-      <c r="P71" s="376"/>
-      <c r="Q71" s="376"/>
-      <c r="R71" s="376"/>
-      <c r="S71" s="377"/>
+      <c r="C71" s="378"/>
+      <c r="D71" s="379"/>
+      <c r="E71" s="379"/>
+      <c r="F71" s="379"/>
+      <c r="G71" s="379"/>
+      <c r="H71" s="379"/>
+      <c r="I71" s="379"/>
+      <c r="J71" s="379"/>
+      <c r="K71" s="379"/>
+      <c r="L71" s="379"/>
+      <c r="M71" s="379"/>
+      <c r="N71" s="379"/>
+      <c r="O71" s="379"/>
+      <c r="P71" s="379"/>
+      <c r="Q71" s="379"/>
+      <c r="R71" s="379"/>
+      <c r="S71" s="380"/>
       <c r="T71" s="60"/>
     </row>
     <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="59"/>
-      <c r="C72" s="375"/>
-      <c r="D72" s="376"/>
-      <c r="E72" s="376"/>
-      <c r="F72" s="376"/>
-      <c r="G72" s="376"/>
-      <c r="H72" s="376"/>
-      <c r="I72" s="376"/>
-      <c r="J72" s="376"/>
-      <c r="K72" s="376"/>
-      <c r="L72" s="376"/>
-      <c r="M72" s="376"/>
-      <c r="N72" s="376"/>
-      <c r="O72" s="376"/>
-      <c r="P72" s="376"/>
-      <c r="Q72" s="376"/>
-      <c r="R72" s="376"/>
-      <c r="S72" s="377"/>
+      <c r="C72" s="378"/>
+      <c r="D72" s="379"/>
+      <c r="E72" s="379"/>
+      <c r="F72" s="379"/>
+      <c r="G72" s="379"/>
+      <c r="H72" s="379"/>
+      <c r="I72" s="379"/>
+      <c r="J72" s="379"/>
+      <c r="K72" s="379"/>
+      <c r="L72" s="379"/>
+      <c r="M72" s="379"/>
+      <c r="N72" s="379"/>
+      <c r="O72" s="379"/>
+      <c r="P72" s="379"/>
+      <c r="Q72" s="379"/>
+      <c r="R72" s="379"/>
+      <c r="S72" s="380"/>
       <c r="T72" s="60"/>
     </row>
     <row r="73" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="59"/>
-      <c r="C73" s="375"/>
-      <c r="D73" s="376"/>
-      <c r="E73" s="376"/>
-      <c r="F73" s="376"/>
-      <c r="G73" s="376"/>
-      <c r="H73" s="376"/>
-      <c r="I73" s="376"/>
-      <c r="J73" s="376"/>
-      <c r="K73" s="376"/>
-      <c r="L73" s="376"/>
-      <c r="M73" s="376"/>
-      <c r="N73" s="376"/>
-      <c r="O73" s="376"/>
-      <c r="P73" s="376"/>
-      <c r="Q73" s="376"/>
-      <c r="R73" s="376"/>
-      <c r="S73" s="377"/>
+      <c r="C73" s="378"/>
+      <c r="D73" s="379"/>
+      <c r="E73" s="379"/>
+      <c r="F73" s="379"/>
+      <c r="G73" s="379"/>
+      <c r="H73" s="379"/>
+      <c r="I73" s="379"/>
+      <c r="J73" s="379"/>
+      <c r="K73" s="379"/>
+      <c r="L73" s="379"/>
+      <c r="M73" s="379"/>
+      <c r="N73" s="379"/>
+      <c r="O73" s="379"/>
+      <c r="P73" s="379"/>
+      <c r="Q73" s="379"/>
+      <c r="R73" s="379"/>
+      <c r="S73" s="380"/>
       <c r="T73" s="60"/>
     </row>
     <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
-      <c r="C74" s="378"/>
-      <c r="D74" s="379"/>
-      <c r="E74" s="379"/>
-      <c r="F74" s="379"/>
-      <c r="G74" s="379"/>
-      <c r="H74" s="379"/>
-      <c r="I74" s="379"/>
-      <c r="J74" s="379"/>
-      <c r="K74" s="379"/>
-      <c r="L74" s="379"/>
-      <c r="M74" s="379"/>
-      <c r="N74" s="379"/>
-      <c r="O74" s="379"/>
-      <c r="P74" s="379"/>
-      <c r="Q74" s="379"/>
-      <c r="R74" s="379"/>
-      <c r="S74" s="380"/>
+      <c r="C74" s="375"/>
+      <c r="D74" s="376"/>
+      <c r="E74" s="376"/>
+      <c r="F74" s="376"/>
+      <c r="G74" s="376"/>
+      <c r="H74" s="376"/>
+      <c r="I74" s="376"/>
+      <c r="J74" s="376"/>
+      <c r="K74" s="376"/>
+      <c r="L74" s="376"/>
+      <c r="M74" s="376"/>
+      <c r="N74" s="376"/>
+      <c r="O74" s="376"/>
+      <c r="P74" s="376"/>
+      <c r="Q74" s="376"/>
+      <c r="R74" s="376"/>
+      <c r="S74" s="377"/>
       <c r="T74" s="60"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
@@ -46060,6 +46081,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrvXTNEyg6ecmYncpmv63lHNkpCjj8zGGjyL/TJQBr5/3IiD3LSnAlxGpWZY2KJcUE/YM0fQ1in6NcWorcIWfw==" saltValue="gcPC3KzDvckzqrICh2VFzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
+    <mergeCell ref="C59:S59"/>
+    <mergeCell ref="C70:S70"/>
+    <mergeCell ref="C69:S69"/>
+    <mergeCell ref="C68:S68"/>
+    <mergeCell ref="C62:S62"/>
+    <mergeCell ref="C61:S61"/>
     <mergeCell ref="C74:S74"/>
     <mergeCell ref="C73:S73"/>
     <mergeCell ref="C72:S72"/>
@@ -46070,12 +46097,6 @@
     <mergeCell ref="C65:S65"/>
     <mergeCell ref="C66:S66"/>
     <mergeCell ref="C67:S67"/>
-    <mergeCell ref="C59:S59"/>
-    <mergeCell ref="C70:S70"/>
-    <mergeCell ref="C69:S69"/>
-    <mergeCell ref="C68:S68"/>
-    <mergeCell ref="C62:S62"/>
-    <mergeCell ref="C61:S61"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -46110,7 +46131,7 @@
     <row r="1" spans="2:64" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:64" s="231" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="333" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="228"/>
       <c r="D2" s="229"/>
@@ -46164,7 +46185,7 @@
     </row>
     <row r="3" spans="2:64" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="7"/>
@@ -46504,7 +46525,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -46512,7 +46533,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -46538,10 +46559,10 @@
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="323" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C6" s="323" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D6" s="324">
         <v>44593</v>
@@ -46549,10 +46570,10 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="325" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C7" s="325" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D7" s="326">
         <v>44597</v>
@@ -46560,7 +46581,7 @@
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="325" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C8" s="325"/>
       <c r="D8" s="326">
@@ -46569,7 +46590,7 @@
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="325" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C9" s="325"/>
       <c r="D9" s="326">
@@ -46578,10 +46599,10 @@
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="325" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C10" s="325" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D10" s="326">
         <v>44926</v>
@@ -46589,10 +46610,10 @@
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="325" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C11" s="325" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D11" s="326">
         <v>44926</v>
@@ -46600,7 +46621,7 @@
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="325" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C12" s="325"/>
       <c r="D12" s="326">
@@ -46609,7 +46630,7 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="325" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C13" s="325"/>
       <c r="D13" s="326">
@@ -46618,10 +46639,10 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="325" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C14" s="325" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D14" s="326">
         <v>46387</v>
@@ -46868,13 +46889,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -46927,7 +46948,7 @@
     </row>
     <row r="2" spans="1:6" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -46936,7 +46957,7 @@
     </row>
     <row r="3" spans="1:6" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -47465,13 +47486,13 @@
     </row>
     <row r="2" spans="1:3" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="219"/>
     </row>
     <row r="3" spans="1:3" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -47490,7 +47511,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47498,7 +47519,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="169" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47506,7 +47527,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47514,7 +47535,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47522,7 +47543,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47530,7 +47551,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47538,7 +47559,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="169" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -47561,7 +47582,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47579,13 +47600,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47604,7 +47625,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47612,7 +47633,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="171" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47620,7 +47641,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47628,7 +47649,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47636,7 +47657,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47644,15 +47665,15 @@
         <v>89</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="292" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47660,7 +47681,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47668,7 +47689,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -47691,7 +47712,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:C14"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47708,13 +47729,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47733,7 +47754,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47741,7 +47762,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>203</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47749,31 +47770,31 @@
         <v>17</v>
       </c>
       <c r="C8" s="173">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C9" s="250" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="292" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C10" s="250" t="s">
-        <v>206</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="292" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C11" s="250" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -47781,51 +47802,63 @@
       <c r="C12" s="47"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="338" t="s">
+      <c r="B13" s="342" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="339"/>
+      <c r="C13" s="343"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="342" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="343"/>
+      <c r="B14" s="340" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="341"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="340" t="s">
-        <v>204</v>
+        <v>342</v>
       </c>
       <c r="C15" s="341"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="340" t="s">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="C16" s="341"/>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="340"/>
+      <c r="B17" s="340" t="s">
+        <v>360</v>
+      </c>
       <c r="C17" s="341"/>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="340"/>
+      <c r="B18" s="340" t="s">
+        <v>344</v>
+      </c>
       <c r="C18" s="341"/>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="340"/>
+      <c r="B19" s="340" t="s">
+        <v>345</v>
+      </c>
       <c r="C19" s="341"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="340"/>
+      <c r="B20" s="340" t="s">
+        <v>346</v>
+      </c>
       <c r="C20" s="341"/>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="340"/>
+      <c r="B21" s="340" t="s">
+        <v>347</v>
+      </c>
       <c r="C21" s="341"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="340"/>
+      <c r="B22" s="340" t="s">
+        <v>348</v>
+      </c>
       <c r="C22" s="341"/>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -47849,17 +47882,12 @@
       <c r="C27" s="341"/>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="344"/>
-      <c r="C28" s="345"/>
+      <c r="B28" s="338"/>
+      <c r="C28" s="339"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QWAILGKV4ZR+dz45sQNjWVz1jknfFAxJFIx1hCSeiPEL6oYSelXKO0nkHyIjY2Xc01Xzw6ZhttEVShqaxrPiPA==" saltValue="k7C7+m0hzWH8JcqwKh2YCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
@@ -47871,6 +47899,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -47907,13 +47940,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -47932,24 +47965,26 @@
         <v>93</v>
       </c>
       <c r="C6" s="251" t="s">
-        <v>217</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="346"/>
       <c r="C7" s="251" t="s">
-        <v>206</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="346"/>
       <c r="C8" s="251" t="s">
-        <v>218</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="346"/>
-      <c r="C9" s="251"/>
+      <c r="C9" s="251" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="346"/>
@@ -47972,25 +48007,25 @@
         <v>94</v>
       </c>
       <c r="C14" s="253" t="s">
-        <v>207</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="347"/>
       <c r="C15" s="253" t="s">
-        <v>208</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="347"/>
       <c r="C16" s="253" t="s">
-        <v>209</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="347"/>
       <c r="C17" s="253" t="s">
-        <v>210</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48014,19 +48049,19 @@
         <v>95</v>
       </c>
       <c r="C22" s="254" t="s">
-        <v>216</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="348"/>
       <c r="C23" s="254" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="348"/>
       <c r="C24" s="254" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48054,19 +48089,19 @@
         <v>96</v>
       </c>
       <c r="C30" s="255" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="349"/>
       <c r="C31" s="255" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="349"/>
       <c r="C32" s="255" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48129,7 +48164,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -48141,7 +48176,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -48184,13 +48219,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="337" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F6" s="337" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G6" s="337" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H6" s="337" t="s">
         <v>97</v>
@@ -48537,7 +48572,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="338" t="s">
+      <c r="B29" s="342" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="350"/>
@@ -48546,11 +48581,11 @@
       <c r="F29" s="350"/>
       <c r="G29" s="350"/>
       <c r="H29" s="350"/>
-      <c r="I29" s="339"/>
+      <c r="I29" s="343"/>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="357" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C30" s="358"/>
       <c r="D30" s="358"/>
@@ -48562,7 +48597,7 @@
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="354" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C31" s="355"/>
       <c r="D31" s="355"/>
@@ -48574,7 +48609,7 @@
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="354" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C32" s="355"/>
       <c r="D32" s="355"/>
@@ -48782,7 +48817,7 @@
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -48795,7 +48830,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -48844,7 +48879,7 @@
       </c>
       <c r="G6" s="256"/>
       <c r="H6" s="267" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="I6" s="256"/>
       <c r="J6" s="268" t="s">
@@ -48853,70 +48888,70 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="257" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C7" s="258"/>
       <c r="D7" s="259" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E7" s="260"/>
       <c r="F7" s="261" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G7" s="260"/>
       <c r="H7" s="262" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="I7" s="260"/>
       <c r="J7" s="263" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="257" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C8" s="258"/>
       <c r="D8" s="259" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E8" s="260"/>
       <c r="F8" s="261" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G8" s="260"/>
       <c r="H8" s="262" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="I8" s="260"/>
       <c r="J8" s="263" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="257" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C9" s="258"/>
       <c r="D9" s="259" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E9" s="260"/>
       <c r="F9" s="261" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G9" s="260"/>
       <c r="H9" s="262" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="I9" s="260"/>
       <c r="J9" s="263" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="257" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C10" s="258"/>
       <c r="D10" s="259"/>
@@ -49157,7 +49192,7 @@
     </row>
     <row r="2" spans="1:8" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -49168,7 +49203,7 @@
     </row>
     <row r="3" spans="1:8" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -49251,54 +49286,54 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="288" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C10" s="289"/>
       <c r="D10" s="262" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E10" s="289"/>
       <c r="F10" s="261" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G10" s="289"/>
       <c r="H10" s="263" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="288" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C11" s="289"/>
       <c r="D11" s="262" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E11" s="289"/>
       <c r="F11" s="261" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G11" s="289"/>
       <c r="H11" s="263" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="288" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C12" s="289"/>
       <c r="D12" s="262"/>
       <c r="E12" s="289"/>
       <c r="F12" s="261" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G12" s="289"/>
       <c r="H12" s="263"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="288" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C13" s="289"/>
       <c r="D13" s="262"/>

--- a/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
+++ b/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c\source\repos\faculty\faculty\an_2\sem_1\M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931BC7DD-670E-45F9-B1A1-D7738312E19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7655F450-08C5-4380-B5AB-228A292D5F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="O2pZeXeucL6OySNC7AknZdZAyXoN/m0/9At13Y17SnJe3PRhRKhh5R2CulRtevnypPEYgGoXIEttHB4aNlfRwQ==" workbookSaltValue="uQIfLlIkgsrrIpl+3gXPNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="4" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="5" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="359">
   <si>
     <r>
       <t xml:space="preserve">This End-User License Agreement is a legal agreement between you and </t>
@@ -851,15 +851,6 @@
     <t>Dividends Received from Affiliates</t>
   </si>
   <si>
-    <t>Does spend for intellectual products.</t>
-  </si>
-  <si>
-    <t>Familiar with digital subscriptions</t>
-  </si>
-  <si>
-    <t>Sticking to favorite apps</t>
-  </si>
-  <si>
     <t>Panda Books</t>
   </si>
   <si>
@@ -1256,9 +1247,6 @@
     <t>Comenzile plasate sunt pregătite și livrate cât mai rapid posibil, pentru a asigura satisfacția maximă clienților noștri.</t>
   </si>
   <si>
-    <t>Dimensiunea industriei de catering se așteaptă să atingă valoarea US$2,540.05 miliarde (estimat de IBISWorld).</t>
-  </si>
-  <si>
     <t>Stadiu introductiv</t>
   </si>
   <si>
@@ -1275,9 +1263,6 @@
   </si>
   <si>
     <t>Noi țintim o cotă de 5% acțiuni în 5 ani.</t>
-  </si>
-  <si>
-    <t>excepția anului 2020, când pe fondul crizei pandemice rata de creștere a înregistrat -15%.</t>
   </si>
   <si>
     <t>Principalii actori din această industrie sunt Tazz by Emag, FoodPanda, TakeAway, Bolt, UberEats.</t>
@@ -1325,7 +1310,16 @@
     <t>Persoane cu gusturi gurmande specifice</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratele anuale de creștere a vânzărilor în industria de catering din România, în ultimii 5 ani, variază între 10 și 20%, cu </t>
+    <t>Dimensiunea industriei de catering la nivel global se așteaptă să atingă valoarea US$2,540.05 miliarde (estimat de IBISWorld).</t>
+  </si>
+  <si>
+    <t>Ratele anuale de creștere a vânzărilor în industria de catering din România, în ultimii 5 ani, variază între 10 și 20%.</t>
+  </si>
+  <si>
+    <t>Familiaritate cu internetul și aplicațiile digitale</t>
+  </si>
+  <si>
+    <t>Tendințe de consumerism, specifice societății moderne de consum</t>
   </si>
 </sst>
 </file>
@@ -39860,7 +39854,7 @@
     </row>
     <row r="2" spans="1:15" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="248"/>
@@ -39878,7 +39872,7 @@
     </row>
     <row r="3" spans="1:15" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="249"/>
@@ -39948,7 +39942,7 @@
     <row r="7" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="168" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D7" s="168"/>
       <c r="E7" s="168"/>
@@ -39981,14 +39975,14 @@
       <c r="B9" s="15"/>
       <c r="C9" s="165"/>
       <c r="D9" s="245" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E9" s="245"/>
       <c r="F9" s="245"/>
       <c r="G9" s="155"/>
       <c r="H9" s="160"/>
       <c r="I9" s="245" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J9" s="245"/>
       <c r="K9" s="245"/>
@@ -40049,14 +40043,14 @@
       <c r="B13" s="15"/>
       <c r="C13" s="164"/>
       <c r="D13" s="245" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E13" s="245"/>
       <c r="F13" s="245"/>
       <c r="G13" s="155"/>
       <c r="H13" s="161"/>
       <c r="I13" s="245" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J13" s="245"/>
       <c r="K13" s="245"/>
@@ -40151,7 +40145,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="163"/>
       <c r="D19" s="245" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E19" s="245"/>
       <c r="F19" s="245"/>
@@ -40262,7 +40256,7 @@
       <c r="G25" s="155"/>
       <c r="H25" s="162"/>
       <c r="I25" s="245" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J25" s="245"/>
       <c r="K25" s="245"/>
@@ -40480,14 +40474,14 @@
     </row>
     <row r="2" spans="1:4" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -40523,7 +40517,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="236" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40534,7 +40528,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="236" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40545,7 +40539,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="236" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40565,7 +40559,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="236" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40605,28 +40599,28 @@
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="344" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C17" s="365"/>
       <c r="D17" s="345"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="340" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C18" s="361"/>
       <c r="D18" s="341"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="340" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C19" s="361"/>
       <c r="D19" s="341"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="340" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C20" s="361"/>
       <c r="D20" s="341"/>
@@ -40748,7 +40742,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -40756,7 +40750,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -40789,7 +40783,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="297" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D7" s="371" t="s">
         <v>37</v>
@@ -40798,61 +40792,61 @@
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="182" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="183" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="183" t="s">
-        <v>236</v>
-      </c>
       <c r="D8" s="370" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E8" s="366"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="182" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C9" s="183" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D9" s="370" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E9" s="366"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="182" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C10" s="183" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D10" s="370" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E10" s="366"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="182" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" s="183" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D11" s="370" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E11" s="366"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="182" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="183" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D12" s="370" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E12" s="366"/>
     </row>
@@ -40926,7 +40920,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="290" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E23" s="299" t="s">
         <v>36</v>
@@ -40934,7 +40928,7 @@
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="185" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C24" s="186">
         <v>5</v>
@@ -40949,7 +40943,7 @@
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="188" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="189">
         <v>20</v>
@@ -40964,7 +40958,7 @@
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="188" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C26" s="191">
         <v>10</v>
@@ -40979,7 +40973,7 @@
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="188" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C27" s="189">
         <v>3</v>
@@ -40994,7 +40988,7 @@
     </row>
     <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="188" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C28" s="189">
         <v>8</v>
@@ -41130,7 +41124,7 @@
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="344" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C42" s="365"/>
       <c r="D42" s="365"/>
@@ -41138,7 +41132,7 @@
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="340" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C43" s="361"/>
       <c r="D43" s="361"/>
@@ -41294,7 +41288,7 @@
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -41304,7 +41298,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -41352,7 +41346,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="202" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C7" s="203">
         <v>1000000</v>
@@ -41372,7 +41366,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="188" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C8" s="190">
         <v>5000000</v>
@@ -41557,7 +41551,7 @@
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="344" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C28" s="365"/>
       <c r="D28" s="365"/>
@@ -41567,7 +41561,7 @@
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C29" s="361"/>
       <c r="D29" s="361"/>
@@ -41577,7 +41571,7 @@
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C30" s="361"/>
       <c r="D30" s="361"/>
@@ -41738,7 +41732,7 @@
     </row>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -41750,7 +41744,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -42660,7 +42654,7 @@
     <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
@@ -42672,7 +42666,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -43370,7 +43364,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="226"/>
@@ -43382,7 +43376,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="53"/>
@@ -44352,7 +44346,7 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
       <c r="C64" s="217" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D64" s="313">
         <v>1000000</v>
@@ -44461,7 +44455,7 @@
     </row>
     <row r="2" spans="1:26" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="26"/>
@@ -44484,7 +44478,7 @@
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="6"/>
@@ -45741,7 +45735,7 @@
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="381" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D60" s="382"/>
       <c r="E60" s="382"/>
@@ -45764,7 +45758,7 @@
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
       <c r="C61" s="378" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D61" s="379"/>
       <c r="E61" s="379"/>
@@ -46131,7 +46125,7 @@
     <row r="1" spans="2:64" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:64" s="231" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="333" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="228"/>
       <c r="D2" s="229"/>
@@ -46185,7 +46179,7 @@
     </row>
     <row r="3" spans="2:64" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="7"/>
@@ -46525,7 +46519,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -46533,7 +46527,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -46559,10 +46553,10 @@
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="323" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C6" s="323" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D6" s="324">
         <v>44593</v>
@@ -46570,10 +46564,10 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="325" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C7" s="325" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D7" s="326">
         <v>44597</v>
@@ -46581,7 +46575,7 @@
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="325" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C8" s="325"/>
       <c r="D8" s="326">
@@ -46590,7 +46584,7 @@
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="325" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C9" s="325"/>
       <c r="D9" s="326">
@@ -46599,10 +46593,10 @@
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="325" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C10" s="325" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D10" s="326">
         <v>44926</v>
@@ -46610,10 +46604,10 @@
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="325" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C11" s="325" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D11" s="326">
         <v>44926</v>
@@ -46621,7 +46615,7 @@
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="325" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C12" s="325"/>
       <c r="D12" s="326">
@@ -46630,7 +46624,7 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="325" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C13" s="325"/>
       <c r="D13" s="326">
@@ -46639,10 +46633,10 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="325" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="325" t="s">
         <v>276</v>
-      </c>
-      <c r="C14" s="325" t="s">
-        <v>279</v>
       </c>
       <c r="D14" s="326">
         <v>46387</v>
@@ -46889,13 +46883,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -46948,7 +46942,7 @@
     </row>
     <row r="2" spans="1:6" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -46957,7 +46951,7 @@
     </row>
     <row r="3" spans="1:6" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -47486,13 +47480,13 @@
     </row>
     <row r="2" spans="1:3" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="219"/>
     </row>
     <row r="3" spans="1:3" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -47511,7 +47505,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47519,7 +47513,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47527,7 +47521,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47535,7 +47529,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47543,7 +47537,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47551,7 +47545,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47559,7 +47553,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -47600,13 +47594,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47625,7 +47619,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47633,7 +47627,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="171" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47641,7 +47635,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47649,7 +47643,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47657,7 +47651,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47665,15 +47659,15 @@
         <v>89</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="292" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47681,7 +47675,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47689,7 +47683,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -47709,10 +47703,10 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:C22"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47729,13 +47723,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47754,7 +47748,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47762,7 +47756,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47775,26 +47769,26 @@
     </row>
     <row r="9" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C9" s="250" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="292" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C10" s="250" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="292" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C11" s="250" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -47809,55 +47803,53 @@
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="340" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C14" s="341"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="340" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C15" s="341"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="340" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C16" s="341"/>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="340" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C17" s="341"/>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="340" t="s">
-        <v>344</v>
-      </c>
+      <c r="B18" s="340"/>
       <c r="C18" s="341"/>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="340" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C19" s="341"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="340" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C20" s="341"/>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="340" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C21" s="341"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="340" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C22" s="341"/>
     </row>
@@ -47920,10 +47912,10 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47940,13 +47932,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -47965,25 +47957,25 @@
         <v>93</v>
       </c>
       <c r="C6" s="251" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="346"/>
       <c r="C7" s="251" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="346"/>
       <c r="C8" s="251" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="346"/>
       <c r="C9" s="251" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48007,25 +47999,25 @@
         <v>94</v>
       </c>
       <c r="C14" s="253" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="347"/>
       <c r="C15" s="253" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="347"/>
       <c r="C16" s="253" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="347"/>
       <c r="C17" s="253" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48049,19 +48041,19 @@
         <v>95</v>
       </c>
       <c r="C22" s="254" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="348"/>
       <c r="C23" s="254" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="348"/>
       <c r="C24" s="254" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48089,20 +48081,18 @@
         <v>96</v>
       </c>
       <c r="C30" s="255" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="349"/>
       <c r="C31" s="255" t="s">
-        <v>203</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="349"/>
-      <c r="C32" s="255" t="s">
-        <v>204</v>
-      </c>
+      <c r="C32" s="255"/>
     </row>
     <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="349"/>
@@ -48164,7 +48154,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -48176,7 +48166,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -48219,13 +48209,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="337" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" s="337" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G6" s="337" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H6" s="337" t="s">
         <v>97</v>
@@ -48585,7 +48575,7 @@
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="357" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C30" s="358"/>
       <c r="D30" s="358"/>
@@ -48597,7 +48587,7 @@
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="354" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C31" s="355"/>
       <c r="D31" s="355"/>
@@ -48609,7 +48599,7 @@
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="354" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C32" s="355"/>
       <c r="D32" s="355"/>
@@ -48817,7 +48807,7 @@
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -48830,7 +48820,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -48879,7 +48869,7 @@
       </c>
       <c r="G6" s="256"/>
       <c r="H6" s="267" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I6" s="256"/>
       <c r="J6" s="268" t="s">
@@ -48888,70 +48878,70 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="257" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7" s="258"/>
       <c r="D7" s="259" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E7" s="260"/>
       <c r="F7" s="261" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G7" s="260"/>
       <c r="H7" s="262" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I7" s="260"/>
       <c r="J7" s="263" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="257" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="258"/>
       <c r="D8" s="259" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E8" s="260"/>
       <c r="F8" s="261" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G8" s="260"/>
       <c r="H8" s="262" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I8" s="260"/>
       <c r="J8" s="263" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="257" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C9" s="258"/>
       <c r="D9" s="259" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E9" s="260"/>
       <c r="F9" s="261" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G9" s="260"/>
       <c r="H9" s="262" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I9" s="260"/>
       <c r="J9" s="263" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="257" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C10" s="258"/>
       <c r="D10" s="259"/>
@@ -49192,7 +49182,7 @@
     </row>
     <row r="2" spans="1:8" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -49203,7 +49193,7 @@
     </row>
     <row r="3" spans="1:8" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -49286,54 +49276,54 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="288" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C10" s="289"/>
       <c r="D10" s="262" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E10" s="289"/>
       <c r="F10" s="261" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G10" s="289"/>
       <c r="H10" s="263" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="288" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C11" s="289"/>
       <c r="D11" s="262" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E11" s="289"/>
       <c r="F11" s="261" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G11" s="289"/>
       <c r="H11" s="263" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="288" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12" s="289"/>
       <c r="D12" s="262"/>
       <c r="E12" s="289"/>
       <c r="F12" s="261" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G12" s="289"/>
       <c r="H12" s="263"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="288" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C13" s="289"/>
       <c r="D13" s="262"/>

--- a/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
+++ b/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c\source\repos\faculty\faculty\an_2\sem_1\M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7655F450-08C5-4380-B5AB-228A292D5F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2584D4-F18D-468B-832A-DC12D3DC9A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="O2pZeXeucL6OySNC7AknZdZAyXoN/m0/9At13Y17SnJe3PRhRKhh5R2CulRtevnypPEYgGoXIEttHB4aNlfRwQ==" workbookSaltValue="uQIfLlIkgsrrIpl+3gXPNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="5" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="6" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="366">
   <si>
     <r>
       <t xml:space="preserve">This End-User License Agreement is a legal agreement between you and </t>
@@ -307,30 +307,6 @@
   </si>
   <si>
     <t>Company</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t>Expertise</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Reputation</t>
-  </si>
-  <si>
-    <t>Business Model</t>
   </si>
   <si>
     <t>Advertising</t>
@@ -851,12 +827,6 @@
     <t>Dividends Received from Affiliates</t>
   </si>
   <si>
-    <t>Panda Books</t>
-  </si>
-  <si>
-    <t>Readerr</t>
-  </si>
-  <si>
     <t>ReadDig</t>
   </si>
   <si>
@@ -1307,9 +1277,6 @@
     <t>Persoane cu puțin timp pentru gătit</t>
   </si>
   <si>
-    <t>Persoane cu gusturi gurmande specifice</t>
-  </si>
-  <si>
     <t>Dimensiunea industriei de catering la nivel global se așteaptă să atingă valoarea US$2,540.05 miliarde (estimat de IBISWorld).</t>
   </si>
   <si>
@@ -1320,6 +1287,60 @@
   </si>
   <si>
     <t>Tendințe de consumerism, specifice societății moderne de consum</t>
+  </si>
+  <si>
+    <t>Persoane care sărbătoresc anumite evenimente, întâlniri de grup și familie, întruniri, teambuilding-uri</t>
+  </si>
+  <si>
+    <t>Membrii asociațiilor de basarabeni</t>
+  </si>
+  <si>
+    <t>Persoane cu rădăcini/cunoștințe din Moldova</t>
+  </si>
+  <si>
+    <t>Persoane dornice, nostalgice după Moldova</t>
+  </si>
+  <si>
+    <t>OcaziI: sărbători naționale, tradiționale, religioase moldovenești</t>
+  </si>
+  <si>
+    <t>Interacțiunea cu branduri autohtone moldovenești: Asconi Winery, Cricova, Mileștii Mici, Chateau Vartely</t>
+  </si>
+  <si>
+    <t>Persoane interesate de bucătăria moldovenească</t>
+  </si>
+  <si>
+    <t>Preț</t>
+  </si>
+  <si>
+    <t>Calitate</t>
+  </si>
+  <si>
+    <t>Fiabilitate</t>
+  </si>
+  <si>
+    <t>Expertiză</t>
+  </si>
+  <si>
+    <t>Locație</t>
+  </si>
+  <si>
+    <t>Imagine</t>
+  </si>
+  <si>
+    <t>Reputație</t>
+  </si>
+  <si>
+    <t>Model de Business</t>
+  </si>
+  <si>
+    <t>Publicitate</t>
+  </si>
+  <si>
+    <t>Mancaruri moldovenesti</t>
+  </si>
+  <si>
+    <t>Restaurant Nora</t>
   </si>
 </sst>
 </file>
@@ -3155,7 +3176,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4119,12 +4140,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4135,19 +4156,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -4207,14 +4220,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -4227,8 +4232,32 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4247,14 +4276,6 @@
       <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4267,6 +4288,18 @@
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4276,18 +4309,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -4320,6 +4341,10 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -39854,7 +39879,7 @@
     </row>
     <row r="2" spans="1:15" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="248"/>
@@ -39872,7 +39897,7 @@
     </row>
     <row r="3" spans="1:15" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="249"/>
@@ -39942,7 +39967,7 @@
     <row r="7" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="168" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D7" s="168"/>
       <c r="E7" s="168"/>
@@ -39975,14 +40000,14 @@
       <c r="B9" s="15"/>
       <c r="C9" s="165"/>
       <c r="D9" s="245" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E9" s="245"/>
       <c r="F9" s="245"/>
       <c r="G9" s="155"/>
       <c r="H9" s="160"/>
       <c r="I9" s="245" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="J9" s="245"/>
       <c r="K9" s="245"/>
@@ -40043,14 +40068,14 @@
       <c r="B13" s="15"/>
       <c r="C13" s="164"/>
       <c r="D13" s="245" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E13" s="245"/>
       <c r="F13" s="245"/>
       <c r="G13" s="155"/>
       <c r="H13" s="161"/>
       <c r="I13" s="245" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="J13" s="245"/>
       <c r="K13" s="245"/>
@@ -40145,7 +40170,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="163"/>
       <c r="D19" s="245" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E19" s="245"/>
       <c r="F19" s="245"/>
@@ -40256,7 +40281,7 @@
       <c r="G25" s="155"/>
       <c r="H25" s="162"/>
       <c r="I25" s="245" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J25" s="245"/>
       <c r="K25" s="245"/>
@@ -40474,14 +40499,14 @@
     </row>
     <row r="2" spans="1:4" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -40500,13 +40525,13 @@
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="291" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C6" s="291" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D6" s="291" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40514,10 +40539,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="235" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D7" s="236" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40525,10 +40550,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="235" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" s="236" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40536,10 +40561,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="235" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" s="236" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40547,7 +40572,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="235" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" s="235"/>
     </row>
@@ -40556,10 +40581,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="235" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D11" s="236" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40567,7 +40592,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="235" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D12" s="235"/>
     </row>
@@ -40576,7 +40601,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="236" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D13" s="236"/>
     </row>
@@ -40591,36 +40616,36 @@
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="362" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="363"/>
-      <c r="D16" s="364"/>
+      <c r="B16" s="358" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="359"/>
+      <c r="D16" s="360"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="344" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="365"/>
-      <c r="D17" s="345"/>
+      <c r="B17" s="362" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="363"/>
+      <c r="D17" s="364"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="340" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C18" s="361"/>
       <c r="D18" s="341"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="340" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C19" s="361"/>
       <c r="D19" s="341"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="340" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C20" s="361"/>
       <c r="D20" s="341"/>
@@ -40676,13 +40701,18 @@
       <c r="D30" s="341"/>
     </row>
     <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="338"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="339"/>
+      <c r="B31" s="342"/>
+      <c r="C31" s="365"/>
+      <c r="D31" s="343"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="UCGY9eszZs9CIViHMThBw7fwHHrsg74VWMxEdvt0AHxwFsPjJ4F5bHDEwJjqVw/86ZZUZWi5kfaxgDbTVsh5+A==" saltValue="sp2iB7I+4IjtyrsJwv1w1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B20:D20"/>
@@ -40694,11 +40724,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B14" xr:uid="{CF462609-70FD-4174-95B0-56CFEBAF0773}">
@@ -40742,7 +40767,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -40750,7 +40775,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -40772,7 +40797,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="293" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C6" s="294"/>
       <c r="D6" s="294"/>
@@ -40780,123 +40805,123 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="297" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C7" s="297" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="371" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="371"/>
+        <v>222</v>
+      </c>
+      <c r="D7" s="366" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="366"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="182" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C8" s="183" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="370" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="366"/>
+        <v>223</v>
+      </c>
+      <c r="D8" s="367" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="368"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="182" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C9" s="183" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="370" t="s">
-        <v>238</v>
-      </c>
-      <c r="E9" s="366"/>
+        <v>223</v>
+      </c>
+      <c r="D9" s="367" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="368"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="182" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C10" s="183" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="370" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" s="366"/>
+        <v>224</v>
+      </c>
+      <c r="D10" s="367" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="368"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="182" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C11" s="183" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="370" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="366"/>
+        <v>231</v>
+      </c>
+      <c r="D11" s="367" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="368"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="182" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C12" s="183" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="370" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" s="366"/>
+        <v>233</v>
+      </c>
+      <c r="D12" s="367" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="368"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="181"/>
       <c r="C13" s="184"/>
-      <c r="D13" s="366"/>
-      <c r="E13" s="366"/>
+      <c r="D13" s="368"/>
+      <c r="E13" s="368"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="235"/>
       <c r="C14" s="184"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="235"/>
       <c r="C15" s="184"/>
-      <c r="D15" s="366"/>
-      <c r="E15" s="366"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="368"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="235"/>
       <c r="C16" s="184"/>
-      <c r="D16" s="366"/>
-      <c r="E16" s="366"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="181"/>
       <c r="C17" s="184"/>
-      <c r="D17" s="366"/>
-      <c r="E17" s="366"/>
+      <c r="D17" s="368"/>
+      <c r="E17" s="368"/>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="181"/>
       <c r="C18" s="184"/>
-      <c r="D18" s="366"/>
-      <c r="E18" s="366"/>
+      <c r="D18" s="368"/>
+      <c r="E18" s="368"/>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="181"/>
       <c r="C19" s="184"/>
-      <c r="D19" s="366"/>
-      <c r="E19" s="366"/>
+      <c r="D19" s="368"/>
+      <c r="E19" s="368"/>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="181"/>
       <c r="C20" s="184"/>
-      <c r="D20" s="366"/>
-      <c r="E20" s="366"/>
+      <c r="D20" s="368"/>
+      <c r="E20" s="368"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="300"/>
@@ -40906,7 +40931,7 @@
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="293" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C22" s="294"/>
       <c r="D22" s="294"/>
@@ -40914,21 +40939,21 @@
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="298" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C23" s="290" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D23" s="290" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E23" s="299" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="185" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C24" s="186">
         <v>5</v>
@@ -40943,7 +40968,7 @@
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="188" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C25" s="189">
         <v>20</v>
@@ -40958,7 +40983,7 @@
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="188" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C26" s="191">
         <v>10</v>
@@ -40973,7 +40998,7 @@
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="188" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C27" s="189">
         <v>3</v>
@@ -40988,7 +41013,7 @@
     </row>
     <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="188" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C28" s="189">
         <v>8</v>
@@ -41093,7 +41118,7 @@
     </row>
     <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="121" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C39" s="198">
         <f>IFERROR(SUM(C24:C38),"")</f>
@@ -41115,24 +41140,24 @@
       <c r="E40" s="120"/>
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="362" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="363"/>
-      <c r="D41" s="363"/>
-      <c r="E41" s="364"/>
+      <c r="B41" s="358" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="359"/>
+      <c r="D41" s="359"/>
+      <c r="E41" s="360"/>
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="344" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="365"/>
-      <c r="D42" s="365"/>
-      <c r="E42" s="345"/>
+      <c r="B42" s="362" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="363"/>
+      <c r="D42" s="363"/>
+      <c r="E42" s="364"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="340" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C43" s="361"/>
       <c r="D43" s="361"/>
@@ -41211,21 +41236,21 @@
       <c r="E55" s="341"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="367"/>
-      <c r="C56" s="368"/>
-      <c r="D56" s="368"/>
-      <c r="E56" s="369"/>
+      <c r="B56" s="369"/>
+      <c r="C56" s="370"/>
+      <c r="D56" s="370"/>
+      <c r="E56" s="371"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="e4a8gfQMjh4F1WptukkvjE8HcYVgUpCGWf/8UGwKLcz+N4IzQLzinn0d6xUTcUbW9DX3QmFf2ogb9IrTdJp5gw==" saltValue="JUcmWnwf5nO+ZNUUF9Qhww==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="30">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
@@ -41242,13 +41267,13 @@
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41288,7 +41313,7 @@
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -41298,7 +41323,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -41326,7 +41351,7 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="200" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C6" s="176">
         <v>2022</v>
@@ -41346,7 +41371,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="202" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C7" s="203">
         <v>1000000</v>
@@ -41366,7 +41391,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="188" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C8" s="190">
         <v>5000000</v>
@@ -41491,7 +41516,7 @@
     <row r="22" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="233" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C23" s="198">
         <f>IFERROR(IF(LEN(C$6)=0,"",SUM(C7:C21)),"")</f>
@@ -41517,10 +41542,10 @@
     <row r="24" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="149" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C25" s="209" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D25" s="209">
         <f>IFERROR((D23-C23)/C23,"-")</f>
@@ -41541,7 +41566,7 @@
     </row>
     <row r="27" spans="2:7" s="150" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="372" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C27" s="373"/>
       <c r="D27" s="373"/>
@@ -41550,18 +41575,18 @@
       <c r="G27" s="374"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="344" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="365"/>
-      <c r="D28" s="365"/>
-      <c r="E28" s="365"/>
-      <c r="F28" s="365"/>
-      <c r="G28" s="345"/>
+      <c r="B28" s="362" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="363"/>
+      <c r="D28" s="363"/>
+      <c r="E28" s="363"/>
+      <c r="F28" s="363"/>
+      <c r="G28" s="364"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C29" s="361"/>
       <c r="D29" s="361"/>
@@ -41571,7 +41596,7 @@
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C30" s="361"/>
       <c r="D30" s="361"/>
@@ -41668,12 +41693,12 @@
       <c r="G41" s="341"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="338"/>
-      <c r="C42" s="360"/>
-      <c r="D42" s="360"/>
-      <c r="E42" s="360"/>
-      <c r="F42" s="360"/>
-      <c r="G42" s="339"/>
+      <c r="B42" s="342"/>
+      <c r="C42" s="365"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="365"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="343"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fQP+Jv3I/2eakwwoAbpnp38SkuAQCSBy9ZRWJ7AYqMbhBRa3xGQ0yEaEypBQp9PF9wx2ZNLoQfQHD2WqBfYWnA==" saltValue="jvb+VeOyKduV2x6Yw6QtYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -41732,7 +41757,7 @@
     </row>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -41744,7 +41769,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -41801,7 +41826,7 @@
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
       <c r="C8" s="307" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D8" s="308"/>
       <c r="E8" s="308"/>
@@ -41813,7 +41838,7 @@
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="74"/>
       <c r="C9" s="210" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D9" s="301">
         <v>6000000</v>
@@ -41835,7 +41860,7 @@
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74"/>
       <c r="C10" s="211" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D10" s="302">
         <v>110000</v>
@@ -41867,7 +41892,7 @@
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="74"/>
       <c r="C12" s="134" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D12" s="304">
         <f>IFERROR(D9-D10,"")</f>
@@ -41904,7 +41929,7 @@
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="74"/>
       <c r="C14" s="210" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D14" s="301">
         <v>2000000</v>
@@ -41936,7 +41961,7 @@
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="74"/>
       <c r="C16" s="134" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D16" s="304">
         <f>IFERROR(D12-D14,"")</f>
@@ -41973,7 +41998,7 @@
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74"/>
       <c r="C18" s="307" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D18" s="309"/>
       <c r="E18" s="309"/>
@@ -41985,7 +42010,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="74"/>
       <c r="C19" s="212" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D19" s="306">
         <v>1110000</v>
@@ -42007,7 +42032,7 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
       <c r="C20" s="211" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D20" s="302">
         <v>200000</v>
@@ -42029,7 +42054,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="74"/>
       <c r="C21" s="211" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D21" s="302">
         <v>200000</v>
@@ -42051,7 +42076,7 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="211" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D22" s="302">
         <v>50000</v>
@@ -42073,7 +42098,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="211" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D23" s="302">
         <v>1000000</v>
@@ -42095,7 +42120,7 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="211" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D24" s="302">
         <v>12000</v>
@@ -42117,7 +42142,7 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="211" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D25" s="302"/>
       <c r="E25" s="302"/>
@@ -42129,7 +42154,7 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="74"/>
       <c r="C26" s="211" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D26" s="302"/>
       <c r="E26" s="302"/>
@@ -42141,7 +42166,7 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="74"/>
       <c r="C27" s="211" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D27" s="302"/>
       <c r="E27" s="302"/>
@@ -42153,7 +42178,7 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="74"/>
       <c r="C28" s="211" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D28" s="302"/>
       <c r="E28" s="302"/>
@@ -42165,7 +42190,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="74"/>
       <c r="C29" s="211" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D29" s="302"/>
       <c r="E29" s="302"/>
@@ -42177,7 +42202,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="74"/>
       <c r="C30" s="211" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D30" s="302"/>
       <c r="E30" s="302"/>
@@ -42189,7 +42214,7 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="74"/>
       <c r="C31" s="211" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D31" s="302"/>
       <c r="E31" s="302"/>
@@ -42201,7 +42226,7 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="74"/>
       <c r="C32" s="211" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D32" s="302"/>
       <c r="E32" s="302"/>
@@ -42213,7 +42238,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="74"/>
       <c r="C33" s="211" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D33" s="302"/>
       <c r="E33" s="302"/>
@@ -42225,7 +42250,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="74"/>
       <c r="C34" s="211" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D34" s="302"/>
       <c r="E34" s="302"/>
@@ -42237,7 +42262,7 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="74"/>
       <c r="C35" s="211" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D35" s="302"/>
       <c r="E35" s="302"/>
@@ -42249,7 +42274,7 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="74"/>
       <c r="C36" s="211" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D36" s="302"/>
       <c r="E36" s="302"/>
@@ -42311,7 +42336,7 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
       <c r="C42" s="134" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D42" s="304">
         <f>IFERROR(SUM(D19:D40),"")</f>
@@ -42348,7 +42373,7 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="74"/>
       <c r="C44" s="134" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D44" s="304">
         <f>IFERROR(D16-D42,"")</f>
@@ -42385,7 +42410,7 @@
     <row r="46" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="74"/>
       <c r="C46" s="307" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D46" s="309"/>
       <c r="E46" s="309"/>
@@ -42397,7 +42422,7 @@
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="74"/>
       <c r="C47" s="212" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D47" s="306">
         <v>20000</v>
@@ -42419,7 +42444,7 @@
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="74"/>
       <c r="C48" s="211" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D48" s="302"/>
       <c r="E48" s="302"/>
@@ -42431,7 +42456,7 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="74"/>
       <c r="C49" s="211" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D49" s="302"/>
       <c r="E49" s="302"/>
@@ -42453,7 +42478,7 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="74"/>
       <c r="C51" s="134" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D51" s="304">
         <f>IFERROR(D44+SUM(D47:D49),"")</f>
@@ -42490,7 +42515,7 @@
     <row r="53" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="74"/>
       <c r="C53" s="307" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D53" s="309"/>
       <c r="E53" s="309"/>
@@ -42502,7 +42527,7 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="74"/>
       <c r="C54" s="212" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D54" s="306">
         <v>821400</v>
@@ -42524,7 +42549,7 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="74"/>
       <c r="C55" s="211" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D55" s="302"/>
       <c r="E55" s="302"/>
@@ -42546,7 +42571,7 @@
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="74"/>
       <c r="C57" s="134" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D57" s="304">
         <f>IFERROR(SUM(D54:D55),"")</f>
@@ -42583,7 +42608,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="74"/>
       <c r="C59" s="134" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D59" s="304">
         <f>IFERROR(D51-D57,"")</f>
@@ -42654,7 +42679,7 @@
     <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
@@ -42666,7 +42691,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -42717,7 +42742,7 @@
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
       <c r="C8" s="307" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D8" s="308"/>
       <c r="E8" s="308"/>
@@ -42739,7 +42764,7 @@
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74"/>
       <c r="C10" s="126" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
@@ -42751,7 +42776,7 @@
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="213" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D11" s="312">
         <v>2500000</v>
@@ -42773,7 +42798,7 @@
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="214" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D12" s="313">
         <v>2000000</v>
@@ -42795,7 +42820,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="214" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D13" s="313"/>
       <c r="E13" s="313"/>
@@ -42807,7 +42832,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="214" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D14" s="313"/>
       <c r="E14" s="313"/>
@@ -42819,7 +42844,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="59"/>
       <c r="C15" s="130" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D15" s="314">
         <f>IFERROR(SUM(D11:D14),"")</f>
@@ -42856,7 +42881,7 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="59"/>
       <c r="C17" s="126" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D17" s="316"/>
       <c r="E17" s="316"/>
@@ -42868,7 +42893,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
       <c r="C18" s="214" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D18" s="313">
         <v>250000</v>
@@ -42890,7 +42915,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="C19" s="214" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D19" s="313">
         <v>50000</v>
@@ -42912,7 +42937,7 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="132" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D20" s="314">
         <f>IFERROR(SUM(D18:D19),"")</f>
@@ -42949,7 +42974,7 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="59"/>
       <c r="C22" s="133" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D22" s="317">
         <f>IFERROR(SUM(D15,D20),"")</f>
@@ -42986,7 +43011,7 @@
     <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="59"/>
       <c r="C24" s="307" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D24" s="309"/>
       <c r="E24" s="309"/>
@@ -43008,7 +43033,7 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
       <c r="C26" s="126" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D26" s="316"/>
       <c r="E26" s="316"/>
@@ -43020,7 +43045,7 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="59"/>
       <c r="C27" s="215" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D27" s="313">
         <v>2500000</v>
@@ -43042,7 +43067,7 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="214" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D28" s="313">
         <v>50000</v>
@@ -43064,7 +43089,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="59"/>
       <c r="C29" s="214" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D29" s="313"/>
       <c r="E29" s="313"/>
@@ -43076,7 +43101,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="132" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D30" s="314">
         <f>IFERROR(SUM(D27:D29),"")</f>
@@ -43113,7 +43138,7 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="126" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D32" s="316"/>
       <c r="E32" s="316"/>
@@ -43125,7 +43150,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="59"/>
       <c r="C33" s="214" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D33" s="313">
         <v>1000000</v>
@@ -43147,7 +43172,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="59"/>
       <c r="C34" s="216" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D34" s="313"/>
       <c r="E34" s="313"/>
@@ -43159,7 +43184,7 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="59"/>
       <c r="C35" s="132" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D35" s="314">
         <f>IFERROR(SUM(D33:D34),"")</f>
@@ -43196,7 +43221,7 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="59"/>
       <c r="C37" s="126" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D37" s="316"/>
       <c r="E37" s="316"/>
@@ -43208,7 +43233,7 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="59"/>
       <c r="C38" s="214" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D38" s="313">
         <v>1250000</v>
@@ -43230,7 +43255,7 @@
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="59"/>
       <c r="C39" s="214" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D39" s="313"/>
       <c r="E39" s="313"/>
@@ -43242,7 +43267,7 @@
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="59"/>
       <c r="C40" s="214" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D40" s="313"/>
       <c r="E40" s="313"/>
@@ -43254,7 +43279,7 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="132" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D41" s="314">
         <f>IFERROR(SUM(D38:D40),"")</f>
@@ -43291,7 +43316,7 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="59"/>
       <c r="C43" s="133" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D43" s="317">
         <f>IFERROR(SUM(D30,D35,D41),"")</f>
@@ -43364,7 +43389,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="226"/>
@@ -43376,7 +43401,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="53"/>
@@ -43430,7 +43455,7 @@
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="59"/>
       <c r="C8" s="307" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D8" s="308"/>
       <c r="E8" s="310"/>
@@ -43452,7 +43477,7 @@
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="123" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
@@ -43464,7 +43489,7 @@
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="217" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D11" s="313">
         <v>6000000</v>
@@ -43486,7 +43511,7 @@
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="217" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D12" s="313"/>
       <c r="E12" s="313"/>
@@ -43498,7 +43523,7 @@
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="130" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D13" s="314">
         <f>IFERROR(SUM(D11:D12),"")</f>
@@ -43525,7 +43550,7 @@
     <row r="14" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="125" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D14" s="315"/>
       <c r="E14" s="315"/>
@@ -43537,7 +43562,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="59"/>
       <c r="C15" s="123" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D15" s="318"/>
       <c r="E15" s="318"/>
@@ -43549,7 +43574,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
       <c r="C16" s="217" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D16" s="313">
         <v>50000</v>
@@ -43571,7 +43596,7 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="59"/>
       <c r="C17" s="217" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D17" s="313">
         <v>1110000</v>
@@ -43593,7 +43618,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
       <c r="C18" s="217" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D18" s="313">
         <v>400000</v>
@@ -43615,7 +43640,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="C19" s="217" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D19" s="313">
         <v>1000000</v>
@@ -43637,7 +43662,7 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="217" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D20" s="313">
         <v>821400</v>
@@ -43659,7 +43684,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
       <c r="C21" s="124" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D21" s="319">
         <f>IFERROR(SUM(D16:D20),"")</f>
@@ -43696,7 +43721,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
       <c r="C23" s="126" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D23" s="317">
         <f>IFERROR(D13-D21,"")</f>
@@ -43733,7 +43758,7 @@
     <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
       <c r="C25" s="307" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D25" s="309"/>
       <c r="E25" s="309"/>
@@ -43755,7 +43780,7 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="59"/>
       <c r="C27" s="123" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D27" s="318"/>
       <c r="E27" s="318"/>
@@ -43767,7 +43792,7 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="217" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D28" s="313">
         <v>800000</v>
@@ -43789,7 +43814,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="59"/>
       <c r="C29" s="217" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D29" s="313"/>
       <c r="E29" s="313"/>
@@ -43801,7 +43826,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="217" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D30" s="313"/>
       <c r="E30" s="313"/>
@@ -43813,7 +43838,7 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
       <c r="C31" s="217" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D31" s="313"/>
       <c r="E31" s="313"/>
@@ -43825,7 +43850,7 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="217" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D32" s="313"/>
       <c r="E32" s="313"/>
@@ -43837,7 +43862,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="59"/>
       <c r="C33" s="130" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D33" s="314">
         <f>IFERROR(SUM(D28:D32),"")</f>
@@ -43864,7 +43889,7 @@
     <row r="34" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="59"/>
       <c r="C34" s="125" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D34" s="315"/>
       <c r="E34" s="315"/>
@@ -43876,7 +43901,7 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="59"/>
       <c r="C35" s="123" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D35" s="318"/>
       <c r="E35" s="318"/>
@@ -43888,7 +43913,7 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="59"/>
       <c r="C36" s="217" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D36" s="313">
         <v>500000</v>
@@ -43910,7 +43935,7 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="59"/>
       <c r="C37" s="217" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D37" s="313"/>
       <c r="E37" s="313"/>
@@ -43922,7 +43947,7 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="59"/>
       <c r="C38" s="217" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D38" s="313"/>
       <c r="E38" s="313"/>
@@ -43934,7 +43959,7 @@
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="59"/>
       <c r="C39" s="217" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D39" s="313"/>
       <c r="E39" s="313"/>
@@ -43946,7 +43971,7 @@
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="59"/>
       <c r="C40" s="217" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D40" s="313"/>
       <c r="E40" s="313"/>
@@ -43958,7 +43983,7 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="130" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D41" s="314">
         <f>IFERROR(SUM(D36:D40),"")</f>
@@ -43995,7 +44020,7 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="59"/>
       <c r="C43" s="126" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D43" s="317">
         <f>IFERROR(D33-D41,"")</f>
@@ -44022,7 +44047,7 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="59"/>
       <c r="C44" s="125" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D44" s="315"/>
       <c r="E44" s="315"/>
@@ -44034,7 +44059,7 @@
     <row r="45" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="59"/>
       <c r="C45" s="307" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D45" s="309"/>
       <c r="E45" s="309"/>
@@ -44056,7 +44081,7 @@
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="59"/>
       <c r="C47" s="123" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D47" s="318"/>
       <c r="E47" s="318"/>
@@ -44068,7 +44093,7 @@
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="59"/>
       <c r="C48" s="217" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D48" s="313">
         <v>1000000</v>
@@ -44090,7 +44115,7 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="59"/>
       <c r="C49" s="217" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D49" s="313"/>
       <c r="E49" s="313"/>
@@ -44102,7 +44127,7 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="59"/>
       <c r="C50" s="217" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D50" s="313"/>
       <c r="E50" s="313"/>
@@ -44114,7 +44139,7 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="59"/>
       <c r="C51" s="130" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D51" s="314">
         <f>IFERROR(SUM(D48:D50),"")</f>
@@ -44141,7 +44166,7 @@
     <row r="52" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="59"/>
       <c r="C52" s="125" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D52" s="315"/>
       <c r="E52" s="315"/>
@@ -44153,7 +44178,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="59"/>
       <c r="C53" s="123" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D53" s="318"/>
       <c r="E53" s="318"/>
@@ -44165,7 +44190,7 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="59"/>
       <c r="C54" s="217" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D54" s="313">
         <v>200000</v>
@@ -44187,7 +44212,7 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="59"/>
       <c r="C55" s="217" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D55" s="313">
         <v>100000</v>
@@ -44209,7 +44234,7 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="59"/>
       <c r="C56" s="217" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D56" s="313"/>
       <c r="E56" s="313"/>
@@ -44221,7 +44246,7 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="59"/>
       <c r="C57" s="217" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D57" s="313"/>
       <c r="E57" s="313"/>
@@ -44233,7 +44258,7 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="59"/>
       <c r="C58" s="217" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D58" s="313"/>
       <c r="E58" s="313"/>
@@ -44245,7 +44270,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
       <c r="C59" s="130" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D59" s="314">
         <f>IFERROR(SUM(D54:D58),"")</f>
@@ -44282,7 +44307,7 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
       <c r="C61" s="126" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D61" s="317">
         <f>IFERROR(D51-D59,"")</f>
@@ -44319,7 +44344,7 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
       <c r="C63" s="128" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D63" s="321">
         <f>IFERROR(SUM(D23,D43,D61),"")</f>
@@ -44346,7 +44371,7 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
       <c r="C64" s="217" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D64" s="313">
         <v>1000000</v>
@@ -44360,7 +44385,7 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
       <c r="C65" s="123" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D65" s="322">
         <f>IFERROR(SUM(D63,D64),"")</f>
@@ -44455,7 +44480,7 @@
     </row>
     <row r="2" spans="1:26" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="26"/>
@@ -44478,7 +44503,7 @@
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="6"/>
@@ -44613,7 +44638,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="114" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D10" s="113"/>
       <c r="E10" s="96"/>
@@ -44648,7 +44673,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="115" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D11" s="113"/>
       <c r="E11" s="96"/>
@@ -44683,7 +44708,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="115" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D12" s="113"/>
       <c r="E12" s="101"/>
@@ -44718,7 +44743,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="115" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D13" s="113"/>
       <c r="E13" s="101"/>
@@ -44753,7 +44778,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="116" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D14" s="113"/>
       <c r="E14" s="101"/>
@@ -45711,31 +45736,31 @@
     </row>
     <row r="59" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
-      <c r="C59" s="342" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="350"/>
-      <c r="E59" s="350"/>
-      <c r="F59" s="350"/>
-      <c r="G59" s="350"/>
-      <c r="H59" s="350"/>
-      <c r="I59" s="350"/>
-      <c r="J59" s="350"/>
-      <c r="K59" s="350"/>
-      <c r="L59" s="350"/>
-      <c r="M59" s="350"/>
-      <c r="N59" s="350"/>
-      <c r="O59" s="350"/>
-      <c r="P59" s="350"/>
-      <c r="Q59" s="350"/>
-      <c r="R59" s="350"/>
-      <c r="S59" s="343"/>
+      <c r="C59" s="338" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="348"/>
+      <c r="E59" s="348"/>
+      <c r="F59" s="348"/>
+      <c r="G59" s="348"/>
+      <c r="H59" s="348"/>
+      <c r="I59" s="348"/>
+      <c r="J59" s="348"/>
+      <c r="K59" s="348"/>
+      <c r="L59" s="348"/>
+      <c r="M59" s="348"/>
+      <c r="N59" s="348"/>
+      <c r="O59" s="348"/>
+      <c r="P59" s="348"/>
+      <c r="Q59" s="348"/>
+      <c r="R59" s="348"/>
+      <c r="S59" s="339"/>
       <c r="T59" s="60"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="381" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D60" s="382"/>
       <c r="E60" s="382"/>
@@ -45757,298 +45782,298 @@
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
-      <c r="C61" s="378" t="s">
-        <v>253</v>
-      </c>
-      <c r="D61" s="379"/>
-      <c r="E61" s="379"/>
-      <c r="F61" s="379"/>
-      <c r="G61" s="379"/>
-      <c r="H61" s="379"/>
-      <c r="I61" s="379"/>
-      <c r="J61" s="379"/>
-      <c r="K61" s="379"/>
-      <c r="L61" s="379"/>
-      <c r="M61" s="379"/>
-      <c r="N61" s="379"/>
-      <c r="O61" s="379"/>
-      <c r="P61" s="379"/>
-      <c r="Q61" s="379"/>
-      <c r="R61" s="379"/>
-      <c r="S61" s="380"/>
+      <c r="C61" s="375" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="376"/>
+      <c r="E61" s="376"/>
+      <c r="F61" s="376"/>
+      <c r="G61" s="376"/>
+      <c r="H61" s="376"/>
+      <c r="I61" s="376"/>
+      <c r="J61" s="376"/>
+      <c r="K61" s="376"/>
+      <c r="L61" s="376"/>
+      <c r="M61" s="376"/>
+      <c r="N61" s="376"/>
+      <c r="O61" s="376"/>
+      <c r="P61" s="376"/>
+      <c r="Q61" s="376"/>
+      <c r="R61" s="376"/>
+      <c r="S61" s="377"/>
       <c r="T61" s="60"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59"/>
-      <c r="C62" s="378"/>
-      <c r="D62" s="379"/>
-      <c r="E62" s="379"/>
-      <c r="F62" s="379"/>
-      <c r="G62" s="379"/>
-      <c r="H62" s="379"/>
-      <c r="I62" s="379"/>
-      <c r="J62" s="379"/>
-      <c r="K62" s="379"/>
-      <c r="L62" s="379"/>
-      <c r="M62" s="379"/>
-      <c r="N62" s="379"/>
-      <c r="O62" s="379"/>
-      <c r="P62" s="379"/>
-      <c r="Q62" s="379"/>
-      <c r="R62" s="379"/>
-      <c r="S62" s="380"/>
+      <c r="C62" s="375"/>
+      <c r="D62" s="376"/>
+      <c r="E62" s="376"/>
+      <c r="F62" s="376"/>
+      <c r="G62" s="376"/>
+      <c r="H62" s="376"/>
+      <c r="I62" s="376"/>
+      <c r="J62" s="376"/>
+      <c r="K62" s="376"/>
+      <c r="L62" s="376"/>
+      <c r="M62" s="376"/>
+      <c r="N62" s="376"/>
+      <c r="O62" s="376"/>
+      <c r="P62" s="376"/>
+      <c r="Q62" s="376"/>
+      <c r="R62" s="376"/>
+      <c r="S62" s="377"/>
       <c r="T62" s="60"/>
     </row>
     <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
-      <c r="C63" s="378"/>
-      <c r="D63" s="379"/>
-      <c r="E63" s="379"/>
-      <c r="F63" s="379"/>
-      <c r="G63" s="379"/>
-      <c r="H63" s="379"/>
-      <c r="I63" s="379"/>
-      <c r="J63" s="379"/>
-      <c r="K63" s="379"/>
-      <c r="L63" s="379"/>
-      <c r="M63" s="379"/>
-      <c r="N63" s="379"/>
-      <c r="O63" s="379"/>
-      <c r="P63" s="379"/>
-      <c r="Q63" s="379"/>
-      <c r="R63" s="379"/>
-      <c r="S63" s="380"/>
+      <c r="C63" s="375"/>
+      <c r="D63" s="376"/>
+      <c r="E63" s="376"/>
+      <c r="F63" s="376"/>
+      <c r="G63" s="376"/>
+      <c r="H63" s="376"/>
+      <c r="I63" s="376"/>
+      <c r="J63" s="376"/>
+      <c r="K63" s="376"/>
+      <c r="L63" s="376"/>
+      <c r="M63" s="376"/>
+      <c r="N63" s="376"/>
+      <c r="O63" s="376"/>
+      <c r="P63" s="376"/>
+      <c r="Q63" s="376"/>
+      <c r="R63" s="376"/>
+      <c r="S63" s="377"/>
       <c r="T63" s="60"/>
     </row>
     <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
-      <c r="C64" s="378"/>
-      <c r="D64" s="379"/>
-      <c r="E64" s="379"/>
-      <c r="F64" s="379"/>
-      <c r="G64" s="379"/>
-      <c r="H64" s="379"/>
-      <c r="I64" s="379"/>
-      <c r="J64" s="379"/>
-      <c r="K64" s="379"/>
-      <c r="L64" s="379"/>
-      <c r="M64" s="379"/>
-      <c r="N64" s="379"/>
-      <c r="O64" s="379"/>
-      <c r="P64" s="379"/>
-      <c r="Q64" s="379"/>
-      <c r="R64" s="379"/>
-      <c r="S64" s="380"/>
+      <c r="C64" s="375"/>
+      <c r="D64" s="376"/>
+      <c r="E64" s="376"/>
+      <c r="F64" s="376"/>
+      <c r="G64" s="376"/>
+      <c r="H64" s="376"/>
+      <c r="I64" s="376"/>
+      <c r="J64" s="376"/>
+      <c r="K64" s="376"/>
+      <c r="L64" s="376"/>
+      <c r="M64" s="376"/>
+      <c r="N64" s="376"/>
+      <c r="O64" s="376"/>
+      <c r="P64" s="376"/>
+      <c r="Q64" s="376"/>
+      <c r="R64" s="376"/>
+      <c r="S64" s="377"/>
       <c r="T64" s="60"/>
     </row>
     <row r="65" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
-      <c r="C65" s="378"/>
-      <c r="D65" s="379"/>
-      <c r="E65" s="379"/>
-      <c r="F65" s="379"/>
-      <c r="G65" s="379"/>
-      <c r="H65" s="379"/>
-      <c r="I65" s="379"/>
-      <c r="J65" s="379"/>
-      <c r="K65" s="379"/>
-      <c r="L65" s="379"/>
-      <c r="M65" s="379"/>
-      <c r="N65" s="379"/>
-      <c r="O65" s="379"/>
-      <c r="P65" s="379"/>
-      <c r="Q65" s="379"/>
-      <c r="R65" s="379"/>
-      <c r="S65" s="380"/>
+      <c r="C65" s="375"/>
+      <c r="D65" s="376"/>
+      <c r="E65" s="376"/>
+      <c r="F65" s="376"/>
+      <c r="G65" s="376"/>
+      <c r="H65" s="376"/>
+      <c r="I65" s="376"/>
+      <c r="J65" s="376"/>
+      <c r="K65" s="376"/>
+      <c r="L65" s="376"/>
+      <c r="M65" s="376"/>
+      <c r="N65" s="376"/>
+      <c r="O65" s="376"/>
+      <c r="P65" s="376"/>
+      <c r="Q65" s="376"/>
+      <c r="R65" s="376"/>
+      <c r="S65" s="377"/>
       <c r="T65" s="60"/>
     </row>
     <row r="66" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="59"/>
-      <c r="C66" s="378"/>
-      <c r="D66" s="379"/>
-      <c r="E66" s="379"/>
-      <c r="F66" s="379"/>
-      <c r="G66" s="379"/>
-      <c r="H66" s="379"/>
-      <c r="I66" s="379"/>
-      <c r="J66" s="379"/>
-      <c r="K66" s="379"/>
-      <c r="L66" s="379"/>
-      <c r="M66" s="379"/>
-      <c r="N66" s="379"/>
-      <c r="O66" s="379"/>
-      <c r="P66" s="379"/>
-      <c r="Q66" s="379"/>
-      <c r="R66" s="379"/>
-      <c r="S66" s="380"/>
+      <c r="C66" s="375"/>
+      <c r="D66" s="376"/>
+      <c r="E66" s="376"/>
+      <c r="F66" s="376"/>
+      <c r="G66" s="376"/>
+      <c r="H66" s="376"/>
+      <c r="I66" s="376"/>
+      <c r="J66" s="376"/>
+      <c r="K66" s="376"/>
+      <c r="L66" s="376"/>
+      <c r="M66" s="376"/>
+      <c r="N66" s="376"/>
+      <c r="O66" s="376"/>
+      <c r="P66" s="376"/>
+      <c r="Q66" s="376"/>
+      <c r="R66" s="376"/>
+      <c r="S66" s="377"/>
       <c r="T66" s="60"/>
     </row>
     <row r="67" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="59"/>
-      <c r="C67" s="378"/>
-      <c r="D67" s="379"/>
-      <c r="E67" s="379"/>
-      <c r="F67" s="379"/>
-      <c r="G67" s="379"/>
-      <c r="H67" s="379"/>
-      <c r="I67" s="379"/>
-      <c r="J67" s="379"/>
-      <c r="K67" s="379"/>
-      <c r="L67" s="379"/>
-      <c r="M67" s="379"/>
-      <c r="N67" s="379"/>
-      <c r="O67" s="379"/>
-      <c r="P67" s="379"/>
-      <c r="Q67" s="379"/>
-      <c r="R67" s="379"/>
-      <c r="S67" s="380"/>
+      <c r="C67" s="375"/>
+      <c r="D67" s="376"/>
+      <c r="E67" s="376"/>
+      <c r="F67" s="376"/>
+      <c r="G67" s="376"/>
+      <c r="H67" s="376"/>
+      <c r="I67" s="376"/>
+      <c r="J67" s="376"/>
+      <c r="K67" s="376"/>
+      <c r="L67" s="376"/>
+      <c r="M67" s="376"/>
+      <c r="N67" s="376"/>
+      <c r="O67" s="376"/>
+      <c r="P67" s="376"/>
+      <c r="Q67" s="376"/>
+      <c r="R67" s="376"/>
+      <c r="S67" s="377"/>
       <c r="T67" s="60"/>
     </row>
     <row r="68" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="59"/>
-      <c r="C68" s="378"/>
-      <c r="D68" s="379"/>
-      <c r="E68" s="379"/>
-      <c r="F68" s="379"/>
-      <c r="G68" s="379"/>
-      <c r="H68" s="379"/>
-      <c r="I68" s="379"/>
-      <c r="J68" s="379"/>
-      <c r="K68" s="379"/>
-      <c r="L68" s="379"/>
-      <c r="M68" s="379"/>
-      <c r="N68" s="379"/>
-      <c r="O68" s="379"/>
-      <c r="P68" s="379"/>
-      <c r="Q68" s="379"/>
-      <c r="R68" s="379"/>
-      <c r="S68" s="380"/>
+      <c r="C68" s="375"/>
+      <c r="D68" s="376"/>
+      <c r="E68" s="376"/>
+      <c r="F68" s="376"/>
+      <c r="G68" s="376"/>
+      <c r="H68" s="376"/>
+      <c r="I68" s="376"/>
+      <c r="J68" s="376"/>
+      <c r="K68" s="376"/>
+      <c r="L68" s="376"/>
+      <c r="M68" s="376"/>
+      <c r="N68" s="376"/>
+      <c r="O68" s="376"/>
+      <c r="P68" s="376"/>
+      <c r="Q68" s="376"/>
+      <c r="R68" s="376"/>
+      <c r="S68" s="377"/>
       <c r="T68" s="60"/>
     </row>
     <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="59"/>
-      <c r="C69" s="378"/>
-      <c r="D69" s="379"/>
-      <c r="E69" s="379"/>
-      <c r="F69" s="379"/>
-      <c r="G69" s="379"/>
-      <c r="H69" s="379"/>
-      <c r="I69" s="379"/>
-      <c r="J69" s="379"/>
-      <c r="K69" s="379"/>
-      <c r="L69" s="379"/>
-      <c r="M69" s="379"/>
-      <c r="N69" s="379"/>
-      <c r="O69" s="379"/>
-      <c r="P69" s="379"/>
-      <c r="Q69" s="379"/>
-      <c r="R69" s="379"/>
-      <c r="S69" s="380"/>
+      <c r="C69" s="375"/>
+      <c r="D69" s="376"/>
+      <c r="E69" s="376"/>
+      <c r="F69" s="376"/>
+      <c r="G69" s="376"/>
+      <c r="H69" s="376"/>
+      <c r="I69" s="376"/>
+      <c r="J69" s="376"/>
+      <c r="K69" s="376"/>
+      <c r="L69" s="376"/>
+      <c r="M69" s="376"/>
+      <c r="N69" s="376"/>
+      <c r="O69" s="376"/>
+      <c r="P69" s="376"/>
+      <c r="Q69" s="376"/>
+      <c r="R69" s="376"/>
+      <c r="S69" s="377"/>
       <c r="T69" s="60"/>
     </row>
     <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="59"/>
-      <c r="C70" s="378"/>
-      <c r="D70" s="379"/>
-      <c r="E70" s="379"/>
-      <c r="F70" s="379"/>
-      <c r="G70" s="379"/>
-      <c r="H70" s="379"/>
-      <c r="I70" s="379"/>
-      <c r="J70" s="379"/>
-      <c r="K70" s="379"/>
-      <c r="L70" s="379"/>
-      <c r="M70" s="379"/>
-      <c r="N70" s="379"/>
-      <c r="O70" s="379"/>
-      <c r="P70" s="379"/>
-      <c r="Q70" s="379"/>
-      <c r="R70" s="379"/>
-      <c r="S70" s="380"/>
+      <c r="C70" s="375"/>
+      <c r="D70" s="376"/>
+      <c r="E70" s="376"/>
+      <c r="F70" s="376"/>
+      <c r="G70" s="376"/>
+      <c r="H70" s="376"/>
+      <c r="I70" s="376"/>
+      <c r="J70" s="376"/>
+      <c r="K70" s="376"/>
+      <c r="L70" s="376"/>
+      <c r="M70" s="376"/>
+      <c r="N70" s="376"/>
+      <c r="O70" s="376"/>
+      <c r="P70" s="376"/>
+      <c r="Q70" s="376"/>
+      <c r="R70" s="376"/>
+      <c r="S70" s="377"/>
       <c r="T70" s="60"/>
     </row>
     <row r="71" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="59"/>
-      <c r="C71" s="378"/>
-      <c r="D71" s="379"/>
-      <c r="E71" s="379"/>
-      <c r="F71" s="379"/>
-      <c r="G71" s="379"/>
-      <c r="H71" s="379"/>
-      <c r="I71" s="379"/>
-      <c r="J71" s="379"/>
-      <c r="K71" s="379"/>
-      <c r="L71" s="379"/>
-      <c r="M71" s="379"/>
-      <c r="N71" s="379"/>
-      <c r="O71" s="379"/>
-      <c r="P71" s="379"/>
-      <c r="Q71" s="379"/>
-      <c r="R71" s="379"/>
-      <c r="S71" s="380"/>
+      <c r="C71" s="375"/>
+      <c r="D71" s="376"/>
+      <c r="E71" s="376"/>
+      <c r="F71" s="376"/>
+      <c r="G71" s="376"/>
+      <c r="H71" s="376"/>
+      <c r="I71" s="376"/>
+      <c r="J71" s="376"/>
+      <c r="K71" s="376"/>
+      <c r="L71" s="376"/>
+      <c r="M71" s="376"/>
+      <c r="N71" s="376"/>
+      <c r="O71" s="376"/>
+      <c r="P71" s="376"/>
+      <c r="Q71" s="376"/>
+      <c r="R71" s="376"/>
+      <c r="S71" s="377"/>
       <c r="T71" s="60"/>
     </row>
     <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="59"/>
-      <c r="C72" s="378"/>
-      <c r="D72" s="379"/>
-      <c r="E72" s="379"/>
-      <c r="F72" s="379"/>
-      <c r="G72" s="379"/>
-      <c r="H72" s="379"/>
-      <c r="I72" s="379"/>
-      <c r="J72" s="379"/>
-      <c r="K72" s="379"/>
-      <c r="L72" s="379"/>
-      <c r="M72" s="379"/>
-      <c r="N72" s="379"/>
-      <c r="O72" s="379"/>
-      <c r="P72" s="379"/>
-      <c r="Q72" s="379"/>
-      <c r="R72" s="379"/>
-      <c r="S72" s="380"/>
+      <c r="C72" s="375"/>
+      <c r="D72" s="376"/>
+      <c r="E72" s="376"/>
+      <c r="F72" s="376"/>
+      <c r="G72" s="376"/>
+      <c r="H72" s="376"/>
+      <c r="I72" s="376"/>
+      <c r="J72" s="376"/>
+      <c r="K72" s="376"/>
+      <c r="L72" s="376"/>
+      <c r="M72" s="376"/>
+      <c r="N72" s="376"/>
+      <c r="O72" s="376"/>
+      <c r="P72" s="376"/>
+      <c r="Q72" s="376"/>
+      <c r="R72" s="376"/>
+      <c r="S72" s="377"/>
       <c r="T72" s="60"/>
     </row>
     <row r="73" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="59"/>
-      <c r="C73" s="378"/>
-      <c r="D73" s="379"/>
-      <c r="E73" s="379"/>
-      <c r="F73" s="379"/>
-      <c r="G73" s="379"/>
-      <c r="H73" s="379"/>
-      <c r="I73" s="379"/>
-      <c r="J73" s="379"/>
-      <c r="K73" s="379"/>
-      <c r="L73" s="379"/>
-      <c r="M73" s="379"/>
-      <c r="N73" s="379"/>
-      <c r="O73" s="379"/>
-      <c r="P73" s="379"/>
-      <c r="Q73" s="379"/>
-      <c r="R73" s="379"/>
-      <c r="S73" s="380"/>
+      <c r="C73" s="375"/>
+      <c r="D73" s="376"/>
+      <c r="E73" s="376"/>
+      <c r="F73" s="376"/>
+      <c r="G73" s="376"/>
+      <c r="H73" s="376"/>
+      <c r="I73" s="376"/>
+      <c r="J73" s="376"/>
+      <c r="K73" s="376"/>
+      <c r="L73" s="376"/>
+      <c r="M73" s="376"/>
+      <c r="N73" s="376"/>
+      <c r="O73" s="376"/>
+      <c r="P73" s="376"/>
+      <c r="Q73" s="376"/>
+      <c r="R73" s="376"/>
+      <c r="S73" s="377"/>
       <c r="T73" s="60"/>
     </row>
     <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
-      <c r="C74" s="375"/>
-      <c r="D74" s="376"/>
-      <c r="E74" s="376"/>
-      <c r="F74" s="376"/>
-      <c r="G74" s="376"/>
-      <c r="H74" s="376"/>
-      <c r="I74" s="376"/>
-      <c r="J74" s="376"/>
-      <c r="K74" s="376"/>
-      <c r="L74" s="376"/>
-      <c r="M74" s="376"/>
-      <c r="N74" s="376"/>
-      <c r="O74" s="376"/>
-      <c r="P74" s="376"/>
-      <c r="Q74" s="376"/>
-      <c r="R74" s="376"/>
-      <c r="S74" s="377"/>
+      <c r="C74" s="378"/>
+      <c r="D74" s="379"/>
+      <c r="E74" s="379"/>
+      <c r="F74" s="379"/>
+      <c r="G74" s="379"/>
+      <c r="H74" s="379"/>
+      <c r="I74" s="379"/>
+      <c r="J74" s="379"/>
+      <c r="K74" s="379"/>
+      <c r="L74" s="379"/>
+      <c r="M74" s="379"/>
+      <c r="N74" s="379"/>
+      <c r="O74" s="379"/>
+      <c r="P74" s="379"/>
+      <c r="Q74" s="379"/>
+      <c r="R74" s="379"/>
+      <c r="S74" s="380"/>
       <c r="T74" s="60"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
@@ -46075,12 +46100,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrvXTNEyg6ecmYncpmv63lHNkpCjj8zGGjyL/TJQBr5/3IiD3LSnAlxGpWZY2KJcUE/YM0fQ1in6NcWorcIWfw==" saltValue="gcPC3KzDvckzqrICh2VFzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
-    <mergeCell ref="C59:S59"/>
-    <mergeCell ref="C70:S70"/>
-    <mergeCell ref="C69:S69"/>
-    <mergeCell ref="C68:S68"/>
-    <mergeCell ref="C62:S62"/>
-    <mergeCell ref="C61:S61"/>
     <mergeCell ref="C74:S74"/>
     <mergeCell ref="C73:S73"/>
     <mergeCell ref="C72:S72"/>
@@ -46091,6 +46110,12 @@
     <mergeCell ref="C65:S65"/>
     <mergeCell ref="C66:S66"/>
     <mergeCell ref="C67:S67"/>
+    <mergeCell ref="C59:S59"/>
+    <mergeCell ref="C70:S70"/>
+    <mergeCell ref="C69:S69"/>
+    <mergeCell ref="C68:S68"/>
+    <mergeCell ref="C62:S62"/>
+    <mergeCell ref="C61:S61"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -46125,7 +46150,7 @@
     <row r="1" spans="2:64" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:64" s="231" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="333" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="228"/>
       <c r="D2" s="229"/>
@@ -46179,7 +46204,7 @@
     </row>
     <row r="3" spans="2:64" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="7"/>
@@ -46235,7 +46260,7 @@
     <row r="5" spans="2:64" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA6" s="384" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="BB6" s="385"/>
       <c r="BC6" s="385"/>
@@ -46501,7 +46526,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46519,7 +46544,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -46527,7 +46552,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -46542,21 +46567,21 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="291" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="291" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="291" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="323" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C6" s="323" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D6" s="324">
         <v>44593</v>
@@ -46564,10 +46589,10 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="325" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C7" s="325" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D7" s="326">
         <v>44597</v>
@@ -46575,7 +46600,7 @@
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="325" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C8" s="325"/>
       <c r="D8" s="326">
@@ -46584,7 +46609,7 @@
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="325" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C9" s="325"/>
       <c r="D9" s="326">
@@ -46593,10 +46618,10 @@
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="325" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C10" s="325" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D10" s="326">
         <v>44926</v>
@@ -46604,10 +46629,10 @@
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="325" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C11" s="325" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D11" s="326">
         <v>44926</v>
@@ -46615,7 +46640,7 @@
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="325" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C12" s="325"/>
       <c r="D12" s="326">
@@ -46624,7 +46649,7 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="325" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C13" s="325"/>
       <c r="D13" s="326">
@@ -46633,10 +46658,10 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="325" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C14" s="325" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D14" s="326">
         <v>46387</v>
@@ -46883,13 +46908,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -46942,7 +46967,7 @@
     </row>
     <row r="2" spans="1:6" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -46951,7 +46976,7 @@
     </row>
     <row r="3" spans="1:6" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -47480,13 +47505,13 @@
     </row>
     <row r="2" spans="1:3" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="219"/>
     </row>
     <row r="3" spans="1:3" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -47505,15 +47530,15 @@
         <v>11</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="292" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C7" s="169" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47521,15 +47546,15 @@
         <v>12</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47537,7 +47562,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47545,15 +47570,15 @@
         <v>14</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="292" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C12" s="169" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -47594,13 +47619,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47616,74 +47641,74 @@
     </row>
     <row r="6" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="292" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="292" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C7" s="171" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="292" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="292" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="292" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="292" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="292" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="292" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -47706,7 +47731,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25:C25"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47723,13 +47748,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47748,7 +47773,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47756,7 +47781,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47769,26 +47794,26 @@
     </row>
     <row r="9" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C9" s="250" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="292" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C10" s="250" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="292" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C11" s="250" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -47796,32 +47821,32 @@
       <c r="C12" s="47"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="342" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="343"/>
+      <c r="B13" s="338" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="339"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="340" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C14" s="341"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="340" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C15" s="341"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="340" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C16" s="341"/>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="340" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C17" s="341"/>
     </row>
@@ -47831,25 +47856,25 @@
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="340" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C19" s="341"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="340" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C20" s="341"/>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="340" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C21" s="341"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="340" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C22" s="341"/>
     </row>
@@ -47874,12 +47899,17 @@
       <c r="C27" s="341"/>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="338"/>
-      <c r="C28" s="339"/>
+      <c r="B28" s="342"/>
+      <c r="C28" s="343"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QWAILGKV4ZR+dz45sQNjWVz1jknfFAxJFIx1hCSeiPEL6oYSelXKO0nkHyIjY2Xc01Xzw6ZhttEVShqaxrPiPA==" saltValue="k7C7+m0hzWH8JcqwKh2YCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
@@ -47891,11 +47921,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -47912,10 +47937,10 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47932,13 +47957,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -47953,41 +47978,41 @@
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="346" t="s">
-        <v>93</v>
+      <c r="B6" s="344" t="s">
+        <v>85</v>
       </c>
       <c r="C6" s="251" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="344"/>
+      <c r="C7" s="251" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="346"/>
-      <c r="C7" s="251" t="s">
-        <v>345</v>
-      </c>
-    </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="346"/>
+      <c r="B8" s="344"/>
       <c r="C8" s="251" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="346"/>
+      <c r="B9" s="344"/>
       <c r="C9" s="251" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="346"/>
+      <c r="B10" s="344"/>
       <c r="C10" s="251"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="346"/>
+      <c r="B11" s="344"/>
       <c r="C11" s="251"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="346"/>
+      <c r="B12" s="344"/>
       <c r="C12" s="251"/>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -47995,41 +48020,41 @@
       <c r="C13" s="252"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="347" t="s">
-        <v>94</v>
+      <c r="B14" s="345" t="s">
+        <v>86</v>
       </c>
       <c r="C14" s="253" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="347"/>
+      <c r="B15" s="345"/>
       <c r="C15" s="253" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="347"/>
+      <c r="B16" s="345"/>
       <c r="C16" s="253" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="347"/>
+      <c r="B17" s="345"/>
       <c r="C17" s="253" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="347"/>
+      <c r="B18" s="345"/>
       <c r="C18" s="253"/>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="347"/>
+      <c r="B19" s="345"/>
       <c r="C19" s="253"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="347"/>
+      <c r="B20" s="345"/>
       <c r="C20" s="253"/>
     </row>
     <row r="21" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -48037,77 +48062,89 @@
       <c r="C21" s="252"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="348" t="s">
-        <v>95</v>
+      <c r="B22" s="346" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="254" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="348"/>
+      <c r="B23" s="346"/>
       <c r="C23" s="254" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="348"/>
+      <c r="B24" s="346"/>
       <c r="C24" s="254" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="348"/>
-      <c r="C25" s="254"/>
+      <c r="B25" s="346"/>
+      <c r="C25" s="254" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="348"/>
-      <c r="C26" s="254"/>
+      <c r="B26" s="346"/>
+      <c r="C26" s="254" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="348"/>
-      <c r="C27" s="254"/>
+      <c r="B27" s="346"/>
+      <c r="C27" s="254" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="348"/>
-      <c r="C28" s="254"/>
+      <c r="B28" s="346"/>
+      <c r="C28" s="254" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="29" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="49"/>
       <c r="C29" s="252"/>
     </row>
     <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="349" t="s">
-        <v>96</v>
+      <c r="B30" s="347" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="255" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="349"/>
+      <c r="B31" s="347"/>
       <c r="C31" s="255" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="349"/>
-      <c r="C32" s="255"/>
+      <c r="B32" s="347"/>
+      <c r="C32" s="255" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="349"/>
-      <c r="C33" s="255"/>
+      <c r="B33" s="347"/>
+      <c r="C33" s="255" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="349"/>
+      <c r="B34" s="347"/>
       <c r="C34" s="255"/>
     </row>
     <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="349"/>
+      <c r="B35" s="347"/>
       <c r="C35" s="255"/>
     </row>
     <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="349"/>
+      <c r="B36" s="347"/>
       <c r="C36" s="255"/>
     </row>
   </sheetData>
@@ -48133,10 +48170,10 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48154,7 +48191,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -48166,7 +48203,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -48203,30 +48240,30 @@
         <v>20</v>
       </c>
       <c r="C6" s="178" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D6" s="336" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="337" t="s">
-        <v>202</v>
+      <c r="E6" s="390" t="s">
+        <v>364</v>
       </c>
       <c r="F6" s="337" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="G6" s="337" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H6" s="337" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I6" s="337" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="174" t="s">
-        <v>22</v>
+        <v>355</v>
       </c>
       <c r="C7" s="175">
         <v>50</v>
@@ -48235,7 +48272,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="175">
         <v>3</v>
@@ -48248,19 +48285,19 @@
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="174" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="C8" s="175">
         <v>80</v>
       </c>
       <c r="D8" s="175">
+        <v>8</v>
+      </c>
+      <c r="E8" s="175">
+        <v>4</v>
+      </c>
+      <c r="F8" s="175">
         <v>7</v>
-      </c>
-      <c r="E8" s="175">
-        <v>7</v>
-      </c>
-      <c r="F8" s="175">
-        <v>9</v>
       </c>
       <c r="G8" s="175">
         <v>6</v>
@@ -48270,19 +48307,19 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="174" t="s">
-        <v>24</v>
+        <v>357</v>
       </c>
       <c r="C9" s="175">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" s="175">
         <v>8</v>
       </c>
       <c r="E9" s="175">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="175">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="175">
         <v>7</v>
@@ -48292,16 +48329,16 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="174" t="s">
-        <v>25</v>
+        <v>358</v>
       </c>
       <c r="C10" s="175">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D10" s="175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="175">
         <v>7</v>
@@ -48314,13 +48351,13 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="174" t="s">
-        <v>26</v>
+        <v>359</v>
       </c>
       <c r="C11" s="175">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="175">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" s="175">
         <v>7</v>
@@ -48336,19 +48373,19 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="174" t="s">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="C12" s="175">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D12" s="175">
+        <v>6</v>
+      </c>
+      <c r="E12" s="175">
+        <v>2</v>
+      </c>
+      <c r="F12" s="175">
         <v>5</v>
-      </c>
-      <c r="E12" s="175">
-        <v>6</v>
-      </c>
-      <c r="F12" s="175">
-        <v>4</v>
       </c>
       <c r="G12" s="175">
         <v>4</v>
@@ -48358,19 +48395,19 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="174" t="s">
-        <v>28</v>
+        <v>361</v>
       </c>
       <c r="C13" s="175">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D13" s="175">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E13" s="175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="175">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="175">
         <v>5</v>
@@ -48380,19 +48417,19 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="174" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="C14" s="175">
         <v>50</v>
       </c>
       <c r="D14" s="175">
+        <v>7</v>
+      </c>
+      <c r="E14" s="175">
+        <v>2</v>
+      </c>
+      <c r="F14" s="175">
         <v>8</v>
-      </c>
-      <c r="E14" s="175">
-        <v>7</v>
-      </c>
-      <c r="F14" s="175">
-        <v>3</v>
       </c>
       <c r="G14" s="175">
         <v>3</v>
@@ -48402,16 +48439,16 @@
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="174" t="s">
-        <v>30</v>
+        <v>363</v>
       </c>
       <c r="C15" s="175">
         <v>80</v>
       </c>
       <c r="D15" s="175">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="175">
         <v>9</v>
@@ -48534,23 +48571,23 @@
     </row>
     <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="118" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D27" s="179">
         <f>IFERROR(IF(COUNTA(D7:D26)=0,"",(SUMPRODUCT(D7:D26,$C$7:$C$26))/(SUM($C$7:$C$26))),"")</f>
-        <v>6.3461538461538458</v>
+        <v>7.1</v>
       </c>
       <c r="E27" s="179">
         <f t="shared" ref="E27:I27" si="0">IFERROR(IF(COUNTA(E7:E26)=0,"",(SUMPRODUCT(E7:E26,$C$7:$C$26))/(SUM($C$7:$C$26))),"")</f>
-        <v>5.884615384615385</v>
+        <v>2.72</v>
       </c>
       <c r="F27" s="179">
         <f t="shared" si="0"/>
-        <v>6.2884615384615383</v>
+        <v>6.86</v>
       </c>
       <c r="G27" s="179">
         <f t="shared" si="0"/>
-        <v>4.9423076923076925</v>
+        <v>5.18</v>
       </c>
       <c r="H27" s="179" t="str">
         <f t="shared" si="0"/>
@@ -48562,172 +48599,172 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="342" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="350"/>
-      <c r="D29" s="350"/>
-      <c r="E29" s="350"/>
-      <c r="F29" s="350"/>
-      <c r="G29" s="350"/>
-      <c r="H29" s="350"/>
-      <c r="I29" s="343"/>
+      <c r="B29" s="338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="348"/>
+      <c r="D29" s="348"/>
+      <c r="E29" s="348"/>
+      <c r="F29" s="348"/>
+      <c r="G29" s="348"/>
+      <c r="H29" s="348"/>
+      <c r="I29" s="339"/>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="357" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="358"/>
-      <c r="D30" s="358"/>
-      <c r="E30" s="358"/>
-      <c r="F30" s="358"/>
-      <c r="G30" s="358"/>
-      <c r="H30" s="358"/>
-      <c r="I30" s="359"/>
+      <c r="B30" s="355" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="356"/>
+      <c r="D30" s="356"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="356"/>
+      <c r="G30" s="356"/>
+      <c r="H30" s="356"/>
+      <c r="I30" s="357"/>
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="354" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="355"/>
-      <c r="D31" s="355"/>
-      <c r="E31" s="355"/>
-      <c r="F31" s="355"/>
-      <c r="G31" s="355"/>
-      <c r="H31" s="355"/>
-      <c r="I31" s="356"/>
+      <c r="B31" s="352" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="353"/>
+      <c r="D31" s="353"/>
+      <c r="E31" s="353"/>
+      <c r="F31" s="353"/>
+      <c r="G31" s="353"/>
+      <c r="H31" s="353"/>
+      <c r="I31" s="354"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="354" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="355"/>
-      <c r="D32" s="355"/>
-      <c r="E32" s="355"/>
-      <c r="F32" s="355"/>
-      <c r="G32" s="355"/>
-      <c r="H32" s="355"/>
-      <c r="I32" s="356"/>
+      <c r="B32" s="352" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="353"/>
+      <c r="D32" s="353"/>
+      <c r="E32" s="353"/>
+      <c r="F32" s="353"/>
+      <c r="G32" s="353"/>
+      <c r="H32" s="353"/>
+      <c r="I32" s="354"/>
     </row>
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="354"/>
-      <c r="C33" s="355"/>
-      <c r="D33" s="355"/>
-      <c r="E33" s="355"/>
-      <c r="F33" s="355"/>
-      <c r="G33" s="355"/>
-      <c r="H33" s="355"/>
-      <c r="I33" s="356"/>
+      <c r="B33" s="352"/>
+      <c r="C33" s="353"/>
+      <c r="D33" s="353"/>
+      <c r="E33" s="353"/>
+      <c r="F33" s="353"/>
+      <c r="G33" s="353"/>
+      <c r="H33" s="353"/>
+      <c r="I33" s="354"/>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="354"/>
-      <c r="C34" s="355"/>
-      <c r="D34" s="355"/>
-      <c r="E34" s="355"/>
-      <c r="F34" s="355"/>
-      <c r="G34" s="355"/>
-      <c r="H34" s="355"/>
-      <c r="I34" s="356"/>
+      <c r="B34" s="352"/>
+      <c r="C34" s="353"/>
+      <c r="D34" s="353"/>
+      <c r="E34" s="353"/>
+      <c r="F34" s="353"/>
+      <c r="G34" s="353"/>
+      <c r="H34" s="353"/>
+      <c r="I34" s="354"/>
     </row>
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="354"/>
-      <c r="C35" s="355"/>
-      <c r="D35" s="355"/>
-      <c r="E35" s="355"/>
-      <c r="F35" s="355"/>
-      <c r="G35" s="355"/>
-      <c r="H35" s="355"/>
-      <c r="I35" s="356"/>
+      <c r="B35" s="352"/>
+      <c r="C35" s="353"/>
+      <c r="D35" s="353"/>
+      <c r="E35" s="353"/>
+      <c r="F35" s="353"/>
+      <c r="G35" s="353"/>
+      <c r="H35" s="353"/>
+      <c r="I35" s="354"/>
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="354"/>
-      <c r="C36" s="355"/>
-      <c r="D36" s="355"/>
-      <c r="E36" s="355"/>
-      <c r="F36" s="355"/>
-      <c r="G36" s="355"/>
-      <c r="H36" s="355"/>
-      <c r="I36" s="356"/>
+      <c r="B36" s="352"/>
+      <c r="C36" s="353"/>
+      <c r="D36" s="353"/>
+      <c r="E36" s="353"/>
+      <c r="F36" s="353"/>
+      <c r="G36" s="353"/>
+      <c r="H36" s="353"/>
+      <c r="I36" s="354"/>
     </row>
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="354"/>
-      <c r="C37" s="355"/>
-      <c r="D37" s="355"/>
-      <c r="E37" s="355"/>
-      <c r="F37" s="355"/>
-      <c r="G37" s="355"/>
-      <c r="H37" s="355"/>
-      <c r="I37" s="356"/>
+      <c r="B37" s="352"/>
+      <c r="C37" s="353"/>
+      <c r="D37" s="353"/>
+      <c r="E37" s="353"/>
+      <c r="F37" s="353"/>
+      <c r="G37" s="353"/>
+      <c r="H37" s="353"/>
+      <c r="I37" s="354"/>
     </row>
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="354"/>
-      <c r="C38" s="355"/>
-      <c r="D38" s="355"/>
-      <c r="E38" s="355"/>
-      <c r="F38" s="355"/>
-      <c r="G38" s="355"/>
-      <c r="H38" s="355"/>
-      <c r="I38" s="356"/>
+      <c r="B38" s="352"/>
+      <c r="C38" s="353"/>
+      <c r="D38" s="353"/>
+      <c r="E38" s="353"/>
+      <c r="F38" s="353"/>
+      <c r="G38" s="353"/>
+      <c r="H38" s="353"/>
+      <c r="I38" s="354"/>
     </row>
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="354"/>
-      <c r="C39" s="355"/>
-      <c r="D39" s="355"/>
-      <c r="E39" s="355"/>
-      <c r="F39" s="355"/>
-      <c r="G39" s="355"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="356"/>
+      <c r="B39" s="352"/>
+      <c r="C39" s="353"/>
+      <c r="D39" s="353"/>
+      <c r="E39" s="353"/>
+      <c r="F39" s="353"/>
+      <c r="G39" s="353"/>
+      <c r="H39" s="353"/>
+      <c r="I39" s="354"/>
     </row>
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="354"/>
-      <c r="C40" s="355"/>
-      <c r="D40" s="355"/>
-      <c r="E40" s="355"/>
-      <c r="F40" s="355"/>
-      <c r="G40" s="355"/>
-      <c r="H40" s="355"/>
-      <c r="I40" s="356"/>
+      <c r="B40" s="352"/>
+      <c r="C40" s="353"/>
+      <c r="D40" s="353"/>
+      <c r="E40" s="353"/>
+      <c r="F40" s="353"/>
+      <c r="G40" s="353"/>
+      <c r="H40" s="353"/>
+      <c r="I40" s="354"/>
     </row>
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="354"/>
-      <c r="C41" s="355"/>
-      <c r="D41" s="355"/>
-      <c r="E41" s="355"/>
-      <c r="F41" s="355"/>
-      <c r="G41" s="355"/>
-      <c r="H41" s="355"/>
-      <c r="I41" s="356"/>
+      <c r="B41" s="352"/>
+      <c r="C41" s="353"/>
+      <c r="D41" s="353"/>
+      <c r="E41" s="353"/>
+      <c r="F41" s="353"/>
+      <c r="G41" s="353"/>
+      <c r="H41" s="353"/>
+      <c r="I41" s="354"/>
     </row>
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="354"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="355"/>
-      <c r="F42" s="355"/>
-      <c r="G42" s="355"/>
-      <c r="H42" s="355"/>
-      <c r="I42" s="356"/>
+      <c r="B42" s="352"/>
+      <c r="C42" s="353"/>
+      <c r="D42" s="353"/>
+      <c r="E42" s="353"/>
+      <c r="F42" s="353"/>
+      <c r="G42" s="353"/>
+      <c r="H42" s="353"/>
+      <c r="I42" s="354"/>
     </row>
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="354"/>
-      <c r="C43" s="355"/>
-      <c r="D43" s="355"/>
-      <c r="E43" s="355"/>
-      <c r="F43" s="355"/>
-      <c r="G43" s="355"/>
-      <c r="H43" s="355"/>
-      <c r="I43" s="356"/>
+      <c r="B43" s="352"/>
+      <c r="C43" s="353"/>
+      <c r="D43" s="353"/>
+      <c r="E43" s="353"/>
+      <c r="F43" s="353"/>
+      <c r="G43" s="353"/>
+      <c r="H43" s="353"/>
+      <c r="I43" s="354"/>
     </row>
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="351"/>
-      <c r="C44" s="352"/>
-      <c r="D44" s="352"/>
-      <c r="E44" s="352"/>
-      <c r="F44" s="352"/>
-      <c r="G44" s="352"/>
-      <c r="H44" s="352"/>
-      <c r="I44" s="353"/>
+      <c r="B44" s="349"/>
+      <c r="C44" s="350"/>
+      <c r="D44" s="350"/>
+      <c r="E44" s="350"/>
+      <c r="F44" s="350"/>
+      <c r="G44" s="350"/>
+      <c r="H44" s="350"/>
+      <c r="I44" s="351"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XEq06WUJi5XGJM5wDJcHVyTPef8KG6rhUQXzoHL0yiWbfkE8nPSjKg/pXI7pFSYa9Uv7eAFpkTD1juDk6LGI7Q==" saltValue="6YDFbsbANdRWvvi77R+eYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -48807,7 +48844,7 @@
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -48820,7 +48857,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -48857,19 +48894,19 @@
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="264" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" s="256"/>
       <c r="D6" s="265" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E6" s="256"/>
       <c r="F6" s="266" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G6" s="256"/>
       <c r="H6" s="267" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I6" s="256"/>
       <c r="J6" s="268" t="s">
@@ -48878,70 +48915,70 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="257" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C7" s="258"/>
       <c r="D7" s="259" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E7" s="260"/>
       <c r="F7" s="261" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G7" s="260"/>
       <c r="H7" s="262" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I7" s="260"/>
       <c r="J7" s="263" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="257" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C8" s="258"/>
       <c r="D8" s="259" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E8" s="260"/>
       <c r="F8" s="261" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G8" s="260"/>
       <c r="H8" s="262" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="I8" s="260"/>
       <c r="J8" s="263" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="257" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C9" s="258"/>
       <c r="D9" s="259" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E9" s="260"/>
       <c r="F9" s="261" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G9" s="260"/>
       <c r="H9" s="262" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I9" s="260"/>
       <c r="J9" s="263" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="257" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C10" s="258"/>
       <c r="D10" s="259"/>
@@ -49182,7 +49219,7 @@
     </row>
     <row r="2" spans="1:8" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -49193,7 +49230,7 @@
     </row>
     <row r="3" spans="1:8" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -49233,36 +49270,36 @@
     </row>
     <row r="7" spans="1:8" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="273" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C7" s="270"/>
       <c r="D7" s="277" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E7" s="270"/>
       <c r="F7" s="281" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G7" s="270"/>
       <c r="H7" s="285" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="274" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C8" s="271"/>
       <c r="D8" s="278" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E8" s="271"/>
       <c r="F8" s="282" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G8" s="271"/>
       <c r="H8" s="286" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -49276,54 +49313,54 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="288" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C10" s="289"/>
       <c r="D10" s="262" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E10" s="289"/>
       <c r="F10" s="261" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G10" s="289"/>
       <c r="H10" s="263" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="288" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C11" s="289"/>
       <c r="D11" s="262" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E11" s="289"/>
       <c r="F11" s="261" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G11" s="289"/>
       <c r="H11" s="263" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="288" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C12" s="289"/>
       <c r="D12" s="262"/>
       <c r="E12" s="289"/>
       <c r="F12" s="261" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G12" s="289"/>
       <c r="H12" s="263"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="288" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C13" s="289"/>
       <c r="D13" s="262"/>

--- a/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
+++ b/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c\source\repos\faculty\faculty\an_2\sem_1\M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2584D4-F18D-468B-832A-DC12D3DC9A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC87665-35B9-4CEE-B302-D4EC33B67D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="O2pZeXeucL6OySNC7AknZdZAyXoN/m0/9At13Y17SnJe3PRhRKhh5R2CulRtevnypPEYgGoXIEttHB4aNlfRwQ==" workbookSaltValue="uQIfLlIkgsrrIpl+3gXPNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="6" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="7" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="365">
   <si>
     <r>
       <t xml:space="preserve">This End-User License Agreement is a legal agreement between you and </t>
@@ -510,12 +510,6 @@
     <t>BEHAVIORAL LEVEL</t>
   </si>
   <si>
-    <t>Competitor 4</t>
-  </si>
-  <si>
-    <t>Competitor 5</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -825,18 +819,6 @@
   </si>
   <si>
     <t>Dividends Received from Affiliates</t>
-  </si>
-  <si>
-    <t>ReadDig</t>
-  </si>
-  <si>
-    <t>Coyote will have an unique position to offer e-books and audiobooks for only children.</t>
-  </si>
-  <si>
-    <t>Panda Books is the market leader on children literature, but does not have e-book version for the most of their product gamma.</t>
-  </si>
-  <si>
-    <t>Readerr and ReadDig are online e-book platforms, which provide for all readers, including the children.</t>
   </si>
   <si>
     <t>Buyer number is very high.</t>
@@ -1341,6 +1323,21 @@
   </si>
   <si>
     <t>Restaurant Nora</t>
+  </si>
+  <si>
+    <t>Restaurant Tinecz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinecz este prezent pe piața din Timișoara încă din 1996. Început ca o afacere de familie, având la bază meniurile tradiționale românești, brandul și-a </t>
+  </si>
+  <si>
+    <t>câștigat o reputație solidă de-a lungul anilor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurantul Nora – cu o capacitate de 90 locuri, vă oferă un climat confortabil, iar maeștrii bucătari vă vor încânta cu gusturile și savuroasele preparate din </t>
+  </si>
+  <si>
+    <t>bucătaria românească și internațională, oferindu-vă astfel, o experiență culinară unică.</t>
   </si>
 </sst>
 </file>
@@ -4140,12 +4137,16 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4156,12 +4157,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4220,6 +4221,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -4232,10 +4241,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4246,18 +4251,6 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4276,6 +4269,14 @@
       <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4288,6 +4289,18 @@
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4297,18 +4310,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -4341,10 +4342,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -39879,7 +39876,7 @@
     </row>
     <row r="2" spans="1:15" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="248"/>
@@ -39897,7 +39894,7 @@
     </row>
     <row r="3" spans="1:15" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="249"/>
@@ -39967,7 +39964,7 @@
     <row r="7" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="168" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D7" s="168"/>
       <c r="E7" s="168"/>
@@ -40000,14 +39997,14 @@
       <c r="B9" s="15"/>
       <c r="C9" s="165"/>
       <c r="D9" s="245" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E9" s="245"/>
       <c r="F9" s="245"/>
       <c r="G9" s="155"/>
       <c r="H9" s="160"/>
       <c r="I9" s="245" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J9" s="245"/>
       <c r="K9" s="245"/>
@@ -40068,14 +40065,14 @@
       <c r="B13" s="15"/>
       <c r="C13" s="164"/>
       <c r="D13" s="245" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E13" s="245"/>
       <c r="F13" s="245"/>
       <c r="G13" s="155"/>
       <c r="H13" s="161"/>
       <c r="I13" s="245" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J13" s="245"/>
       <c r="K13" s="245"/>
@@ -40170,7 +40167,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="163"/>
       <c r="D19" s="245" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E19" s="245"/>
       <c r="F19" s="245"/>
@@ -40281,7 +40278,7 @@
       <c r="G25" s="155"/>
       <c r="H25" s="162"/>
       <c r="I25" s="245" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J25" s="245"/>
       <c r="K25" s="245"/>
@@ -40499,14 +40496,14 @@
     </row>
     <row r="2" spans="1:4" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -40542,7 +40539,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="236" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40553,7 +40550,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="236" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40564,7 +40561,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="236" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40584,7 +40581,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="236" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -40616,103 +40613,98 @@
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="358" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="359"/>
-      <c r="D16" s="360"/>
+      <c r="B16" s="361" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="362"/>
+      <c r="D16" s="363"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="362" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="363"/>
-      <c r="D17" s="364"/>
+      <c r="B17" s="364" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="365"/>
+      <c r="D17" s="366"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="340" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="361"/>
-      <c r="D18" s="341"/>
+      <c r="B18" s="341" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="360"/>
+      <c r="D18" s="342"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="340" t="s">
-        <v>302</v>
-      </c>
-      <c r="C19" s="361"/>
-      <c r="D19" s="341"/>
+      <c r="B19" s="341" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="360"/>
+      <c r="D19" s="342"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="340" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="361"/>
-      <c r="D20" s="341"/>
+      <c r="B20" s="341" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="360"/>
+      <c r="D20" s="342"/>
     </row>
     <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="340"/>
-      <c r="C21" s="361"/>
-      <c r="D21" s="341"/>
+      <c r="B21" s="341"/>
+      <c r="C21" s="360"/>
+      <c r="D21" s="342"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="340"/>
-      <c r="C22" s="361"/>
-      <c r="D22" s="341"/>
+      <c r="B22" s="341"/>
+      <c r="C22" s="360"/>
+      <c r="D22" s="342"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="340"/>
-      <c r="C23" s="361"/>
-      <c r="D23" s="341"/>
+      <c r="B23" s="341"/>
+      <c r="C23" s="360"/>
+      <c r="D23" s="342"/>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="340"/>
-      <c r="C24" s="361"/>
-      <c r="D24" s="341"/>
+      <c r="B24" s="341"/>
+      <c r="C24" s="360"/>
+      <c r="D24" s="342"/>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="340"/>
-      <c r="C25" s="361"/>
-      <c r="D25" s="341"/>
+      <c r="B25" s="341"/>
+      <c r="C25" s="360"/>
+      <c r="D25" s="342"/>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="340"/>
-      <c r="C26" s="361"/>
-      <c r="D26" s="341"/>
+      <c r="B26" s="341"/>
+      <c r="C26" s="360"/>
+      <c r="D26" s="342"/>
     </row>
     <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="340"/>
-      <c r="C27" s="361"/>
-      <c r="D27" s="341"/>
+      <c r="B27" s="341"/>
+      <c r="C27" s="360"/>
+      <c r="D27" s="342"/>
     </row>
     <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="340"/>
-      <c r="C28" s="361"/>
-      <c r="D28" s="341"/>
+      <c r="B28" s="341"/>
+      <c r="C28" s="360"/>
+      <c r="D28" s="342"/>
     </row>
     <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="340"/>
-      <c r="C29" s="361"/>
-      <c r="D29" s="341"/>
+      <c r="B29" s="341"/>
+      <c r="C29" s="360"/>
+      <c r="D29" s="342"/>
     </row>
     <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="340"/>
-      <c r="C30" s="361"/>
-      <c r="D30" s="341"/>
+      <c r="B30" s="341"/>
+      <c r="C30" s="360"/>
+      <c r="D30" s="342"/>
     </row>
     <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="342"/>
-      <c r="C31" s="365"/>
-      <c r="D31" s="343"/>
+      <c r="B31" s="339"/>
+      <c r="C31" s="359"/>
+      <c r="D31" s="340"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="UCGY9eszZs9CIViHMThBw7fwHHrsg74VWMxEdvt0AHxwFsPjJ4F5bHDEwJjqVw/86ZZUZWi5kfaxgDbTVsh5+A==" saltValue="sp2iB7I+4IjtyrsJwv1w1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B20:D20"/>
@@ -40724,6 +40716,11 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B14" xr:uid="{CF462609-70FD-4174-95B0-56CFEBAF0773}">
@@ -40767,7 +40764,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -40775,7 +40772,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -40805,123 +40802,123 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="297" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="297" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="366" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="372" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="366"/>
+      <c r="E7" s="372"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="182" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C8" s="183" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="367" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="368"/>
+        <v>217</v>
+      </c>
+      <c r="D8" s="371" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="367"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="182" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C9" s="183" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="367" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="368"/>
+        <v>217</v>
+      </c>
+      <c r="D9" s="371" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="367"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="182" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C10" s="183" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="367" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="368"/>
+        <v>218</v>
+      </c>
+      <c r="D10" s="371" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="367"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="182" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C11" s="183" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="367" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="368"/>
+        <v>225</v>
+      </c>
+      <c r="D11" s="371" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="367"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="182" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C12" s="183" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="367" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="368"/>
+        <v>227</v>
+      </c>
+      <c r="D12" s="371" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="367"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="181"/>
       <c r="C13" s="184"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
+      <c r="D13" s="367"/>
+      <c r="E13" s="367"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="235"/>
       <c r="C14" s="184"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="367"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="235"/>
       <c r="C15" s="184"/>
-      <c r="D15" s="368"/>
-      <c r="E15" s="368"/>
+      <c r="D15" s="367"/>
+      <c r="E15" s="367"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="235"/>
       <c r="C16" s="184"/>
-      <c r="D16" s="368"/>
-      <c r="E16" s="368"/>
+      <c r="D16" s="367"/>
+      <c r="E16" s="367"/>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="181"/>
       <c r="C17" s="184"/>
-      <c r="D17" s="368"/>
-      <c r="E17" s="368"/>
+      <c r="D17" s="367"/>
+      <c r="E17" s="367"/>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="181"/>
       <c r="C18" s="184"/>
-      <c r="D18" s="368"/>
-      <c r="E18" s="368"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="367"/>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="181"/>
       <c r="C19" s="184"/>
-      <c r="D19" s="368"/>
-      <c r="E19" s="368"/>
+      <c r="D19" s="367"/>
+      <c r="E19" s="367"/>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="181"/>
       <c r="C20" s="184"/>
-      <c r="D20" s="368"/>
-      <c r="E20" s="368"/>
+      <c r="D20" s="367"/>
+      <c r="E20" s="367"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="300"/>
@@ -40945,7 +40942,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="290" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E23" s="299" t="s">
         <v>28</v>
@@ -40953,7 +40950,7 @@
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="185" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C24" s="186">
         <v>5</v>
@@ -40968,7 +40965,7 @@
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="188" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C25" s="189">
         <v>20</v>
@@ -40983,7 +40980,7 @@
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="188" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C26" s="191">
         <v>10</v>
@@ -40998,7 +40995,7 @@
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="188" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C27" s="189">
         <v>3</v>
@@ -41013,7 +41010,7 @@
     </row>
     <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="188" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C28" s="189">
         <v>8</v>
@@ -41118,7 +41115,7 @@
     </row>
     <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="121" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" s="198">
         <f>IFERROR(SUM(C24:C38),"")</f>
@@ -41140,117 +41137,117 @@
       <c r="E40" s="120"/>
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="358" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="359"/>
-      <c r="D41" s="359"/>
-      <c r="E41" s="360"/>
+      <c r="B41" s="361" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="362"/>
+      <c r="D41" s="362"/>
+      <c r="E41" s="363"/>
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="362" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42" s="363"/>
-      <c r="D42" s="363"/>
-      <c r="E42" s="364"/>
+      <c r="B42" s="364" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="365"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="366"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="340" t="s">
-        <v>303</v>
-      </c>
-      <c r="C43" s="361"/>
-      <c r="D43" s="361"/>
-      <c r="E43" s="341"/>
+      <c r="B43" s="341" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" s="360"/>
+      <c r="D43" s="360"/>
+      <c r="E43" s="342"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="340"/>
-      <c r="C44" s="361"/>
-      <c r="D44" s="361"/>
-      <c r="E44" s="341"/>
+      <c r="B44" s="341"/>
+      <c r="C44" s="360"/>
+      <c r="D44" s="360"/>
+      <c r="E44" s="342"/>
     </row>
     <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="340"/>
-      <c r="C45" s="361"/>
-      <c r="D45" s="361"/>
-      <c r="E45" s="341"/>
+      <c r="B45" s="341"/>
+      <c r="C45" s="360"/>
+      <c r="D45" s="360"/>
+      <c r="E45" s="342"/>
     </row>
     <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="340"/>
-      <c r="C46" s="361"/>
-      <c r="D46" s="361"/>
-      <c r="E46" s="341"/>
+      <c r="B46" s="341"/>
+      <c r="C46" s="360"/>
+      <c r="D46" s="360"/>
+      <c r="E46" s="342"/>
     </row>
     <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="340"/>
-      <c r="C47" s="361"/>
-      <c r="D47" s="361"/>
-      <c r="E47" s="341"/>
+      <c r="B47" s="341"/>
+      <c r="C47" s="360"/>
+      <c r="D47" s="360"/>
+      <c r="E47" s="342"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="340"/>
-      <c r="C48" s="361"/>
-      <c r="D48" s="361"/>
-      <c r="E48" s="341"/>
+      <c r="B48" s="341"/>
+      <c r="C48" s="360"/>
+      <c r="D48" s="360"/>
+      <c r="E48" s="342"/>
     </row>
     <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="340"/>
-      <c r="C49" s="361"/>
-      <c r="D49" s="361"/>
-      <c r="E49" s="341"/>
+      <c r="B49" s="341"/>
+      <c r="C49" s="360"/>
+      <c r="D49" s="360"/>
+      <c r="E49" s="342"/>
     </row>
     <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="340"/>
-      <c r="C50" s="361"/>
-      <c r="D50" s="361"/>
-      <c r="E50" s="341"/>
+      <c r="B50" s="341"/>
+      <c r="C50" s="360"/>
+      <c r="D50" s="360"/>
+      <c r="E50" s="342"/>
     </row>
     <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="340"/>
-      <c r="C51" s="361"/>
-      <c r="D51" s="361"/>
-      <c r="E51" s="341"/>
+      <c r="B51" s="341"/>
+      <c r="C51" s="360"/>
+      <c r="D51" s="360"/>
+      <c r="E51" s="342"/>
     </row>
     <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="340"/>
-      <c r="C52" s="361"/>
-      <c r="D52" s="361"/>
-      <c r="E52" s="341"/>
+      <c r="B52" s="341"/>
+      <c r="C52" s="360"/>
+      <c r="D52" s="360"/>
+      <c r="E52" s="342"/>
     </row>
     <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="340"/>
-      <c r="C53" s="361"/>
-      <c r="D53" s="361"/>
-      <c r="E53" s="341"/>
+      <c r="B53" s="341"/>
+      <c r="C53" s="360"/>
+      <c r="D53" s="360"/>
+      <c r="E53" s="342"/>
     </row>
     <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="340"/>
-      <c r="C54" s="361"/>
-      <c r="D54" s="361"/>
-      <c r="E54" s="341"/>
+      <c r="B54" s="341"/>
+      <c r="C54" s="360"/>
+      <c r="D54" s="360"/>
+      <c r="E54" s="342"/>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="340"/>
-      <c r="C55" s="361"/>
-      <c r="D55" s="361"/>
-      <c r="E55" s="341"/>
+      <c r="B55" s="341"/>
+      <c r="C55" s="360"/>
+      <c r="D55" s="360"/>
+      <c r="E55" s="342"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="369"/>
-      <c r="C56" s="370"/>
-      <c r="D56" s="370"/>
-      <c r="E56" s="371"/>
+      <c r="B56" s="368"/>
+      <c r="C56" s="369"/>
+      <c r="D56" s="369"/>
+      <c r="E56" s="370"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="e4a8gfQMjh4F1WptukkvjE8HcYVgUpCGWf/8UGwKLcz+N4IzQLzinn0d6xUTcUbW9DX3QmFf2ogb9IrTdJp5gw==" saltValue="JUcmWnwf5nO+ZNUUF9Qhww==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="30">
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
@@ -41267,13 +41264,13 @@
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B46:E46"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41296,7 +41293,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41313,7 +41310,7 @@
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -41323,7 +41320,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -41351,7 +41348,7 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="200" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="176">
         <v>2022</v>
@@ -41371,7 +41368,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="202" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C7" s="203">
         <v>1000000</v>
@@ -41391,7 +41388,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="188" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C8" s="190">
         <v>5000000</v>
@@ -41516,7 +41513,7 @@
     <row r="22" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="233" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="198">
         <f>IFERROR(IF(LEN(C$6)=0,"",SUM(C7:C21)),"")</f>
@@ -41542,10 +41539,10 @@
     <row r="24" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="149" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="209" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" s="209">
         <f>IFERROR((D23-C23)/C23,"-")</f>
@@ -41565,140 +41562,140 @@
       </c>
     </row>
     <row r="27" spans="2:7" s="150" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="372" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="373"/>
-      <c r="D27" s="373"/>
-      <c r="E27" s="373"/>
-      <c r="F27" s="373"/>
-      <c r="G27" s="374"/>
+      <c r="B27" s="373" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="374"/>
+      <c r="D27" s="374"/>
+      <c r="E27" s="374"/>
+      <c r="F27" s="374"/>
+      <c r="G27" s="375"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="362" t="s">
-        <v>241</v>
-      </c>
-      <c r="C28" s="363"/>
-      <c r="D28" s="363"/>
-      <c r="E28" s="363"/>
-      <c r="F28" s="363"/>
-      <c r="G28" s="364"/>
+      <c r="B28" s="364" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="365"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="365"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="366"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="340" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" s="361"/>
-      <c r="D29" s="361"/>
-      <c r="E29" s="361"/>
-      <c r="F29" s="361"/>
-      <c r="G29" s="341"/>
+      <c r="B29" s="341" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="360"/>
+      <c r="D29" s="360"/>
+      <c r="E29" s="360"/>
+      <c r="F29" s="360"/>
+      <c r="G29" s="342"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="340" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="361"/>
-      <c r="D30" s="361"/>
-      <c r="E30" s="361"/>
-      <c r="F30" s="361"/>
-      <c r="G30" s="341"/>
+      <c r="B30" s="341" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="360"/>
+      <c r="D30" s="360"/>
+      <c r="E30" s="360"/>
+      <c r="F30" s="360"/>
+      <c r="G30" s="342"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="340"/>
-      <c r="C31" s="361"/>
-      <c r="D31" s="361"/>
-      <c r="E31" s="361"/>
-      <c r="F31" s="361"/>
-      <c r="G31" s="341"/>
+      <c r="B31" s="341"/>
+      <c r="C31" s="360"/>
+      <c r="D31" s="360"/>
+      <c r="E31" s="360"/>
+      <c r="F31" s="360"/>
+      <c r="G31" s="342"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="340"/>
-      <c r="C32" s="361"/>
-      <c r="D32" s="361"/>
-      <c r="E32" s="361"/>
-      <c r="F32" s="361"/>
-      <c r="G32" s="341"/>
+      <c r="B32" s="341"/>
+      <c r="C32" s="360"/>
+      <c r="D32" s="360"/>
+      <c r="E32" s="360"/>
+      <c r="F32" s="360"/>
+      <c r="G32" s="342"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="340"/>
-      <c r="C33" s="361"/>
-      <c r="D33" s="361"/>
-      <c r="E33" s="361"/>
-      <c r="F33" s="361"/>
-      <c r="G33" s="341"/>
+      <c r="B33" s="341"/>
+      <c r="C33" s="360"/>
+      <c r="D33" s="360"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="360"/>
+      <c r="G33" s="342"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="340"/>
-      <c r="C34" s="361"/>
-      <c r="D34" s="361"/>
-      <c r="E34" s="361"/>
-      <c r="F34" s="361"/>
-      <c r="G34" s="341"/>
+      <c r="B34" s="341"/>
+      <c r="C34" s="360"/>
+      <c r="D34" s="360"/>
+      <c r="E34" s="360"/>
+      <c r="F34" s="360"/>
+      <c r="G34" s="342"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="340"/>
-      <c r="C35" s="361"/>
-      <c r="D35" s="361"/>
-      <c r="E35" s="361"/>
-      <c r="F35" s="361"/>
-      <c r="G35" s="341"/>
+      <c r="B35" s="341"/>
+      <c r="C35" s="360"/>
+      <c r="D35" s="360"/>
+      <c r="E35" s="360"/>
+      <c r="F35" s="360"/>
+      <c r="G35" s="342"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="340"/>
-      <c r="C36" s="361"/>
-      <c r="D36" s="361"/>
-      <c r="E36" s="361"/>
-      <c r="F36" s="361"/>
-      <c r="G36" s="341"/>
+      <c r="B36" s="341"/>
+      <c r="C36" s="360"/>
+      <c r="D36" s="360"/>
+      <c r="E36" s="360"/>
+      <c r="F36" s="360"/>
+      <c r="G36" s="342"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="340"/>
-      <c r="C37" s="361"/>
-      <c r="D37" s="361"/>
-      <c r="E37" s="361"/>
-      <c r="F37" s="361"/>
-      <c r="G37" s="341"/>
+      <c r="B37" s="341"/>
+      <c r="C37" s="360"/>
+      <c r="D37" s="360"/>
+      <c r="E37" s="360"/>
+      <c r="F37" s="360"/>
+      <c r="G37" s="342"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="340"/>
-      <c r="C38" s="361"/>
-      <c r="D38" s="361"/>
-      <c r="E38" s="361"/>
-      <c r="F38" s="361"/>
-      <c r="G38" s="341"/>
+      <c r="B38" s="341"/>
+      <c r="C38" s="360"/>
+      <c r="D38" s="360"/>
+      <c r="E38" s="360"/>
+      <c r="F38" s="360"/>
+      <c r="G38" s="342"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="340"/>
-      <c r="C39" s="361"/>
-      <c r="D39" s="361"/>
-      <c r="E39" s="361"/>
-      <c r="F39" s="361"/>
-      <c r="G39" s="341"/>
+      <c r="B39" s="341"/>
+      <c r="C39" s="360"/>
+      <c r="D39" s="360"/>
+      <c r="E39" s="360"/>
+      <c r="F39" s="360"/>
+      <c r="G39" s="342"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="340"/>
-      <c r="C40" s="361"/>
-      <c r="D40" s="361"/>
-      <c r="E40" s="361"/>
-      <c r="F40" s="361"/>
-      <c r="G40" s="341"/>
+      <c r="B40" s="341"/>
+      <c r="C40" s="360"/>
+      <c r="D40" s="360"/>
+      <c r="E40" s="360"/>
+      <c r="F40" s="360"/>
+      <c r="G40" s="342"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="340"/>
-      <c r="C41" s="361"/>
-      <c r="D41" s="361"/>
-      <c r="E41" s="361"/>
-      <c r="F41" s="361"/>
-      <c r="G41" s="341"/>
+      <c r="B41" s="341"/>
+      <c r="C41" s="360"/>
+      <c r="D41" s="360"/>
+      <c r="E41" s="360"/>
+      <c r="F41" s="360"/>
+      <c r="G41" s="342"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="342"/>
-      <c r="C42" s="365"/>
-      <c r="D42" s="365"/>
-      <c r="E42" s="365"/>
-      <c r="F42" s="365"/>
-      <c r="G42" s="343"/>
+      <c r="B42" s="339"/>
+      <c r="C42" s="359"/>
+      <c r="D42" s="359"/>
+      <c r="E42" s="359"/>
+      <c r="F42" s="359"/>
+      <c r="G42" s="340"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fQP+Jv3I/2eakwwoAbpnp38SkuAQCSBy9ZRWJ7AYqMbhBRa3xGQ0yEaEypBQp9PF9wx2ZNLoQfQHD2WqBfYWnA==" saltValue="jvb+VeOyKduV2x6Yw6QtYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -41757,7 +41754,7 @@
     </row>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -41769,7 +41766,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -41826,7 +41823,7 @@
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
       <c r="C8" s="307" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="308"/>
       <c r="E8" s="308"/>
@@ -41838,7 +41835,7 @@
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="74"/>
       <c r="C9" s="210" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="301">
         <v>6000000</v>
@@ -41860,7 +41857,7 @@
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74"/>
       <c r="C10" s="211" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="302">
         <v>110000</v>
@@ -41892,7 +41889,7 @@
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="74"/>
       <c r="C12" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="304">
         <f>IFERROR(D9-D10,"")</f>
@@ -41929,7 +41926,7 @@
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="74"/>
       <c r="C14" s="210" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="301">
         <v>2000000</v>
@@ -41961,7 +41958,7 @@
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="74"/>
       <c r="C16" s="134" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="304">
         <f>IFERROR(D12-D14,"")</f>
@@ -41998,7 +41995,7 @@
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74"/>
       <c r="C18" s="307" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="309"/>
       <c r="E18" s="309"/>
@@ -42336,7 +42333,7 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
       <c r="C42" s="134" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D42" s="304">
         <f>IFERROR(SUM(D19:D40),"")</f>
@@ -42373,7 +42370,7 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="74"/>
       <c r="C44" s="134" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D44" s="304">
         <f>IFERROR(D16-D42,"")</f>
@@ -42410,7 +42407,7 @@
     <row r="46" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="74"/>
       <c r="C46" s="307" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D46" s="309"/>
       <c r="E46" s="309"/>
@@ -42478,7 +42475,7 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="74"/>
       <c r="C51" s="134" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D51" s="304">
         <f>IFERROR(D44+SUM(D47:D49),"")</f>
@@ -42549,7 +42546,7 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="74"/>
       <c r="C55" s="211" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D55" s="302"/>
       <c r="E55" s="302"/>
@@ -42571,7 +42568,7 @@
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="74"/>
       <c r="C57" s="134" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57" s="304">
         <f>IFERROR(SUM(D54:D55),"")</f>
@@ -42608,7 +42605,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="74"/>
       <c r="C59" s="134" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D59" s="304">
         <f>IFERROR(D51-D57,"")</f>
@@ -42679,7 +42676,7 @@
     <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
@@ -42691,7 +42688,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -42764,7 +42761,7 @@
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74"/>
       <c r="C10" s="126" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
@@ -42776,7 +42773,7 @@
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="213" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="312">
         <v>2500000</v>
@@ -42798,7 +42795,7 @@
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="214" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="313">
         <v>2000000</v>
@@ -42820,7 +42817,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="214" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="313"/>
       <c r="E13" s="313"/>
@@ -42832,7 +42829,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="214" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="313"/>
       <c r="E14" s="313"/>
@@ -42844,7 +42841,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="59"/>
       <c r="C15" s="130" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" s="314">
         <f>IFERROR(SUM(D11:D14),"")</f>
@@ -42881,7 +42878,7 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="59"/>
       <c r="C17" s="126" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="316"/>
       <c r="E17" s="316"/>
@@ -42893,7 +42890,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
       <c r="C18" s="214" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="313">
         <v>250000</v>
@@ -42915,7 +42912,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="C19" s="214" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="313">
         <v>50000</v>
@@ -42937,7 +42934,7 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="132" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="314">
         <f>IFERROR(SUM(D18:D19),"")</f>
@@ -43033,7 +43030,7 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
       <c r="C26" s="126" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="316"/>
       <c r="E26" s="316"/>
@@ -43045,7 +43042,7 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="59"/>
       <c r="C27" s="215" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="313">
         <v>2500000</v>
@@ -43067,7 +43064,7 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="214" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D28" s="313">
         <v>50000</v>
@@ -43089,7 +43086,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="59"/>
       <c r="C29" s="214" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="313"/>
       <c r="E29" s="313"/>
@@ -43101,7 +43098,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="132" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D30" s="314">
         <f>IFERROR(SUM(D27:D29),"")</f>
@@ -43138,7 +43135,7 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="126" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="316"/>
       <c r="E32" s="316"/>
@@ -43150,7 +43147,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="59"/>
       <c r="C33" s="214" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D33" s="313">
         <v>1000000</v>
@@ -43172,7 +43169,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="59"/>
       <c r="C34" s="216" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" s="313"/>
       <c r="E34" s="313"/>
@@ -43184,7 +43181,7 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="59"/>
       <c r="C35" s="132" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D35" s="314">
         <f>IFERROR(SUM(D33:D34),"")</f>
@@ -43221,7 +43218,7 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="59"/>
       <c r="C37" s="126" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37" s="316"/>
       <c r="E37" s="316"/>
@@ -43233,7 +43230,7 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="59"/>
       <c r="C38" s="214" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" s="313">
         <v>1250000</v>
@@ -43255,7 +43252,7 @@
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="59"/>
       <c r="C39" s="214" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D39" s="313"/>
       <c r="E39" s="313"/>
@@ -43267,7 +43264,7 @@
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="59"/>
       <c r="C40" s="214" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" s="313"/>
       <c r="E40" s="313"/>
@@ -43279,7 +43276,7 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D41" s="314">
         <f>IFERROR(SUM(D38:D40),"")</f>
@@ -43389,7 +43386,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="226"/>
@@ -43401,7 +43398,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="53"/>
@@ -43455,7 +43452,7 @@
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="59"/>
       <c r="C8" s="307" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="308"/>
       <c r="E8" s="310"/>
@@ -43477,7 +43474,7 @@
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="123" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
@@ -43489,7 +43486,7 @@
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="217" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="313">
         <v>6000000</v>
@@ -43511,7 +43508,7 @@
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="217" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="313"/>
       <c r="E12" s="313"/>
@@ -43523,7 +43520,7 @@
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="314">
         <f>IFERROR(SUM(D11:D12),"")</f>
@@ -43562,7 +43559,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="59"/>
       <c r="C15" s="123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" s="318"/>
       <c r="E15" s="318"/>
@@ -43574,7 +43571,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
       <c r="C16" s="217" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="313">
         <v>50000</v>
@@ -43618,7 +43615,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
       <c r="C18" s="217" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18" s="313">
         <v>400000</v>
@@ -43640,7 +43637,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="C19" s="217" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D19" s="313">
         <v>1000000</v>
@@ -43684,7 +43681,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
       <c r="C21" s="124" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="319">
         <f>IFERROR(SUM(D16:D20),"")</f>
@@ -43721,7 +43718,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
       <c r="C23" s="126" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D23" s="317">
         <f>IFERROR(D13-D21,"")</f>
@@ -43758,7 +43755,7 @@
     <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
       <c r="C25" s="307" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D25" s="309"/>
       <c r="E25" s="309"/>
@@ -43780,7 +43777,7 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="59"/>
       <c r="C27" s="123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D27" s="318"/>
       <c r="E27" s="318"/>
@@ -43792,7 +43789,7 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="217" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D28" s="313">
         <v>800000</v>
@@ -43814,7 +43811,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="59"/>
       <c r="C29" s="217" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D29" s="313"/>
       <c r="E29" s="313"/>
@@ -43826,7 +43823,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="217" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="313"/>
       <c r="E30" s="313"/>
@@ -43838,7 +43835,7 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
       <c r="C31" s="217" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D31" s="313"/>
       <c r="E31" s="313"/>
@@ -43850,7 +43847,7 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="217" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D32" s="313"/>
       <c r="E32" s="313"/>
@@ -43862,7 +43859,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="59"/>
       <c r="C33" s="130" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" s="314">
         <f>IFERROR(SUM(D28:D32),"")</f>
@@ -43901,7 +43898,7 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="59"/>
       <c r="C35" s="123" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35" s="318"/>
       <c r="E35" s="318"/>
@@ -43913,7 +43910,7 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="59"/>
       <c r="C36" s="217" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D36" s="313">
         <v>500000</v>
@@ -43935,7 +43932,7 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="59"/>
       <c r="C37" s="217" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D37" s="313"/>
       <c r="E37" s="313"/>
@@ -43947,7 +43944,7 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="59"/>
       <c r="C38" s="217" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D38" s="313"/>
       <c r="E38" s="313"/>
@@ -43959,7 +43956,7 @@
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="59"/>
       <c r="C39" s="217" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D39" s="313"/>
       <c r="E39" s="313"/>
@@ -43971,7 +43968,7 @@
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="59"/>
       <c r="C40" s="217" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40" s="313"/>
       <c r="E40" s="313"/>
@@ -43983,7 +43980,7 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="130" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D41" s="314">
         <f>IFERROR(SUM(D36:D40),"")</f>
@@ -44020,7 +44017,7 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="59"/>
       <c r="C43" s="126" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D43" s="317">
         <f>IFERROR(D33-D41,"")</f>
@@ -44059,7 +44056,7 @@
     <row r="45" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="59"/>
       <c r="C45" s="307" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D45" s="309"/>
       <c r="E45" s="309"/>
@@ -44081,7 +44078,7 @@
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="59"/>
       <c r="C47" s="123" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D47" s="318"/>
       <c r="E47" s="318"/>
@@ -44093,7 +44090,7 @@
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="59"/>
       <c r="C48" s="217" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D48" s="313">
         <v>1000000</v>
@@ -44115,7 +44112,7 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="59"/>
       <c r="C49" s="217" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D49" s="313"/>
       <c r="E49" s="313"/>
@@ -44127,7 +44124,7 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="59"/>
       <c r="C50" s="217" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" s="313"/>
       <c r="E50" s="313"/>
@@ -44139,7 +44136,7 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="59"/>
       <c r="C51" s="130" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D51" s="314">
         <f>IFERROR(SUM(D48:D50),"")</f>
@@ -44178,7 +44175,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="59"/>
       <c r="C53" s="123" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="318"/>
       <c r="E53" s="318"/>
@@ -44190,7 +44187,7 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="59"/>
       <c r="C54" s="217" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="313">
         <v>200000</v>
@@ -44212,7 +44209,7 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="59"/>
       <c r="C55" s="217" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="313">
         <v>100000</v>
@@ -44234,7 +44231,7 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="59"/>
       <c r="C56" s="217" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="313"/>
       <c r="E56" s="313"/>
@@ -44246,7 +44243,7 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="59"/>
       <c r="C57" s="217" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="313"/>
       <c r="E57" s="313"/>
@@ -44258,7 +44255,7 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="59"/>
       <c r="C58" s="217" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="313"/>
       <c r="E58" s="313"/>
@@ -44270,7 +44267,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
       <c r="C59" s="130" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="314">
         <f>IFERROR(SUM(D54:D58),"")</f>
@@ -44307,7 +44304,7 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
       <c r="C61" s="126" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D61" s="317">
         <f>IFERROR(D51-D59,"")</f>
@@ -44344,7 +44341,7 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
       <c r="C63" s="128" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D63" s="321">
         <f>IFERROR(SUM(D23,D43,D61),"")</f>
@@ -44371,7 +44368,7 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
       <c r="C64" s="217" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D64" s="313">
         <v>1000000</v>
@@ -44385,7 +44382,7 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
       <c r="C65" s="123" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D65" s="322">
         <f>IFERROR(SUM(D63,D64),"")</f>
@@ -44480,7 +44477,7 @@
     </row>
     <row r="2" spans="1:26" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="26"/>
@@ -44503,7 +44500,7 @@
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="6"/>
@@ -44638,7 +44635,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="114" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D10" s="113"/>
       <c r="E10" s="96"/>
@@ -44673,7 +44670,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="115" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" s="113"/>
       <c r="E11" s="96"/>
@@ -44708,7 +44705,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" s="113"/>
       <c r="E12" s="101"/>
@@ -44743,7 +44740,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" s="113"/>
       <c r="E13" s="101"/>
@@ -44778,7 +44775,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="116" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D14" s="113"/>
       <c r="E14" s="101"/>
@@ -45736,344 +45733,344 @@
     </row>
     <row r="59" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
-      <c r="C59" s="338" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="348"/>
-      <c r="E59" s="348"/>
-      <c r="F59" s="348"/>
-      <c r="G59" s="348"/>
-      <c r="H59" s="348"/>
-      <c r="I59" s="348"/>
-      <c r="J59" s="348"/>
-      <c r="K59" s="348"/>
-      <c r="L59" s="348"/>
-      <c r="M59" s="348"/>
-      <c r="N59" s="348"/>
-      <c r="O59" s="348"/>
-      <c r="P59" s="348"/>
-      <c r="Q59" s="348"/>
-      <c r="R59" s="348"/>
-      <c r="S59" s="339"/>
+      <c r="C59" s="343" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="349"/>
+      <c r="E59" s="349"/>
+      <c r="F59" s="349"/>
+      <c r="G59" s="349"/>
+      <c r="H59" s="349"/>
+      <c r="I59" s="349"/>
+      <c r="J59" s="349"/>
+      <c r="K59" s="349"/>
+      <c r="L59" s="349"/>
+      <c r="M59" s="349"/>
+      <c r="N59" s="349"/>
+      <c r="O59" s="349"/>
+      <c r="P59" s="349"/>
+      <c r="Q59" s="349"/>
+      <c r="R59" s="349"/>
+      <c r="S59" s="344"/>
       <c r="T59" s="60"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
-      <c r="C60" s="381" t="s">
-        <v>244</v>
-      </c>
-      <c r="D60" s="382"/>
-      <c r="E60" s="382"/>
-      <c r="F60" s="382"/>
-      <c r="G60" s="382"/>
-      <c r="H60" s="382"/>
-      <c r="I60" s="382"/>
-      <c r="J60" s="382"/>
-      <c r="K60" s="382"/>
-      <c r="L60" s="382"/>
-      <c r="M60" s="382"/>
-      <c r="N60" s="382"/>
-      <c r="O60" s="382"/>
-      <c r="P60" s="382"/>
-      <c r="Q60" s="382"/>
-      <c r="R60" s="382"/>
-      <c r="S60" s="383"/>
+      <c r="C60" s="382" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="383"/>
+      <c r="E60" s="383"/>
+      <c r="F60" s="383"/>
+      <c r="G60" s="383"/>
+      <c r="H60" s="383"/>
+      <c r="I60" s="383"/>
+      <c r="J60" s="383"/>
+      <c r="K60" s="383"/>
+      <c r="L60" s="383"/>
+      <c r="M60" s="383"/>
+      <c r="N60" s="383"/>
+      <c r="O60" s="383"/>
+      <c r="P60" s="383"/>
+      <c r="Q60" s="383"/>
+      <c r="R60" s="383"/>
+      <c r="S60" s="384"/>
       <c r="T60" s="60"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
-      <c r="C61" s="375" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" s="376"/>
-      <c r="E61" s="376"/>
-      <c r="F61" s="376"/>
-      <c r="G61" s="376"/>
-      <c r="H61" s="376"/>
-      <c r="I61" s="376"/>
-      <c r="J61" s="376"/>
-      <c r="K61" s="376"/>
-      <c r="L61" s="376"/>
-      <c r="M61" s="376"/>
-      <c r="N61" s="376"/>
-      <c r="O61" s="376"/>
-      <c r="P61" s="376"/>
-      <c r="Q61" s="376"/>
-      <c r="R61" s="376"/>
-      <c r="S61" s="377"/>
+      <c r="C61" s="379" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="380"/>
+      <c r="E61" s="380"/>
+      <c r="F61" s="380"/>
+      <c r="G61" s="380"/>
+      <c r="H61" s="380"/>
+      <c r="I61" s="380"/>
+      <c r="J61" s="380"/>
+      <c r="K61" s="380"/>
+      <c r="L61" s="380"/>
+      <c r="M61" s="380"/>
+      <c r="N61" s="380"/>
+      <c r="O61" s="380"/>
+      <c r="P61" s="380"/>
+      <c r="Q61" s="380"/>
+      <c r="R61" s="380"/>
+      <c r="S61" s="381"/>
       <c r="T61" s="60"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59"/>
-      <c r="C62" s="375"/>
-      <c r="D62" s="376"/>
-      <c r="E62" s="376"/>
-      <c r="F62" s="376"/>
-      <c r="G62" s="376"/>
-      <c r="H62" s="376"/>
-      <c r="I62" s="376"/>
-      <c r="J62" s="376"/>
-      <c r="K62" s="376"/>
-      <c r="L62" s="376"/>
-      <c r="M62" s="376"/>
-      <c r="N62" s="376"/>
-      <c r="O62" s="376"/>
-      <c r="P62" s="376"/>
-      <c r="Q62" s="376"/>
-      <c r="R62" s="376"/>
-      <c r="S62" s="377"/>
+      <c r="C62" s="379"/>
+      <c r="D62" s="380"/>
+      <c r="E62" s="380"/>
+      <c r="F62" s="380"/>
+      <c r="G62" s="380"/>
+      <c r="H62" s="380"/>
+      <c r="I62" s="380"/>
+      <c r="J62" s="380"/>
+      <c r="K62" s="380"/>
+      <c r="L62" s="380"/>
+      <c r="M62" s="380"/>
+      <c r="N62" s="380"/>
+      <c r="O62" s="380"/>
+      <c r="P62" s="380"/>
+      <c r="Q62" s="380"/>
+      <c r="R62" s="380"/>
+      <c r="S62" s="381"/>
       <c r="T62" s="60"/>
     </row>
     <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
-      <c r="C63" s="375"/>
-      <c r="D63" s="376"/>
-      <c r="E63" s="376"/>
-      <c r="F63" s="376"/>
-      <c r="G63" s="376"/>
-      <c r="H63" s="376"/>
-      <c r="I63" s="376"/>
-      <c r="J63" s="376"/>
-      <c r="K63" s="376"/>
-      <c r="L63" s="376"/>
-      <c r="M63" s="376"/>
-      <c r="N63" s="376"/>
-      <c r="O63" s="376"/>
-      <c r="P63" s="376"/>
-      <c r="Q63" s="376"/>
-      <c r="R63" s="376"/>
-      <c r="S63" s="377"/>
+      <c r="C63" s="379"/>
+      <c r="D63" s="380"/>
+      <c r="E63" s="380"/>
+      <c r="F63" s="380"/>
+      <c r="G63" s="380"/>
+      <c r="H63" s="380"/>
+      <c r="I63" s="380"/>
+      <c r="J63" s="380"/>
+      <c r="K63" s="380"/>
+      <c r="L63" s="380"/>
+      <c r="M63" s="380"/>
+      <c r="N63" s="380"/>
+      <c r="O63" s="380"/>
+      <c r="P63" s="380"/>
+      <c r="Q63" s="380"/>
+      <c r="R63" s="380"/>
+      <c r="S63" s="381"/>
       <c r="T63" s="60"/>
     </row>
     <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
-      <c r="C64" s="375"/>
-      <c r="D64" s="376"/>
-      <c r="E64" s="376"/>
-      <c r="F64" s="376"/>
-      <c r="G64" s="376"/>
-      <c r="H64" s="376"/>
-      <c r="I64" s="376"/>
-      <c r="J64" s="376"/>
-      <c r="K64" s="376"/>
-      <c r="L64" s="376"/>
-      <c r="M64" s="376"/>
-      <c r="N64" s="376"/>
-      <c r="O64" s="376"/>
-      <c r="P64" s="376"/>
-      <c r="Q64" s="376"/>
-      <c r="R64" s="376"/>
-      <c r="S64" s="377"/>
+      <c r="C64" s="379"/>
+      <c r="D64" s="380"/>
+      <c r="E64" s="380"/>
+      <c r="F64" s="380"/>
+      <c r="G64" s="380"/>
+      <c r="H64" s="380"/>
+      <c r="I64" s="380"/>
+      <c r="J64" s="380"/>
+      <c r="K64" s="380"/>
+      <c r="L64" s="380"/>
+      <c r="M64" s="380"/>
+      <c r="N64" s="380"/>
+      <c r="O64" s="380"/>
+      <c r="P64" s="380"/>
+      <c r="Q64" s="380"/>
+      <c r="R64" s="380"/>
+      <c r="S64" s="381"/>
       <c r="T64" s="60"/>
     </row>
     <row r="65" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
-      <c r="C65" s="375"/>
-      <c r="D65" s="376"/>
-      <c r="E65" s="376"/>
-      <c r="F65" s="376"/>
-      <c r="G65" s="376"/>
-      <c r="H65" s="376"/>
-      <c r="I65" s="376"/>
-      <c r="J65" s="376"/>
-      <c r="K65" s="376"/>
-      <c r="L65" s="376"/>
-      <c r="M65" s="376"/>
-      <c r="N65" s="376"/>
-      <c r="O65" s="376"/>
-      <c r="P65" s="376"/>
-      <c r="Q65" s="376"/>
-      <c r="R65" s="376"/>
-      <c r="S65" s="377"/>
+      <c r="C65" s="379"/>
+      <c r="D65" s="380"/>
+      <c r="E65" s="380"/>
+      <c r="F65" s="380"/>
+      <c r="G65" s="380"/>
+      <c r="H65" s="380"/>
+      <c r="I65" s="380"/>
+      <c r="J65" s="380"/>
+      <c r="K65" s="380"/>
+      <c r="L65" s="380"/>
+      <c r="M65" s="380"/>
+      <c r="N65" s="380"/>
+      <c r="O65" s="380"/>
+      <c r="P65" s="380"/>
+      <c r="Q65" s="380"/>
+      <c r="R65" s="380"/>
+      <c r="S65" s="381"/>
       <c r="T65" s="60"/>
     </row>
     <row r="66" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="59"/>
-      <c r="C66" s="375"/>
-      <c r="D66" s="376"/>
-      <c r="E66" s="376"/>
-      <c r="F66" s="376"/>
-      <c r="G66" s="376"/>
-      <c r="H66" s="376"/>
-      <c r="I66" s="376"/>
-      <c r="J66" s="376"/>
-      <c r="K66" s="376"/>
-      <c r="L66" s="376"/>
-      <c r="M66" s="376"/>
-      <c r="N66" s="376"/>
-      <c r="O66" s="376"/>
-      <c r="P66" s="376"/>
-      <c r="Q66" s="376"/>
-      <c r="R66" s="376"/>
-      <c r="S66" s="377"/>
+      <c r="C66" s="379"/>
+      <c r="D66" s="380"/>
+      <c r="E66" s="380"/>
+      <c r="F66" s="380"/>
+      <c r="G66" s="380"/>
+      <c r="H66" s="380"/>
+      <c r="I66" s="380"/>
+      <c r="J66" s="380"/>
+      <c r="K66" s="380"/>
+      <c r="L66" s="380"/>
+      <c r="M66" s="380"/>
+      <c r="N66" s="380"/>
+      <c r="O66" s="380"/>
+      <c r="P66" s="380"/>
+      <c r="Q66" s="380"/>
+      <c r="R66" s="380"/>
+      <c r="S66" s="381"/>
       <c r="T66" s="60"/>
     </row>
     <row r="67" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="59"/>
-      <c r="C67" s="375"/>
-      <c r="D67" s="376"/>
-      <c r="E67" s="376"/>
-      <c r="F67" s="376"/>
-      <c r="G67" s="376"/>
-      <c r="H67" s="376"/>
-      <c r="I67" s="376"/>
-      <c r="J67" s="376"/>
-      <c r="K67" s="376"/>
-      <c r="L67" s="376"/>
-      <c r="M67" s="376"/>
-      <c r="N67" s="376"/>
-      <c r="O67" s="376"/>
-      <c r="P67" s="376"/>
-      <c r="Q67" s="376"/>
-      <c r="R67" s="376"/>
-      <c r="S67" s="377"/>
+      <c r="C67" s="379"/>
+      <c r="D67" s="380"/>
+      <c r="E67" s="380"/>
+      <c r="F67" s="380"/>
+      <c r="G67" s="380"/>
+      <c r="H67" s="380"/>
+      <c r="I67" s="380"/>
+      <c r="J67" s="380"/>
+      <c r="K67" s="380"/>
+      <c r="L67" s="380"/>
+      <c r="M67" s="380"/>
+      <c r="N67" s="380"/>
+      <c r="O67" s="380"/>
+      <c r="P67" s="380"/>
+      <c r="Q67" s="380"/>
+      <c r="R67" s="380"/>
+      <c r="S67" s="381"/>
       <c r="T67" s="60"/>
     </row>
     <row r="68" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="59"/>
-      <c r="C68" s="375"/>
-      <c r="D68" s="376"/>
-      <c r="E68" s="376"/>
-      <c r="F68" s="376"/>
-      <c r="G68" s="376"/>
-      <c r="H68" s="376"/>
-      <c r="I68" s="376"/>
-      <c r="J68" s="376"/>
-      <c r="K68" s="376"/>
-      <c r="L68" s="376"/>
-      <c r="M68" s="376"/>
-      <c r="N68" s="376"/>
-      <c r="O68" s="376"/>
-      <c r="P68" s="376"/>
-      <c r="Q68" s="376"/>
-      <c r="R68" s="376"/>
-      <c r="S68" s="377"/>
+      <c r="C68" s="379"/>
+      <c r="D68" s="380"/>
+      <c r="E68" s="380"/>
+      <c r="F68" s="380"/>
+      <c r="G68" s="380"/>
+      <c r="H68" s="380"/>
+      <c r="I68" s="380"/>
+      <c r="J68" s="380"/>
+      <c r="K68" s="380"/>
+      <c r="L68" s="380"/>
+      <c r="M68" s="380"/>
+      <c r="N68" s="380"/>
+      <c r="O68" s="380"/>
+      <c r="P68" s="380"/>
+      <c r="Q68" s="380"/>
+      <c r="R68" s="380"/>
+      <c r="S68" s="381"/>
       <c r="T68" s="60"/>
     </row>
     <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="59"/>
-      <c r="C69" s="375"/>
-      <c r="D69" s="376"/>
-      <c r="E69" s="376"/>
-      <c r="F69" s="376"/>
-      <c r="G69" s="376"/>
-      <c r="H69" s="376"/>
-      <c r="I69" s="376"/>
-      <c r="J69" s="376"/>
-      <c r="K69" s="376"/>
-      <c r="L69" s="376"/>
-      <c r="M69" s="376"/>
-      <c r="N69" s="376"/>
-      <c r="O69" s="376"/>
-      <c r="P69" s="376"/>
-      <c r="Q69" s="376"/>
-      <c r="R69" s="376"/>
-      <c r="S69" s="377"/>
+      <c r="C69" s="379"/>
+      <c r="D69" s="380"/>
+      <c r="E69" s="380"/>
+      <c r="F69" s="380"/>
+      <c r="G69" s="380"/>
+      <c r="H69" s="380"/>
+      <c r="I69" s="380"/>
+      <c r="J69" s="380"/>
+      <c r="K69" s="380"/>
+      <c r="L69" s="380"/>
+      <c r="M69" s="380"/>
+      <c r="N69" s="380"/>
+      <c r="O69" s="380"/>
+      <c r="P69" s="380"/>
+      <c r="Q69" s="380"/>
+      <c r="R69" s="380"/>
+      <c r="S69" s="381"/>
       <c r="T69" s="60"/>
     </row>
     <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="59"/>
-      <c r="C70" s="375"/>
-      <c r="D70" s="376"/>
-      <c r="E70" s="376"/>
-      <c r="F70" s="376"/>
-      <c r="G70" s="376"/>
-      <c r="H70" s="376"/>
-      <c r="I70" s="376"/>
-      <c r="J70" s="376"/>
-      <c r="K70" s="376"/>
-      <c r="L70" s="376"/>
-      <c r="M70" s="376"/>
-      <c r="N70" s="376"/>
-      <c r="O70" s="376"/>
-      <c r="P70" s="376"/>
-      <c r="Q70" s="376"/>
-      <c r="R70" s="376"/>
-      <c r="S70" s="377"/>
+      <c r="C70" s="379"/>
+      <c r="D70" s="380"/>
+      <c r="E70" s="380"/>
+      <c r="F70" s="380"/>
+      <c r="G70" s="380"/>
+      <c r="H70" s="380"/>
+      <c r="I70" s="380"/>
+      <c r="J70" s="380"/>
+      <c r="K70" s="380"/>
+      <c r="L70" s="380"/>
+      <c r="M70" s="380"/>
+      <c r="N70" s="380"/>
+      <c r="O70" s="380"/>
+      <c r="P70" s="380"/>
+      <c r="Q70" s="380"/>
+      <c r="R70" s="380"/>
+      <c r="S70" s="381"/>
       <c r="T70" s="60"/>
     </row>
     <row r="71" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="59"/>
-      <c r="C71" s="375"/>
-      <c r="D71" s="376"/>
-      <c r="E71" s="376"/>
-      <c r="F71" s="376"/>
-      <c r="G71" s="376"/>
-      <c r="H71" s="376"/>
-      <c r="I71" s="376"/>
-      <c r="J71" s="376"/>
-      <c r="K71" s="376"/>
-      <c r="L71" s="376"/>
-      <c r="M71" s="376"/>
-      <c r="N71" s="376"/>
-      <c r="O71" s="376"/>
-      <c r="P71" s="376"/>
-      <c r="Q71" s="376"/>
-      <c r="R71" s="376"/>
-      <c r="S71" s="377"/>
+      <c r="C71" s="379"/>
+      <c r="D71" s="380"/>
+      <c r="E71" s="380"/>
+      <c r="F71" s="380"/>
+      <c r="G71" s="380"/>
+      <c r="H71" s="380"/>
+      <c r="I71" s="380"/>
+      <c r="J71" s="380"/>
+      <c r="K71" s="380"/>
+      <c r="L71" s="380"/>
+      <c r="M71" s="380"/>
+      <c r="N71" s="380"/>
+      <c r="O71" s="380"/>
+      <c r="P71" s="380"/>
+      <c r="Q71" s="380"/>
+      <c r="R71" s="380"/>
+      <c r="S71" s="381"/>
       <c r="T71" s="60"/>
     </row>
     <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="59"/>
-      <c r="C72" s="375"/>
-      <c r="D72" s="376"/>
-      <c r="E72" s="376"/>
-      <c r="F72" s="376"/>
-      <c r="G72" s="376"/>
-      <c r="H72" s="376"/>
-      <c r="I72" s="376"/>
-      <c r="J72" s="376"/>
-      <c r="K72" s="376"/>
-      <c r="L72" s="376"/>
-      <c r="M72" s="376"/>
-      <c r="N72" s="376"/>
-      <c r="O72" s="376"/>
-      <c r="P72" s="376"/>
-      <c r="Q72" s="376"/>
-      <c r="R72" s="376"/>
-      <c r="S72" s="377"/>
+      <c r="C72" s="379"/>
+      <c r="D72" s="380"/>
+      <c r="E72" s="380"/>
+      <c r="F72" s="380"/>
+      <c r="G72" s="380"/>
+      <c r="H72" s="380"/>
+      <c r="I72" s="380"/>
+      <c r="J72" s="380"/>
+      <c r="K72" s="380"/>
+      <c r="L72" s="380"/>
+      <c r="M72" s="380"/>
+      <c r="N72" s="380"/>
+      <c r="O72" s="380"/>
+      <c r="P72" s="380"/>
+      <c r="Q72" s="380"/>
+      <c r="R72" s="380"/>
+      <c r="S72" s="381"/>
       <c r="T72" s="60"/>
     </row>
     <row r="73" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="59"/>
-      <c r="C73" s="375"/>
-      <c r="D73" s="376"/>
-      <c r="E73" s="376"/>
-      <c r="F73" s="376"/>
-      <c r="G73" s="376"/>
-      <c r="H73" s="376"/>
-      <c r="I73" s="376"/>
-      <c r="J73" s="376"/>
-      <c r="K73" s="376"/>
-      <c r="L73" s="376"/>
-      <c r="M73" s="376"/>
-      <c r="N73" s="376"/>
-      <c r="O73" s="376"/>
-      <c r="P73" s="376"/>
-      <c r="Q73" s="376"/>
-      <c r="R73" s="376"/>
-      <c r="S73" s="377"/>
+      <c r="C73" s="379"/>
+      <c r="D73" s="380"/>
+      <c r="E73" s="380"/>
+      <c r="F73" s="380"/>
+      <c r="G73" s="380"/>
+      <c r="H73" s="380"/>
+      <c r="I73" s="380"/>
+      <c r="J73" s="380"/>
+      <c r="K73" s="380"/>
+      <c r="L73" s="380"/>
+      <c r="M73" s="380"/>
+      <c r="N73" s="380"/>
+      <c r="O73" s="380"/>
+      <c r="P73" s="380"/>
+      <c r="Q73" s="380"/>
+      <c r="R73" s="380"/>
+      <c r="S73" s="381"/>
       <c r="T73" s="60"/>
     </row>
     <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
-      <c r="C74" s="378"/>
-      <c r="D74" s="379"/>
-      <c r="E74" s="379"/>
-      <c r="F74" s="379"/>
-      <c r="G74" s="379"/>
-      <c r="H74" s="379"/>
-      <c r="I74" s="379"/>
-      <c r="J74" s="379"/>
-      <c r="K74" s="379"/>
-      <c r="L74" s="379"/>
-      <c r="M74" s="379"/>
-      <c r="N74" s="379"/>
-      <c r="O74" s="379"/>
-      <c r="P74" s="379"/>
-      <c r="Q74" s="379"/>
-      <c r="R74" s="379"/>
-      <c r="S74" s="380"/>
+      <c r="C74" s="376"/>
+      <c r="D74" s="377"/>
+      <c r="E74" s="377"/>
+      <c r="F74" s="377"/>
+      <c r="G74" s="377"/>
+      <c r="H74" s="377"/>
+      <c r="I74" s="377"/>
+      <c r="J74" s="377"/>
+      <c r="K74" s="377"/>
+      <c r="L74" s="377"/>
+      <c r="M74" s="377"/>
+      <c r="N74" s="377"/>
+      <c r="O74" s="377"/>
+      <c r="P74" s="377"/>
+      <c r="Q74" s="377"/>
+      <c r="R74" s="377"/>
+      <c r="S74" s="378"/>
       <c r="T74" s="60"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
@@ -46100,6 +46097,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrvXTNEyg6ecmYncpmv63lHNkpCjj8zGGjyL/TJQBr5/3IiD3LSnAlxGpWZY2KJcUE/YM0fQ1in6NcWorcIWfw==" saltValue="gcPC3KzDvckzqrICh2VFzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
+    <mergeCell ref="C59:S59"/>
+    <mergeCell ref="C70:S70"/>
+    <mergeCell ref="C69:S69"/>
+    <mergeCell ref="C68:S68"/>
+    <mergeCell ref="C62:S62"/>
+    <mergeCell ref="C61:S61"/>
     <mergeCell ref="C74:S74"/>
     <mergeCell ref="C73:S73"/>
     <mergeCell ref="C72:S72"/>
@@ -46110,12 +46113,6 @@
     <mergeCell ref="C65:S65"/>
     <mergeCell ref="C66:S66"/>
     <mergeCell ref="C67:S67"/>
-    <mergeCell ref="C59:S59"/>
-    <mergeCell ref="C70:S70"/>
-    <mergeCell ref="C69:S69"/>
-    <mergeCell ref="C68:S68"/>
-    <mergeCell ref="C62:S62"/>
-    <mergeCell ref="C61:S61"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -46150,7 +46147,7 @@
     <row r="1" spans="2:64" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:64" s="231" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="333" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="228"/>
       <c r="D2" s="229"/>
@@ -46204,7 +46201,7 @@
     </row>
     <row r="3" spans="2:64" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="7"/>
@@ -46259,34 +46256,34 @@
     <row r="4" spans="2:64" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:64" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA6" s="384" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB6" s="385"/>
-      <c r="BC6" s="385"/>
-      <c r="BD6" s="385"/>
-      <c r="BE6" s="385"/>
-      <c r="BF6" s="385"/>
-      <c r="BG6" s="385"/>
-      <c r="BH6" s="385"/>
-      <c r="BI6" s="385"/>
-      <c r="BJ6" s="385"/>
-      <c r="BK6" s="385"/>
-      <c r="BL6" s="386"/>
+      <c r="BA6" s="385" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB6" s="386"/>
+      <c r="BC6" s="386"/>
+      <c r="BD6" s="386"/>
+      <c r="BE6" s="386"/>
+      <c r="BF6" s="386"/>
+      <c r="BG6" s="386"/>
+      <c r="BH6" s="386"/>
+      <c r="BI6" s="386"/>
+      <c r="BJ6" s="386"/>
+      <c r="BK6" s="386"/>
+      <c r="BL6" s="387"/>
     </row>
     <row r="7" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA7" s="387"/>
-      <c r="BB7" s="388"/>
-      <c r="BC7" s="388"/>
-      <c r="BD7" s="388"/>
-      <c r="BE7" s="388"/>
-      <c r="BF7" s="388"/>
-      <c r="BG7" s="388"/>
-      <c r="BH7" s="388"/>
-      <c r="BI7" s="388"/>
-      <c r="BJ7" s="388"/>
-      <c r="BK7" s="388"/>
-      <c r="BL7" s="389"/>
+      <c r="BA7" s="388"/>
+      <c r="BB7" s="389"/>
+      <c r="BC7" s="389"/>
+      <c r="BD7" s="389"/>
+      <c r="BE7" s="389"/>
+      <c r="BF7" s="389"/>
+      <c r="BG7" s="389"/>
+      <c r="BH7" s="389"/>
+      <c r="BI7" s="389"/>
+      <c r="BJ7" s="389"/>
+      <c r="BK7" s="389"/>
+      <c r="BL7" s="390"/>
     </row>
     <row r="8" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA8" s="237"/>
@@ -46544,7 +46541,7 @@
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -46552,7 +46549,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -46567,7 +46564,7 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="291" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="291" t="s">
         <v>15</v>
@@ -46578,10 +46575,10 @@
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="323" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C6" s="323" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D6" s="324">
         <v>44593</v>
@@ -46589,10 +46586,10 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="325" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C7" s="325" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D7" s="326">
         <v>44597</v>
@@ -46600,7 +46597,7 @@
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="325" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C8" s="325"/>
       <c r="D8" s="326">
@@ -46609,7 +46606,7 @@
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="325" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C9" s="325"/>
       <c r="D9" s="326">
@@ -46618,10 +46615,10 @@
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="325" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C10" s="325" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D10" s="326">
         <v>44926</v>
@@ -46629,10 +46626,10 @@
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="325" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C11" s="325" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D11" s="326">
         <v>44926</v>
@@ -46640,7 +46637,7 @@
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="325" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C12" s="325"/>
       <c r="D12" s="326">
@@ -46649,7 +46646,7 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="325" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C13" s="325"/>
       <c r="D13" s="326">
@@ -46658,10 +46655,10 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="325" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C14" s="325" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D14" s="326">
         <v>46387</v>
@@ -46908,13 +46905,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -46946,7 +46943,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -46967,7 +46964,7 @@
     </row>
     <row r="2" spans="1:6" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -46976,7 +46973,7 @@
     </row>
     <row r="3" spans="1:6" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -47487,7 +47484,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="142" zoomScaleNormal="142" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47505,13 +47502,13 @@
     </row>
     <row r="2" spans="1:3" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="219"/>
     </row>
     <row r="3" spans="1:3" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -47530,7 +47527,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47538,7 +47535,7 @@
         <v>73</v>
       </c>
       <c r="C7" s="169" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47546,7 +47543,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47554,7 +47551,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47562,7 +47559,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47570,7 +47567,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47578,7 +47575,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="169" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -47601,7 +47598,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47619,13 +47616,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47644,7 +47641,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47652,7 +47649,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="171" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47660,7 +47657,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47668,7 +47665,7 @@
         <v>76</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47676,7 +47673,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47684,15 +47681,15 @@
         <v>81</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="292" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47700,7 +47697,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -47708,7 +47705,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -47748,13 +47745,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47773,7 +47770,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47781,7 +47778,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -47794,26 +47791,26 @@
     </row>
     <row r="9" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="292" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C9" s="250" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="292" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C10" s="250" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="292" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C11" s="250" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -47821,95 +47818,90 @@
       <c r="C12" s="47"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="338" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="339"/>
+      <c r="B13" s="343" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="344"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="340" t="s">
+      <c r="B14" s="341" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="342"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="341" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="342"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="341" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="342"/>
+    </row>
+    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="341" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="342"/>
+    </row>
+    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="341"/>
+      <c r="C18" s="342"/>
+    </row>
+    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="341" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="342"/>
+    </row>
+    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="341" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="342"/>
+    </row>
+    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="341" t="s">
         <v>326</v>
       </c>
-      <c r="C14" s="341"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="340" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" s="341"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="340" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="341"/>
-    </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="340" t="s">
-        <v>345</v>
-      </c>
-      <c r="C17" s="341"/>
-    </row>
-    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="340"/>
-      <c r="C18" s="341"/>
-    </row>
-    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="340" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="341"/>
-    </row>
-    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="340" t="s">
-        <v>331</v>
-      </c>
-      <c r="C20" s="341"/>
-    </row>
-    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="340" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" s="341"/>
+      <c r="C21" s="342"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="340" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="341"/>
+      <c r="B22" s="341" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="342"/>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="340"/>
-      <c r="C23" s="341"/>
+      <c r="B23" s="341"/>
+      <c r="C23" s="342"/>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="340"/>
-      <c r="C24" s="341"/>
+      <c r="B24" s="341"/>
+      <c r="C24" s="342"/>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="340"/>
-      <c r="C25" s="341"/>
+      <c r="B25" s="341"/>
+      <c r="C25" s="342"/>
     </row>
     <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="340"/>
-      <c r="C26" s="341"/>
+      <c r="B26" s="341"/>
+      <c r="C26" s="342"/>
     </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="340"/>
-      <c r="C27" s="341"/>
+      <c r="B27" s="341"/>
+      <c r="C27" s="342"/>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="342"/>
-      <c r="C28" s="343"/>
+      <c r="B28" s="339"/>
+      <c r="C28" s="340"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QWAILGKV4ZR+dz45sQNjWVz1jknfFAxJFIx1hCSeiPEL6oYSelXKO0nkHyIjY2Xc01Xzw6ZhttEVShqaxrPiPA==" saltValue="k7C7+m0hzWH8JcqwKh2YCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
@@ -47921,6 +47913,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -47940,7 +47937,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47957,13 +47954,13 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -47978,41 +47975,41 @@
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="344" t="s">
+      <c r="B6" s="345" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="251" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="344"/>
+      <c r="B7" s="345"/>
       <c r="C7" s="251" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="344"/>
+      <c r="B8" s="345"/>
       <c r="C8" s="251" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="344"/>
+      <c r="B9" s="345"/>
       <c r="C9" s="251" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="344"/>
+      <c r="B10" s="345"/>
       <c r="C10" s="251"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="344"/>
+      <c r="B11" s="345"/>
       <c r="C11" s="251"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="344"/>
+      <c r="B12" s="345"/>
       <c r="C12" s="251"/>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -48020,41 +48017,41 @@
       <c r="C13" s="252"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="345" t="s">
+      <c r="B14" s="346" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="253" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="345"/>
+      <c r="B15" s="346"/>
       <c r="C15" s="253" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="345"/>
+      <c r="B16" s="346"/>
       <c r="C16" s="253" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="345"/>
+      <c r="B17" s="346"/>
       <c r="C17" s="253" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="345"/>
+      <c r="B18" s="346"/>
       <c r="C18" s="253"/>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="345"/>
+      <c r="B19" s="346"/>
       <c r="C19" s="253"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="345"/>
+      <c r="B20" s="346"/>
       <c r="C20" s="253"/>
     </row>
     <row r="21" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -48062,47 +48059,47 @@
       <c r="C21" s="252"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="346" t="s">
+      <c r="B22" s="347" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="254" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="347"/>
+      <c r="C23" s="254" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="347"/>
+      <c r="C24" s="254" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="347"/>
+      <c r="C25" s="254" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="346"/>
-      <c r="C23" s="254" t="s">
+    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="347"/>
+      <c r="C26" s="254" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="346"/>
-      <c r="C24" s="254" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="346"/>
-      <c r="C25" s="254" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="346"/>
-      <c r="C26" s="254" t="s">
-        <v>349</v>
-      </c>
-    </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="346"/>
+      <c r="B27" s="347"/>
       <c r="C27" s="254" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="346"/>
+      <c r="B28" s="347"/>
       <c r="C28" s="254" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -48110,41 +48107,41 @@
       <c r="C29" s="252"/>
     </row>
     <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="347" t="s">
+      <c r="B30" s="348" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="255" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="348"/>
+      <c r="C31" s="255" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="348"/>
+      <c r="C32" s="255" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="348"/>
+      <c r="C33" s="255" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="347"/>
-      <c r="C31" s="255" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="347"/>
-      <c r="C32" s="255" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="347"/>
-      <c r="C33" s="255" t="s">
-        <v>353</v>
-      </c>
-    </row>
     <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="347"/>
+      <c r="B34" s="348"/>
       <c r="C34" s="255"/>
     </row>
     <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="347"/>
+      <c r="B35" s="348"/>
       <c r="C35" s="255"/>
     </row>
     <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="347"/>
+      <c r="B36" s="348"/>
       <c r="C36" s="255"/>
     </row>
   </sheetData>
@@ -48170,10 +48167,10 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48191,7 +48188,7 @@
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -48203,7 +48200,7 @@
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -48240,30 +48237,26 @@
         <v>20</v>
       </c>
       <c r="C6" s="178" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="336" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="390" t="s">
-        <v>364</v>
+      <c r="E6" s="338" t="s">
+        <v>358</v>
       </c>
       <c r="F6" s="337" t="s">
-        <v>365</v>
-      </c>
-      <c r="G6" s="337" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="337" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="337" t="s">
-        <v>90</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="G6" s="338" t="s">
+        <v>360</v>
+      </c>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="174" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C7" s="175">
         <v>50</v>
@@ -48272,20 +48265,20 @@
         <v>7</v>
       </c>
       <c r="E7" s="175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="175">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="175">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" s="175"/>
       <c r="I7" s="175"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="174" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C8" s="175">
         <v>80</v>
@@ -48307,7 +48300,7 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="174" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C9" s="175">
         <v>70</v>
@@ -48329,7 +48322,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="174" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C10" s="175">
         <v>30</v>
@@ -48344,14 +48337,14 @@
         <v>7</v>
       </c>
       <c r="G10" s="175">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H10" s="175"/>
       <c r="I10" s="175"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="174" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C11" s="175">
         <v>20</v>
@@ -48366,14 +48359,14 @@
         <v>8</v>
       </c>
       <c r="G11" s="175">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="175"/>
       <c r="I11" s="175"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="174" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C12" s="175">
         <v>50</v>
@@ -48388,14 +48381,14 @@
         <v>5</v>
       </c>
       <c r="G12" s="175">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H12" s="175"/>
       <c r="I12" s="175"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="174" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C13" s="175">
         <v>70</v>
@@ -48410,14 +48403,14 @@
         <v>7</v>
       </c>
       <c r="G13" s="175">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H13" s="175"/>
       <c r="I13" s="175"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="174" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C14" s="175">
         <v>50</v>
@@ -48432,14 +48425,14 @@
         <v>8</v>
       </c>
       <c r="G14" s="175">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H14" s="175"/>
       <c r="I14" s="175"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="174" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C15" s="175">
         <v>80</v>
@@ -48454,7 +48447,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="175">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15" s="175"/>
       <c r="I15" s="175"/>
@@ -48571,7 +48564,7 @@
     </row>
     <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="118" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" s="179">
         <f>IFERROR(IF(COUNTA(D7:D26)=0,"",(SUMPRODUCT(D7:D26,$C$7:$C$26))/(SUM($C$7:$C$26))),"")</f>
@@ -48579,15 +48572,15 @@
       </c>
       <c r="E27" s="179">
         <f t="shared" ref="E27:I27" si="0">IFERROR(IF(COUNTA(E7:E26)=0,"",(SUMPRODUCT(E7:E26,$C$7:$C$26))/(SUM($C$7:$C$26))),"")</f>
-        <v>2.72</v>
+        <v>3.02</v>
       </c>
       <c r="F27" s="179">
         <f t="shared" si="0"/>
-        <v>6.86</v>
+        <v>7.16</v>
       </c>
       <c r="G27" s="179">
         <f t="shared" si="0"/>
-        <v>5.18</v>
+        <v>7.3</v>
       </c>
       <c r="H27" s="179" t="str">
         <f t="shared" si="0"/>
@@ -48599,172 +48592,174 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="338" t="s">
+      <c r="B29" s="343" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="348"/>
-      <c r="D29" s="348"/>
-      <c r="E29" s="348"/>
-      <c r="F29" s="348"/>
-      <c r="G29" s="348"/>
-      <c r="H29" s="348"/>
-      <c r="I29" s="339"/>
+      <c r="C29" s="349"/>
+      <c r="D29" s="349"/>
+      <c r="E29" s="349"/>
+      <c r="F29" s="349"/>
+      <c r="G29" s="349"/>
+      <c r="H29" s="349"/>
+      <c r="I29" s="344"/>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="355" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="356"/>
-      <c r="D30" s="356"/>
-      <c r="E30" s="356"/>
-      <c r="F30" s="356"/>
-      <c r="G30" s="356"/>
-      <c r="H30" s="356"/>
-      <c r="I30" s="357"/>
+      <c r="B30" s="356" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="357"/>
+      <c r="D30" s="357"/>
+      <c r="E30" s="357"/>
+      <c r="F30" s="357"/>
+      <c r="G30" s="357"/>
+      <c r="H30" s="357"/>
+      <c r="I30" s="358"/>
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="352" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="353"/>
-      <c r="D31" s="353"/>
-      <c r="E31" s="353"/>
-      <c r="F31" s="353"/>
-      <c r="G31" s="353"/>
-      <c r="H31" s="353"/>
-      <c r="I31" s="354"/>
+      <c r="B31" s="353" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="354"/>
+      <c r="D31" s="354"/>
+      <c r="E31" s="354"/>
+      <c r="F31" s="354"/>
+      <c r="G31" s="354"/>
+      <c r="H31" s="354"/>
+      <c r="I31" s="355"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="352" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="353"/>
-      <c r="D32" s="353"/>
-      <c r="E32" s="353"/>
-      <c r="F32" s="353"/>
-      <c r="G32" s="353"/>
-      <c r="H32" s="353"/>
-      <c r="I32" s="354"/>
+      <c r="B32" s="353" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="354"/>
+      <c r="D32" s="354"/>
+      <c r="E32" s="354"/>
+      <c r="F32" s="354"/>
+      <c r="G32" s="354"/>
+      <c r="H32" s="354"/>
+      <c r="I32" s="355"/>
     </row>
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="352"/>
-      <c r="C33" s="353"/>
-      <c r="D33" s="353"/>
-      <c r="E33" s="353"/>
-      <c r="F33" s="353"/>
-      <c r="G33" s="353"/>
-      <c r="H33" s="353"/>
-      <c r="I33" s="354"/>
+      <c r="B33" s="353" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" s="354"/>
+      <c r="D33" s="354"/>
+      <c r="E33" s="354"/>
+      <c r="F33" s="354"/>
+      <c r="G33" s="354"/>
+      <c r="H33" s="354"/>
+      <c r="I33" s="355"/>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="352"/>
-      <c r="C34" s="353"/>
-      <c r="D34" s="353"/>
-      <c r="E34" s="353"/>
-      <c r="F34" s="353"/>
-      <c r="G34" s="353"/>
-      <c r="H34" s="353"/>
-      <c r="I34" s="354"/>
+      <c r="B34" s="353"/>
+      <c r="C34" s="354"/>
+      <c r="D34" s="354"/>
+      <c r="E34" s="354"/>
+      <c r="F34" s="354"/>
+      <c r="G34" s="354"/>
+      <c r="H34" s="354"/>
+      <c r="I34" s="355"/>
     </row>
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="352"/>
-      <c r="C35" s="353"/>
-      <c r="D35" s="353"/>
-      <c r="E35" s="353"/>
-      <c r="F35" s="353"/>
-      <c r="G35" s="353"/>
-      <c r="H35" s="353"/>
-      <c r="I35" s="354"/>
+      <c r="B35" s="353"/>
+      <c r="C35" s="354"/>
+      <c r="D35" s="354"/>
+      <c r="E35" s="354"/>
+      <c r="F35" s="354"/>
+      <c r="G35" s="354"/>
+      <c r="H35" s="354"/>
+      <c r="I35" s="355"/>
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="352"/>
-      <c r="C36" s="353"/>
-      <c r="D36" s="353"/>
-      <c r="E36" s="353"/>
-      <c r="F36" s="353"/>
-      <c r="G36" s="353"/>
-      <c r="H36" s="353"/>
-      <c r="I36" s="354"/>
+      <c r="B36" s="353"/>
+      <c r="C36" s="354"/>
+      <c r="D36" s="354"/>
+      <c r="E36" s="354"/>
+      <c r="F36" s="354"/>
+      <c r="G36" s="354"/>
+      <c r="H36" s="354"/>
+      <c r="I36" s="355"/>
     </row>
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="352"/>
-      <c r="C37" s="353"/>
-      <c r="D37" s="353"/>
-      <c r="E37" s="353"/>
-      <c r="F37" s="353"/>
-      <c r="G37" s="353"/>
-      <c r="H37" s="353"/>
-      <c r="I37" s="354"/>
+      <c r="B37" s="353"/>
+      <c r="C37" s="354"/>
+      <c r="D37" s="354"/>
+      <c r="E37" s="354"/>
+      <c r="F37" s="354"/>
+      <c r="G37" s="354"/>
+      <c r="H37" s="354"/>
+      <c r="I37" s="355"/>
     </row>
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="352"/>
-      <c r="C38" s="353"/>
-      <c r="D38" s="353"/>
-      <c r="E38" s="353"/>
-      <c r="F38" s="353"/>
-      <c r="G38" s="353"/>
-      <c r="H38" s="353"/>
-      <c r="I38" s="354"/>
+      <c r="B38" s="353"/>
+      <c r="C38" s="354"/>
+      <c r="D38" s="354"/>
+      <c r="E38" s="354"/>
+      <c r="F38" s="354"/>
+      <c r="G38" s="354"/>
+      <c r="H38" s="354"/>
+      <c r="I38" s="355"/>
     </row>
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="352"/>
-      <c r="C39" s="353"/>
-      <c r="D39" s="353"/>
-      <c r="E39" s="353"/>
-      <c r="F39" s="353"/>
-      <c r="G39" s="353"/>
-      <c r="H39" s="353"/>
-      <c r="I39" s="354"/>
+      <c r="B39" s="353"/>
+      <c r="C39" s="354"/>
+      <c r="D39" s="354"/>
+      <c r="E39" s="354"/>
+      <c r="F39" s="354"/>
+      <c r="G39" s="354"/>
+      <c r="H39" s="354"/>
+      <c r="I39" s="355"/>
     </row>
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="352"/>
-      <c r="C40" s="353"/>
-      <c r="D40" s="353"/>
-      <c r="E40" s="353"/>
-      <c r="F40" s="353"/>
-      <c r="G40" s="353"/>
-      <c r="H40" s="353"/>
-      <c r="I40" s="354"/>
+      <c r="B40" s="353"/>
+      <c r="C40" s="354"/>
+      <c r="D40" s="354"/>
+      <c r="E40" s="354"/>
+      <c r="F40" s="354"/>
+      <c r="G40" s="354"/>
+      <c r="H40" s="354"/>
+      <c r="I40" s="355"/>
     </row>
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="352"/>
-      <c r="C41" s="353"/>
-      <c r="D41" s="353"/>
-      <c r="E41" s="353"/>
-      <c r="F41" s="353"/>
-      <c r="G41" s="353"/>
-      <c r="H41" s="353"/>
-      <c r="I41" s="354"/>
+      <c r="B41" s="353"/>
+      <c r="C41" s="354"/>
+      <c r="D41" s="354"/>
+      <c r="E41" s="354"/>
+      <c r="F41" s="354"/>
+      <c r="G41" s="354"/>
+      <c r="H41" s="354"/>
+      <c r="I41" s="355"/>
     </row>
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="352"/>
-      <c r="C42" s="353"/>
-      <c r="D42" s="353"/>
-      <c r="E42" s="353"/>
-      <c r="F42" s="353"/>
-      <c r="G42" s="353"/>
-      <c r="H42" s="353"/>
-      <c r="I42" s="354"/>
+      <c r="B42" s="353"/>
+      <c r="C42" s="354"/>
+      <c r="D42" s="354"/>
+      <c r="E42" s="354"/>
+      <c r="F42" s="354"/>
+      <c r="G42" s="354"/>
+      <c r="H42" s="354"/>
+      <c r="I42" s="355"/>
     </row>
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="352"/>
-      <c r="C43" s="353"/>
-      <c r="D43" s="353"/>
-      <c r="E43" s="353"/>
-      <c r="F43" s="353"/>
-      <c r="G43" s="353"/>
-      <c r="H43" s="353"/>
-      <c r="I43" s="354"/>
+      <c r="B43" s="353"/>
+      <c r="C43" s="354"/>
+      <c r="D43" s="354"/>
+      <c r="E43" s="354"/>
+      <c r="F43" s="354"/>
+      <c r="G43" s="354"/>
+      <c r="H43" s="354"/>
+      <c r="I43" s="355"/>
     </row>
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="349"/>
-      <c r="C44" s="350"/>
-      <c r="D44" s="350"/>
-      <c r="E44" s="350"/>
-      <c r="F44" s="350"/>
-      <c r="G44" s="350"/>
-      <c r="H44" s="350"/>
-      <c r="I44" s="351"/>
+      <c r="B44" s="350"/>
+      <c r="C44" s="351"/>
+      <c r="D44" s="351"/>
+      <c r="E44" s="351"/>
+      <c r="F44" s="351"/>
+      <c r="G44" s="351"/>
+      <c r="H44" s="351"/>
+      <c r="I44" s="352"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XEq06WUJi5XGJM5wDJcHVyTPef8KG6rhUQXzoHL0yiWbfkE8nPSjKg/pXI7pFSYa9Uv7eAFpkTD1juDk6LGI7Q==" saltValue="6YDFbsbANdRWvvi77R+eYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -48810,7 +48805,7 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -48844,7 +48839,7 @@
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="331" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -48857,7 +48852,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="332" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -48906,7 +48901,7 @@
       </c>
       <c r="G6" s="256"/>
       <c r="H6" s="267" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I6" s="256"/>
       <c r="J6" s="268" t="s">
@@ -48915,70 +48910,70 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="257" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C7" s="258"/>
       <c r="D7" s="259" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E7" s="260"/>
       <c r="F7" s="261" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G7" s="260"/>
       <c r="H7" s="262" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I7" s="260"/>
       <c r="J7" s="263" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="257" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C8" s="258"/>
       <c r="D8" s="259" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E8" s="260"/>
       <c r="F8" s="261" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G8" s="260"/>
       <c r="H8" s="262" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I8" s="260"/>
       <c r="J8" s="263" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="257" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C9" s="258"/>
       <c r="D9" s="259" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E9" s="260"/>
       <c r="F9" s="261" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G9" s="260"/>
       <c r="H9" s="262" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I9" s="260"/>
       <c r="J9" s="263" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="257" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C10" s="258"/>
       <c r="D10" s="259"/>
@@ -49219,7 +49214,7 @@
     </row>
     <row r="2" spans="1:8" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="329" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -49230,7 +49225,7 @@
     </row>
     <row r="3" spans="1:8" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="330" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -49287,19 +49282,19 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="274" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="271"/>
       <c r="D8" s="278" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" s="271"/>
       <c r="F8" s="282" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G8" s="271"/>
       <c r="H8" s="286" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -49313,54 +49308,54 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="288" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C10" s="289"/>
       <c r="D10" s="262" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E10" s="289"/>
       <c r="F10" s="261" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G10" s="289"/>
       <c r="H10" s="263" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="288" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C11" s="289"/>
       <c r="D11" s="262" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E11" s="289"/>
       <c r="F11" s="261" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G11" s="289"/>
       <c r="H11" s="263" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="288" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C12" s="289"/>
       <c r="D12" s="262"/>
       <c r="E12" s="289"/>
       <c r="F12" s="261" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G12" s="289"/>
       <c r="H12" s="263"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="288" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C13" s="289"/>
       <c r="D13" s="262"/>

--- a/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
+++ b/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c\source\repos\faculty\faculty\an_2\sem_1\M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC87665-35B9-4CEE-B302-D4EC33B67D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C830DA-D48A-458D-9481-BA3E403077DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="O2pZeXeucL6OySNC7AknZdZAyXoN/m0/9At13Y17SnJe3PRhRKhh5R2CulRtevnypPEYgGoXIEttHB4aNlfRwQ==" workbookSaltValue="uQIfLlIkgsrrIpl+3gXPNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="7" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
+    <workbookView showSheetTabs="0" xWindow="4500" yWindow="4500" windowWidth="21600" windowHeight="11295" tabRatio="994" activeTab="9" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="17">Timeline!$B$2:$D$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">ToU!$B$2:$B$17</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="364">
   <si>
     <r>
       <t xml:space="preserve">This End-User License Agreement is a legal agreement between you and </t>
@@ -821,72 +821,6 @@
     <t>Dividends Received from Affiliates</t>
   </si>
   <si>
-    <t>Buyer number is very high.</t>
-  </si>
-  <si>
-    <t>Market is big.</t>
-  </si>
-  <si>
-    <t>Market is price-sensitive.</t>
-  </si>
-  <si>
-    <t>The distributor side is powerful.</t>
-  </si>
-  <si>
-    <t>The writer number limited.</t>
-  </si>
-  <si>
-    <t>Writers have limited effect on prices.</t>
-  </si>
-  <si>
-    <t>Entering the industry is easy.</t>
-  </si>
-  <si>
-    <t>But needs time to catch traffic.</t>
-  </si>
-  <si>
-    <t>Need relations with writers.</t>
-  </si>
-  <si>
-    <t>Alternative platforms may occur.</t>
-  </si>
-  <si>
-    <t>Not easy to grab a market share.</t>
-  </si>
-  <si>
-    <t>Can easily adapt to new media.</t>
-  </si>
-  <si>
-    <t>Not too much competitor.</t>
-  </si>
-  <si>
-    <t>Pretty much a niche area.</t>
-  </si>
-  <si>
-    <t>Needs ads to convince buyers.</t>
-  </si>
-  <si>
-    <t>We'll not have any physical stores for the near future.</t>
-  </si>
-  <si>
-    <t>We'll have a distributor partner to sell out printed products.</t>
-  </si>
-  <si>
-    <t>We'll use online book sellers for our printed books.</t>
-  </si>
-  <si>
-    <t>We'll sell directly from our website.</t>
-  </si>
-  <si>
-    <t>Our distribution strategy will be different for printed and other versions.</t>
-  </si>
-  <si>
-    <t>Printed books will be sold through a wholesale and also through e-commerce.</t>
-  </si>
-  <si>
-    <t>We have signed strategic partnership agreement with XYZ Distribution Company to distribute our printed books.</t>
-  </si>
-  <si>
     <t>Melinda R. Tackett</t>
   </si>
   <si>
@@ -960,36 +894,6 @@
   </si>
   <si>
     <t>Our financials look healthy from the very first year of our business.</t>
-  </si>
-  <si>
-    <t>Robust business plan</t>
-  </si>
-  <si>
-    <t>Innovative products</t>
-  </si>
-  <si>
-    <t>Big target market</t>
-  </si>
-  <si>
-    <t>Experience in publishing industry</t>
-  </si>
-  <si>
-    <t>Weak relations with translators</t>
-  </si>
-  <si>
-    <t>Technical skills of editorial staff</t>
-  </si>
-  <si>
-    <t>Growing market</t>
-  </si>
-  <si>
-    <t>Parents ready to spend for intellectual products</t>
-  </si>
-  <si>
-    <t>Kids familiar with digital devices</t>
-  </si>
-  <si>
-    <t>Intellectual property issues</t>
   </si>
   <si>
     <t>Legal entity foundation</t>
@@ -1127,15 +1031,6 @@
     <t>Threat of Substitutes</t>
   </si>
   <si>
-    <t>But buyers have a strong bargaining power.</t>
-  </si>
-  <si>
-    <t>Easy entrance to market</t>
-  </si>
-  <si>
-    <t>E-book and audiobook versions will be sold through subscription.</t>
-  </si>
-  <si>
     <t>HR will built a writer/translator pool with a promising growth opportunity.</t>
   </si>
   <si>
@@ -1170,9 +1065,6 @@
   </si>
   <si>
     <t>Ospitalitate, Responsabilitate, Agilitate, Autenticitate, Colaborare, Viteză</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noi prestăm servicii gastronomice cu specific moldovenesc prin intermediul platformelor de catering.  </t>
   </si>
   <si>
     <t>Este greu să găsești un restaurant cu specific moldovenesc în Timișoara, de aceea oferim clienților șansa de a degusta cele mai alese bucate de pe meleagurile moldave.</t>
@@ -1339,6 +1231,111 @@
   <si>
     <t>bucătaria românească și internațională, oferindu-vă astfel, o experiență culinară unică.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Noi prestăm servicii gastronomice cu specific moldovenesc prin intermediul platformelor de catering. </t>
+  </si>
+  <si>
+    <t>Capacitatea de cumpărare este mare</t>
+  </si>
+  <si>
+    <t>Piața este mare</t>
+  </si>
+  <si>
+    <t>Piața este sensibilă la modificarea prețurilor</t>
+  </si>
+  <si>
+    <t>Partea distributivă este amplă</t>
+  </si>
+  <si>
+    <t>Unicitatea produselor este redusă</t>
+  </si>
+  <si>
+    <t>Distribuitorii au o influență considerabilă asupra prețurilor serviciilor noastre</t>
+  </si>
+  <si>
+    <t>Intrarea în industrie este ușoară</t>
+  </si>
+  <si>
+    <t>Dar necesită timp pentru integrare</t>
+  </si>
+  <si>
+    <t>Diferențierea produselor pe piață</t>
+  </si>
+  <si>
+    <t>Restaurnatele tradiționale clasice ca alternnativă la serviciile de catering</t>
+  </si>
+  <si>
+    <t>Este complicat să ocupi o cotă de piață</t>
+  </si>
+  <si>
+    <t>Performanța înaltă a concurenților</t>
+  </si>
+  <si>
+    <t>Număr mari de concurenți pe piață</t>
+  </si>
+  <si>
+    <t>Fidelitate de start scăzută a clienților</t>
+  </si>
+  <si>
+    <t>Necesitatea promovării și a publicității în spațiul media</t>
+  </si>
+  <si>
+    <t>Plan de business robust</t>
+  </si>
+  <si>
+    <t>Unicitatea produselor culinare</t>
+  </si>
+  <si>
+    <t>Piață țintă desfășurată</t>
+  </si>
+  <si>
+    <t>Raport preț/calitate avantajos</t>
+  </si>
+  <si>
+    <t>Personal calificat</t>
+  </si>
+  <si>
+    <t>Lipsa unui bucătar șef cu experiență în domeniu</t>
+  </si>
+  <si>
+    <t>Lipsa de experineță în afaceri</t>
+  </si>
+  <si>
+    <t>Posibile probleme cu resursele financiare</t>
+  </si>
+  <si>
+    <t>Piața în stadiu de evoluție</t>
+  </si>
+  <si>
+    <t>Criza pandemică, ca opurtunitate de extindere a bazei de clienți</t>
+  </si>
+  <si>
+    <t>Componența etnică locală</t>
+  </si>
+  <si>
+    <t>Riscul de adaptare a ideilor proprii de către concurenți</t>
+  </si>
+  <si>
+    <t>Dificultăți în asigurarea personalului cu lucrători calificați pe termen lung</t>
+  </si>
+  <si>
+    <t>Noi nu vom avea un spațiu fizic de deservire .</t>
+  </si>
+  <si>
+    <t>Strategia noastră de ditstribuție va fi diferită în dependeță de tipul comenzii</t>
+  </si>
+  <si>
+    <t>Pentru evenimente se va plasa comanda pe site-ul nostru</t>
+  </si>
+  <si>
+    <t>Pentru comenzi individuale se vor utiliza serviciile prestate de Tazz și Glovo</t>
+  </si>
+  <si>
+    <t>Noi vom vinde prin intermediul propriei pagini web</t>
+  </si>
+  <si>
+    <t>Noi vom vinde prin intermediul serviciilor de catering Tazz și Glovo</t>
+  </si>
 </sst>
 </file>
 
@@ -1349,7 +1346,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="&quot;₺&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1723,8 +1720,35 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1857,8 +1881,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE5"/>
+        <bgColor rgb="FFD6DCE4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="114">
+  <borders count="116">
     <border>
       <left/>
       <right/>
@@ -3161,6 +3191,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF767171"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF767171"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF767171"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF767171"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3173,7 +3233,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3806,10 +3866,6 @@
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4342,6 +4398,46 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="48" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8887,8 +8983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11562516" y="202410"/>
-          <a:ext cx="1915447" cy="287257"/>
+          <a:off x="11600010" y="203301"/>
+          <a:ext cx="1897546" cy="289928"/>
           <a:chOff x="11182351" y="287833"/>
           <a:chExt cx="1905000" cy="289100"/>
         </a:xfrm>
@@ -9221,8 +9317,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9307,8 +9403,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9402,8 +9498,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9488,8 +9584,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9583,8 +9679,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9669,8 +9765,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9764,8 +9860,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10482,8 +10578,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>312865</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11115,8 +11211,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8924925" y="131025"/>
-          <a:ext cx="1044000" cy="450000"/>
+          <a:off x="8924324" y="131111"/>
+          <a:ext cx="1045545" cy="451201"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -37987,8 +38083,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11458575" y="133350"/>
-          <a:ext cx="1044000" cy="450000"/>
+          <a:off x="11395364" y="134216"/>
+          <a:ext cx="1042268" cy="444804"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -39372,8 +39468,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11744325" y="133350"/>
-          <a:ext cx="1044000" cy="450000"/>
+          <a:off x="11742026" y="129737"/>
+          <a:ext cx="1044657" cy="448686"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -39840,7 +39936,7 @@
   </sheetPr>
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -39875,11 +39971,11 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="329" t="s">
-        <v>268</v>
+      <c r="B2" s="328" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="248"/>
+      <c r="D2" s="247"/>
       <c r="E2" s="219"/>
       <c r="F2" s="219"/>
       <c r="G2" s="219"/>
@@ -39893,11 +39989,11 @@
       <c r="O2" s="220"/>
     </row>
     <row r="3" spans="1:15" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="330" t="s">
-        <v>269</v>
+      <c r="B3" s="329" t="s">
+        <v>237</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="249"/>
+      <c r="D3" s="248"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -39964,7 +40060,7 @@
     <row r="7" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="168" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="D7" s="168"/>
       <c r="E7" s="168"/>
@@ -39996,18 +40092,18 @@
     <row r="9" spans="1:15" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="165"/>
-      <c r="D9" s="245" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
+      <c r="D9" s="244" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
       <c r="G9" s="155"/>
       <c r="H9" s="160"/>
-      <c r="I9" s="245" t="s">
-        <v>265</v>
-      </c>
-      <c r="J9" s="245"/>
-      <c r="K9" s="245"/>
+      <c r="I9" s="244" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
       <c r="L9" s="157"/>
       <c r="M9" s="153"/>
       <c r="N9" s="17"/>
@@ -40031,15 +40127,15 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="117"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="247" t="s">
+      <c r="E11" s="245"/>
+      <c r="F11" s="246" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="155"/>
       <c r="H11" s="155"/>
       <c r="I11" s="117"/>
       <c r="J11" s="234"/>
-      <c r="K11" s="247" t="s">
+      <c r="K11" s="246" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="159"/>
@@ -40064,18 +40160,18 @@
     <row r="13" spans="1:15" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="164"/>
-      <c r="D13" s="245" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="245"/>
-      <c r="F13" s="245"/>
+      <c r="D13" s="244" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
       <c r="G13" s="155"/>
       <c r="H13" s="161"/>
-      <c r="I13" s="245" t="s">
-        <v>266</v>
-      </c>
-      <c r="J13" s="245"/>
-      <c r="K13" s="245"/>
+      <c r="I13" s="244" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" s="244"/>
+      <c r="K13" s="244"/>
       <c r="L13" s="157"/>
       <c r="M13" s="153"/>
       <c r="N13" s="17"/>
@@ -40100,14 +40196,14 @@
       <c r="C15" s="16"/>
       <c r="D15" s="117"/>
       <c r="E15" s="234"/>
-      <c r="F15" s="247" t="s">
+      <c r="F15" s="246" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="155"/>
       <c r="H15" s="155"/>
       <c r="I15" s="117"/>
       <c r="J15" s="234"/>
-      <c r="K15" s="247" t="s">
+      <c r="K15" s="246" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="159"/>
@@ -40134,14 +40230,14 @@
       <c r="C17" s="16"/>
       <c r="D17" s="117"/>
       <c r="E17" s="234"/>
-      <c r="F17" s="247" t="s">
+      <c r="F17" s="246" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="155"/>
       <c r="H17" s="155"/>
       <c r="I17" s="117"/>
       <c r="J17" s="234"/>
-      <c r="K17" s="247" t="s">
+      <c r="K17" s="246" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="159"/>
@@ -40166,16 +40262,16 @@
     <row r="19" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="163"/>
-      <c r="D19" s="245" t="s">
-        <v>264</v>
-      </c>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
+      <c r="D19" s="244" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="244"/>
+      <c r="F19" s="244"/>
       <c r="G19" s="155"/>
       <c r="H19" s="155"/>
       <c r="I19" s="117"/>
       <c r="J19" s="234"/>
-      <c r="K19" s="247" t="s">
+      <c r="K19" s="246" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="159"/>
@@ -40202,14 +40298,14 @@
       <c r="C21" s="16"/>
       <c r="D21" s="117"/>
       <c r="E21" s="234"/>
-      <c r="F21" s="247" t="s">
+      <c r="F21" s="246" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="155"/>
       <c r="H21" s="155"/>
       <c r="I21" s="117"/>
       <c r="J21" s="234"/>
-      <c r="K21" s="247" t="s">
+      <c r="K21" s="246" t="s">
         <v>9</v>
       </c>
       <c r="L21" s="159"/>
@@ -40236,14 +40332,14 @@
       <c r="C23" s="16"/>
       <c r="D23" s="117"/>
       <c r="E23" s="234"/>
-      <c r="F23" s="247" t="s">
+      <c r="F23" s="246" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="155"/>
       <c r="H23" s="155"/>
       <c r="I23" s="117"/>
       <c r="J23" s="234"/>
-      <c r="K23" s="247" t="s">
+      <c r="K23" s="246" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="159"/>
@@ -40272,16 +40368,16 @@
       <c r="C25" s="16"/>
       <c r="D25" s="117"/>
       <c r="E25" s="234"/>
-      <c r="F25" s="247" t="s">
+      <c r="F25" s="246" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="155"/>
       <c r="H25" s="162"/>
-      <c r="I25" s="245" t="s">
-        <v>267</v>
-      </c>
-      <c r="J25" s="245"/>
-      <c r="K25" s="245"/>
+      <c r="I25" s="244" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="244"/>
+      <c r="K25" s="244"/>
       <c r="L25" s="157"/>
       <c r="M25" s="153"/>
       <c r="N25" s="17"/>
@@ -40306,14 +40402,14 @@
       <c r="C27" s="16"/>
       <c r="D27" s="117"/>
       <c r="E27" s="234"/>
-      <c r="F27" s="247" t="s">
+      <c r="F27" s="246" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="155"/>
       <c r="H27" s="155"/>
       <c r="I27" s="117"/>
       <c r="J27" s="234"/>
-      <c r="K27" s="247" t="s">
+      <c r="K27" s="246" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="159"/>
@@ -40340,14 +40436,14 @@
       <c r="C29" s="16"/>
       <c r="D29" s="117"/>
       <c r="E29" s="234"/>
-      <c r="F29" s="247" t="s">
+      <c r="F29" s="246" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="155"/>
       <c r="H29" s="155"/>
       <c r="I29" s="117"/>
       <c r="J29" s="234"/>
-      <c r="K29" s="247" t="s">
+      <c r="K29" s="246" t="s">
         <v>9</v>
       </c>
       <c r="L29" s="159"/>
@@ -40374,14 +40470,14 @@
       <c r="C31" s="16"/>
       <c r="D31" s="117"/>
       <c r="E31" s="234"/>
-      <c r="F31" s="247" t="s">
+      <c r="F31" s="246" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="155"/>
       <c r="H31" s="155"/>
       <c r="I31" s="117"/>
       <c r="J31" s="234"/>
-      <c r="K31" s="247" t="s">
+      <c r="K31" s="246" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="159"/>
@@ -40475,10 +40571,10 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="111" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40495,15 +40591,15 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:4" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="329" t="s">
-        <v>268</v>
+      <c r="B2" s="328" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="330" t="s">
-        <v>283</v>
+      <c r="B3" s="329" t="s">
+        <v>251</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -40521,86 +40617,84 @@
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="291" t="s">
+      <c r="B6" s="290" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="291" t="s">
+      <c r="C6" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="291" t="s">
+      <c r="D6" s="290" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="235" t="s">
+      <c r="C7" s="397" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="236" t="s">
-        <v>207</v>
+      <c r="D7" s="397" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="396" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="397" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="397"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="396" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="235" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="236" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="180" t="s">
+      <c r="C9" s="397" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="397" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="396" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="397" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="397"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="396" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="235" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="236" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="180" t="s">
+      <c r="C11" s="397" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="398" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="235" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="235"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="235" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="236" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="180" t="s">
+      <c r="C12" s="397" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="397"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="235" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="235"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="236" t="s">
+      <c r="C13" s="397" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="236"/>
+      <c r="D13" s="397"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="180"/>
@@ -40613,94 +40707,92 @@
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="361" t="s">
+      <c r="B16" s="360" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="362"/>
-      <c r="D16" s="363"/>
+      <c r="C16" s="361"/>
+      <c r="D16" s="362"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="364" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="365"/>
-      <c r="D17" s="366"/>
+      <c r="B17" s="399" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="399"/>
+      <c r="D17" s="399"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="341" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="360"/>
-      <c r="D18" s="342"/>
+      <c r="B18" s="399" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="399"/>
+      <c r="D18" s="399"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="341" t="s">
-        <v>296</v>
-      </c>
-      <c r="C19" s="360"/>
-      <c r="D19" s="342"/>
+      <c r="B19" s="399" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="399"/>
+      <c r="D19" s="399"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="341" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="360"/>
-      <c r="D20" s="342"/>
+      <c r="B20" s="340"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="341"/>
     </row>
     <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="341"/>
-      <c r="C21" s="360"/>
-      <c r="D21" s="342"/>
+      <c r="B21" s="340"/>
+      <c r="C21" s="359"/>
+      <c r="D21" s="341"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="341"/>
-      <c r="C22" s="360"/>
-      <c r="D22" s="342"/>
+      <c r="B22" s="340"/>
+      <c r="C22" s="359"/>
+      <c r="D22" s="341"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="341"/>
-      <c r="C23" s="360"/>
-      <c r="D23" s="342"/>
+      <c r="B23" s="340"/>
+      <c r="C23" s="359"/>
+      <c r="D23" s="341"/>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="341"/>
-      <c r="C24" s="360"/>
-      <c r="D24" s="342"/>
+      <c r="B24" s="340"/>
+      <c r="C24" s="359"/>
+      <c r="D24" s="341"/>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="341"/>
-      <c r="C25" s="360"/>
-      <c r="D25" s="342"/>
+      <c r="B25" s="340"/>
+      <c r="C25" s="359"/>
+      <c r="D25" s="341"/>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="341"/>
-      <c r="C26" s="360"/>
-      <c r="D26" s="342"/>
+      <c r="B26" s="340"/>
+      <c r="C26" s="359"/>
+      <c r="D26" s="341"/>
     </row>
     <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="341"/>
-      <c r="C27" s="360"/>
-      <c r="D27" s="342"/>
+      <c r="B27" s="340"/>
+      <c r="C27" s="359"/>
+      <c r="D27" s="341"/>
     </row>
     <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="341"/>
-      <c r="C28" s="360"/>
-      <c r="D28" s="342"/>
+      <c r="B28" s="340"/>
+      <c r="C28" s="359"/>
+      <c r="D28" s="341"/>
     </row>
     <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="341"/>
-      <c r="C29" s="360"/>
-      <c r="D29" s="342"/>
+      <c r="B29" s="340"/>
+      <c r="C29" s="359"/>
+      <c r="D29" s="341"/>
     </row>
     <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="341"/>
-      <c r="C30" s="360"/>
-      <c r="D30" s="342"/>
+      <c r="B30" s="340"/>
+      <c r="C30" s="359"/>
+      <c r="D30" s="341"/>
     </row>
     <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="339"/>
-      <c r="C31" s="359"/>
-      <c r="D31" s="340"/>
+      <c r="B31" s="338"/>
+      <c r="C31" s="358"/>
+      <c r="D31" s="339"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="UCGY9eszZs9CIViHMThBw7fwHHrsg74VWMxEdvt0AHxwFsPjJ4F5bHDEwJjqVw/86ZZUZWi5kfaxgDbTVsh5+A==" saltValue="sp2iB7I+4IjtyrsJwv1w1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -40722,7 +40814,7 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B27:D27"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B14" xr:uid="{CF462609-70FD-4174-95B0-56CFEBAF0773}">
       <formula1>"✘,✓"</formula1>
     </dataValidation>
@@ -40763,16 +40855,16 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>284</v>
+      <c r="B3" s="331" t="s">
+        <v>252</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -40793,164 +40885,164 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="294"/>
-      <c r="D6" s="294"/>
-      <c r="E6" s="296"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="295"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="297" t="s">
+      <c r="B7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="297" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="372" t="s">
+      <c r="C7" s="296" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="371" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="372"/>
+      <c r="E7" s="371"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="182" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C8" s="183" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="371" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="367"/>
+        <v>195</v>
+      </c>
+      <c r="D8" s="370" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="366"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="182" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C9" s="183" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="371" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="367"/>
+        <v>195</v>
+      </c>
+      <c r="D9" s="370" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="366"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="182" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C10" s="183" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="371" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="367"/>
+        <v>196</v>
+      </c>
+      <c r="D10" s="370" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="366"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="182" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C11" s="183" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="371" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="367"/>
+        <v>203</v>
+      </c>
+      <c r="D11" s="370" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="366"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="182" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C12" s="183" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="371" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="367"/>
+        <v>205</v>
+      </c>
+      <c r="D12" s="370" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="366"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="181"/>
       <c r="C13" s="184"/>
-      <c r="D13" s="367"/>
-      <c r="E13" s="367"/>
+      <c r="D13" s="366"/>
+      <c r="E13" s="366"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="235"/>
       <c r="C14" s="184"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="367"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="235"/>
       <c r="C15" s="184"/>
-      <c r="D15" s="367"/>
-      <c r="E15" s="367"/>
+      <c r="D15" s="366"/>
+      <c r="E15" s="366"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="235"/>
       <c r="C16" s="184"/>
-      <c r="D16" s="367"/>
-      <c r="E16" s="367"/>
+      <c r="D16" s="366"/>
+      <c r="E16" s="366"/>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="181"/>
       <c r="C17" s="184"/>
-      <c r="D17" s="367"/>
-      <c r="E17" s="367"/>
+      <c r="D17" s="366"/>
+      <c r="E17" s="366"/>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="181"/>
       <c r="C18" s="184"/>
-      <c r="D18" s="367"/>
-      <c r="E18" s="367"/>
+      <c r="D18" s="366"/>
+      <c r="E18" s="366"/>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="181"/>
       <c r="C19" s="184"/>
-      <c r="D19" s="367"/>
-      <c r="E19" s="367"/>
+      <c r="D19" s="366"/>
+      <c r="E19" s="366"/>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="181"/>
       <c r="C20" s="184"/>
-      <c r="D20" s="367"/>
-      <c r="E20" s="367"/>
+      <c r="D20" s="366"/>
+      <c r="E20" s="366"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
+      <c r="B21" s="299"/>
+      <c r="C21" s="299"/>
+      <c r="D21" s="299"/>
+      <c r="E21" s="299"/>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="293" t="s">
+      <c r="B22" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="294"/>
-      <c r="D22" s="294"/>
-      <c r="E22" s="295"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="293"/>
+      <c r="E22" s="294"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="298" t="s">
+      <c r="B23" s="297" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="290" t="s">
+      <c r="C23" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="290" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="299" t="s">
+      <c r="D23" s="289" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="298" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="185" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C24" s="186">
         <v>5</v>
@@ -40965,7 +41057,7 @@
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="188" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C25" s="189">
         <v>20</v>
@@ -40980,12 +41072,12 @@
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="188" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C26" s="191">
         <v>10</v>
       </c>
-      <c r="D26" s="334">
+      <c r="D26" s="333">
         <v>25000</v>
       </c>
       <c r="E26" s="196">
@@ -40995,7 +41087,7 @@
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="188" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C27" s="189">
         <v>3</v>
@@ -41010,7 +41102,7 @@
     </row>
     <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="188" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C28" s="189">
         <v>8</v>
@@ -41044,7 +41136,7 @@
     <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="192"/>
       <c r="C31" s="189"/>
-      <c r="D31" s="334"/>
+      <c r="D31" s="333"/>
       <c r="E31" s="196" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -41107,7 +41199,7 @@
     <row r="38" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="193"/>
       <c r="C38" s="194"/>
-      <c r="D38" s="335"/>
+      <c r="D38" s="334"/>
       <c r="E38" s="197" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -41137,106 +41229,106 @@
       <c r="E40" s="120"/>
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="361" t="s">
+      <c r="B41" s="360" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="362"/>
-      <c r="D41" s="362"/>
-      <c r="E41" s="363"/>
+      <c r="C41" s="361"/>
+      <c r="D41" s="361"/>
+      <c r="E41" s="362"/>
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="364" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="365"/>
-      <c r="D42" s="365"/>
-      <c r="E42" s="366"/>
+      <c r="B42" s="363" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="364"/>
+      <c r="D42" s="364"/>
+      <c r="E42" s="365"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="341" t="s">
-        <v>297</v>
-      </c>
-      <c r="C43" s="360"/>
-      <c r="D43" s="360"/>
-      <c r="E43" s="342"/>
+      <c r="B43" s="340" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="359"/>
+      <c r="D43" s="359"/>
+      <c r="E43" s="341"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="341"/>
-      <c r="C44" s="360"/>
-      <c r="D44" s="360"/>
-      <c r="E44" s="342"/>
+      <c r="B44" s="340"/>
+      <c r="C44" s="359"/>
+      <c r="D44" s="359"/>
+      <c r="E44" s="341"/>
     </row>
     <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="341"/>
-      <c r="C45" s="360"/>
-      <c r="D45" s="360"/>
-      <c r="E45" s="342"/>
+      <c r="B45" s="340"/>
+      <c r="C45" s="359"/>
+      <c r="D45" s="359"/>
+      <c r="E45" s="341"/>
     </row>
     <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="341"/>
-      <c r="C46" s="360"/>
-      <c r="D46" s="360"/>
-      <c r="E46" s="342"/>
+      <c r="B46" s="340"/>
+      <c r="C46" s="359"/>
+      <c r="D46" s="359"/>
+      <c r="E46" s="341"/>
     </row>
     <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="341"/>
-      <c r="C47" s="360"/>
-      <c r="D47" s="360"/>
-      <c r="E47" s="342"/>
+      <c r="B47" s="340"/>
+      <c r="C47" s="359"/>
+      <c r="D47" s="359"/>
+      <c r="E47" s="341"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="341"/>
-      <c r="C48" s="360"/>
-      <c r="D48" s="360"/>
-      <c r="E48" s="342"/>
+      <c r="B48" s="340"/>
+      <c r="C48" s="359"/>
+      <c r="D48" s="359"/>
+      <c r="E48" s="341"/>
     </row>
     <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="341"/>
-      <c r="C49" s="360"/>
-      <c r="D49" s="360"/>
-      <c r="E49" s="342"/>
+      <c r="B49" s="340"/>
+      <c r="C49" s="359"/>
+      <c r="D49" s="359"/>
+      <c r="E49" s="341"/>
     </row>
     <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="341"/>
-      <c r="C50" s="360"/>
-      <c r="D50" s="360"/>
-      <c r="E50" s="342"/>
+      <c r="B50" s="340"/>
+      <c r="C50" s="359"/>
+      <c r="D50" s="359"/>
+      <c r="E50" s="341"/>
     </row>
     <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="341"/>
-      <c r="C51" s="360"/>
-      <c r="D51" s="360"/>
-      <c r="E51" s="342"/>
+      <c r="B51" s="340"/>
+      <c r="C51" s="359"/>
+      <c r="D51" s="359"/>
+      <c r="E51" s="341"/>
     </row>
     <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="341"/>
-      <c r="C52" s="360"/>
-      <c r="D52" s="360"/>
-      <c r="E52" s="342"/>
+      <c r="B52" s="340"/>
+      <c r="C52" s="359"/>
+      <c r="D52" s="359"/>
+      <c r="E52" s="341"/>
     </row>
     <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="341"/>
-      <c r="C53" s="360"/>
-      <c r="D53" s="360"/>
-      <c r="E53" s="342"/>
+      <c r="B53" s="340"/>
+      <c r="C53" s="359"/>
+      <c r="D53" s="359"/>
+      <c r="E53" s="341"/>
     </row>
     <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="341"/>
-      <c r="C54" s="360"/>
-      <c r="D54" s="360"/>
-      <c r="E54" s="342"/>
+      <c r="B54" s="340"/>
+      <c r="C54" s="359"/>
+      <c r="D54" s="359"/>
+      <c r="E54" s="341"/>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="341"/>
-      <c r="C55" s="360"/>
-      <c r="D55" s="360"/>
-      <c r="E55" s="342"/>
+      <c r="B55" s="340"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="359"/>
+      <c r="E55" s="341"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="368"/>
-      <c r="C56" s="369"/>
-      <c r="D56" s="369"/>
-      <c r="E56" s="370"/>
+      <c r="B56" s="367"/>
+      <c r="C56" s="368"/>
+      <c r="D56" s="368"/>
+      <c r="E56" s="369"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="e4a8gfQMjh4F1WptukkvjE8HcYVgUpCGWf/8UGwKLcz+N4IzQLzinn0d6xUTcUbW9DX3QmFf2ogb9IrTdJp5gw==" saltValue="JUcmWnwf5nO+ZNUUF9Qhww==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -41293,7 +41385,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41309,8 +41401,8 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -41319,8 +41411,8 @@
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>285</v>
+      <c r="B3" s="331" t="s">
+        <v>253</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -41368,7 +41460,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="202" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C7" s="203">
         <v>1000000</v>
@@ -41388,7 +41480,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="188" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C8" s="190">
         <v>5000000</v>
@@ -41562,140 +41654,140 @@
       </c>
     </row>
     <row r="27" spans="2:7" s="150" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="373" t="s">
+      <c r="B27" s="372" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="374"/>
-      <c r="D27" s="374"/>
-      <c r="E27" s="374"/>
-      <c r="F27" s="374"/>
-      <c r="G27" s="375"/>
+      <c r="C27" s="373"/>
+      <c r="D27" s="373"/>
+      <c r="E27" s="373"/>
+      <c r="F27" s="373"/>
+      <c r="G27" s="374"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="364" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="365"/>
-      <c r="D28" s="365"/>
-      <c r="E28" s="365"/>
-      <c r="F28" s="365"/>
-      <c r="G28" s="366"/>
+      <c r="B28" s="363" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="364"/>
+      <c r="D28" s="364"/>
+      <c r="E28" s="364"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="365"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="341" t="s">
-        <v>298</v>
-      </c>
-      <c r="C29" s="360"/>
-      <c r="D29" s="360"/>
-      <c r="E29" s="360"/>
-      <c r="F29" s="360"/>
-      <c r="G29" s="342"/>
+      <c r="B29" s="340" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="359"/>
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="359"/>
+      <c r="G29" s="341"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="341" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" s="360"/>
-      <c r="D30" s="360"/>
-      <c r="E30" s="360"/>
-      <c r="F30" s="360"/>
-      <c r="G30" s="342"/>
+      <c r="B30" s="340" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="359"/>
+      <c r="D30" s="359"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="341"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="341"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="360"/>
-      <c r="E31" s="360"/>
-      <c r="F31" s="360"/>
-      <c r="G31" s="342"/>
+      <c r="B31" s="340"/>
+      <c r="C31" s="359"/>
+      <c r="D31" s="359"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="359"/>
+      <c r="G31" s="341"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="341"/>
-      <c r="C32" s="360"/>
-      <c r="D32" s="360"/>
-      <c r="E32" s="360"/>
-      <c r="F32" s="360"/>
-      <c r="G32" s="342"/>
+      <c r="B32" s="340"/>
+      <c r="C32" s="359"/>
+      <c r="D32" s="359"/>
+      <c r="E32" s="359"/>
+      <c r="F32" s="359"/>
+      <c r="G32" s="341"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="341"/>
-      <c r="C33" s="360"/>
-      <c r="D33" s="360"/>
-      <c r="E33" s="360"/>
-      <c r="F33" s="360"/>
-      <c r="G33" s="342"/>
+      <c r="B33" s="340"/>
+      <c r="C33" s="359"/>
+      <c r="D33" s="359"/>
+      <c r="E33" s="359"/>
+      <c r="F33" s="359"/>
+      <c r="G33" s="341"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="341"/>
-      <c r="C34" s="360"/>
-      <c r="D34" s="360"/>
-      <c r="E34" s="360"/>
-      <c r="F34" s="360"/>
-      <c r="G34" s="342"/>
+      <c r="B34" s="340"/>
+      <c r="C34" s="359"/>
+      <c r="D34" s="359"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="341"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="341"/>
-      <c r="C35" s="360"/>
-      <c r="D35" s="360"/>
-      <c r="E35" s="360"/>
-      <c r="F35" s="360"/>
-      <c r="G35" s="342"/>
+      <c r="B35" s="340"/>
+      <c r="C35" s="359"/>
+      <c r="D35" s="359"/>
+      <c r="E35" s="359"/>
+      <c r="F35" s="359"/>
+      <c r="G35" s="341"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="341"/>
-      <c r="C36" s="360"/>
-      <c r="D36" s="360"/>
-      <c r="E36" s="360"/>
-      <c r="F36" s="360"/>
-      <c r="G36" s="342"/>
+      <c r="B36" s="340"/>
+      <c r="C36" s="359"/>
+      <c r="D36" s="359"/>
+      <c r="E36" s="359"/>
+      <c r="F36" s="359"/>
+      <c r="G36" s="341"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="341"/>
-      <c r="C37" s="360"/>
-      <c r="D37" s="360"/>
-      <c r="E37" s="360"/>
-      <c r="F37" s="360"/>
-      <c r="G37" s="342"/>
+      <c r="B37" s="340"/>
+      <c r="C37" s="359"/>
+      <c r="D37" s="359"/>
+      <c r="E37" s="359"/>
+      <c r="F37" s="359"/>
+      <c r="G37" s="341"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="341"/>
-      <c r="C38" s="360"/>
-      <c r="D38" s="360"/>
-      <c r="E38" s="360"/>
-      <c r="F38" s="360"/>
-      <c r="G38" s="342"/>
+      <c r="B38" s="340"/>
+      <c r="C38" s="359"/>
+      <c r="D38" s="359"/>
+      <c r="E38" s="359"/>
+      <c r="F38" s="359"/>
+      <c r="G38" s="341"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="341"/>
-      <c r="C39" s="360"/>
-      <c r="D39" s="360"/>
-      <c r="E39" s="360"/>
-      <c r="F39" s="360"/>
-      <c r="G39" s="342"/>
+      <c r="B39" s="340"/>
+      <c r="C39" s="359"/>
+      <c r="D39" s="359"/>
+      <c r="E39" s="359"/>
+      <c r="F39" s="359"/>
+      <c r="G39" s="341"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="341"/>
-      <c r="C40" s="360"/>
-      <c r="D40" s="360"/>
-      <c r="E40" s="360"/>
-      <c r="F40" s="360"/>
-      <c r="G40" s="342"/>
+      <c r="B40" s="340"/>
+      <c r="C40" s="359"/>
+      <c r="D40" s="359"/>
+      <c r="E40" s="359"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="341"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="341"/>
-      <c r="C41" s="360"/>
-      <c r="D41" s="360"/>
-      <c r="E41" s="360"/>
-      <c r="F41" s="360"/>
-      <c r="G41" s="342"/>
+      <c r="B41" s="340"/>
+      <c r="C41" s="359"/>
+      <c r="D41" s="359"/>
+      <c r="E41" s="359"/>
+      <c r="F41" s="359"/>
+      <c r="G41" s="341"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="339"/>
-      <c r="C42" s="359"/>
-      <c r="D42" s="359"/>
-      <c r="E42" s="359"/>
-      <c r="F42" s="359"/>
-      <c r="G42" s="340"/>
+      <c r="B42" s="338"/>
+      <c r="C42" s="358"/>
+      <c r="D42" s="358"/>
+      <c r="E42" s="358"/>
+      <c r="F42" s="358"/>
+      <c r="G42" s="339"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fQP+Jv3I/2eakwwoAbpnp38SkuAQCSBy9ZRWJ7AYqMbhBRa3xGQ0yEaEypBQp9PF9wx2ZNLoQfQHD2WqBfYWnA==" saltValue="jvb+VeOyKduV2x6Yw6QtYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -41753,8 +41845,8 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -41765,8 +41857,8 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>286</v>
+      <c r="B3" s="331" t="s">
+        <v>254</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -41803,33 +41895,33 @@
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="74"/>
       <c r="C7" s="70"/>
-      <c r="D7" s="311">
+      <c r="D7" s="310">
         <v>2022</v>
       </c>
-      <c r="E7" s="311">
+      <c r="E7" s="310">
         <v>2023</v>
       </c>
-      <c r="F7" s="311">
+      <c r="F7" s="310">
         <v>2024</v>
       </c>
-      <c r="G7" s="311">
+      <c r="G7" s="310">
         <v>2025</v>
       </c>
-      <c r="H7" s="311">
+      <c r="H7" s="310">
         <v>2026</v>
       </c>
       <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
-      <c r="C8" s="307" t="s">
+      <c r="C8" s="306" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="308"/>
-      <c r="G8" s="308"/>
-      <c r="H8" s="308"/>
+      <c r="D8" s="307"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="307"/>
+      <c r="H8" s="307"/>
       <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41837,19 +41929,19 @@
       <c r="C9" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="301">
+      <c r="D9" s="300">
         <v>6000000</v>
       </c>
-      <c r="E9" s="301">
+      <c r="E9" s="300">
         <v>12000000</v>
       </c>
-      <c r="F9" s="301">
+      <c r="F9" s="300">
         <v>16000000</v>
       </c>
-      <c r="G9" s="301">
+      <c r="G9" s="300">
         <v>24000000</v>
       </c>
-      <c r="H9" s="301">
+      <c r="H9" s="300">
         <v>30000000</v>
       </c>
       <c r="I9" s="75"/>
@@ -41859,19 +41951,19 @@
       <c r="C10" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="302">
+      <c r="D10" s="301">
         <v>110000</v>
       </c>
-      <c r="E10" s="302">
+      <c r="E10" s="301">
         <v>230000</v>
       </c>
-      <c r="F10" s="302">
+      <c r="F10" s="301">
         <v>335000</v>
       </c>
-      <c r="G10" s="302">
+      <c r="G10" s="301">
         <v>485000</v>
       </c>
-      <c r="H10" s="302">
+      <c r="H10" s="301">
         <v>635000</v>
       </c>
       <c r="I10" s="75"/>
@@ -41879,11 +41971,11 @@
     <row r="11" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74"/>
       <c r="C11" s="129"/>
-      <c r="D11" s="303"/>
-      <c r="E11" s="303"/>
-      <c r="F11" s="303"/>
-      <c r="G11" s="303"/>
-      <c r="H11" s="303"/>
+      <c r="D11" s="302"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
       <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41891,23 +41983,23 @@
       <c r="C12" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="304">
+      <c r="D12" s="303">
         <f>IFERROR(D9-D10,"")</f>
         <v>5890000</v>
       </c>
-      <c r="E12" s="304">
+      <c r="E12" s="303">
         <f t="shared" ref="E12:H12" si="0">IFERROR(E9-E10,"")</f>
         <v>11770000</v>
       </c>
-      <c r="F12" s="304">
+      <c r="F12" s="303">
         <f t="shared" si="0"/>
         <v>15665000</v>
       </c>
-      <c r="G12" s="304">
+      <c r="G12" s="303">
         <f t="shared" si="0"/>
         <v>23515000</v>
       </c>
-      <c r="H12" s="304">
+      <c r="H12" s="303">
         <f t="shared" si="0"/>
         <v>29365000</v>
       </c>
@@ -41916,11 +42008,11 @@
     <row r="13" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74"/>
       <c r="C13" s="135"/>
-      <c r="D13" s="305"/>
-      <c r="E13" s="305"/>
-      <c r="F13" s="305"/>
-      <c r="G13" s="305"/>
-      <c r="H13" s="305"/>
+      <c r="D13" s="304"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="304"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="304"/>
       <c r="I13" s="75"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41928,19 +42020,19 @@
       <c r="C14" s="210" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="301">
+      <c r="D14" s="300">
         <v>2000000</v>
       </c>
-      <c r="E14" s="301">
+      <c r="E14" s="300">
         <v>2000000</v>
       </c>
-      <c r="F14" s="301">
+      <c r="F14" s="300">
         <v>2500000</v>
       </c>
-      <c r="G14" s="301">
+      <c r="G14" s="300">
         <v>2500000</v>
       </c>
-      <c r="H14" s="301">
+      <c r="H14" s="300">
         <v>2500000</v>
       </c>
       <c r="I14" s="75"/>
@@ -41948,11 +42040,11 @@
     <row r="15" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="74"/>
       <c r="C15" s="129"/>
-      <c r="D15" s="303"/>
-      <c r="E15" s="303"/>
-      <c r="F15" s="303"/>
-      <c r="G15" s="303"/>
-      <c r="H15" s="303"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
       <c r="I15" s="75"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41960,23 +42052,23 @@
       <c r="C16" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="304">
+      <c r="D16" s="303">
         <f>IFERROR(D12-D14,"")</f>
         <v>3890000</v>
       </c>
-      <c r="E16" s="304">
+      <c r="E16" s="303">
         <f>IFERROR(E12-E14,"")</f>
         <v>9770000</v>
       </c>
-      <c r="F16" s="304">
+      <c r="F16" s="303">
         <f>IFERROR(F12-F14,"")</f>
         <v>13165000</v>
       </c>
-      <c r="G16" s="304">
+      <c r="G16" s="303">
         <f>IFERROR(G12-G14,"")</f>
         <v>21015000</v>
       </c>
-      <c r="H16" s="304">
+      <c r="H16" s="303">
         <f>IFERROR(H12-H14,"")</f>
         <v>26865000</v>
       </c>
@@ -41985,23 +42077,23 @@
     <row r="17" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="74"/>
       <c r="C17" s="129"/>
-      <c r="D17" s="303"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
       <c r="I17" s="75"/>
     </row>
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74"/>
-      <c r="C18" s="307" t="s">
+      <c r="C18" s="306" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="309"/>
-      <c r="E18" s="309"/>
-      <c r="F18" s="309"/>
-      <c r="G18" s="309"/>
-      <c r="H18" s="309"/>
+      <c r="D18" s="308"/>
+      <c r="E18" s="308"/>
+      <c r="F18" s="308"/>
+      <c r="G18" s="308"/>
+      <c r="H18" s="308"/>
       <c r="I18" s="75"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42009,19 +42101,19 @@
       <c r="C19" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="306">
+      <c r="D19" s="305">
         <v>1110000</v>
       </c>
-      <c r="E19" s="306">
+      <c r="E19" s="305">
         <v>1110000</v>
       </c>
-      <c r="F19" s="306">
+      <c r="F19" s="305">
         <v>1200000</v>
       </c>
-      <c r="G19" s="306">
+      <c r="G19" s="305">
         <v>1200000</v>
       </c>
-      <c r="H19" s="306">
+      <c r="H19" s="305">
         <v>1200000</v>
       </c>
       <c r="I19" s="75"/>
@@ -42031,19 +42123,19 @@
       <c r="C20" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="302">
+      <c r="D20" s="301">
         <v>200000</v>
       </c>
-      <c r="E20" s="302">
+      <c r="E20" s="301">
         <v>200000</v>
       </c>
-      <c r="F20" s="302">
+      <c r="F20" s="301">
         <v>200000</v>
       </c>
-      <c r="G20" s="302">
+      <c r="G20" s="301">
         <v>200000</v>
       </c>
-      <c r="H20" s="302">
+      <c r="H20" s="301">
         <v>200000</v>
       </c>
       <c r="I20" s="75"/>
@@ -42053,19 +42145,19 @@
       <c r="C21" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="302">
+      <c r="D21" s="301">
         <v>200000</v>
       </c>
-      <c r="E21" s="302">
+      <c r="E21" s="301">
         <v>2000000</v>
       </c>
-      <c r="F21" s="302">
+      <c r="F21" s="301">
         <v>500000</v>
       </c>
-      <c r="G21" s="302">
+      <c r="G21" s="301">
         <v>500000</v>
       </c>
-      <c r="H21" s="302">
+      <c r="H21" s="301">
         <v>500000</v>
       </c>
       <c r="I21" s="75"/>
@@ -42075,19 +42167,19 @@
       <c r="C22" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="302">
+      <c r="D22" s="301">
         <v>50000</v>
       </c>
-      <c r="E22" s="302">
+      <c r="E22" s="301">
         <v>50000</v>
       </c>
-      <c r="F22" s="302">
+      <c r="F22" s="301">
         <v>50000</v>
       </c>
-      <c r="G22" s="302">
+      <c r="G22" s="301">
         <v>50000</v>
       </c>
-      <c r="H22" s="302">
+      <c r="H22" s="301">
         <v>50000</v>
       </c>
       <c r="I22" s="75"/>
@@ -42097,19 +42189,19 @@
       <c r="C23" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="302">
+      <c r="D23" s="301">
         <v>1000000</v>
       </c>
-      <c r="E23" s="302">
+      <c r="E23" s="301">
         <v>1000000</v>
       </c>
-      <c r="F23" s="302">
+      <c r="F23" s="301">
         <v>1000000</v>
       </c>
-      <c r="G23" s="302">
+      <c r="G23" s="301">
         <v>1000000</v>
       </c>
-      <c r="H23" s="302">
+      <c r="H23" s="301">
         <v>1000000</v>
       </c>
       <c r="I23" s="75"/>
@@ -42119,19 +42211,19 @@
       <c r="C24" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="302">
+      <c r="D24" s="301">
         <v>12000</v>
       </c>
-      <c r="E24" s="302">
+      <c r="E24" s="301">
         <v>12000</v>
       </c>
-      <c r="F24" s="302">
+      <c r="F24" s="301">
         <v>12000</v>
       </c>
-      <c r="G24" s="302">
+      <c r="G24" s="301">
         <v>12000</v>
       </c>
-      <c r="H24" s="302">
+      <c r="H24" s="301">
         <v>12000</v>
       </c>
       <c r="I24" s="75"/>
@@ -42141,11 +42233,11 @@
       <c r="C25" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="302"/>
-      <c r="E25" s="302"/>
-      <c r="F25" s="302"/>
-      <c r="G25" s="302"/>
-      <c r="H25" s="302"/>
+      <c r="D25" s="301"/>
+      <c r="E25" s="301"/>
+      <c r="F25" s="301"/>
+      <c r="G25" s="301"/>
+      <c r="H25" s="301"/>
       <c r="I25" s="75"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -42153,11 +42245,11 @@
       <c r="C26" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="302"/>
-      <c r="E26" s="302"/>
-      <c r="F26" s="302"/>
-      <c r="G26" s="302"/>
-      <c r="H26" s="302"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="301"/>
+      <c r="F26" s="301"/>
+      <c r="G26" s="301"/>
+      <c r="H26" s="301"/>
       <c r="I26" s="75"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -42165,11 +42257,11 @@
       <c r="C27" s="211" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="302"/>
-      <c r="E27" s="302"/>
-      <c r="F27" s="302"/>
-      <c r="G27" s="302"/>
-      <c r="H27" s="302"/>
+      <c r="D27" s="301"/>
+      <c r="E27" s="301"/>
+      <c r="F27" s="301"/>
+      <c r="G27" s="301"/>
+      <c r="H27" s="301"/>
       <c r="I27" s="75"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -42177,11 +42269,11 @@
       <c r="C28" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="302"/>
-      <c r="E28" s="302"/>
-      <c r="F28" s="302"/>
-      <c r="G28" s="302"/>
-      <c r="H28" s="302"/>
+      <c r="D28" s="301"/>
+      <c r="E28" s="301"/>
+      <c r="F28" s="301"/>
+      <c r="G28" s="301"/>
+      <c r="H28" s="301"/>
       <c r="I28" s="75"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -42189,11 +42281,11 @@
       <c r="C29" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="302"/>
-      <c r="E29" s="302"/>
-      <c r="F29" s="302"/>
-      <c r="G29" s="302"/>
-      <c r="H29" s="302"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="301"/>
+      <c r="F29" s="301"/>
+      <c r="G29" s="301"/>
+      <c r="H29" s="301"/>
       <c r="I29" s="75"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -42201,11 +42293,11 @@
       <c r="C30" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="302"/>
-      <c r="E30" s="302"/>
-      <c r="F30" s="302"/>
-      <c r="G30" s="302"/>
-      <c r="H30" s="302"/>
+      <c r="D30" s="301"/>
+      <c r="E30" s="301"/>
+      <c r="F30" s="301"/>
+      <c r="G30" s="301"/>
+      <c r="H30" s="301"/>
       <c r="I30" s="75"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -42213,11 +42305,11 @@
       <c r="C31" s="211" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="302"/>
-      <c r="E31" s="302"/>
-      <c r="F31" s="302"/>
-      <c r="G31" s="302"/>
-      <c r="H31" s="302"/>
+      <c r="D31" s="301"/>
+      <c r="E31" s="301"/>
+      <c r="F31" s="301"/>
+      <c r="G31" s="301"/>
+      <c r="H31" s="301"/>
       <c r="I31" s="75"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -42225,11 +42317,11 @@
       <c r="C32" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="302"/>
-      <c r="E32" s="302"/>
-      <c r="F32" s="302"/>
-      <c r="G32" s="302"/>
-      <c r="H32" s="302"/>
+      <c r="D32" s="301"/>
+      <c r="E32" s="301"/>
+      <c r="F32" s="301"/>
+      <c r="G32" s="301"/>
+      <c r="H32" s="301"/>
       <c r="I32" s="75"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -42237,11 +42329,11 @@
       <c r="C33" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="302"/>
-      <c r="E33" s="302"/>
-      <c r="F33" s="302"/>
-      <c r="G33" s="302"/>
-      <c r="H33" s="302"/>
+      <c r="D33" s="301"/>
+      <c r="E33" s="301"/>
+      <c r="F33" s="301"/>
+      <c r="G33" s="301"/>
+      <c r="H33" s="301"/>
       <c r="I33" s="75"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -42249,11 +42341,11 @@
       <c r="C34" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="302"/>
-      <c r="E34" s="302"/>
-      <c r="F34" s="302"/>
-      <c r="G34" s="302"/>
-      <c r="H34" s="302"/>
+      <c r="D34" s="301"/>
+      <c r="E34" s="301"/>
+      <c r="F34" s="301"/>
+      <c r="G34" s="301"/>
+      <c r="H34" s="301"/>
       <c r="I34" s="75"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -42261,11 +42353,11 @@
       <c r="C35" s="211" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="302"/>
-      <c r="E35" s="302"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="302"/>
-      <c r="H35" s="302"/>
+      <c r="D35" s="301"/>
+      <c r="E35" s="301"/>
+      <c r="F35" s="301"/>
+      <c r="G35" s="301"/>
+      <c r="H35" s="301"/>
       <c r="I35" s="75"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -42273,61 +42365,61 @@
       <c r="C36" s="211" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="302"/>
-      <c r="E36" s="302"/>
-      <c r="F36" s="302"/>
-      <c r="G36" s="302"/>
-      <c r="H36" s="302"/>
+      <c r="D36" s="301"/>
+      <c r="E36" s="301"/>
+      <c r="F36" s="301"/>
+      <c r="G36" s="301"/>
+      <c r="H36" s="301"/>
       <c r="I36" s="75"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="74"/>
       <c r="C37" s="211"/>
-      <c r="D37" s="302"/>
-      <c r="E37" s="302"/>
-      <c r="F37" s="302"/>
-      <c r="G37" s="302"/>
-      <c r="H37" s="302"/>
+      <c r="D37" s="301"/>
+      <c r="E37" s="301"/>
+      <c r="F37" s="301"/>
+      <c r="G37" s="301"/>
+      <c r="H37" s="301"/>
       <c r="I37" s="75"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="74"/>
       <c r="C38" s="211"/>
-      <c r="D38" s="302"/>
-      <c r="E38" s="302"/>
-      <c r="F38" s="302"/>
-      <c r="G38" s="302"/>
-      <c r="H38" s="302"/>
+      <c r="D38" s="301"/>
+      <c r="E38" s="301"/>
+      <c r="F38" s="301"/>
+      <c r="G38" s="301"/>
+      <c r="H38" s="301"/>
       <c r="I38" s="75"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="74"/>
       <c r="C39" s="211"/>
-      <c r="D39" s="302"/>
-      <c r="E39" s="302"/>
-      <c r="F39" s="302"/>
-      <c r="G39" s="302"/>
-      <c r="H39" s="302"/>
+      <c r="D39" s="301"/>
+      <c r="E39" s="301"/>
+      <c r="F39" s="301"/>
+      <c r="G39" s="301"/>
+      <c r="H39" s="301"/>
       <c r="I39" s="75"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="74"/>
       <c r="C40" s="211"/>
-      <c r="D40" s="302"/>
-      <c r="E40" s="302"/>
-      <c r="F40" s="302"/>
-      <c r="G40" s="302"/>
-      <c r="H40" s="302"/>
+      <c r="D40" s="301"/>
+      <c r="E40" s="301"/>
+      <c r="F40" s="301"/>
+      <c r="G40" s="301"/>
+      <c r="H40" s="301"/>
       <c r="I40" s="75"/>
     </row>
     <row r="41" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="74"/>
       <c r="C41" s="129"/>
-      <c r="D41" s="303"/>
-      <c r="E41" s="303"/>
-      <c r="F41" s="303"/>
-      <c r="G41" s="303"/>
-      <c r="H41" s="303"/>
+      <c r="D41" s="302"/>
+      <c r="E41" s="302"/>
+      <c r="F41" s="302"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="302"/>
       <c r="I41" s="75"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -42335,23 +42427,23 @@
       <c r="C42" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="304">
+      <c r="D42" s="303">
         <f>IFERROR(SUM(D19:D40),"")</f>
         <v>2572000</v>
       </c>
-      <c r="E42" s="304">
+      <c r="E42" s="303">
         <f t="shared" ref="E42:H42" si="1">IFERROR(SUM(E19:E40),"")</f>
         <v>4372000</v>
       </c>
-      <c r="F42" s="304">
+      <c r="F42" s="303">
         <f t="shared" si="1"/>
         <v>2962000</v>
       </c>
-      <c r="G42" s="304">
+      <c r="G42" s="303">
         <f t="shared" si="1"/>
         <v>2962000</v>
       </c>
-      <c r="H42" s="304">
+      <c r="H42" s="303">
         <f t="shared" si="1"/>
         <v>2962000</v>
       </c>
@@ -42360,11 +42452,11 @@
     <row r="43" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="74"/>
       <c r="C43" s="129"/>
-      <c r="D43" s="303"/>
-      <c r="E43" s="303"/>
-      <c r="F43" s="303"/>
-      <c r="G43" s="303"/>
-      <c r="H43" s="303"/>
+      <c r="D43" s="302"/>
+      <c r="E43" s="302"/>
+      <c r="F43" s="302"/>
+      <c r="G43" s="302"/>
+      <c r="H43" s="302"/>
       <c r="I43" s="75"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -42372,23 +42464,23 @@
       <c r="C44" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="304">
+      <c r="D44" s="303">
         <f>IFERROR(D16-D42,"")</f>
         <v>1318000</v>
       </c>
-      <c r="E44" s="304">
+      <c r="E44" s="303">
         <f t="shared" ref="E44:H44" si="2">IFERROR(E16-E42,"")</f>
         <v>5398000</v>
       </c>
-      <c r="F44" s="304">
+      <c r="F44" s="303">
         <f t="shared" si="2"/>
         <v>10203000</v>
       </c>
-      <c r="G44" s="304">
+      <c r="G44" s="303">
         <f t="shared" si="2"/>
         <v>18053000</v>
       </c>
-      <c r="H44" s="304">
+      <c r="H44" s="303">
         <f t="shared" si="2"/>
         <v>23903000</v>
       </c>
@@ -42397,23 +42489,23 @@
     <row r="45" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="74"/>
       <c r="C45" s="129"/>
-      <c r="D45" s="303"/>
-      <c r="E45" s="303"/>
-      <c r="F45" s="303"/>
-      <c r="G45" s="303"/>
-      <c r="H45" s="303"/>
+      <c r="D45" s="302"/>
+      <c r="E45" s="302"/>
+      <c r="F45" s="302"/>
+      <c r="G45" s="302"/>
+      <c r="H45" s="302"/>
       <c r="I45" s="75"/>
     </row>
     <row r="46" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="74"/>
-      <c r="C46" s="307" t="s">
+      <c r="C46" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="309"/>
-      <c r="E46" s="309"/>
-      <c r="F46" s="309"/>
-      <c r="G46" s="309"/>
-      <c r="H46" s="309"/>
+      <c r="D46" s="308"/>
+      <c r="E46" s="308"/>
+      <c r="F46" s="308"/>
+      <c r="G46" s="308"/>
+      <c r="H46" s="308"/>
       <c r="I46" s="75"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -42421,19 +42513,19 @@
       <c r="C47" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="306">
+      <c r="D47" s="305">
         <v>20000</v>
       </c>
-      <c r="E47" s="306">
+      <c r="E47" s="305">
         <v>20000</v>
       </c>
-      <c r="F47" s="306">
+      <c r="F47" s="305">
         <v>20000</v>
       </c>
-      <c r="G47" s="306">
+      <c r="G47" s="305">
         <v>20000</v>
       </c>
-      <c r="H47" s="306">
+      <c r="H47" s="305">
         <v>20000</v>
       </c>
       <c r="I47" s="75"/>
@@ -42443,11 +42535,11 @@
       <c r="C48" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="302"/>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
+      <c r="D48" s="301"/>
+      <c r="E48" s="301"/>
+      <c r="F48" s="301"/>
+      <c r="G48" s="301"/>
+      <c r="H48" s="301"/>
       <c r="I48" s="75"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -42455,21 +42547,21 @@
       <c r="C49" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="302"/>
-      <c r="E49" s="302"/>
-      <c r="F49" s="302"/>
-      <c r="G49" s="302"/>
-      <c r="H49" s="302"/>
+      <c r="D49" s="301"/>
+      <c r="E49" s="301"/>
+      <c r="F49" s="301"/>
+      <c r="G49" s="301"/>
+      <c r="H49" s="301"/>
       <c r="I49" s="75"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="74"/>
       <c r="C50" s="129"/>
-      <c r="D50" s="303"/>
-      <c r="E50" s="303"/>
-      <c r="F50" s="303"/>
-      <c r="G50" s="303"/>
-      <c r="H50" s="303"/>
+      <c r="D50" s="302"/>
+      <c r="E50" s="302"/>
+      <c r="F50" s="302"/>
+      <c r="G50" s="302"/>
+      <c r="H50" s="302"/>
       <c r="I50" s="75"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -42477,23 +42569,23 @@
       <c r="C51" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="304">
+      <c r="D51" s="303">
         <f>IFERROR(D44+SUM(D47:D49),"")</f>
         <v>1338000</v>
       </c>
-      <c r="E51" s="304">
+      <c r="E51" s="303">
         <f>IFERROR(E44+SUM(E47:E49),"")</f>
         <v>5418000</v>
       </c>
-      <c r="F51" s="304">
+      <c r="F51" s="303">
         <f>IFERROR(F44+SUM(F47:F49),"")</f>
         <v>10223000</v>
       </c>
-      <c r="G51" s="304">
+      <c r="G51" s="303">
         <f>IFERROR(G44+SUM(G47:G49),"")</f>
         <v>18073000</v>
       </c>
-      <c r="H51" s="304">
+      <c r="H51" s="303">
         <f>IFERROR(H44+SUM(H47:H49),"")</f>
         <v>23923000</v>
       </c>
@@ -42502,23 +42594,23 @@
     <row r="52" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="74"/>
       <c r="C52" s="129"/>
-      <c r="D52" s="303"/>
-      <c r="E52" s="303"/>
-      <c r="F52" s="303"/>
-      <c r="G52" s="303"/>
-      <c r="H52" s="303"/>
+      <c r="D52" s="302"/>
+      <c r="E52" s="302"/>
+      <c r="F52" s="302"/>
+      <c r="G52" s="302"/>
+      <c r="H52" s="302"/>
       <c r="I52" s="75"/>
     </row>
     <row r="53" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="74"/>
-      <c r="C53" s="307" t="s">
+      <c r="C53" s="306" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="309"/>
-      <c r="E53" s="309"/>
-      <c r="F53" s="309"/>
-      <c r="G53" s="309"/>
-      <c r="H53" s="309"/>
+      <c r="D53" s="308"/>
+      <c r="E53" s="308"/>
+      <c r="F53" s="308"/>
+      <c r="G53" s="308"/>
+      <c r="H53" s="308"/>
       <c r="I53" s="76"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -42526,19 +42618,19 @@
       <c r="C54" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="306">
+      <c r="D54" s="305">
         <v>821400</v>
       </c>
-      <c r="E54" s="306">
+      <c r="E54" s="305">
         <v>4385400</v>
       </c>
-      <c r="F54" s="306">
+      <c r="F54" s="305">
         <v>8226900</v>
       </c>
-      <c r="G54" s="306">
+      <c r="G54" s="305">
         <v>12681900</v>
       </c>
-      <c r="H54" s="306">
+      <c r="H54" s="305">
         <v>17136900</v>
       </c>
       <c r="I54" s="75"/>
@@ -42548,21 +42640,21 @@
       <c r="C55" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="302"/>
-      <c r="E55" s="302"/>
-      <c r="F55" s="302"/>
-      <c r="G55" s="302"/>
-      <c r="H55" s="302"/>
+      <c r="D55" s="301"/>
+      <c r="E55" s="301"/>
+      <c r="F55" s="301"/>
+      <c r="G55" s="301"/>
+      <c r="H55" s="301"/>
       <c r="I55" s="75"/>
     </row>
     <row r="56" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="74"/>
       <c r="C56" s="129"/>
-      <c r="D56" s="303"/>
-      <c r="E56" s="303"/>
-      <c r="F56" s="303"/>
-      <c r="G56" s="303"/>
-      <c r="H56" s="303"/>
+      <c r="D56" s="302"/>
+      <c r="E56" s="302"/>
+      <c r="F56" s="302"/>
+      <c r="G56" s="302"/>
+      <c r="H56" s="302"/>
       <c r="I56" s="75"/>
     </row>
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42570,23 +42662,23 @@
       <c r="C57" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="304">
+      <c r="D57" s="303">
         <f>IFERROR(SUM(D54:D55),"")</f>
         <v>821400</v>
       </c>
-      <c r="E57" s="304">
+      <c r="E57" s="303">
         <f t="shared" ref="E57:H57" si="3">IFERROR(SUM(E54:E55),"")</f>
         <v>4385400</v>
       </c>
-      <c r="F57" s="304">
+      <c r="F57" s="303">
         <f t="shared" si="3"/>
         <v>8226900</v>
       </c>
-      <c r="G57" s="304">
+      <c r="G57" s="303">
         <f t="shared" si="3"/>
         <v>12681900</v>
       </c>
-      <c r="H57" s="304">
+      <c r="H57" s="303">
         <f t="shared" si="3"/>
         <v>17136900</v>
       </c>
@@ -42595,11 +42687,11 @@
     <row r="58" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="74"/>
       <c r="C58" s="129"/>
-      <c r="D58" s="303"/>
-      <c r="E58" s="303"/>
-      <c r="F58" s="303"/>
-      <c r="G58" s="303"/>
-      <c r="H58" s="303"/>
+      <c r="D58" s="302"/>
+      <c r="E58" s="302"/>
+      <c r="F58" s="302"/>
+      <c r="G58" s="302"/>
+      <c r="H58" s="302"/>
       <c r="I58" s="75"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -42607,23 +42699,23 @@
       <c r="C59" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="304">
+      <c r="D59" s="303">
         <f>IFERROR(D51-D57,"")</f>
         <v>516600</v>
       </c>
-      <c r="E59" s="304">
+      <c r="E59" s="303">
         <f t="shared" ref="E59:H59" si="4">IFERROR(E51-E57,"")</f>
         <v>1032600</v>
       </c>
-      <c r="F59" s="304">
+      <c r="F59" s="303">
         <f t="shared" si="4"/>
         <v>1996100</v>
       </c>
-      <c r="G59" s="304">
+      <c r="G59" s="303">
         <f t="shared" si="4"/>
         <v>5391100</v>
       </c>
-      <c r="H59" s="304">
+      <c r="H59" s="303">
         <f t="shared" si="4"/>
         <v>6786100</v>
       </c>
@@ -42675,8 +42767,8 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="329" t="s">
-        <v>268</v>
+      <c r="B2" s="328" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
@@ -42687,8 +42779,8 @@
       <c r="I2" s="219"/>
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="330" t="s">
-        <v>287</v>
+      <c r="B3" s="329" t="s">
+        <v>255</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -42719,33 +42811,33 @@
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="74"/>
       <c r="C7" s="70"/>
-      <c r="D7" s="311">
+      <c r="D7" s="310">
         <v>2022</v>
       </c>
-      <c r="E7" s="311">
+      <c r="E7" s="310">
         <v>2023</v>
       </c>
-      <c r="F7" s="311">
+      <c r="F7" s="310">
         <v>2024</v>
       </c>
-      <c r="G7" s="311">
+      <c r="G7" s="310">
         <v>2025</v>
       </c>
-      <c r="H7" s="311">
+      <c r="H7" s="310">
         <v>2026</v>
       </c>
       <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
-      <c r="C8" s="307" t="s">
+      <c r="C8" s="306" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="308"/>
-      <c r="G8" s="308"/>
-      <c r="H8" s="308"/>
+      <c r="D8" s="307"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="307"/>
+      <c r="H8" s="307"/>
       <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -42775,19 +42867,19 @@
       <c r="C11" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="312">
+      <c r="D11" s="311">
         <v>2500000</v>
       </c>
-      <c r="E11" s="312">
+      <c r="E11" s="311">
         <v>3200000</v>
       </c>
-      <c r="F11" s="312">
+      <c r="F11" s="311">
         <v>4200000</v>
       </c>
-      <c r="G11" s="312">
+      <c r="G11" s="311">
         <v>6800000</v>
       </c>
-      <c r="H11" s="312">
+      <c r="H11" s="311">
         <v>6850000</v>
       </c>
       <c r="I11" s="60"/>
@@ -42797,19 +42889,19 @@
       <c r="C12" s="214" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="313">
+      <c r="D12" s="312">
         <v>2000000</v>
       </c>
-      <c r="E12" s="313">
+      <c r="E12" s="312">
         <v>2200000</v>
       </c>
-      <c r="F12" s="313">
+      <c r="F12" s="312">
         <v>2200000</v>
       </c>
-      <c r="G12" s="313">
+      <c r="G12" s="312">
         <v>3000000</v>
       </c>
-      <c r="H12" s="313">
+      <c r="H12" s="312">
         <v>3000000</v>
       </c>
       <c r="I12" s="60"/>
@@ -42819,11 +42911,11 @@
       <c r="C13" s="214" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="313"/>
-      <c r="E13" s="313"/>
-      <c r="F13" s="313"/>
-      <c r="G13" s="313"/>
-      <c r="H13" s="313"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
       <c r="I13" s="60"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -42831,11 +42923,11 @@
       <c r="C14" s="214" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="313"/>
-      <c r="E14" s="313"/>
-      <c r="F14" s="313"/>
-      <c r="G14" s="313"/>
-      <c r="H14" s="313"/>
+      <c r="D14" s="312"/>
+      <c r="E14" s="312"/>
+      <c r="F14" s="312"/>
+      <c r="G14" s="312"/>
+      <c r="H14" s="312"/>
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -42843,23 +42935,23 @@
       <c r="C15" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="314">
+      <c r="D15" s="313">
         <f>IFERROR(SUM(D11:D14),"")</f>
         <v>4500000</v>
       </c>
-      <c r="E15" s="314">
+      <c r="E15" s="313">
         <f t="shared" ref="E15:H15" si="0">IFERROR(SUM(E11:E14),"")</f>
         <v>5400000</v>
       </c>
-      <c r="F15" s="314">
+      <c r="F15" s="313">
         <f t="shared" si="0"/>
         <v>6400000</v>
       </c>
-      <c r="G15" s="314">
+      <c r="G15" s="313">
         <f t="shared" si="0"/>
         <v>9800000</v>
       </c>
-      <c r="H15" s="314">
+      <c r="H15" s="313">
         <f t="shared" si="0"/>
         <v>9850000</v>
       </c>
@@ -42868,11 +42960,11 @@
     <row r="16" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
       <c r="C16" s="131"/>
-      <c r="D16" s="315"/>
-      <c r="E16" s="315"/>
-      <c r="F16" s="315"/>
-      <c r="G16" s="315"/>
-      <c r="H16" s="315"/>
+      <c r="D16" s="314"/>
+      <c r="E16" s="314"/>
+      <c r="F16" s="314"/>
+      <c r="G16" s="314"/>
+      <c r="H16" s="314"/>
       <c r="I16" s="60"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -42880,11 +42972,11 @@
       <c r="C17" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="316"/>
-      <c r="E17" s="316"/>
-      <c r="F17" s="316"/>
-      <c r="G17" s="316"/>
-      <c r="H17" s="316"/>
+      <c r="D17" s="315"/>
+      <c r="E17" s="315"/>
+      <c r="F17" s="315"/>
+      <c r="G17" s="315"/>
+      <c r="H17" s="315"/>
       <c r="I17" s="60"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -42892,19 +42984,19 @@
       <c r="C18" s="214" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="313">
+      <c r="D18" s="312">
         <v>250000</v>
       </c>
-      <c r="E18" s="313">
+      <c r="E18" s="312">
         <v>250000</v>
       </c>
-      <c r="F18" s="313">
+      <c r="F18" s="312">
         <v>250000</v>
       </c>
-      <c r="G18" s="313">
+      <c r="G18" s="312">
         <v>250000</v>
       </c>
-      <c r="H18" s="313">
+      <c r="H18" s="312">
         <v>250000</v>
       </c>
       <c r="I18" s="60"/>
@@ -42914,19 +43006,19 @@
       <c r="C19" s="214" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="313">
+      <c r="D19" s="312">
         <v>50000</v>
       </c>
-      <c r="E19" s="313">
+      <c r="E19" s="312">
         <v>50000</v>
       </c>
-      <c r="F19" s="313">
+      <c r="F19" s="312">
         <v>350000</v>
       </c>
-      <c r="G19" s="313">
+      <c r="G19" s="312">
         <v>1250000</v>
       </c>
-      <c r="H19" s="313">
+      <c r="H19" s="312">
         <v>2200000</v>
       </c>
       <c r="I19" s="60"/>
@@ -42936,23 +43028,23 @@
       <c r="C20" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="314">
+      <c r="D20" s="313">
         <f>IFERROR(SUM(D18:D19),"")</f>
         <v>300000</v>
       </c>
-      <c r="E20" s="314">
+      <c r="E20" s="313">
         <f t="shared" ref="E20:H20" si="1">IFERROR(SUM(E18:E19),"")</f>
         <v>300000</v>
       </c>
-      <c r="F20" s="314">
+      <c r="F20" s="313">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
-      <c r="G20" s="314">
+      <c r="G20" s="313">
         <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
-      <c r="H20" s="314">
+      <c r="H20" s="313">
         <f t="shared" si="1"/>
         <v>2450000</v>
       </c>
@@ -42961,11 +43053,11 @@
     <row r="21" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
       <c r="C21" s="131"/>
-      <c r="D21" s="315"/>
-      <c r="E21" s="315"/>
-      <c r="F21" s="315"/>
-      <c r="G21" s="315"/>
-      <c r="H21" s="315"/>
+      <c r="D21" s="314"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="314"/>
+      <c r="G21" s="314"/>
+      <c r="H21" s="314"/>
       <c r="I21" s="60"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -42973,23 +43065,23 @@
       <c r="C22" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="317">
+      <c r="D22" s="316">
         <f>IFERROR(SUM(D15,D20),"")</f>
         <v>4800000</v>
       </c>
-      <c r="E22" s="317">
+      <c r="E22" s="316">
         <f t="shared" ref="E22:H22" si="2">IFERROR(SUM(E15,E20),"")</f>
         <v>5700000</v>
       </c>
-      <c r="F22" s="317">
+      <c r="F22" s="316">
         <f t="shared" si="2"/>
         <v>7000000</v>
       </c>
-      <c r="G22" s="317">
+      <c r="G22" s="316">
         <f t="shared" si="2"/>
         <v>11300000</v>
       </c>
-      <c r="H22" s="317">
+      <c r="H22" s="316">
         <f t="shared" si="2"/>
         <v>12300000</v>
       </c>
@@ -42998,33 +43090,33 @@
     <row r="23" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
       <c r="C23" s="131"/>
-      <c r="D23" s="315"/>
-      <c r="E23" s="315"/>
-      <c r="F23" s="315"/>
-      <c r="G23" s="315"/>
-      <c r="H23" s="315"/>
+      <c r="D23" s="314"/>
+      <c r="E23" s="314"/>
+      <c r="F23" s="314"/>
+      <c r="G23" s="314"/>
+      <c r="H23" s="314"/>
       <c r="I23" s="60"/>
     </row>
     <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="59"/>
-      <c r="C24" s="307" t="s">
+      <c r="C24" s="306" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="309"/>
-      <c r="E24" s="309"/>
-      <c r="F24" s="309"/>
-      <c r="G24" s="309"/>
-      <c r="H24" s="309"/>
+      <c r="D24" s="308"/>
+      <c r="E24" s="308"/>
+      <c r="F24" s="308"/>
+      <c r="G24" s="308"/>
+      <c r="H24" s="308"/>
       <c r="I24" s="60"/>
     </row>
     <row r="25" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59"/>
       <c r="C25" s="131"/>
-      <c r="D25" s="315"/>
-      <c r="E25" s="315"/>
-      <c r="F25" s="315"/>
-      <c r="G25" s="315"/>
-      <c r="H25" s="315"/>
+      <c r="D25" s="314"/>
+      <c r="E25" s="314"/>
+      <c r="F25" s="314"/>
+      <c r="G25" s="314"/>
+      <c r="H25" s="314"/>
       <c r="I25" s="60"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -43032,11 +43124,11 @@
       <c r="C26" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="316"/>
-      <c r="E26" s="316"/>
-      <c r="F26" s="316"/>
-      <c r="G26" s="316"/>
-      <c r="H26" s="316"/>
+      <c r="D26" s="315"/>
+      <c r="E26" s="315"/>
+      <c r="F26" s="315"/>
+      <c r="G26" s="315"/>
+      <c r="H26" s="315"/>
       <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -43044,19 +43136,19 @@
       <c r="C27" s="215" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="313">
+      <c r="D27" s="312">
         <v>2500000</v>
       </c>
-      <c r="E27" s="313">
+      <c r="E27" s="312">
         <v>3200000</v>
       </c>
-      <c r="F27" s="313">
+      <c r="F27" s="312">
         <v>4500000</v>
       </c>
-      <c r="G27" s="313">
+      <c r="G27" s="312">
         <v>8000000</v>
       </c>
-      <c r="H27" s="313">
+      <c r="H27" s="312">
         <v>9000000</v>
       </c>
       <c r="I27" s="60"/>
@@ -43066,19 +43158,19 @@
       <c r="C28" s="214" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="313">
+      <c r="D28" s="312">
         <v>50000</v>
       </c>
-      <c r="E28" s="313">
+      <c r="E28" s="312">
         <v>50000</v>
       </c>
-      <c r="F28" s="313">
+      <c r="F28" s="312">
         <v>50000</v>
       </c>
-      <c r="G28" s="313">
+      <c r="G28" s="312">
         <v>50000</v>
       </c>
-      <c r="H28" s="313">
+      <c r="H28" s="312">
         <v>50000</v>
       </c>
       <c r="I28" s="60"/>
@@ -43088,11 +43180,11 @@
       <c r="C29" s="214" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="313"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="313"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="313"/>
+      <c r="D29" s="312"/>
+      <c r="E29" s="312"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="312"/>
+      <c r="H29" s="312"/>
       <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -43100,23 +43192,23 @@
       <c r="C30" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="314">
+      <c r="D30" s="313">
         <f>IFERROR(SUM(D27:D29),"")</f>
         <v>2550000</v>
       </c>
-      <c r="E30" s="314">
+      <c r="E30" s="313">
         <f t="shared" ref="E30:H30" si="3">IFERROR(SUM(E27:E29),"")</f>
         <v>3250000</v>
       </c>
-      <c r="F30" s="314">
+      <c r="F30" s="313">
         <f t="shared" si="3"/>
         <v>4550000</v>
       </c>
-      <c r="G30" s="314">
+      <c r="G30" s="313">
         <f t="shared" si="3"/>
         <v>8050000</v>
       </c>
-      <c r="H30" s="314">
+      <c r="H30" s="313">
         <f t="shared" si="3"/>
         <v>9050000</v>
       </c>
@@ -43125,11 +43217,11 @@
     <row r="31" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
       <c r="C31" s="131"/>
-      <c r="D31" s="315"/>
-      <c r="E31" s="315"/>
-      <c r="F31" s="315"/>
-      <c r="G31" s="315"/>
-      <c r="H31" s="315"/>
+      <c r="D31" s="314"/>
+      <c r="E31" s="314"/>
+      <c r="F31" s="314"/>
+      <c r="G31" s="314"/>
+      <c r="H31" s="314"/>
       <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -43137,11 +43229,11 @@
       <c r="C32" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="316"/>
-      <c r="E32" s="316"/>
-      <c r="F32" s="316"/>
-      <c r="G32" s="316"/>
-      <c r="H32" s="316"/>
+      <c r="D32" s="315"/>
+      <c r="E32" s="315"/>
+      <c r="F32" s="315"/>
+      <c r="G32" s="315"/>
+      <c r="H32" s="315"/>
       <c r="I32" s="60"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -43149,19 +43241,19 @@
       <c r="C33" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="313">
+      <c r="D33" s="312">
         <v>1000000</v>
       </c>
-      <c r="E33" s="313">
+      <c r="E33" s="312">
         <v>1200000</v>
       </c>
-      <c r="F33" s="313">
+      <c r="F33" s="312">
         <v>1200000</v>
       </c>
-      <c r="G33" s="313">
+      <c r="G33" s="312">
         <v>1750000</v>
       </c>
-      <c r="H33" s="313">
+      <c r="H33" s="312">
         <v>1750000</v>
       </c>
       <c r="I33" s="60"/>
@@ -43171,11 +43263,11 @@
       <c r="C34" s="216" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="313"/>
-      <c r="E34" s="313"/>
-      <c r="F34" s="313"/>
-      <c r="G34" s="313"/>
-      <c r="H34" s="313"/>
+      <c r="D34" s="312"/>
+      <c r="E34" s="312"/>
+      <c r="F34" s="312"/>
+      <c r="G34" s="312"/>
+      <c r="H34" s="312"/>
       <c r="I34" s="60"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -43183,23 +43275,23 @@
       <c r="C35" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="314">
+      <c r="D35" s="313">
         <f>IFERROR(SUM(D33:D34),"")</f>
         <v>1000000</v>
       </c>
-      <c r="E35" s="314">
+      <c r="E35" s="313">
         <f t="shared" ref="E35:H35" si="4">IFERROR(SUM(E33:E34),"")</f>
         <v>1200000</v>
       </c>
-      <c r="F35" s="314">
+      <c r="F35" s="313">
         <f t="shared" si="4"/>
         <v>1200000</v>
       </c>
-      <c r="G35" s="314">
+      <c r="G35" s="313">
         <f t="shared" si="4"/>
         <v>1750000</v>
       </c>
-      <c r="H35" s="314">
+      <c r="H35" s="313">
         <f t="shared" si="4"/>
         <v>1750000</v>
       </c>
@@ -43208,11 +43300,11 @@
     <row r="36" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="59"/>
       <c r="C36" s="131"/>
-      <c r="D36" s="315"/>
-      <c r="E36" s="315"/>
-      <c r="F36" s="315"/>
-      <c r="G36" s="315"/>
-      <c r="H36" s="315"/>
+      <c r="D36" s="314"/>
+      <c r="E36" s="314"/>
+      <c r="F36" s="314"/>
+      <c r="G36" s="314"/>
+      <c r="H36" s="314"/>
       <c r="I36" s="60"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -43220,11 +43312,11 @@
       <c r="C37" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="316"/>
-      <c r="E37" s="316"/>
-      <c r="F37" s="316"/>
-      <c r="G37" s="316"/>
-      <c r="H37" s="316"/>
+      <c r="D37" s="315"/>
+      <c r="E37" s="315"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="315"/>
+      <c r="H37" s="315"/>
       <c r="I37" s="60"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -43232,19 +43324,19 @@
       <c r="C38" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="313">
+      <c r="D38" s="312">
         <v>1250000</v>
       </c>
-      <c r="E38" s="313">
+      <c r="E38" s="312">
         <v>1250000</v>
       </c>
-      <c r="F38" s="313">
+      <c r="F38" s="312">
         <v>1250000</v>
       </c>
-      <c r="G38" s="313">
+      <c r="G38" s="312">
         <v>1500000</v>
       </c>
-      <c r="H38" s="313">
+      <c r="H38" s="312">
         <v>1500000</v>
       </c>
       <c r="I38" s="60"/>
@@ -43254,11 +43346,11 @@
       <c r="C39" s="214" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="313"/>
-      <c r="E39" s="313"/>
-      <c r="F39" s="313"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="313"/>
+      <c r="D39" s="312"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="312"/>
+      <c r="G39" s="312"/>
+      <c r="H39" s="312"/>
       <c r="I39" s="60"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -43266,11 +43358,11 @@
       <c r="C40" s="214" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="313"/>
-      <c r="E40" s="313"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="313"/>
+      <c r="D40" s="312"/>
+      <c r="E40" s="312"/>
+      <c r="F40" s="312"/>
+      <c r="G40" s="312"/>
+      <c r="H40" s="312"/>
       <c r="I40" s="60"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -43278,23 +43370,23 @@
       <c r="C41" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="314">
+      <c r="D41" s="313">
         <f>IFERROR(SUM(D38:D40),"")</f>
         <v>1250000</v>
       </c>
-      <c r="E41" s="314">
+      <c r="E41" s="313">
         <f t="shared" ref="E41:H41" si="5">IFERROR(SUM(E38:E40),"")</f>
         <v>1250000</v>
       </c>
-      <c r="F41" s="314">
+      <c r="F41" s="313">
         <f t="shared" si="5"/>
         <v>1250000</v>
       </c>
-      <c r="G41" s="314">
+      <c r="G41" s="313">
         <f t="shared" si="5"/>
         <v>1500000</v>
       </c>
-      <c r="H41" s="314">
+      <c r="H41" s="313">
         <f t="shared" si="5"/>
         <v>1500000</v>
       </c>
@@ -43303,11 +43395,11 @@
     <row r="42" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="59"/>
       <c r="C42" s="131"/>
-      <c r="D42" s="315"/>
-      <c r="E42" s="315"/>
-      <c r="F42" s="315"/>
-      <c r="G42" s="315"/>
-      <c r="H42" s="315"/>
+      <c r="D42" s="314"/>
+      <c r="E42" s="314"/>
+      <c r="F42" s="314"/>
+      <c r="G42" s="314"/>
+      <c r="H42" s="314"/>
       <c r="I42" s="60"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -43315,23 +43407,23 @@
       <c r="C43" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="317">
+      <c r="D43" s="316">
         <f>IFERROR(SUM(D30,D35,D41),"")</f>
         <v>4800000</v>
       </c>
-      <c r="E43" s="317">
+      <c r="E43" s="316">
         <f t="shared" ref="E43:H43" si="6">IFERROR(SUM(E30,E35,E41),"")</f>
         <v>5700000</v>
       </c>
-      <c r="F43" s="317">
+      <c r="F43" s="316">
         <f t="shared" si="6"/>
         <v>7000000</v>
       </c>
-      <c r="G43" s="317">
+      <c r="G43" s="316">
         <f t="shared" si="6"/>
         <v>11300000</v>
       </c>
-      <c r="H43" s="317">
+      <c r="H43" s="316">
         <f t="shared" si="6"/>
         <v>12300000</v>
       </c>
@@ -43385,8 +43477,8 @@
       <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="329" t="s">
-        <v>268</v>
+      <c r="B2" s="328" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="226"/>
@@ -43397,8 +43489,8 @@
       <c r="I2" s="226"/>
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="330" t="s">
-        <v>288</v>
+      <c r="B3" s="329" t="s">
+        <v>256</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="53"/>
@@ -43432,33 +43524,33 @@
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="59"/>
       <c r="C7" s="70"/>
-      <c r="D7" s="311">
+      <c r="D7" s="310">
         <v>2022</v>
       </c>
-      <c r="E7" s="311">
+      <c r="E7" s="310">
         <v>2023</v>
       </c>
-      <c r="F7" s="311">
+      <c r="F7" s="310">
         <v>2024</v>
       </c>
-      <c r="G7" s="311">
+      <c r="G7" s="310">
         <v>2025</v>
       </c>
-      <c r="H7" s="311">
+      <c r="H7" s="310">
         <v>2026</v>
       </c>
       <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="59"/>
-      <c r="C8" s="307" t="s">
+      <c r="C8" s="306" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="308"/>
-      <c r="E8" s="310"/>
-      <c r="F8" s="310"/>
-      <c r="G8" s="310"/>
-      <c r="H8" s="310"/>
+      <c r="D8" s="307"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="309"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="309"/>
       <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -43488,19 +43580,19 @@
       <c r="C11" s="217" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="313">
+      <c r="D11" s="312">
         <v>6000000</v>
       </c>
-      <c r="E11" s="313">
+      <c r="E11" s="312">
         <v>12000000</v>
       </c>
-      <c r="F11" s="313">
+      <c r="F11" s="312">
         <v>16000000</v>
       </c>
-      <c r="G11" s="313">
+      <c r="G11" s="312">
         <v>24000000</v>
       </c>
-      <c r="H11" s="313">
+      <c r="H11" s="312">
         <v>30000000</v>
       </c>
       <c r="I11" s="60"/>
@@ -43510,11 +43602,11 @@
       <c r="C12" s="217" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="313"/>
-      <c r="E12" s="313"/>
-      <c r="F12" s="313"/>
-      <c r="G12" s="313"/>
-      <c r="H12" s="313"/>
+      <c r="D12" s="312"/>
+      <c r="E12" s="312"/>
+      <c r="F12" s="312"/>
+      <c r="G12" s="312"/>
+      <c r="H12" s="312"/>
       <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -43522,23 +43614,23 @@
       <c r="C13" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="314">
+      <c r="D13" s="313">
         <f>IFERROR(SUM(D11:D12),"")</f>
         <v>6000000</v>
       </c>
-      <c r="E13" s="314">
+      <c r="E13" s="313">
         <f t="shared" ref="E13:H13" si="0">IFERROR(SUM(E11:E12),"")</f>
         <v>12000000</v>
       </c>
-      <c r="F13" s="314">
+      <c r="F13" s="313">
         <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
-      <c r="G13" s="314">
+      <c r="G13" s="313">
         <f t="shared" si="0"/>
         <v>24000000</v>
       </c>
-      <c r="H13" s="314">
+      <c r="H13" s="313">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
@@ -43549,11 +43641,11 @@
       <c r="C14" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="315"/>
-      <c r="E14" s="315"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="315"/>
-      <c r="H14" s="315"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="314"/>
+      <c r="G14" s="314"/>
+      <c r="H14" s="314"/>
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -43561,11 +43653,11 @@
       <c r="C15" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="318"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="318"/>
-      <c r="H15" s="318"/>
+      <c r="D15" s="317"/>
+      <c r="E15" s="317"/>
+      <c r="F15" s="317"/>
+      <c r="G15" s="317"/>
+      <c r="H15" s="317"/>
       <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -43573,19 +43665,19 @@
       <c r="C16" s="217" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="313">
+      <c r="D16" s="312">
         <v>50000</v>
       </c>
-      <c r="E16" s="313">
+      <c r="E16" s="312">
         <v>50000</v>
       </c>
-      <c r="F16" s="313">
+      <c r="F16" s="312">
         <v>50000</v>
       </c>
-      <c r="G16" s="313">
+      <c r="G16" s="312">
         <v>50000</v>
       </c>
-      <c r="H16" s="313">
+      <c r="H16" s="312">
         <v>50000</v>
       </c>
       <c r="I16" s="60"/>
@@ -43595,19 +43687,19 @@
       <c r="C17" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="313">
+      <c r="D17" s="312">
         <v>1110000</v>
       </c>
-      <c r="E17" s="313">
+      <c r="E17" s="312">
         <v>1110000</v>
       </c>
-      <c r="F17" s="313">
+      <c r="F17" s="312">
         <v>1200000</v>
       </c>
-      <c r="G17" s="313">
+      <c r="G17" s="312">
         <v>1200000</v>
       </c>
-      <c r="H17" s="313">
+      <c r="H17" s="312">
         <v>1200000</v>
       </c>
       <c r="I17" s="60"/>
@@ -43617,19 +43709,19 @@
       <c r="C18" s="217" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="313">
+      <c r="D18" s="312">
         <v>400000</v>
       </c>
-      <c r="E18" s="313">
+      <c r="E18" s="312">
         <v>2200000</v>
       </c>
-      <c r="F18" s="313">
+      <c r="F18" s="312">
         <v>700000</v>
       </c>
-      <c r="G18" s="313">
+      <c r="G18" s="312">
         <v>700000</v>
       </c>
-      <c r="H18" s="313">
+      <c r="H18" s="312">
         <v>700000</v>
       </c>
       <c r="I18" s="60"/>
@@ -43639,19 +43731,19 @@
       <c r="C19" s="217" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="313">
+      <c r="D19" s="312">
         <v>1000000</v>
       </c>
-      <c r="E19" s="313">
+      <c r="E19" s="312">
         <v>1000000</v>
       </c>
-      <c r="F19" s="313">
+      <c r="F19" s="312">
         <v>1000000</v>
       </c>
-      <c r="G19" s="313">
+      <c r="G19" s="312">
         <v>1000000</v>
       </c>
-      <c r="H19" s="313">
+      <c r="H19" s="312">
         <v>1000000</v>
       </c>
       <c r="I19" s="60"/>
@@ -43661,19 +43753,19 @@
       <c r="C20" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="313">
+      <c r="D20" s="312">
         <v>821400</v>
       </c>
-      <c r="E20" s="313">
+      <c r="E20" s="312">
         <v>4385400</v>
       </c>
-      <c r="F20" s="313">
+      <c r="F20" s="312">
         <v>8226900</v>
       </c>
-      <c r="G20" s="313">
+      <c r="G20" s="312">
         <v>12681900</v>
       </c>
-      <c r="H20" s="313">
+      <c r="H20" s="312">
         <v>17136900</v>
       </c>
       <c r="I20" s="60"/>
@@ -43683,23 +43775,23 @@
       <c r="C21" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="319">
+      <c r="D21" s="318">
         <f>IFERROR(SUM(D16:D20),"")</f>
         <v>3381400</v>
       </c>
-      <c r="E21" s="319">
+      <c r="E21" s="318">
         <f t="shared" ref="E21:H21" si="1">IFERROR(SUM(E16:E20),"")</f>
         <v>8745400</v>
       </c>
-      <c r="F21" s="319">
+      <c r="F21" s="318">
         <f t="shared" si="1"/>
         <v>11176900</v>
       </c>
-      <c r="G21" s="319">
+      <c r="G21" s="318">
         <f t="shared" si="1"/>
         <v>15631900</v>
       </c>
-      <c r="H21" s="319">
+      <c r="H21" s="318">
         <f t="shared" si="1"/>
         <v>20086900</v>
       </c>
@@ -43708,11 +43800,11 @@
     <row r="22" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="59"/>
       <c r="C22" s="122"/>
-      <c r="D22" s="315"/>
-      <c r="E22" s="315"/>
-      <c r="F22" s="315"/>
-      <c r="G22" s="315"/>
-      <c r="H22" s="315"/>
+      <c r="D22" s="314"/>
+      <c r="E22" s="314"/>
+      <c r="F22" s="314"/>
+      <c r="G22" s="314"/>
+      <c r="H22" s="314"/>
       <c r="I22" s="60"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -43720,23 +43812,23 @@
       <c r="C23" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="317">
+      <c r="D23" s="316">
         <f>IFERROR(D13-D21,"")</f>
         <v>2618600</v>
       </c>
-      <c r="E23" s="317">
+      <c r="E23" s="316">
         <f t="shared" ref="E23:H23" si="2">IFERROR(E13-E21,"")</f>
         <v>3254600</v>
       </c>
-      <c r="F23" s="317">
+      <c r="F23" s="316">
         <f t="shared" si="2"/>
         <v>4823100</v>
       </c>
-      <c r="G23" s="317">
+      <c r="G23" s="316">
         <f t="shared" si="2"/>
         <v>8368100</v>
       </c>
-      <c r="H23" s="317">
+      <c r="H23" s="316">
         <f t="shared" si="2"/>
         <v>9913100</v>
       </c>
@@ -43745,33 +43837,33 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="59"/>
       <c r="C24" s="122"/>
-      <c r="D24" s="315"/>
-      <c r="E24" s="315"/>
-      <c r="F24" s="315"/>
-      <c r="G24" s="315"/>
-      <c r="H24" s="315"/>
+      <c r="D24" s="314"/>
+      <c r="E24" s="314"/>
+      <c r="F24" s="314"/>
+      <c r="G24" s="314"/>
+      <c r="H24" s="314"/>
       <c r="I24" s="60"/>
     </row>
     <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
-      <c r="C25" s="307" t="s">
+      <c r="C25" s="306" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="309"/>
-      <c r="E25" s="309"/>
-      <c r="F25" s="309"/>
-      <c r="G25" s="309"/>
-      <c r="H25" s="309"/>
+      <c r="D25" s="308"/>
+      <c r="E25" s="308"/>
+      <c r="F25" s="308"/>
+      <c r="G25" s="308"/>
+      <c r="H25" s="308"/>
       <c r="I25" s="60"/>
     </row>
     <row r="26" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
       <c r="C26" s="122"/>
-      <c r="D26" s="315"/>
-      <c r="E26" s="315"/>
-      <c r="F26" s="315"/>
-      <c r="G26" s="315"/>
-      <c r="H26" s="315"/>
+      <c r="D26" s="314"/>
+      <c r="E26" s="314"/>
+      <c r="F26" s="314"/>
+      <c r="G26" s="314"/>
+      <c r="H26" s="314"/>
       <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -43779,11 +43871,11 @@
       <c r="C27" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="318"/>
-      <c r="E27" s="318"/>
-      <c r="F27" s="318"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="318"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="317"/>
+      <c r="F27" s="317"/>
+      <c r="G27" s="317"/>
+      <c r="H27" s="317"/>
       <c r="I27" s="60"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -43791,19 +43883,19 @@
       <c r="C28" s="217" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="313">
+      <c r="D28" s="312">
         <v>800000</v>
       </c>
-      <c r="E28" s="313">
+      <c r="E28" s="312">
         <v>800000</v>
       </c>
-      <c r="F28" s="313">
+      <c r="F28" s="312">
         <v>800000</v>
       </c>
-      <c r="G28" s="313">
+      <c r="G28" s="312">
         <v>800000</v>
       </c>
-      <c r="H28" s="313">
+      <c r="H28" s="312">
         <v>800000</v>
       </c>
       <c r="I28" s="60"/>
@@ -43813,11 +43905,11 @@
       <c r="C29" s="217" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="313"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="313"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="313"/>
+      <c r="D29" s="312"/>
+      <c r="E29" s="312"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="312"/>
+      <c r="H29" s="312"/>
       <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -43825,11 +43917,11 @@
       <c r="C30" s="217" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="313"/>
-      <c r="E30" s="313"/>
-      <c r="F30" s="313"/>
-      <c r="G30" s="313"/>
-      <c r="H30" s="313"/>
+      <c r="D30" s="312"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="312"/>
+      <c r="H30" s="312"/>
       <c r="I30" s="60"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -43837,11 +43929,11 @@
       <c r="C31" s="217" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="313"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="313"/>
+      <c r="D31" s="312"/>
+      <c r="E31" s="312"/>
+      <c r="F31" s="312"/>
+      <c r="G31" s="312"/>
+      <c r="H31" s="312"/>
       <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -43849,11 +43941,11 @@
       <c r="C32" s="217" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="313"/>
-      <c r="E32" s="313"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="313"/>
+      <c r="D32" s="312"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="312"/>
+      <c r="H32" s="312"/>
       <c r="I32" s="60"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -43861,23 +43953,23 @@
       <c r="C33" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="314">
+      <c r="D33" s="313">
         <f>IFERROR(SUM(D28:D32),"")</f>
         <v>800000</v>
       </c>
-      <c r="E33" s="314">
+      <c r="E33" s="313">
         <f t="shared" ref="E33:H33" si="3">IFERROR(SUM(E28:E32),"")</f>
         <v>800000</v>
       </c>
-      <c r="F33" s="314">
+      <c r="F33" s="313">
         <f t="shared" si="3"/>
         <v>800000</v>
       </c>
-      <c r="G33" s="314">
+      <c r="G33" s="313">
         <f t="shared" si="3"/>
         <v>800000</v>
       </c>
-      <c r="H33" s="314">
+      <c r="H33" s="313">
         <f t="shared" si="3"/>
         <v>800000</v>
       </c>
@@ -43888,11 +43980,11 @@
       <c r="C34" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="315"/>
-      <c r="E34" s="315"/>
-      <c r="F34" s="315"/>
-      <c r="G34" s="315"/>
-      <c r="H34" s="315"/>
+      <c r="D34" s="314"/>
+      <c r="E34" s="314"/>
+      <c r="F34" s="314"/>
+      <c r="G34" s="314"/>
+      <c r="H34" s="314"/>
       <c r="I34" s="60"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -43900,11 +43992,11 @@
       <c r="C35" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="318"/>
-      <c r="E35" s="318"/>
-      <c r="F35" s="318"/>
-      <c r="G35" s="318"/>
-      <c r="H35" s="318"/>
+      <c r="D35" s="317"/>
+      <c r="E35" s="317"/>
+      <c r="F35" s="317"/>
+      <c r="G35" s="317"/>
+      <c r="H35" s="317"/>
       <c r="I35" s="60"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -43912,19 +44004,19 @@
       <c r="C36" s="217" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="313">
+      <c r="D36" s="312">
         <v>500000</v>
       </c>
-      <c r="E36" s="313">
+      <c r="E36" s="312">
         <v>500000</v>
       </c>
-      <c r="F36" s="313">
+      <c r="F36" s="312">
         <v>500000</v>
       </c>
-      <c r="G36" s="313">
+      <c r="G36" s="312">
         <v>500000</v>
       </c>
-      <c r="H36" s="313">
+      <c r="H36" s="312">
         <v>500000</v>
       </c>
       <c r="I36" s="60"/>
@@ -43934,11 +44026,11 @@
       <c r="C37" s="217" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="313"/>
-      <c r="E37" s="313"/>
-      <c r="F37" s="313"/>
-      <c r="G37" s="313"/>
-      <c r="H37" s="313"/>
+      <c r="D37" s="312"/>
+      <c r="E37" s="312"/>
+      <c r="F37" s="312"/>
+      <c r="G37" s="312"/>
+      <c r="H37" s="312"/>
       <c r="I37" s="60"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -43946,11 +44038,11 @@
       <c r="C38" s="217" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="313"/>
-      <c r="E38" s="313"/>
-      <c r="F38" s="313"/>
-      <c r="G38" s="313"/>
-      <c r="H38" s="313"/>
+      <c r="D38" s="312"/>
+      <c r="E38" s="312"/>
+      <c r="F38" s="312"/>
+      <c r="G38" s="312"/>
+      <c r="H38" s="312"/>
       <c r="I38" s="60"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -43958,11 +44050,11 @@
       <c r="C39" s="217" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="313"/>
-      <c r="E39" s="313"/>
-      <c r="F39" s="313"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="313"/>
+      <c r="D39" s="312"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="312"/>
+      <c r="G39" s="312"/>
+      <c r="H39" s="312"/>
       <c r="I39" s="60"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -43970,11 +44062,11 @@
       <c r="C40" s="217" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="313"/>
-      <c r="E40" s="313"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="313"/>
+      <c r="D40" s="312"/>
+      <c r="E40" s="312"/>
+      <c r="F40" s="312"/>
+      <c r="G40" s="312"/>
+      <c r="H40" s="312"/>
       <c r="I40" s="60"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -43982,23 +44074,23 @@
       <c r="C41" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="314">
+      <c r="D41" s="313">
         <f>IFERROR(SUM(D36:D40),"")</f>
         <v>500000</v>
       </c>
-      <c r="E41" s="314">
+      <c r="E41" s="313">
         <f t="shared" ref="E41:H41" si="4">IFERROR(SUM(E36:E40),"")</f>
         <v>500000</v>
       </c>
-      <c r="F41" s="314">
+      <c r="F41" s="313">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
-      <c r="G41" s="314">
+      <c r="G41" s="313">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
-      <c r="H41" s="314">
+      <c r="H41" s="313">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
@@ -44007,11 +44099,11 @@
     <row r="42" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="59"/>
       <c r="C42" s="122"/>
-      <c r="D42" s="315"/>
-      <c r="E42" s="315"/>
-      <c r="F42" s="315"/>
-      <c r="G42" s="315"/>
-      <c r="H42" s="315"/>
+      <c r="D42" s="314"/>
+      <c r="E42" s="314"/>
+      <c r="F42" s="314"/>
+      <c r="G42" s="314"/>
+      <c r="H42" s="314"/>
       <c r="I42" s="60"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -44019,23 +44111,23 @@
       <c r="C43" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="317">
+      <c r="D43" s="316">
         <f>IFERROR(D33-D41,"")</f>
         <v>300000</v>
       </c>
-      <c r="E43" s="317">
+      <c r="E43" s="316">
         <f t="shared" ref="E43:H43" si="5">IFERROR(E33-E41,"")</f>
         <v>300000</v>
       </c>
-      <c r="F43" s="317">
+      <c r="F43" s="316">
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-      <c r="G43" s="317">
+      <c r="G43" s="316">
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-      <c r="H43" s="317">
+      <c r="H43" s="316">
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
@@ -44046,33 +44138,33 @@
       <c r="C44" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="315"/>
-      <c r="E44" s="315"/>
-      <c r="F44" s="315"/>
-      <c r="G44" s="315"/>
-      <c r="H44" s="315"/>
+      <c r="D44" s="314"/>
+      <c r="E44" s="314"/>
+      <c r="F44" s="314"/>
+      <c r="G44" s="314"/>
+      <c r="H44" s="314"/>
       <c r="I44" s="60"/>
     </row>
     <row r="45" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="59"/>
-      <c r="C45" s="307" t="s">
+      <c r="C45" s="306" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="309"/>
-      <c r="E45" s="309"/>
-      <c r="F45" s="309"/>
-      <c r="G45" s="309"/>
-      <c r="H45" s="309"/>
+      <c r="D45" s="308"/>
+      <c r="E45" s="308"/>
+      <c r="F45" s="308"/>
+      <c r="G45" s="308"/>
+      <c r="H45" s="308"/>
       <c r="I45" s="60"/>
     </row>
     <row r="46" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="59"/>
       <c r="C46" s="127"/>
-      <c r="D46" s="320"/>
-      <c r="E46" s="320"/>
-      <c r="F46" s="320"/>
-      <c r="G46" s="320"/>
-      <c r="H46" s="320"/>
+      <c r="D46" s="319"/>
+      <c r="E46" s="319"/>
+      <c r="F46" s="319"/>
+      <c r="G46" s="319"/>
+      <c r="H46" s="319"/>
       <c r="I46" s="60"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -44080,11 +44172,11 @@
       <c r="C47" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="318"/>
-      <c r="E47" s="318"/>
-      <c r="F47" s="318"/>
-      <c r="G47" s="318"/>
-      <c r="H47" s="318"/>
+      <c r="D47" s="317"/>
+      <c r="E47" s="317"/>
+      <c r="F47" s="317"/>
+      <c r="G47" s="317"/>
+      <c r="H47" s="317"/>
       <c r="I47" s="60"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -44092,19 +44184,19 @@
       <c r="C48" s="217" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="313">
+      <c r="D48" s="312">
         <v>1000000</v>
       </c>
-      <c r="E48" s="313">
+      <c r="E48" s="312">
         <v>1000000</v>
       </c>
-      <c r="F48" s="313">
+      <c r="F48" s="312">
         <v>1500000</v>
       </c>
-      <c r="G48" s="313">
+      <c r="G48" s="312">
         <v>1500000</v>
       </c>
-      <c r="H48" s="313">
+      <c r="H48" s="312">
         <v>1750000</v>
       </c>
       <c r="I48" s="60"/>
@@ -44114,11 +44206,11 @@
       <c r="C49" s="217" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="313"/>
-      <c r="E49" s="313"/>
-      <c r="F49" s="313"/>
-      <c r="G49" s="313"/>
-      <c r="H49" s="313"/>
+      <c r="D49" s="312"/>
+      <c r="E49" s="312"/>
+      <c r="F49" s="312"/>
+      <c r="G49" s="312"/>
+      <c r="H49" s="312"/>
       <c r="I49" s="60"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -44126,11 +44218,11 @@
       <c r="C50" s="217" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="313"/>
-      <c r="E50" s="313"/>
-      <c r="F50" s="313"/>
-      <c r="G50" s="313"/>
-      <c r="H50" s="313"/>
+      <c r="D50" s="312"/>
+      <c r="E50" s="312"/>
+      <c r="F50" s="312"/>
+      <c r="G50" s="312"/>
+      <c r="H50" s="312"/>
       <c r="I50" s="60"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -44138,23 +44230,23 @@
       <c r="C51" s="130" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="314">
+      <c r="D51" s="313">
         <f>IFERROR(SUM(D48:D50),"")</f>
         <v>1000000</v>
       </c>
-      <c r="E51" s="314">
+      <c r="E51" s="313">
         <f t="shared" ref="E51:H51" si="6">IFERROR(SUM(E48:E50),"")</f>
         <v>1000000</v>
       </c>
-      <c r="F51" s="314">
+      <c r="F51" s="313">
         <f t="shared" si="6"/>
         <v>1500000</v>
       </c>
-      <c r="G51" s="314">
+      <c r="G51" s="313">
         <f t="shared" si="6"/>
         <v>1500000</v>
       </c>
-      <c r="H51" s="314">
+      <c r="H51" s="313">
         <f t="shared" si="6"/>
         <v>1750000</v>
       </c>
@@ -44165,11 +44257,11 @@
       <c r="C52" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="315"/>
-      <c r="E52" s="315"/>
-      <c r="F52" s="315"/>
-      <c r="G52" s="315"/>
-      <c r="H52" s="315"/>
+      <c r="D52" s="314"/>
+      <c r="E52" s="314"/>
+      <c r="F52" s="314"/>
+      <c r="G52" s="314"/>
+      <c r="H52" s="314"/>
       <c r="I52" s="60"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -44177,11 +44269,11 @@
       <c r="C53" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="318"/>
-      <c r="E53" s="318"/>
-      <c r="F53" s="318"/>
-      <c r="G53" s="318"/>
-      <c r="H53" s="318"/>
+      <c r="D53" s="317"/>
+      <c r="E53" s="317"/>
+      <c r="F53" s="317"/>
+      <c r="G53" s="317"/>
+      <c r="H53" s="317"/>
       <c r="I53" s="60"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -44189,19 +44281,19 @@
       <c r="C54" s="217" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="313">
+      <c r="D54" s="312">
         <v>200000</v>
       </c>
-      <c r="E54" s="313">
+      <c r="E54" s="312">
         <v>250000</v>
       </c>
-      <c r="F54" s="313">
+      <c r="F54" s="312">
         <v>250000</v>
       </c>
-      <c r="G54" s="313">
+      <c r="G54" s="312">
         <v>300000</v>
       </c>
-      <c r="H54" s="313">
+      <c r="H54" s="312">
         <v>200000</v>
       </c>
       <c r="I54" s="60"/>
@@ -44211,19 +44303,19 @@
       <c r="C55" s="217" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="313">
+      <c r="D55" s="312">
         <v>100000</v>
       </c>
-      <c r="E55" s="313">
+      <c r="E55" s="312">
         <v>150000</v>
       </c>
-      <c r="F55" s="313">
+      <c r="F55" s="312">
         <v>150000</v>
       </c>
-      <c r="G55" s="313">
+      <c r="G55" s="312">
         <v>110000</v>
       </c>
-      <c r="H55" s="313">
+      <c r="H55" s="312">
         <v>110000</v>
       </c>
       <c r="I55" s="60"/>
@@ -44233,11 +44325,11 @@
       <c r="C56" s="217" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="313"/>
-      <c r="E56" s="313"/>
-      <c r="F56" s="313"/>
-      <c r="G56" s="313"/>
-      <c r="H56" s="313"/>
+      <c r="D56" s="312"/>
+      <c r="E56" s="312"/>
+      <c r="F56" s="312"/>
+      <c r="G56" s="312"/>
+      <c r="H56" s="312"/>
       <c r="I56" s="60"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -44245,11 +44337,11 @@
       <c r="C57" s="217" t="s">
         <v>167</v>
       </c>
-      <c r="D57" s="313"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
-      <c r="G57" s="313"/>
-      <c r="H57" s="313"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="312"/>
+      <c r="F57" s="312"/>
+      <c r="G57" s="312"/>
+      <c r="H57" s="312"/>
       <c r="I57" s="60"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -44257,11 +44349,11 @@
       <c r="C58" s="217" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="313"/>
-      <c r="E58" s="313"/>
-      <c r="F58" s="313"/>
-      <c r="G58" s="313"/>
-      <c r="H58" s="313"/>
+      <c r="D58" s="312"/>
+      <c r="E58" s="312"/>
+      <c r="F58" s="312"/>
+      <c r="G58" s="312"/>
+      <c r="H58" s="312"/>
       <c r="I58" s="60"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -44269,23 +44361,23 @@
       <c r="C59" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="314">
+      <c r="D59" s="313">
         <f>IFERROR(SUM(D54:D58),"")</f>
         <v>300000</v>
       </c>
-      <c r="E59" s="314">
+      <c r="E59" s="313">
         <f t="shared" ref="E59:H59" si="7">IFERROR(SUM(E54:E58),"")</f>
         <v>400000</v>
       </c>
-      <c r="F59" s="314">
+      <c r="F59" s="313">
         <f t="shared" si="7"/>
         <v>400000</v>
       </c>
-      <c r="G59" s="314">
+      <c r="G59" s="313">
         <f t="shared" si="7"/>
         <v>410000</v>
       </c>
-      <c r="H59" s="314">
+      <c r="H59" s="313">
         <f t="shared" si="7"/>
         <v>310000</v>
       </c>
@@ -44294,11 +44386,11 @@
     <row r="60" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="122"/>
-      <c r="D60" s="315"/>
-      <c r="E60" s="315"/>
-      <c r="F60" s="315"/>
-      <c r="G60" s="315"/>
-      <c r="H60" s="315"/>
+      <c r="D60" s="314"/>
+      <c r="E60" s="314"/>
+      <c r="F60" s="314"/>
+      <c r="G60" s="314"/>
+      <c r="H60" s="314"/>
       <c r="I60" s="60"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -44306,23 +44398,23 @@
       <c r="C61" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="317">
+      <c r="D61" s="316">
         <f>IFERROR(D51-D59,"")</f>
         <v>700000</v>
       </c>
-      <c r="E61" s="317">
+      <c r="E61" s="316">
         <f t="shared" ref="E61:H61" si="8">IFERROR(E51-E59,"")</f>
         <v>600000</v>
       </c>
-      <c r="F61" s="317">
+      <c r="F61" s="316">
         <f t="shared" si="8"/>
         <v>1100000</v>
       </c>
-      <c r="G61" s="317">
+      <c r="G61" s="316">
         <f t="shared" si="8"/>
         <v>1090000</v>
       </c>
-      <c r="H61" s="317">
+      <c r="H61" s="316">
         <f t="shared" si="8"/>
         <v>1440000</v>
       </c>
@@ -44331,11 +44423,11 @@
     <row r="62" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59"/>
       <c r="C62" s="122"/>
-      <c r="D62" s="315"/>
-      <c r="E62" s="315"/>
-      <c r="F62" s="315"/>
-      <c r="G62" s="315"/>
-      <c r="H62" s="315"/>
+      <c r="D62" s="314"/>
+      <c r="E62" s="314"/>
+      <c r="F62" s="314"/>
+      <c r="G62" s="314"/>
+      <c r="H62" s="314"/>
       <c r="I62" s="60"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -44343,23 +44435,23 @@
       <c r="C63" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="321">
+      <c r="D63" s="320">
         <f>IFERROR(SUM(D23,D43,D61),"")</f>
         <v>3618600</v>
       </c>
-      <c r="E63" s="321">
+      <c r="E63" s="320">
         <f t="shared" ref="E63:H63" si="9">IFERROR(SUM(E23,E43,E61),"")</f>
         <v>4154600</v>
       </c>
-      <c r="F63" s="321">
+      <c r="F63" s="320">
         <f t="shared" si="9"/>
         <v>6223100</v>
       </c>
-      <c r="G63" s="321">
+      <c r="G63" s="320">
         <f t="shared" si="9"/>
         <v>9758100</v>
       </c>
-      <c r="H63" s="321">
+      <c r="H63" s="320">
         <f t="shared" si="9"/>
         <v>11653100</v>
       </c>
@@ -44368,15 +44460,15 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
       <c r="C64" s="217" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" s="313">
+        <v>265</v>
+      </c>
+      <c r="D64" s="312">
         <v>1000000</v>
       </c>
-      <c r="E64" s="313"/>
-      <c r="F64" s="313"/>
-      <c r="G64" s="313"/>
-      <c r="H64" s="313"/>
+      <c r="E64" s="312"/>
+      <c r="F64" s="312"/>
+      <c r="G64" s="312"/>
+      <c r="H64" s="312"/>
       <c r="I64" s="60"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -44384,23 +44476,23 @@
       <c r="C65" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="322">
+      <c r="D65" s="321">
         <f>IFERROR(SUM(D63,D64),"")</f>
         <v>4618600</v>
       </c>
-      <c r="E65" s="322">
+      <c r="E65" s="321">
         <f>IFERROR(SUM(E63,E64),"")</f>
         <v>4154600</v>
       </c>
-      <c r="F65" s="322">
+      <c r="F65" s="321">
         <f>IFERROR(SUM(F63,F64),"")</f>
         <v>6223100</v>
       </c>
-      <c r="G65" s="322">
+      <c r="G65" s="321">
         <f>IFERROR(SUM(G63,G64),"")</f>
         <v>9758100</v>
       </c>
-      <c r="H65" s="322">
+      <c r="H65" s="321">
         <f>IFERROR(SUM(H63,H64),"")</f>
         <v>11653100</v>
       </c>
@@ -44476,8 +44568,8 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:26" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="26"/>
@@ -44499,8 +44591,8 @@
       <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>289</v>
+      <c r="B3" s="331" t="s">
+        <v>257</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="6"/>
@@ -45733,344 +45825,344 @@
     </row>
     <row r="59" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
-      <c r="C59" s="343" t="s">
+      <c r="C59" s="342" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="349"/>
-      <c r="E59" s="349"/>
-      <c r="F59" s="349"/>
-      <c r="G59" s="349"/>
-      <c r="H59" s="349"/>
-      <c r="I59" s="349"/>
-      <c r="J59" s="349"/>
-      <c r="K59" s="349"/>
-      <c r="L59" s="349"/>
-      <c r="M59" s="349"/>
-      <c r="N59" s="349"/>
-      <c r="O59" s="349"/>
-      <c r="P59" s="349"/>
-      <c r="Q59" s="349"/>
-      <c r="R59" s="349"/>
-      <c r="S59" s="344"/>
+      <c r="D59" s="348"/>
+      <c r="E59" s="348"/>
+      <c r="F59" s="348"/>
+      <c r="G59" s="348"/>
+      <c r="H59" s="348"/>
+      <c r="I59" s="348"/>
+      <c r="J59" s="348"/>
+      <c r="K59" s="348"/>
+      <c r="L59" s="348"/>
+      <c r="M59" s="348"/>
+      <c r="N59" s="348"/>
+      <c r="O59" s="348"/>
+      <c r="P59" s="348"/>
+      <c r="Q59" s="348"/>
+      <c r="R59" s="348"/>
+      <c r="S59" s="343"/>
       <c r="T59" s="60"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
-      <c r="C60" s="382" t="s">
-        <v>238</v>
-      </c>
-      <c r="D60" s="383"/>
-      <c r="E60" s="383"/>
-      <c r="F60" s="383"/>
-      <c r="G60" s="383"/>
-      <c r="H60" s="383"/>
-      <c r="I60" s="383"/>
-      <c r="J60" s="383"/>
-      <c r="K60" s="383"/>
-      <c r="L60" s="383"/>
-      <c r="M60" s="383"/>
-      <c r="N60" s="383"/>
-      <c r="O60" s="383"/>
-      <c r="P60" s="383"/>
-      <c r="Q60" s="383"/>
-      <c r="R60" s="383"/>
-      <c r="S60" s="384"/>
+      <c r="C60" s="381" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="382"/>
+      <c r="E60" s="382"/>
+      <c r="F60" s="382"/>
+      <c r="G60" s="382"/>
+      <c r="H60" s="382"/>
+      <c r="I60" s="382"/>
+      <c r="J60" s="382"/>
+      <c r="K60" s="382"/>
+      <c r="L60" s="382"/>
+      <c r="M60" s="382"/>
+      <c r="N60" s="382"/>
+      <c r="O60" s="382"/>
+      <c r="P60" s="382"/>
+      <c r="Q60" s="382"/>
+      <c r="R60" s="382"/>
+      <c r="S60" s="383"/>
       <c r="T60" s="60"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
-      <c r="C61" s="379" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61" s="380"/>
-      <c r="E61" s="380"/>
-      <c r="F61" s="380"/>
-      <c r="G61" s="380"/>
-      <c r="H61" s="380"/>
-      <c r="I61" s="380"/>
-      <c r="J61" s="380"/>
-      <c r="K61" s="380"/>
-      <c r="L61" s="380"/>
-      <c r="M61" s="380"/>
-      <c r="N61" s="380"/>
-      <c r="O61" s="380"/>
-      <c r="P61" s="380"/>
-      <c r="Q61" s="380"/>
-      <c r="R61" s="380"/>
-      <c r="S61" s="381"/>
+      <c r="C61" s="378" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="379"/>
+      <c r="E61" s="379"/>
+      <c r="F61" s="379"/>
+      <c r="G61" s="379"/>
+      <c r="H61" s="379"/>
+      <c r="I61" s="379"/>
+      <c r="J61" s="379"/>
+      <c r="K61" s="379"/>
+      <c r="L61" s="379"/>
+      <c r="M61" s="379"/>
+      <c r="N61" s="379"/>
+      <c r="O61" s="379"/>
+      <c r="P61" s="379"/>
+      <c r="Q61" s="379"/>
+      <c r="R61" s="379"/>
+      <c r="S61" s="380"/>
       <c r="T61" s="60"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59"/>
-      <c r="C62" s="379"/>
-      <c r="D62" s="380"/>
-      <c r="E62" s="380"/>
-      <c r="F62" s="380"/>
-      <c r="G62" s="380"/>
-      <c r="H62" s="380"/>
-      <c r="I62" s="380"/>
-      <c r="J62" s="380"/>
-      <c r="K62" s="380"/>
-      <c r="L62" s="380"/>
-      <c r="M62" s="380"/>
-      <c r="N62" s="380"/>
-      <c r="O62" s="380"/>
-      <c r="P62" s="380"/>
-      <c r="Q62" s="380"/>
-      <c r="R62" s="380"/>
-      <c r="S62" s="381"/>
+      <c r="C62" s="378"/>
+      <c r="D62" s="379"/>
+      <c r="E62" s="379"/>
+      <c r="F62" s="379"/>
+      <c r="G62" s="379"/>
+      <c r="H62" s="379"/>
+      <c r="I62" s="379"/>
+      <c r="J62" s="379"/>
+      <c r="K62" s="379"/>
+      <c r="L62" s="379"/>
+      <c r="M62" s="379"/>
+      <c r="N62" s="379"/>
+      <c r="O62" s="379"/>
+      <c r="P62" s="379"/>
+      <c r="Q62" s="379"/>
+      <c r="R62" s="379"/>
+      <c r="S62" s="380"/>
       <c r="T62" s="60"/>
     </row>
     <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
-      <c r="C63" s="379"/>
-      <c r="D63" s="380"/>
-      <c r="E63" s="380"/>
-      <c r="F63" s="380"/>
-      <c r="G63" s="380"/>
-      <c r="H63" s="380"/>
-      <c r="I63" s="380"/>
-      <c r="J63" s="380"/>
-      <c r="K63" s="380"/>
-      <c r="L63" s="380"/>
-      <c r="M63" s="380"/>
-      <c r="N63" s="380"/>
-      <c r="O63" s="380"/>
-      <c r="P63" s="380"/>
-      <c r="Q63" s="380"/>
-      <c r="R63" s="380"/>
-      <c r="S63" s="381"/>
+      <c r="C63" s="378"/>
+      <c r="D63" s="379"/>
+      <c r="E63" s="379"/>
+      <c r="F63" s="379"/>
+      <c r="G63" s="379"/>
+      <c r="H63" s="379"/>
+      <c r="I63" s="379"/>
+      <c r="J63" s="379"/>
+      <c r="K63" s="379"/>
+      <c r="L63" s="379"/>
+      <c r="M63" s="379"/>
+      <c r="N63" s="379"/>
+      <c r="O63" s="379"/>
+      <c r="P63" s="379"/>
+      <c r="Q63" s="379"/>
+      <c r="R63" s="379"/>
+      <c r="S63" s="380"/>
       <c r="T63" s="60"/>
     </row>
     <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
-      <c r="C64" s="379"/>
-      <c r="D64" s="380"/>
-      <c r="E64" s="380"/>
-      <c r="F64" s="380"/>
-      <c r="G64" s="380"/>
-      <c r="H64" s="380"/>
-      <c r="I64" s="380"/>
-      <c r="J64" s="380"/>
-      <c r="K64" s="380"/>
-      <c r="L64" s="380"/>
-      <c r="M64" s="380"/>
-      <c r="N64" s="380"/>
-      <c r="O64" s="380"/>
-      <c r="P64" s="380"/>
-      <c r="Q64" s="380"/>
-      <c r="R64" s="380"/>
-      <c r="S64" s="381"/>
+      <c r="C64" s="378"/>
+      <c r="D64" s="379"/>
+      <c r="E64" s="379"/>
+      <c r="F64" s="379"/>
+      <c r="G64" s="379"/>
+      <c r="H64" s="379"/>
+      <c r="I64" s="379"/>
+      <c r="J64" s="379"/>
+      <c r="K64" s="379"/>
+      <c r="L64" s="379"/>
+      <c r="M64" s="379"/>
+      <c r="N64" s="379"/>
+      <c r="O64" s="379"/>
+      <c r="P64" s="379"/>
+      <c r="Q64" s="379"/>
+      <c r="R64" s="379"/>
+      <c r="S64" s="380"/>
       <c r="T64" s="60"/>
     </row>
     <row r="65" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
-      <c r="C65" s="379"/>
-      <c r="D65" s="380"/>
-      <c r="E65" s="380"/>
-      <c r="F65" s="380"/>
-      <c r="G65" s="380"/>
-      <c r="H65" s="380"/>
-      <c r="I65" s="380"/>
-      <c r="J65" s="380"/>
-      <c r="K65" s="380"/>
-      <c r="L65" s="380"/>
-      <c r="M65" s="380"/>
-      <c r="N65" s="380"/>
-      <c r="O65" s="380"/>
-      <c r="P65" s="380"/>
-      <c r="Q65" s="380"/>
-      <c r="R65" s="380"/>
-      <c r="S65" s="381"/>
+      <c r="C65" s="378"/>
+      <c r="D65" s="379"/>
+      <c r="E65" s="379"/>
+      <c r="F65" s="379"/>
+      <c r="G65" s="379"/>
+      <c r="H65" s="379"/>
+      <c r="I65" s="379"/>
+      <c r="J65" s="379"/>
+      <c r="K65" s="379"/>
+      <c r="L65" s="379"/>
+      <c r="M65" s="379"/>
+      <c r="N65" s="379"/>
+      <c r="O65" s="379"/>
+      <c r="P65" s="379"/>
+      <c r="Q65" s="379"/>
+      <c r="R65" s="379"/>
+      <c r="S65" s="380"/>
       <c r="T65" s="60"/>
     </row>
     <row r="66" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="59"/>
-      <c r="C66" s="379"/>
-      <c r="D66" s="380"/>
-      <c r="E66" s="380"/>
-      <c r="F66" s="380"/>
-      <c r="G66" s="380"/>
-      <c r="H66" s="380"/>
-      <c r="I66" s="380"/>
-      <c r="J66" s="380"/>
-      <c r="K66" s="380"/>
-      <c r="L66" s="380"/>
-      <c r="M66" s="380"/>
-      <c r="N66" s="380"/>
-      <c r="O66" s="380"/>
-      <c r="P66" s="380"/>
-      <c r="Q66" s="380"/>
-      <c r="R66" s="380"/>
-      <c r="S66" s="381"/>
+      <c r="C66" s="378"/>
+      <c r="D66" s="379"/>
+      <c r="E66" s="379"/>
+      <c r="F66" s="379"/>
+      <c r="G66" s="379"/>
+      <c r="H66" s="379"/>
+      <c r="I66" s="379"/>
+      <c r="J66" s="379"/>
+      <c r="K66" s="379"/>
+      <c r="L66" s="379"/>
+      <c r="M66" s="379"/>
+      <c r="N66" s="379"/>
+      <c r="O66" s="379"/>
+      <c r="P66" s="379"/>
+      <c r="Q66" s="379"/>
+      <c r="R66" s="379"/>
+      <c r="S66" s="380"/>
       <c r="T66" s="60"/>
     </row>
     <row r="67" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="59"/>
-      <c r="C67" s="379"/>
-      <c r="D67" s="380"/>
-      <c r="E67" s="380"/>
-      <c r="F67" s="380"/>
-      <c r="G67" s="380"/>
-      <c r="H67" s="380"/>
-      <c r="I67" s="380"/>
-      <c r="J67" s="380"/>
-      <c r="K67" s="380"/>
-      <c r="L67" s="380"/>
-      <c r="M67" s="380"/>
-      <c r="N67" s="380"/>
-      <c r="O67" s="380"/>
-      <c r="P67" s="380"/>
-      <c r="Q67" s="380"/>
-      <c r="R67" s="380"/>
-      <c r="S67" s="381"/>
+      <c r="C67" s="378"/>
+      <c r="D67" s="379"/>
+      <c r="E67" s="379"/>
+      <c r="F67" s="379"/>
+      <c r="G67" s="379"/>
+      <c r="H67" s="379"/>
+      <c r="I67" s="379"/>
+      <c r="J67" s="379"/>
+      <c r="K67" s="379"/>
+      <c r="L67" s="379"/>
+      <c r="M67" s="379"/>
+      <c r="N67" s="379"/>
+      <c r="O67" s="379"/>
+      <c r="P67" s="379"/>
+      <c r="Q67" s="379"/>
+      <c r="R67" s="379"/>
+      <c r="S67" s="380"/>
       <c r="T67" s="60"/>
     </row>
     <row r="68" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="59"/>
-      <c r="C68" s="379"/>
-      <c r="D68" s="380"/>
-      <c r="E68" s="380"/>
-      <c r="F68" s="380"/>
-      <c r="G68" s="380"/>
-      <c r="H68" s="380"/>
-      <c r="I68" s="380"/>
-      <c r="J68" s="380"/>
-      <c r="K68" s="380"/>
-      <c r="L68" s="380"/>
-      <c r="M68" s="380"/>
-      <c r="N68" s="380"/>
-      <c r="O68" s="380"/>
-      <c r="P68" s="380"/>
-      <c r="Q68" s="380"/>
-      <c r="R68" s="380"/>
-      <c r="S68" s="381"/>
+      <c r="C68" s="378"/>
+      <c r="D68" s="379"/>
+      <c r="E68" s="379"/>
+      <c r="F68" s="379"/>
+      <c r="G68" s="379"/>
+      <c r="H68" s="379"/>
+      <c r="I68" s="379"/>
+      <c r="J68" s="379"/>
+      <c r="K68" s="379"/>
+      <c r="L68" s="379"/>
+      <c r="M68" s="379"/>
+      <c r="N68" s="379"/>
+      <c r="O68" s="379"/>
+      <c r="P68" s="379"/>
+      <c r="Q68" s="379"/>
+      <c r="R68" s="379"/>
+      <c r="S68" s="380"/>
       <c r="T68" s="60"/>
     </row>
     <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="59"/>
-      <c r="C69" s="379"/>
-      <c r="D69" s="380"/>
-      <c r="E69" s="380"/>
-      <c r="F69" s="380"/>
-      <c r="G69" s="380"/>
-      <c r="H69" s="380"/>
-      <c r="I69" s="380"/>
-      <c r="J69" s="380"/>
-      <c r="K69" s="380"/>
-      <c r="L69" s="380"/>
-      <c r="M69" s="380"/>
-      <c r="N69" s="380"/>
-      <c r="O69" s="380"/>
-      <c r="P69" s="380"/>
-      <c r="Q69" s="380"/>
-      <c r="R69" s="380"/>
-      <c r="S69" s="381"/>
+      <c r="C69" s="378"/>
+      <c r="D69" s="379"/>
+      <c r="E69" s="379"/>
+      <c r="F69" s="379"/>
+      <c r="G69" s="379"/>
+      <c r="H69" s="379"/>
+      <c r="I69" s="379"/>
+      <c r="J69" s="379"/>
+      <c r="K69" s="379"/>
+      <c r="L69" s="379"/>
+      <c r="M69" s="379"/>
+      <c r="N69" s="379"/>
+      <c r="O69" s="379"/>
+      <c r="P69" s="379"/>
+      <c r="Q69" s="379"/>
+      <c r="R69" s="379"/>
+      <c r="S69" s="380"/>
       <c r="T69" s="60"/>
     </row>
     <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="59"/>
-      <c r="C70" s="379"/>
-      <c r="D70" s="380"/>
-      <c r="E70" s="380"/>
-      <c r="F70" s="380"/>
-      <c r="G70" s="380"/>
-      <c r="H70" s="380"/>
-      <c r="I70" s="380"/>
-      <c r="J70" s="380"/>
-      <c r="K70" s="380"/>
-      <c r="L70" s="380"/>
-      <c r="M70" s="380"/>
-      <c r="N70" s="380"/>
-      <c r="O70" s="380"/>
-      <c r="P70" s="380"/>
-      <c r="Q70" s="380"/>
-      <c r="R70" s="380"/>
-      <c r="S70" s="381"/>
+      <c r="C70" s="378"/>
+      <c r="D70" s="379"/>
+      <c r="E70" s="379"/>
+      <c r="F70" s="379"/>
+      <c r="G70" s="379"/>
+      <c r="H70" s="379"/>
+      <c r="I70" s="379"/>
+      <c r="J70" s="379"/>
+      <c r="K70" s="379"/>
+      <c r="L70" s="379"/>
+      <c r="M70" s="379"/>
+      <c r="N70" s="379"/>
+      <c r="O70" s="379"/>
+      <c r="P70" s="379"/>
+      <c r="Q70" s="379"/>
+      <c r="R70" s="379"/>
+      <c r="S70" s="380"/>
       <c r="T70" s="60"/>
     </row>
     <row r="71" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="59"/>
-      <c r="C71" s="379"/>
-      <c r="D71" s="380"/>
-      <c r="E71" s="380"/>
-      <c r="F71" s="380"/>
-      <c r="G71" s="380"/>
-      <c r="H71" s="380"/>
-      <c r="I71" s="380"/>
-      <c r="J71" s="380"/>
-      <c r="K71" s="380"/>
-      <c r="L71" s="380"/>
-      <c r="M71" s="380"/>
-      <c r="N71" s="380"/>
-      <c r="O71" s="380"/>
-      <c r="P71" s="380"/>
-      <c r="Q71" s="380"/>
-      <c r="R71" s="380"/>
-      <c r="S71" s="381"/>
+      <c r="C71" s="378"/>
+      <c r="D71" s="379"/>
+      <c r="E71" s="379"/>
+      <c r="F71" s="379"/>
+      <c r="G71" s="379"/>
+      <c r="H71" s="379"/>
+      <c r="I71" s="379"/>
+      <c r="J71" s="379"/>
+      <c r="K71" s="379"/>
+      <c r="L71" s="379"/>
+      <c r="M71" s="379"/>
+      <c r="N71" s="379"/>
+      <c r="O71" s="379"/>
+      <c r="P71" s="379"/>
+      <c r="Q71" s="379"/>
+      <c r="R71" s="379"/>
+      <c r="S71" s="380"/>
       <c r="T71" s="60"/>
     </row>
     <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="59"/>
-      <c r="C72" s="379"/>
-      <c r="D72" s="380"/>
-      <c r="E72" s="380"/>
-      <c r="F72" s="380"/>
-      <c r="G72" s="380"/>
-      <c r="H72" s="380"/>
-      <c r="I72" s="380"/>
-      <c r="J72" s="380"/>
-      <c r="K72" s="380"/>
-      <c r="L72" s="380"/>
-      <c r="M72" s="380"/>
-      <c r="N72" s="380"/>
-      <c r="O72" s="380"/>
-      <c r="P72" s="380"/>
-      <c r="Q72" s="380"/>
-      <c r="R72" s="380"/>
-      <c r="S72" s="381"/>
+      <c r="C72" s="378"/>
+      <c r="D72" s="379"/>
+      <c r="E72" s="379"/>
+      <c r="F72" s="379"/>
+      <c r="G72" s="379"/>
+      <c r="H72" s="379"/>
+      <c r="I72" s="379"/>
+      <c r="J72" s="379"/>
+      <c r="K72" s="379"/>
+      <c r="L72" s="379"/>
+      <c r="M72" s="379"/>
+      <c r="N72" s="379"/>
+      <c r="O72" s="379"/>
+      <c r="P72" s="379"/>
+      <c r="Q72" s="379"/>
+      <c r="R72" s="379"/>
+      <c r="S72" s="380"/>
       <c r="T72" s="60"/>
     </row>
     <row r="73" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="59"/>
-      <c r="C73" s="379"/>
-      <c r="D73" s="380"/>
-      <c r="E73" s="380"/>
-      <c r="F73" s="380"/>
-      <c r="G73" s="380"/>
-      <c r="H73" s="380"/>
-      <c r="I73" s="380"/>
-      <c r="J73" s="380"/>
-      <c r="K73" s="380"/>
-      <c r="L73" s="380"/>
-      <c r="M73" s="380"/>
-      <c r="N73" s="380"/>
-      <c r="O73" s="380"/>
-      <c r="P73" s="380"/>
-      <c r="Q73" s="380"/>
-      <c r="R73" s="380"/>
-      <c r="S73" s="381"/>
+      <c r="C73" s="378"/>
+      <c r="D73" s="379"/>
+      <c r="E73" s="379"/>
+      <c r="F73" s="379"/>
+      <c r="G73" s="379"/>
+      <c r="H73" s="379"/>
+      <c r="I73" s="379"/>
+      <c r="J73" s="379"/>
+      <c r="K73" s="379"/>
+      <c r="L73" s="379"/>
+      <c r="M73" s="379"/>
+      <c r="N73" s="379"/>
+      <c r="O73" s="379"/>
+      <c r="P73" s="379"/>
+      <c r="Q73" s="379"/>
+      <c r="R73" s="379"/>
+      <c r="S73" s="380"/>
       <c r="T73" s="60"/>
     </row>
     <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
-      <c r="C74" s="376"/>
-      <c r="D74" s="377"/>
-      <c r="E74" s="377"/>
-      <c r="F74" s="377"/>
-      <c r="G74" s="377"/>
-      <c r="H74" s="377"/>
-      <c r="I74" s="377"/>
-      <c r="J74" s="377"/>
-      <c r="K74" s="377"/>
-      <c r="L74" s="377"/>
-      <c r="M74" s="377"/>
-      <c r="N74" s="377"/>
-      <c r="O74" s="377"/>
-      <c r="P74" s="377"/>
-      <c r="Q74" s="377"/>
-      <c r="R74" s="377"/>
-      <c r="S74" s="378"/>
+      <c r="C74" s="375"/>
+      <c r="D74" s="376"/>
+      <c r="E74" s="376"/>
+      <c r="F74" s="376"/>
+      <c r="G74" s="376"/>
+      <c r="H74" s="376"/>
+      <c r="I74" s="376"/>
+      <c r="J74" s="376"/>
+      <c r="K74" s="376"/>
+      <c r="L74" s="376"/>
+      <c r="M74" s="376"/>
+      <c r="N74" s="376"/>
+      <c r="O74" s="376"/>
+      <c r="P74" s="376"/>
+      <c r="Q74" s="376"/>
+      <c r="R74" s="376"/>
+      <c r="S74" s="377"/>
       <c r="T74" s="60"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
@@ -46146,8 +46238,8 @@
   <sheetData>
     <row r="1" spans="2:64" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:64" s="231" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="333" t="s">
-        <v>268</v>
+      <c r="B2" s="332" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="228"/>
       <c r="D2" s="229"/>
@@ -46200,8 +46292,8 @@
       <c r="AY2" s="227"/>
     </row>
     <row r="3" spans="2:64" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>290</v>
+      <c r="B3" s="331" t="s">
+        <v>258</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="7"/>
@@ -46256,51 +46348,51 @@
     <row r="4" spans="2:64" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:64" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA6" s="385" t="s">
+      <c r="BA6" s="384" t="s">
         <v>187</v>
       </c>
-      <c r="BB6" s="386"/>
-      <c r="BC6" s="386"/>
-      <c r="BD6" s="386"/>
-      <c r="BE6" s="386"/>
-      <c r="BF6" s="386"/>
-      <c r="BG6" s="386"/>
-      <c r="BH6" s="386"/>
-      <c r="BI6" s="386"/>
-      <c r="BJ6" s="386"/>
-      <c r="BK6" s="386"/>
-      <c r="BL6" s="387"/>
+      <c r="BB6" s="385"/>
+      <c r="BC6" s="385"/>
+      <c r="BD6" s="385"/>
+      <c r="BE6" s="385"/>
+      <c r="BF6" s="385"/>
+      <c r="BG6" s="385"/>
+      <c r="BH6" s="385"/>
+      <c r="BI6" s="385"/>
+      <c r="BJ6" s="385"/>
+      <c r="BK6" s="385"/>
+      <c r="BL6" s="386"/>
     </row>
     <row r="7" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA7" s="388"/>
-      <c r="BB7" s="389"/>
-      <c r="BC7" s="389"/>
-      <c r="BD7" s="389"/>
-      <c r="BE7" s="389"/>
-      <c r="BF7" s="389"/>
-      <c r="BG7" s="389"/>
-      <c r="BH7" s="389"/>
-      <c r="BI7" s="389"/>
-      <c r="BJ7" s="389"/>
-      <c r="BK7" s="389"/>
-      <c r="BL7" s="390"/>
+      <c r="BA7" s="387"/>
+      <c r="BB7" s="388"/>
+      <c r="BC7" s="388"/>
+      <c r="BD7" s="388"/>
+      <c r="BE7" s="388"/>
+      <c r="BF7" s="388"/>
+      <c r="BG7" s="388"/>
+      <c r="BH7" s="388"/>
+      <c r="BI7" s="388"/>
+      <c r="BJ7" s="388"/>
+      <c r="BK7" s="388"/>
+      <c r="BL7" s="389"/>
     </row>
     <row r="8" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA8" s="237"/>
-      <c r="BB8" s="238"/>
-      <c r="BC8" s="238"/>
-      <c r="BD8" s="238"/>
-      <c r="BE8" s="238"/>
-      <c r="BF8" s="238"/>
-      <c r="BG8" s="238"/>
-      <c r="BH8" s="238"/>
-      <c r="BI8" s="238"/>
-      <c r="BJ8" s="238"/>
-      <c r="BK8" s="238"/>
-      <c r="BL8" s="239"/>
+      <c r="BA8" s="236"/>
+      <c r="BB8" s="237"/>
+      <c r="BC8" s="237"/>
+      <c r="BD8" s="237"/>
+      <c r="BE8" s="237"/>
+      <c r="BF8" s="237"/>
+      <c r="BG8" s="237"/>
+      <c r="BH8" s="237"/>
+      <c r="BI8" s="237"/>
+      <c r="BJ8" s="237"/>
+      <c r="BK8" s="237"/>
+      <c r="BL8" s="238"/>
     </row>
     <row r="9" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA9" s="240"/>
+      <c r="BA9" s="239"/>
       <c r="BB9" s="117"/>
       <c r="BC9" s="117"/>
       <c r="BD9" s="117"/>
@@ -46311,10 +46403,10 @@
       <c r="BI9" s="117"/>
       <c r="BJ9" s="117"/>
       <c r="BK9" s="117"/>
-      <c r="BL9" s="241"/>
+      <c r="BL9" s="240"/>
     </row>
     <row r="10" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA10" s="240"/>
+      <c r="BA10" s="239"/>
       <c r="BB10" s="117"/>
       <c r="BC10" s="117"/>
       <c r="BD10" s="117"/>
@@ -46325,10 +46417,10 @@
       <c r="BI10" s="117"/>
       <c r="BJ10" s="117"/>
       <c r="BK10" s="117"/>
-      <c r="BL10" s="241"/>
+      <c r="BL10" s="240"/>
     </row>
     <row r="11" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA11" s="240"/>
+      <c r="BA11" s="239"/>
       <c r="BB11" s="117"/>
       <c r="BC11" s="117"/>
       <c r="BD11" s="117"/>
@@ -46339,10 +46431,10 @@
       <c r="BI11" s="117"/>
       <c r="BJ11" s="117"/>
       <c r="BK11" s="117"/>
-      <c r="BL11" s="241"/>
+      <c r="BL11" s="240"/>
     </row>
     <row r="12" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA12" s="240"/>
+      <c r="BA12" s="239"/>
       <c r="BB12" s="117"/>
       <c r="BC12" s="117"/>
       <c r="BD12" s="117"/>
@@ -46353,10 +46445,10 @@
       <c r="BI12" s="117"/>
       <c r="BJ12" s="117"/>
       <c r="BK12" s="117"/>
-      <c r="BL12" s="241"/>
+      <c r="BL12" s="240"/>
     </row>
     <row r="13" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA13" s="240"/>
+      <c r="BA13" s="239"/>
       <c r="BB13" s="117"/>
       <c r="BC13" s="117"/>
       <c r="BD13" s="117"/>
@@ -46367,10 +46459,10 @@
       <c r="BI13" s="117"/>
       <c r="BJ13" s="117"/>
       <c r="BK13" s="117"/>
-      <c r="BL13" s="241"/>
+      <c r="BL13" s="240"/>
     </row>
     <row r="14" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA14" s="240"/>
+      <c r="BA14" s="239"/>
       <c r="BB14" s="117"/>
       <c r="BC14" s="117"/>
       <c r="BD14" s="117"/>
@@ -46381,10 +46473,10 @@
       <c r="BI14" s="117"/>
       <c r="BJ14" s="117"/>
       <c r="BK14" s="117"/>
-      <c r="BL14" s="241"/>
+      <c r="BL14" s="240"/>
     </row>
     <row r="15" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA15" s="240"/>
+      <c r="BA15" s="239"/>
       <c r="BB15" s="117"/>
       <c r="BC15" s="117"/>
       <c r="BD15" s="117"/>
@@ -46395,10 +46487,10 @@
       <c r="BI15" s="117"/>
       <c r="BJ15" s="117"/>
       <c r="BK15" s="117"/>
-      <c r="BL15" s="241"/>
+      <c r="BL15" s="240"/>
     </row>
     <row r="16" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA16" s="240"/>
+      <c r="BA16" s="239"/>
       <c r="BB16" s="117"/>
       <c r="BC16" s="117"/>
       <c r="BD16" s="117"/>
@@ -46409,10 +46501,10 @@
       <c r="BI16" s="117"/>
       <c r="BJ16" s="117"/>
       <c r="BK16" s="117"/>
-      <c r="BL16" s="241"/>
+      <c r="BL16" s="240"/>
     </row>
     <row r="17" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA17" s="240"/>
+      <c r="BA17" s="239"/>
       <c r="BB17" s="117"/>
       <c r="BC17" s="117"/>
       <c r="BD17" s="117"/>
@@ -46423,10 +46515,10 @@
       <c r="BI17" s="117"/>
       <c r="BJ17" s="117"/>
       <c r="BK17" s="117"/>
-      <c r="BL17" s="241"/>
+      <c r="BL17" s="240"/>
     </row>
     <row r="18" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA18" s="240"/>
+      <c r="BA18" s="239"/>
       <c r="BB18" s="117"/>
       <c r="BC18" s="117"/>
       <c r="BD18" s="117"/>
@@ -46437,10 +46529,10 @@
       <c r="BI18" s="117"/>
       <c r="BJ18" s="117"/>
       <c r="BK18" s="117"/>
-      <c r="BL18" s="241"/>
+      <c r="BL18" s="240"/>
     </row>
     <row r="19" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA19" s="240"/>
+      <c r="BA19" s="239"/>
       <c r="BB19" s="117"/>
       <c r="BC19" s="117"/>
       <c r="BD19" s="117"/>
@@ -46451,21 +46543,21 @@
       <c r="BI19" s="117"/>
       <c r="BJ19" s="117"/>
       <c r="BK19" s="117"/>
-      <c r="BL19" s="241"/>
+      <c r="BL19" s="240"/>
     </row>
     <row r="20" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA20" s="242"/>
-      <c r="BB20" s="243"/>
-      <c r="BC20" s="243"/>
-      <c r="BD20" s="243"/>
-      <c r="BE20" s="243"/>
-      <c r="BF20" s="243"/>
-      <c r="BG20" s="243"/>
-      <c r="BH20" s="243"/>
-      <c r="BI20" s="243"/>
-      <c r="BJ20" s="243"/>
-      <c r="BK20" s="243"/>
-      <c r="BL20" s="244"/>
+      <c r="BA20" s="241"/>
+      <c r="BB20" s="242"/>
+      <c r="BC20" s="242"/>
+      <c r="BD20" s="242"/>
+      <c r="BE20" s="242"/>
+      <c r="BF20" s="242"/>
+      <c r="BG20" s="242"/>
+      <c r="BH20" s="242"/>
+      <c r="BI20" s="242"/>
+      <c r="BJ20" s="242"/>
+      <c r="BK20" s="242"/>
+      <c r="BL20" s="243"/>
     </row>
     <row r="21" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46523,7 +46615,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46540,16 +46632,16 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>291</v>
+      <c r="B3" s="331" t="s">
+        <v>259</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -46563,311 +46655,311 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="291" t="s">
+      <c r="D5" s="290" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="323" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="323" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="324">
+      <c r="B6" s="322" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="322" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="323">
         <v>44593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="325" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="325" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="326">
+      <c r="B7" s="324" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="324" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="325">
         <v>44597</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="325" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="325"/>
-      <c r="D8" s="326">
+      <c r="B8" s="324" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="324"/>
+      <c r="D8" s="325">
         <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="325" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="325"/>
-      <c r="D9" s="326">
+      <c r="B9" s="324" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="324"/>
+      <c r="D9" s="325">
         <v>44652</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="325" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="325" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="326">
+      <c r="B10" s="324" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="324" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="325">
         <v>44926</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="325" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="325" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="326">
+      <c r="B11" s="324" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="324" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="325">
         <v>44926</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="325" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="325"/>
-      <c r="D12" s="326">
+      <c r="B12" s="324" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="324"/>
+      <c r="D12" s="325">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="325" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="325"/>
-      <c r="D13" s="326">
+      <c r="B13" s="324" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="324"/>
+      <c r="D13" s="325">
         <v>45291</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="325" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="325" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="326">
+      <c r="B14" s="324" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="324" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="325">
         <v>46387</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="325"/>
-      <c r="C15" s="325"/>
-      <c r="D15" s="326"/>
+      <c r="B15" s="324"/>
+      <c r="C15" s="324"/>
+      <c r="D15" s="325"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="325"/>
-      <c r="C16" s="325"/>
-      <c r="D16" s="326"/>
+      <c r="B16" s="324"/>
+      <c r="C16" s="324"/>
+      <c r="D16" s="325"/>
     </row>
     <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="325"/>
-      <c r="C17" s="325"/>
-      <c r="D17" s="326"/>
+      <c r="B17" s="324"/>
+      <c r="C17" s="324"/>
+      <c r="D17" s="325"/>
     </row>
     <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="325"/>
-      <c r="C18" s="325"/>
-      <c r="D18" s="326"/>
+      <c r="B18" s="324"/>
+      <c r="C18" s="324"/>
+      <c r="D18" s="325"/>
     </row>
     <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="325"/>
-      <c r="C19" s="325"/>
-      <c r="D19" s="326"/>
+      <c r="B19" s="324"/>
+      <c r="C19" s="324"/>
+      <c r="D19" s="325"/>
     </row>
     <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="325"/>
-      <c r="C20" s="325"/>
-      <c r="D20" s="326"/>
+      <c r="B20" s="324"/>
+      <c r="C20" s="324"/>
+      <c r="D20" s="325"/>
     </row>
     <row r="21" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="325"/>
-      <c r="C21" s="325"/>
-      <c r="D21" s="326"/>
+      <c r="B21" s="324"/>
+      <c r="C21" s="324"/>
+      <c r="D21" s="325"/>
     </row>
     <row r="22" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="325"/>
-      <c r="C22" s="325"/>
-      <c r="D22" s="326"/>
+      <c r="B22" s="324"/>
+      <c r="C22" s="324"/>
+      <c r="D22" s="325"/>
     </row>
     <row r="23" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="325"/>
-      <c r="C23" s="325"/>
-      <c r="D23" s="326"/>
+      <c r="B23" s="324"/>
+      <c r="C23" s="324"/>
+      <c r="D23" s="325"/>
     </row>
     <row r="24" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="325"/>
-      <c r="C24" s="325"/>
-      <c r="D24" s="326"/>
+      <c r="B24" s="324"/>
+      <c r="C24" s="324"/>
+      <c r="D24" s="325"/>
     </row>
     <row r="25" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="325"/>
-      <c r="C25" s="325"/>
-      <c r="D25" s="326"/>
+      <c r="B25" s="324"/>
+      <c r="C25" s="324"/>
+      <c r="D25" s="325"/>
     </row>
     <row r="26" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="325"/>
-      <c r="C26" s="325"/>
-      <c r="D26" s="326"/>
+      <c r="B26" s="324"/>
+      <c r="C26" s="324"/>
+      <c r="D26" s="325"/>
     </row>
     <row r="27" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="325"/>
-      <c r="C27" s="325"/>
-      <c r="D27" s="326"/>
+      <c r="B27" s="324"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="325"/>
     </row>
     <row r="28" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="325"/>
-      <c r="C28" s="325"/>
-      <c r="D28" s="326"/>
+      <c r="B28" s="324"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="325"/>
     </row>
     <row r="29" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="325"/>
-      <c r="C29" s="325"/>
-      <c r="D29" s="326"/>
+      <c r="B29" s="324"/>
+      <c r="C29" s="324"/>
+      <c r="D29" s="325"/>
     </row>
     <row r="30" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="325"/>
-      <c r="C30" s="325"/>
-      <c r="D30" s="326"/>
+      <c r="B30" s="324"/>
+      <c r="C30" s="324"/>
+      <c r="D30" s="325"/>
     </row>
     <row r="31" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="325"/>
-      <c r="C31" s="325"/>
-      <c r="D31" s="326"/>
+      <c r="B31" s="324"/>
+      <c r="C31" s="324"/>
+      <c r="D31" s="325"/>
     </row>
     <row r="32" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="325"/>
-      <c r="C32" s="325"/>
-      <c r="D32" s="326"/>
+      <c r="B32" s="324"/>
+      <c r="C32" s="324"/>
+      <c r="D32" s="325"/>
     </row>
     <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="325"/>
-      <c r="C33" s="325"/>
-      <c r="D33" s="326"/>
+      <c r="B33" s="324"/>
+      <c r="C33" s="324"/>
+      <c r="D33" s="325"/>
     </row>
     <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="325"/>
-      <c r="C34" s="325"/>
-      <c r="D34" s="326"/>
+      <c r="B34" s="324"/>
+      <c r="C34" s="324"/>
+      <c r="D34" s="325"/>
     </row>
     <row r="35" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="325"/>
-      <c r="C35" s="325"/>
-      <c r="D35" s="326"/>
+      <c r="B35" s="324"/>
+      <c r="C35" s="324"/>
+      <c r="D35" s="325"/>
     </row>
     <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="325"/>
-      <c r="C36" s="325"/>
-      <c r="D36" s="326"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="324"/>
+      <c r="D36" s="325"/>
     </row>
     <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="325"/>
-      <c r="C37" s="325"/>
-      <c r="D37" s="326"/>
+      <c r="B37" s="324"/>
+      <c r="C37" s="324"/>
+      <c r="D37" s="325"/>
     </row>
     <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="325"/>
-      <c r="C38" s="325"/>
-      <c r="D38" s="326"/>
+      <c r="B38" s="324"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="325"/>
     </row>
     <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="325"/>
-      <c r="C39" s="325"/>
-      <c r="D39" s="326"/>
+      <c r="B39" s="324"/>
+      <c r="C39" s="324"/>
+      <c r="D39" s="325"/>
     </row>
     <row r="40" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="325"/>
-      <c r="C40" s="325"/>
-      <c r="D40" s="326"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="324"/>
+      <c r="D40" s="325"/>
     </row>
     <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="325"/>
-      <c r="C41" s="325"/>
-      <c r="D41" s="326"/>
+      <c r="B41" s="324"/>
+      <c r="C41" s="324"/>
+      <c r="D41" s="325"/>
     </row>
     <row r="42" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="325"/>
-      <c r="C42" s="325"/>
-      <c r="D42" s="326"/>
+      <c r="B42" s="324"/>
+      <c r="C42" s="324"/>
+      <c r="D42" s="325"/>
     </row>
     <row r="43" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="325"/>
-      <c r="C43" s="325"/>
-      <c r="D43" s="326"/>
+      <c r="B43" s="324"/>
+      <c r="C43" s="324"/>
+      <c r="D43" s="325"/>
     </row>
     <row r="44" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="325"/>
-      <c r="C44" s="325"/>
-      <c r="D44" s="326"/>
+      <c r="B44" s="324"/>
+      <c r="C44" s="324"/>
+      <c r="D44" s="325"/>
     </row>
     <row r="45" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="325"/>
-      <c r="C45" s="325"/>
-      <c r="D45" s="326"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="324"/>
+      <c r="D45" s="325"/>
     </row>
     <row r="46" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="325"/>
-      <c r="C46" s="325"/>
-      <c r="D46" s="326"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="324"/>
+      <c r="D46" s="325"/>
     </row>
     <row r="47" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="325"/>
-      <c r="C47" s="325"/>
-      <c r="D47" s="326"/>
+      <c r="B47" s="324"/>
+      <c r="C47" s="324"/>
+      <c r="D47" s="325"/>
     </row>
     <row r="48" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="325"/>
-      <c r="C48" s="325"/>
-      <c r="D48" s="326"/>
+      <c r="B48" s="324"/>
+      <c r="C48" s="324"/>
+      <c r="D48" s="325"/>
     </row>
     <row r="49" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="325"/>
-      <c r="C49" s="325"/>
-      <c r="D49" s="326"/>
+      <c r="B49" s="324"/>
+      <c r="C49" s="324"/>
+      <c r="D49" s="325"/>
     </row>
     <row r="50" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="325"/>
-      <c r="C50" s="325"/>
-      <c r="D50" s="326"/>
+      <c r="B50" s="324"/>
+      <c r="C50" s="324"/>
+      <c r="D50" s="325"/>
     </row>
     <row r="51" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="325"/>
-      <c r="C51" s="325"/>
-      <c r="D51" s="326"/>
+      <c r="B51" s="324"/>
+      <c r="C51" s="324"/>
+      <c r="D51" s="325"/>
     </row>
     <row r="52" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="325"/>
-      <c r="C52" s="325"/>
-      <c r="D52" s="326"/>
+      <c r="B52" s="324"/>
+      <c r="C52" s="324"/>
+      <c r="D52" s="325"/>
     </row>
     <row r="53" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="325"/>
-      <c r="C53" s="325"/>
-      <c r="D53" s="326"/>
+      <c r="B53" s="324"/>
+      <c r="C53" s="324"/>
+      <c r="D53" s="325"/>
     </row>
     <row r="54" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="325"/>
-      <c r="C54" s="325"/>
-      <c r="D54" s="326"/>
+      <c r="B54" s="324"/>
+      <c r="C54" s="324"/>
+      <c r="D54" s="325"/>
     </row>
     <row r="55" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="327"/>
-      <c r="C55" s="327"/>
-      <c r="D55" s="328"/>
+      <c r="B55" s="326"/>
+      <c r="C55" s="326"/>
+      <c r="D55" s="327"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BLBB/tNWE7V6vJy7wsZPCP7E5l/yfzPZJG25qvU2osFXbzA1yX7nP0ob19NhPqZNtgROGxiIIeUzFLpDAiOp9Q==" saltValue="Uzfj8dFR8RMA9x5mIRXT1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -46904,14 +46996,14 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>292</v>
+      <c r="B3" s="331" t="s">
+        <v>260</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -46963,8 +47055,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -46972,8 +47064,8 @@
       <c r="F2" s="220"/>
     </row>
     <row r="3" spans="1:6" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>271</v>
+      <c r="B3" s="331" t="s">
+        <v>239</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -47482,9 +47574,9 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="142" zoomScaleNormal="142" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47501,14 +47593,14 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="329" t="s">
-        <v>268</v>
+      <c r="B2" s="328" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="219"/>
     </row>
     <row r="3" spans="1:3" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="330" t="s">
-        <v>272</v>
+      <c r="B3" s="329" t="s">
+        <v>240</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -47523,59 +47615,59 @@
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="292" t="s">
+      <c r="B6" s="291" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="292" t="s">
+      <c r="B7" s="291" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="169" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="292" t="s">
+      <c r="B8" s="291" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="292" t="s">
+      <c r="B9" s="291" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="291" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="292" t="s">
+      <c r="B11" s="291" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="292" t="s">
+      <c r="B12" s="291" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="169" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -47598,7 +47690,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47615,14 +47707,14 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>273</v>
+      <c r="B3" s="331" t="s">
+        <v>241</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47637,75 +47729,75 @@
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="292" t="s">
+      <c r="B6" s="291" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="292" t="s">
+      <c r="B7" s="291" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="171" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="292" t="s">
+      <c r="B8" s="291" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="292" t="s">
+      <c r="B9" s="291" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="291" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="292" t="s">
+      <c r="B11" s="291" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="292" t="s">
-        <v>274</v>
+      <c r="B12" s="291" t="s">
+        <v>242</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="291" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="292" t="s">
+      <c r="B14" s="291" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -47728,7 +47820,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47744,14 +47836,14 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>275</v>
+      <c r="B3" s="331" t="s">
+        <v>243</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47766,23 +47858,23 @@
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="292" t="s">
+      <c r="B6" s="291" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="292" t="s">
+      <c r="B7" s="291" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="292" t="s">
+      <c r="B8" s="291" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="173">
@@ -47790,27 +47882,27 @@
       </c>
     </row>
     <row r="9" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="292" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="250" t="s">
-        <v>318</v>
+      <c r="B9" s="291" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="249" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="292" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="250" t="s">
-        <v>319</v>
+      <c r="B10" s="291" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="249" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="292" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="250" t="s">
-        <v>328</v>
+      <c r="B11" s="291" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="249" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -47818,86 +47910,86 @@
       <c r="C12" s="47"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="343" t="s">
+      <c r="B13" s="342" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="344"/>
+      <c r="C13" s="343"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="341" t="s">
-        <v>320</v>
-      </c>
-      <c r="C14" s="342"/>
+      <c r="B14" s="340" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="341"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="341" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="342"/>
+      <c r="B15" s="340" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="341"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="341" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="342"/>
+      <c r="B16" s="340" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="341"/>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="341" t="s">
-        <v>339</v>
-      </c>
-      <c r="C17" s="342"/>
+      <c r="B17" s="340" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="341"/>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="341"/>
-      <c r="C18" s="342"/>
+      <c r="B18" s="340"/>
+      <c r="C18" s="341"/>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="341" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" s="342"/>
+      <c r="B19" s="340" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="341"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="341" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" s="342"/>
+      <c r="B20" s="340" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="341"/>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="341" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" s="342"/>
+      <c r="B21" s="340" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="341"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="341" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" s="342"/>
+      <c r="B22" s="340" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="341"/>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="341"/>
-      <c r="C23" s="342"/>
+      <c r="B23" s="340"/>
+      <c r="C23" s="341"/>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="341"/>
-      <c r="C24" s="342"/>
+      <c r="B24" s="340"/>
+      <c r="C24" s="341"/>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="341"/>
-      <c r="C25" s="342"/>
+      <c r="B25" s="340"/>
+      <c r="C25" s="341"/>
     </row>
     <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="341"/>
-      <c r="C26" s="342"/>
+      <c r="B26" s="340"/>
+      <c r="C26" s="341"/>
     </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="341"/>
-      <c r="C27" s="342"/>
+      <c r="B27" s="340"/>
+      <c r="C27" s="341"/>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="339"/>
-      <c r="C28" s="340"/>
+      <c r="B28" s="338"/>
+      <c r="C28" s="339"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QWAILGKV4ZR+dz45sQNjWVz1jknfFAxJFIx1hCSeiPEL6oYSelXKO0nkHyIjY2Xc01Xzw6ZhttEVShqaxrPiPA==" saltValue="k7C7+m0hzWH8JcqwKh2YCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -47953,14 +48045,14 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>279</v>
+      <c r="B3" s="331" t="s">
+        <v>247</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -47975,174 +48067,174 @@
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="345" t="s">
+      <c r="B6" s="344" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="251" t="s">
-        <v>319</v>
+      <c r="C6" s="250" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="345"/>
-      <c r="C7" s="251" t="s">
-        <v>329</v>
+      <c r="B7" s="344"/>
+      <c r="C7" s="250" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="345"/>
-      <c r="C8" s="251" t="s">
-        <v>330</v>
+      <c r="B8" s="344"/>
+      <c r="C8" s="250" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="345"/>
-      <c r="C9" s="251" t="s">
-        <v>331</v>
+      <c r="B9" s="344"/>
+      <c r="C9" s="250" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="345"/>
-      <c r="C10" s="251"/>
+      <c r="B10" s="344"/>
+      <c r="C10" s="250"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="345"/>
-      <c r="C11" s="251"/>
+      <c r="B11" s="344"/>
+      <c r="C11" s="250"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="345"/>
-      <c r="C12" s="251"/>
+      <c r="B12" s="344"/>
+      <c r="C12" s="250"/>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
-      <c r="C13" s="252"/>
+      <c r="C13" s="251"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="346" t="s">
+      <c r="B14" s="345" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="253" t="s">
-        <v>334</v>
+      <c r="C14" s="252" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="346"/>
-      <c r="C15" s="253" t="s">
-        <v>332</v>
+      <c r="B15" s="345"/>
+      <c r="C15" s="252" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="346"/>
-      <c r="C16" s="253" t="s">
-        <v>333</v>
+      <c r="B16" s="345"/>
+      <c r="C16" s="252" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="346"/>
-      <c r="C17" s="253" t="s">
-        <v>335</v>
+      <c r="B17" s="345"/>
+      <c r="C17" s="252" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="346"/>
-      <c r="C18" s="253"/>
+      <c r="B18" s="345"/>
+      <c r="C18" s="252"/>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="346"/>
-      <c r="C19" s="253"/>
+      <c r="B19" s="345"/>
+      <c r="C19" s="252"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="346"/>
-      <c r="C20" s="253"/>
+      <c r="B20" s="345"/>
+      <c r="C20" s="252"/>
     </row>
     <row r="21" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="49"/>
-      <c r="C21" s="252"/>
+      <c r="C21" s="251"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="347" t="s">
+      <c r="B22" s="346" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="254" t="s">
-        <v>336</v>
+      <c r="C22" s="253" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="347"/>
-      <c r="C23" s="254" t="s">
-        <v>337</v>
+      <c r="B23" s="346"/>
+      <c r="C23" s="253" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="347"/>
-      <c r="C24" s="254" t="s">
-        <v>348</v>
+      <c r="B24" s="346"/>
+      <c r="C24" s="253" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="347"/>
-      <c r="C25" s="254" t="s">
-        <v>342</v>
+      <c r="B25" s="346"/>
+      <c r="C25" s="253" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="347"/>
-      <c r="C26" s="254" t="s">
-        <v>343</v>
+      <c r="B26" s="346"/>
+      <c r="C26" s="253" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="347"/>
-      <c r="C27" s="254" t="s">
-        <v>344</v>
+      <c r="B27" s="346"/>
+      <c r="C27" s="253" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="347"/>
-      <c r="C28" s="254" t="s">
-        <v>345</v>
+      <c r="B28" s="346"/>
+      <c r="C28" s="253" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="49"/>
-      <c r="C29" s="252"/>
+      <c r="C29" s="251"/>
     </row>
     <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="348" t="s">
+      <c r="B30" s="347" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="255" t="s">
-        <v>341</v>
+      <c r="C30" s="254" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="348"/>
-      <c r="C31" s="255" t="s">
-        <v>340</v>
+      <c r="B31" s="347"/>
+      <c r="C31" s="254" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="348"/>
-      <c r="C32" s="255" t="s">
-        <v>346</v>
+      <c r="B32" s="347"/>
+      <c r="C32" s="254" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="348"/>
-      <c r="C33" s="255" t="s">
-        <v>347</v>
+      <c r="B33" s="347"/>
+      <c r="C33" s="254" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="348"/>
-      <c r="C34" s="255"/>
+      <c r="B34" s="347"/>
+      <c r="C34" s="254"/>
     </row>
     <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="348"/>
-      <c r="C35" s="255"/>
+      <c r="B35" s="347"/>
+      <c r="C35" s="254"/>
     </row>
     <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="348"/>
-      <c r="C36" s="255"/>
+      <c r="B36" s="347"/>
+      <c r="C36" s="254"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QMK6Ki+K3Ou+zCBOXAwXfdJAPoMsXuaNVDg+NzI9KlH8lDvZfpUZvkR82W/vXLGbmK3lr92tek2xAyS9ivc0Ow==" saltValue="lIx7aLczycrWtQcvxcU6DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -48170,7 +48262,7 @@
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48187,8 +48279,8 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="329" t="s">
-        <v>268</v>
+      <c r="B2" s="328" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -48199,8 +48291,8 @@
       <c r="I2" s="219"/>
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="330" t="s">
-        <v>280</v>
+      <c r="B3" s="329" t="s">
+        <v>248</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -48239,24 +48331,24 @@
       <c r="C6" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="336" t="s">
+      <c r="D6" s="335" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="338" t="s">
-        <v>358</v>
-      </c>
-      <c r="F6" s="337" t="s">
-        <v>359</v>
-      </c>
-      <c r="G6" s="338" t="s">
-        <v>360</v>
-      </c>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
+      <c r="E6" s="337" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="336" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="337" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="336"/>
+      <c r="I6" s="336"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="174" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="C7" s="175">
         <v>50</v>
@@ -48278,7 +48370,7 @@
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="174" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="C8" s="175">
         <v>80</v>
@@ -48300,7 +48392,7 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="174" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="C9" s="175">
         <v>70</v>
@@ -48322,7 +48414,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="174" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="C10" s="175">
         <v>30</v>
@@ -48344,7 +48436,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="174" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="C11" s="175">
         <v>20</v>
@@ -48366,7 +48458,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="174" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="C12" s="175">
         <v>50</v>
@@ -48388,7 +48480,7 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="174" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="C13" s="175">
         <v>70</v>
@@ -48410,7 +48502,7 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="174" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C14" s="175">
         <v>50</v>
@@ -48432,7 +48524,7 @@
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="174" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="C15" s="175">
         <v>80</v>
@@ -48592,174 +48684,174 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="343" t="s">
+      <c r="B29" s="342" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="349"/>
-      <c r="D29" s="349"/>
-      <c r="E29" s="349"/>
-      <c r="F29" s="349"/>
-      <c r="G29" s="349"/>
-      <c r="H29" s="349"/>
-      <c r="I29" s="344"/>
+      <c r="C29" s="348"/>
+      <c r="D29" s="348"/>
+      <c r="E29" s="348"/>
+      <c r="F29" s="348"/>
+      <c r="G29" s="348"/>
+      <c r="H29" s="348"/>
+      <c r="I29" s="343"/>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="356" t="s">
-        <v>361</v>
-      </c>
-      <c r="C30" s="357"/>
-      <c r="D30" s="357"/>
-      <c r="E30" s="357"/>
-      <c r="F30" s="357"/>
-      <c r="G30" s="357"/>
-      <c r="H30" s="357"/>
-      <c r="I30" s="358"/>
+      <c r="B30" s="355" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="356"/>
+      <c r="D30" s="356"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="356"/>
+      <c r="G30" s="356"/>
+      <c r="H30" s="356"/>
+      <c r="I30" s="357"/>
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="353" t="s">
-        <v>362</v>
-      </c>
-      <c r="C31" s="354"/>
-      <c r="D31" s="354"/>
-      <c r="E31" s="354"/>
-      <c r="F31" s="354"/>
-      <c r="G31" s="354"/>
-      <c r="H31" s="354"/>
-      <c r="I31" s="355"/>
+      <c r="B31" s="352" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="353"/>
+      <c r="D31" s="353"/>
+      <c r="E31" s="353"/>
+      <c r="F31" s="353"/>
+      <c r="G31" s="353"/>
+      <c r="H31" s="353"/>
+      <c r="I31" s="354"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="353" t="s">
-        <v>363</v>
-      </c>
-      <c r="C32" s="354"/>
-      <c r="D32" s="354"/>
-      <c r="E32" s="354"/>
-      <c r="F32" s="354"/>
-      <c r="G32" s="354"/>
-      <c r="H32" s="354"/>
-      <c r="I32" s="355"/>
+      <c r="B32" s="352" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="353"/>
+      <c r="D32" s="353"/>
+      <c r="E32" s="353"/>
+      <c r="F32" s="353"/>
+      <c r="G32" s="353"/>
+      <c r="H32" s="353"/>
+      <c r="I32" s="354"/>
     </row>
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="353" t="s">
-        <v>364</v>
-      </c>
-      <c r="C33" s="354"/>
-      <c r="D33" s="354"/>
-      <c r="E33" s="354"/>
-      <c r="F33" s="354"/>
-      <c r="G33" s="354"/>
-      <c r="H33" s="354"/>
-      <c r="I33" s="355"/>
+      <c r="B33" s="352" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" s="353"/>
+      <c r="D33" s="353"/>
+      <c r="E33" s="353"/>
+      <c r="F33" s="353"/>
+      <c r="G33" s="353"/>
+      <c r="H33" s="353"/>
+      <c r="I33" s="354"/>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="353"/>
-      <c r="C34" s="354"/>
-      <c r="D34" s="354"/>
-      <c r="E34" s="354"/>
-      <c r="F34" s="354"/>
-      <c r="G34" s="354"/>
-      <c r="H34" s="354"/>
-      <c r="I34" s="355"/>
+      <c r="B34" s="352"/>
+      <c r="C34" s="353"/>
+      <c r="D34" s="353"/>
+      <c r="E34" s="353"/>
+      <c r="F34" s="353"/>
+      <c r="G34" s="353"/>
+      <c r="H34" s="353"/>
+      <c r="I34" s="354"/>
     </row>
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="353"/>
-      <c r="C35" s="354"/>
-      <c r="D35" s="354"/>
-      <c r="E35" s="354"/>
-      <c r="F35" s="354"/>
-      <c r="G35" s="354"/>
-      <c r="H35" s="354"/>
-      <c r="I35" s="355"/>
+      <c r="B35" s="352"/>
+      <c r="C35" s="353"/>
+      <c r="D35" s="353"/>
+      <c r="E35" s="353"/>
+      <c r="F35" s="353"/>
+      <c r="G35" s="353"/>
+      <c r="H35" s="353"/>
+      <c r="I35" s="354"/>
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="353"/>
-      <c r="C36" s="354"/>
-      <c r="D36" s="354"/>
-      <c r="E36" s="354"/>
-      <c r="F36" s="354"/>
-      <c r="G36" s="354"/>
-      <c r="H36" s="354"/>
-      <c r="I36" s="355"/>
+      <c r="B36" s="352"/>
+      <c r="C36" s="353"/>
+      <c r="D36" s="353"/>
+      <c r="E36" s="353"/>
+      <c r="F36" s="353"/>
+      <c r="G36" s="353"/>
+      <c r="H36" s="353"/>
+      <c r="I36" s="354"/>
     </row>
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="353"/>
-      <c r="C37" s="354"/>
-      <c r="D37" s="354"/>
-      <c r="E37" s="354"/>
-      <c r="F37" s="354"/>
-      <c r="G37" s="354"/>
-      <c r="H37" s="354"/>
-      <c r="I37" s="355"/>
+      <c r="B37" s="352"/>
+      <c r="C37" s="353"/>
+      <c r="D37" s="353"/>
+      <c r="E37" s="353"/>
+      <c r="F37" s="353"/>
+      <c r="G37" s="353"/>
+      <c r="H37" s="353"/>
+      <c r="I37" s="354"/>
     </row>
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="353"/>
-      <c r="C38" s="354"/>
-      <c r="D38" s="354"/>
-      <c r="E38" s="354"/>
-      <c r="F38" s="354"/>
-      <c r="G38" s="354"/>
-      <c r="H38" s="354"/>
-      <c r="I38" s="355"/>
+      <c r="B38" s="352"/>
+      <c r="C38" s="353"/>
+      <c r="D38" s="353"/>
+      <c r="E38" s="353"/>
+      <c r="F38" s="353"/>
+      <c r="G38" s="353"/>
+      <c r="H38" s="353"/>
+      <c r="I38" s="354"/>
     </row>
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="353"/>
-      <c r="C39" s="354"/>
-      <c r="D39" s="354"/>
-      <c r="E39" s="354"/>
-      <c r="F39" s="354"/>
-      <c r="G39" s="354"/>
-      <c r="H39" s="354"/>
-      <c r="I39" s="355"/>
+      <c r="B39" s="352"/>
+      <c r="C39" s="353"/>
+      <c r="D39" s="353"/>
+      <c r="E39" s="353"/>
+      <c r="F39" s="353"/>
+      <c r="G39" s="353"/>
+      <c r="H39" s="353"/>
+      <c r="I39" s="354"/>
     </row>
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="353"/>
-      <c r="C40" s="354"/>
-      <c r="D40" s="354"/>
-      <c r="E40" s="354"/>
-      <c r="F40" s="354"/>
-      <c r="G40" s="354"/>
-      <c r="H40" s="354"/>
-      <c r="I40" s="355"/>
+      <c r="B40" s="352"/>
+      <c r="C40" s="353"/>
+      <c r="D40" s="353"/>
+      <c r="E40" s="353"/>
+      <c r="F40" s="353"/>
+      <c r="G40" s="353"/>
+      <c r="H40" s="353"/>
+      <c r="I40" s="354"/>
     </row>
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="353"/>
-      <c r="C41" s="354"/>
-      <c r="D41" s="354"/>
-      <c r="E41" s="354"/>
-      <c r="F41" s="354"/>
-      <c r="G41" s="354"/>
-      <c r="H41" s="354"/>
-      <c r="I41" s="355"/>
+      <c r="B41" s="352"/>
+      <c r="C41" s="353"/>
+      <c r="D41" s="353"/>
+      <c r="E41" s="353"/>
+      <c r="F41" s="353"/>
+      <c r="G41" s="353"/>
+      <c r="H41" s="353"/>
+      <c r="I41" s="354"/>
     </row>
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="353"/>
-      <c r="C42" s="354"/>
-      <c r="D42" s="354"/>
-      <c r="E42" s="354"/>
-      <c r="F42" s="354"/>
-      <c r="G42" s="354"/>
-      <c r="H42" s="354"/>
-      <c r="I42" s="355"/>
+      <c r="B42" s="352"/>
+      <c r="C42" s="353"/>
+      <c r="D42" s="353"/>
+      <c r="E42" s="353"/>
+      <c r="F42" s="353"/>
+      <c r="G42" s="353"/>
+      <c r="H42" s="353"/>
+      <c r="I42" s="354"/>
     </row>
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="353"/>
-      <c r="C43" s="354"/>
-      <c r="D43" s="354"/>
-      <c r="E43" s="354"/>
-      <c r="F43" s="354"/>
-      <c r="G43" s="354"/>
-      <c r="H43" s="354"/>
-      <c r="I43" s="355"/>
+      <c r="B43" s="352"/>
+      <c r="C43" s="353"/>
+      <c r="D43" s="353"/>
+      <c r="E43" s="353"/>
+      <c r="F43" s="353"/>
+      <c r="G43" s="353"/>
+      <c r="H43" s="353"/>
+      <c r="I43" s="354"/>
     </row>
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="350"/>
-      <c r="C44" s="351"/>
-      <c r="D44" s="351"/>
-      <c r="E44" s="351"/>
-      <c r="F44" s="351"/>
-      <c r="G44" s="351"/>
-      <c r="H44" s="351"/>
-      <c r="I44" s="352"/>
+      <c r="B44" s="349"/>
+      <c r="C44" s="350"/>
+      <c r="D44" s="350"/>
+      <c r="E44" s="350"/>
+      <c r="F44" s="350"/>
+      <c r="G44" s="350"/>
+      <c r="H44" s="350"/>
+      <c r="I44" s="351"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XEq06WUJi5XGJM5wDJcHVyTPef8KG6rhUQXzoHL0yiWbfkE8nPSjKg/pXI7pFSYa9Uv7eAFpkTD1juDk6LGI7Q==" saltValue="6YDFbsbANdRWvvi77R+eYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -48805,10 +48897,10 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48838,8 +48930,8 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
-        <v>268</v>
+      <c r="B2" s="330" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -48851,8 +48943,8 @@
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="332" t="s">
-        <v>281</v>
+      <c r="B3" s="331" t="s">
+        <v>249</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -48888,277 +48980,275 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="264" t="s">
+      <c r="B6" s="263" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="265" t="s">
+      <c r="C6" s="255"/>
+      <c r="D6" s="264" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="256"/>
-      <c r="F6" s="266" t="s">
+      <c r="E6" s="255"/>
+      <c r="F6" s="265" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="256"/>
-      <c r="H6" s="267" t="s">
-        <v>293</v>
-      </c>
-      <c r="I6" s="256"/>
-      <c r="J6" s="268" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="266" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="255"/>
+      <c r="J6" s="267" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="257" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="258"/>
-      <c r="D7" s="259" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="261" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="262" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" s="260"/>
-      <c r="J7" s="263" t="s">
-        <v>204</v>
+      <c r="B7" s="390" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="257"/>
+      <c r="D7" s="391" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="259"/>
+      <c r="F7" s="392" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" s="259"/>
+      <c r="H7" s="393" t="s">
+        <v>339</v>
+      </c>
+      <c r="I7" s="259"/>
+      <c r="J7" s="394" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="257" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="259" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="260"/>
-      <c r="F8" s="261" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="260"/>
-      <c r="H8" s="262" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="260"/>
-      <c r="J8" s="263" t="s">
-        <v>205</v>
+      <c r="B8" s="390" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="257"/>
+      <c r="D8" s="391" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="259"/>
+      <c r="F8" s="392" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8" s="259"/>
+      <c r="H8" s="393" t="s">
+        <v>340</v>
+      </c>
+      <c r="I8" s="259"/>
+      <c r="J8" s="394" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="257" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="258"/>
-      <c r="D9" s="259" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="260"/>
-      <c r="F9" s="261" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9" s="260"/>
-      <c r="H9" s="262" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="260"/>
-      <c r="J9" s="263" t="s">
-        <v>206</v>
+      <c r="B9" s="390" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="257"/>
+      <c r="D9" s="391" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="259"/>
+      <c r="F9" s="392" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="259"/>
+      <c r="H9" s="393" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" s="259"/>
+      <c r="J9" s="394" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="257" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="258"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="260"/>
-      <c r="J10" s="263"/>
+      <c r="B10" s="256"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="262"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="257"/>
-      <c r="C11" s="258"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="262"/>
-      <c r="I11" s="260"/>
-      <c r="J11" s="263"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="259"/>
+      <c r="J11" s="262"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="257"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="261"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="262"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="263"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="261"/>
+      <c r="I12" s="259"/>
+      <c r="J12" s="262"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="257"/>
-      <c r="C13" s="258"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="262"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="263"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="262"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="257"/>
-      <c r="C14" s="258"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="261"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="262"/>
-      <c r="I14" s="260"/>
-      <c r="J14" s="263"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="262"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="257"/>
-      <c r="C15" s="258"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="262"/>
-      <c r="I15" s="260"/>
-      <c r="J15" s="263"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="259"/>
+      <c r="J15" s="262"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="257"/>
-      <c r="C16" s="258"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="260"/>
-      <c r="H16" s="262"/>
-      <c r="I16" s="260"/>
-      <c r="J16" s="263"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="258"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="259"/>
+      <c r="J16" s="262"/>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="257"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="262"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="263"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="261"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="262"/>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="257"/>
-      <c r="C18" s="258"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="262"/>
-      <c r="I18" s="260"/>
-      <c r="J18" s="263"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="259"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="259"/>
+      <c r="J18" s="262"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="257"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="261"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="262"/>
-      <c r="I19" s="260"/>
-      <c r="J19" s="263"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="258"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="262"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="257"/>
-      <c r="C20" s="258"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="261"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="262"/>
-      <c r="I20" s="260"/>
-      <c r="J20" s="263"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="258"/>
+      <c r="E20" s="259"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="261"/>
+      <c r="I20" s="259"/>
+      <c r="J20" s="262"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="257"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="262"/>
-      <c r="I21" s="260"/>
-      <c r="J21" s="263"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="259"/>
+      <c r="H21" s="261"/>
+      <c r="I21" s="259"/>
+      <c r="J21" s="262"/>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="257"/>
-      <c r="C22" s="258"/>
-      <c r="D22" s="259"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="262"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="263"/>
+      <c r="B22" s="256"/>
+      <c r="C22" s="257"/>
+      <c r="D22" s="258"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="259"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="259"/>
+      <c r="J22" s="262"/>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="257"/>
-      <c r="C23" s="258"/>
-      <c r="D23" s="259"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="261"/>
-      <c r="G23" s="260"/>
-      <c r="H23" s="262"/>
-      <c r="I23" s="260"/>
-      <c r="J23" s="263"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="259"/>
+      <c r="H23" s="261"/>
+      <c r="I23" s="259"/>
+      <c r="J23" s="262"/>
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="257"/>
-      <c r="C24" s="258"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="261"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="262"/>
-      <c r="I24" s="260"/>
-      <c r="J24" s="263"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="259"/>
+      <c r="H24" s="261"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="262"/>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="257"/>
-      <c r="C25" s="258"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="261"/>
-      <c r="G25" s="260"/>
-      <c r="H25" s="262"/>
-      <c r="I25" s="260"/>
-      <c r="J25" s="263"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="259"/>
+      <c r="H25" s="261"/>
+      <c r="I25" s="259"/>
+      <c r="J25" s="262"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="257"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="261"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="262"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="263"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="261"/>
+      <c r="I26" s="259"/>
+      <c r="J26" s="262"/>
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49188,10 +49278,10 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="G1" zoomScale="116" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49213,8 +49303,8 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="329" t="s">
-        <v>268</v>
+      <c r="B2" s="328" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -49224,8 +49314,8 @@
       <c r="H2" s="219"/>
     </row>
     <row r="3" spans="1:8" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="330" t="s">
-        <v>282</v>
+      <c r="B3" s="329" t="s">
+        <v>250</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -49255,303 +49345,309 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="272"/>
-      <c r="C6" s="269"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="269"/>
-      <c r="H6" s="284"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="275"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="283"/>
     </row>
     <row r="7" spans="1:8" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="273" t="s">
+      <c r="B7" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="270"/>
-      <c r="D7" s="277" t="s">
+      <c r="C7" s="269"/>
+      <c r="D7" s="276" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="270"/>
-      <c r="F7" s="281" t="s">
+      <c r="E7" s="269"/>
+      <c r="F7" s="280" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="270"/>
-      <c r="H7" s="285" t="s">
+      <c r="G7" s="269"/>
+      <c r="H7" s="284" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="274" t="s">
+      <c r="B8" s="273" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="271"/>
-      <c r="D8" s="278" t="s">
+      <c r="C8" s="270"/>
+      <c r="D8" s="277" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="271"/>
-      <c r="F8" s="282" t="s">
+      <c r="E8" s="270"/>
+      <c r="F8" s="281" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="271"/>
-      <c r="H8" s="286" t="s">
+      <c r="G8" s="270"/>
+      <c r="H8" s="285" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="275"/>
-      <c r="C9" s="269"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="287"/>
+      <c r="B9" s="274"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="282"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="286"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="288" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="289"/>
-      <c r="D10" s="262" t="s">
-        <v>243</v>
-      </c>
-      <c r="E10" s="289"/>
-      <c r="F10" s="261" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="289"/>
-      <c r="H10" s="263" t="s">
-        <v>295</v>
+      <c r="B10" s="395" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="288"/>
+      <c r="D10" s="393" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" s="288"/>
+      <c r="F10" s="392" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="288"/>
+      <c r="H10" s="394" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="288" t="s">
-        <v>240</v>
-      </c>
-      <c r="C11" s="289"/>
-      <c r="D11" s="262" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="289"/>
-      <c r="F11" s="261" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" s="289"/>
-      <c r="H11" s="263" t="s">
-        <v>248</v>
+      <c r="B11" s="395" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="288"/>
+      <c r="D11" s="393" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="288"/>
+      <c r="F11" s="392" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="288"/>
+      <c r="H11" s="394" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="288" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="289"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="261" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="289"/>
-      <c r="H12" s="263"/>
+      <c r="B12" s="395" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="288"/>
+      <c r="D12" s="393" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="288"/>
+      <c r="F12" s="392" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="288"/>
+      <c r="H12" s="394" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="288" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="289"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="289"/>
-      <c r="H13" s="263"/>
+      <c r="B13" s="395" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="288"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="288"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="262"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="288"/>
-      <c r="C14" s="289"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="261"/>
-      <c r="G14" s="289"/>
-      <c r="H14" s="263"/>
+      <c r="B14" s="395" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="288"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="262"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="288"/>
-      <c r="C15" s="289"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="263"/>
+      <c r="B15" s="287"/>
+      <c r="C15" s="288"/>
+      <c r="D15" s="261"/>
+      <c r="E15" s="288"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="288"/>
+      <c r="H15" s="262"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="288"/>
-      <c r="C16" s="289"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="289"/>
-      <c r="H16" s="263"/>
+      <c r="B16" s="287"/>
+      <c r="C16" s="288"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="288"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="262"/>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="288"/>
-      <c r="C17" s="289"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="289"/>
-      <c r="H17" s="263"/>
+      <c r="B17" s="287"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="288"/>
+      <c r="H17" s="262"/>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="288"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="263"/>
+      <c r="B18" s="287"/>
+      <c r="C18" s="288"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="262"/>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="288"/>
-      <c r="C19" s="289"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="261"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="263"/>
+      <c r="B19" s="287"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="288"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="288"/>
+      <c r="H19" s="262"/>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="288"/>
-      <c r="C20" s="289"/>
-      <c r="D20" s="262"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="261"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="263"/>
+      <c r="B20" s="287"/>
+      <c r="C20" s="288"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="288"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="288"/>
+      <c r="H20" s="262"/>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="288"/>
-      <c r="C21" s="289"/>
-      <c r="D21" s="262"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="289"/>
-      <c r="H21" s="263"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="262"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="288"/>
-      <c r="C22" s="289"/>
-      <c r="D22" s="262"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="289"/>
-      <c r="H22" s="263"/>
+      <c r="B22" s="287"/>
+      <c r="C22" s="288"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="288"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="288"/>
+      <c r="H22" s="262"/>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="288"/>
-      <c r="C23" s="289"/>
-      <c r="D23" s="262"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="261"/>
-      <c r="G23" s="289"/>
-      <c r="H23" s="263"/>
+      <c r="B23" s="287"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="261"/>
+      <c r="E23" s="288"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="288"/>
+      <c r="H23" s="262"/>
     </row>
     <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="288"/>
-      <c r="C24" s="289"/>
-      <c r="D24" s="262"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="261"/>
-      <c r="G24" s="289"/>
-      <c r="H24" s="263"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="288"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="288"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="288"/>
+      <c r="H24" s="262"/>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="288"/>
-      <c r="C25" s="289"/>
-      <c r="D25" s="262"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="261"/>
-      <c r="G25" s="289"/>
-      <c r="H25" s="263"/>
+      <c r="B25" s="287"/>
+      <c r="C25" s="288"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="288"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="288"/>
+      <c r="H25" s="262"/>
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="288"/>
-      <c r="C26" s="289"/>
-      <c r="D26" s="262"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="261"/>
-      <c r="G26" s="289"/>
-      <c r="H26" s="263"/>
+      <c r="B26" s="287"/>
+      <c r="C26" s="288"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="288"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="288"/>
+      <c r="H26" s="262"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="288"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="262"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="289"/>
-      <c r="H27" s="263"/>
+      <c r="B27" s="287"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="288"/>
+      <c r="H27" s="262"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="288"/>
-      <c r="C28" s="289"/>
-      <c r="D28" s="262"/>
-      <c r="E28" s="289"/>
-      <c r="F28" s="261"/>
-      <c r="G28" s="289"/>
-      <c r="H28" s="263"/>
+      <c r="B28" s="287"/>
+      <c r="C28" s="288"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="288"/>
+      <c r="F28" s="260"/>
+      <c r="G28" s="288"/>
+      <c r="H28" s="262"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="288"/>
-      <c r="C29" s="289"/>
-      <c r="D29" s="262"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="261"/>
-      <c r="G29" s="289"/>
-      <c r="H29" s="263"/>
+      <c r="B29" s="287"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="288"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="288"/>
+      <c r="H29" s="262"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="288"/>
-      <c r="C30" s="289"/>
-      <c r="D30" s="262"/>
-      <c r="E30" s="289"/>
-      <c r="F30" s="261"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="263"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="288"/>
+      <c r="D30" s="261"/>
+      <c r="E30" s="288"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="288"/>
+      <c r="H30" s="262"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="288"/>
-      <c r="C31" s="289"/>
-      <c r="D31" s="262"/>
-      <c r="E31" s="289"/>
-      <c r="F31" s="261"/>
-      <c r="G31" s="289"/>
-      <c r="H31" s="263"/>
+      <c r="B31" s="287"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="288"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="288"/>
+      <c r="H31" s="262"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="288"/>
-      <c r="C32" s="289"/>
-      <c r="D32" s="262"/>
-      <c r="E32" s="289"/>
-      <c r="F32" s="261"/>
-      <c r="G32" s="289"/>
-      <c r="H32" s="263"/>
+      <c r="B32" s="287"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="288"/>
+      <c r="F32" s="260"/>
+      <c r="G32" s="288"/>
+      <c r="H32" s="262"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="288"/>
-      <c r="C33" s="289"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="289"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="289"/>
-      <c r="H33" s="263"/>
+      <c r="B33" s="287"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="288"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="288"/>
+      <c r="H33" s="262"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="288"/>
-      <c r="C34" s="289"/>
-      <c r="D34" s="262"/>
-      <c r="E34" s="289"/>
-      <c r="F34" s="261"/>
-      <c r="G34" s="289"/>
-      <c r="H34" s="263"/>
+      <c r="B34" s="287"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="288"/>
+      <c r="F34" s="260"/>
+      <c r="G34" s="288"/>
+      <c r="H34" s="262"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QpV7EnfhppgCXrNWoyIqqke07ToNMpzSSQ0GGDKtkpbszsaUeGUVgZwGP4Xlf29lgbBkPgQdrKP9kG71gLvH0Q==" saltValue="OJ6BEjMbf0aVjjUa0ARQJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>

--- a/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
+++ b/an_2/sem_1/M/Business-Plan-Exemplu Editura.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c\source\repos\faculty\faculty\an_2\sem_1\M\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPT AC\Licenta\An_2\Sem_1\M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C830DA-D48A-458D-9481-BA3E403077DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904707A6-F8D5-4FC4-A86E-7191D71661C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="O2pZeXeucL6OySNC7AknZdZAyXoN/m0/9At13Y17SnJe3PRhRKhh5R2CulRtevnypPEYgGoXIEttHB4aNlfRwQ==" workbookSaltValue="uQIfLlIkgsrrIpl+3gXPNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="4500" yWindow="4500" windowWidth="21600" windowHeight="11295" tabRatio="994" activeTab="9" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="994" activeTab="3" xr2:uid="{5B36CBF1-84C3-4D6A-8007-B28509267DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="17">Timeline!$B$2:$D$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">ToU!$B$2:$B$17</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="354">
   <si>
     <r>
       <t xml:space="preserve">This End-User License Agreement is a legal agreement between you and </t>
@@ -309,6 +309,30 @@
     <t>Company</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Expertise</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Reputation</t>
+  </si>
+  <si>
+    <t>Business Model</t>
+  </si>
+  <si>
     <t>Advertising</t>
   </si>
   <si>
@@ -508,6 +532,12 @@
   </si>
   <si>
     <t>BEHAVIORAL LEVEL</t>
+  </si>
+  <si>
+    <t>Competitor 4</t>
+  </si>
+  <si>
+    <t>Competitor 5</t>
   </si>
   <si>
     <t>Score</t>
@@ -821,6 +851,144 @@
     <t>Dividends Received from Affiliates</t>
   </si>
   <si>
+    <t>Total e-book and audiobook industry is expected to reach US$2.5 billion (estimated by PP Agency).</t>
+  </si>
+  <si>
+    <t>We target a 10% share in five years.</t>
+  </si>
+  <si>
+    <t>Our targeted children books industry is about US$500 million.</t>
+  </si>
+  <si>
+    <t>So the children e-books industry is predicted to be at US$500 million.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total e-book industry is estimated by PP Agency to reach US$2.5 billion. In printed books, the children literature takes nearly 20% share. </t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>All genders</t>
+  </si>
+  <si>
+    <t>0-14 year-old children</t>
+  </si>
+  <si>
+    <t>Middle-to-High Income</t>
+  </si>
+  <si>
+    <t>Familiar with digital devices</t>
+  </si>
+  <si>
+    <t>Having lots of time on computer, tablet etc.</t>
+  </si>
+  <si>
+    <t>Parents with an wish to make their children read more.</t>
+  </si>
+  <si>
+    <t>Does spend for intellectual products.</t>
+  </si>
+  <si>
+    <t>Familiar with digital subscriptions</t>
+  </si>
+  <si>
+    <t>Sticking to favorite apps</t>
+  </si>
+  <si>
+    <t>School kids</t>
+  </si>
+  <si>
+    <t>English speaking countries</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Panda Books</t>
+  </si>
+  <si>
+    <t>Readerr</t>
+  </si>
+  <si>
+    <t>ReadDig</t>
+  </si>
+  <si>
+    <t>Coyote will have an unique position to offer e-books and audiobooks for only children.</t>
+  </si>
+  <si>
+    <t>Panda Books is the market leader on children literature, but does not have e-book version for the most of their product gamma.</t>
+  </si>
+  <si>
+    <t>Readerr and ReadDig are online e-book platforms, which provide for all readers, including the children.</t>
+  </si>
+  <si>
+    <t>Buyer number is very high.</t>
+  </si>
+  <si>
+    <t>Market is big.</t>
+  </si>
+  <si>
+    <t>Market is price-sensitive.</t>
+  </si>
+  <si>
+    <t>The distributor side is powerful.</t>
+  </si>
+  <si>
+    <t>The writer number limited.</t>
+  </si>
+  <si>
+    <t>Writers have limited effect on prices.</t>
+  </si>
+  <si>
+    <t>Entering the industry is easy.</t>
+  </si>
+  <si>
+    <t>But needs time to catch traffic.</t>
+  </si>
+  <si>
+    <t>Need relations with writers.</t>
+  </si>
+  <si>
+    <t>Alternative platforms may occur.</t>
+  </si>
+  <si>
+    <t>Not easy to grab a market share.</t>
+  </si>
+  <si>
+    <t>Can easily adapt to new media.</t>
+  </si>
+  <si>
+    <t>Not too much competitor.</t>
+  </si>
+  <si>
+    <t>Pretty much a niche area.</t>
+  </si>
+  <si>
+    <t>Needs ads to convince buyers.</t>
+  </si>
+  <si>
+    <t>We'll not have any physical stores for the near future.</t>
+  </si>
+  <si>
+    <t>We'll have a distributor partner to sell out printed products.</t>
+  </si>
+  <si>
+    <t>We'll use online book sellers for our printed books.</t>
+  </si>
+  <si>
+    <t>We'll sell directly from our website.</t>
+  </si>
+  <si>
+    <t>Our distribution strategy will be different for printed and other versions.</t>
+  </si>
+  <si>
+    <t>Printed books will be sold through a wholesale and also through e-commerce.</t>
+  </si>
+  <si>
+    <t>We have signed strategic partnership agreement with XYZ Distribution Company to distribute our printed books.</t>
+  </si>
+  <si>
     <t>Melinda R. Tackett</t>
   </si>
   <si>
@@ -894,6 +1062,36 @@
   </si>
   <si>
     <t>Our financials look healthy from the very first year of our business.</t>
+  </si>
+  <si>
+    <t>Robust business plan</t>
+  </si>
+  <si>
+    <t>Innovative products</t>
+  </si>
+  <si>
+    <t>Big target market</t>
+  </si>
+  <si>
+    <t>Experience in publishing industry</t>
+  </si>
+  <si>
+    <t>Weak relations with translators</t>
+  </si>
+  <si>
+    <t>Technical skills of editorial staff</t>
+  </si>
+  <si>
+    <t>Growing market</t>
+  </si>
+  <si>
+    <t>Parents ready to spend for intellectual products</t>
+  </si>
+  <si>
+    <t>Kids familiar with digital devices</t>
+  </si>
+  <si>
+    <t>Intellectual property issues</t>
   </si>
   <si>
     <t>Legal entity foundation</t>
@@ -980,10 +1178,16 @@
     <t>Market Saturation</t>
   </si>
   <si>
+    <t>Introduction Stage</t>
+  </si>
+  <si>
     <t>Main Location</t>
   </si>
   <si>
     <t>Future Aspects</t>
+  </si>
+  <si>
+    <t>Great growth opportunity</t>
   </si>
   <si>
     <t>3. MARKETING / TARGET MARKET ANALYSIS</t>
@@ -1031,6 +1235,15 @@
     <t>Threat of Substitutes</t>
   </si>
   <si>
+    <t>But buyers have a strong bargaining power.</t>
+  </si>
+  <si>
+    <t>Easy entrance to market</t>
+  </si>
+  <si>
+    <t>E-book and audiobook versions will be sold through subscription.</t>
+  </si>
+  <si>
     <t>HR will built a writer/translator pool with a promising growth opportunity.</t>
   </si>
   <si>
@@ -1067,6 +1280,9 @@
     <t>Ospitalitate, Responsabilitate, Agilitate, Autenticitate, Colaborare, Viteză</t>
   </si>
   <si>
+    <t xml:space="preserve">Noi prestăm servicii gastronomice cu specific moldovenesc prin intermediul platformelor de catering.  </t>
+  </si>
+  <si>
     <t>Este greu să găsești un restaurant cu specific moldovenesc în Timișoara, de aceea oferim clienților șansa de a degusta cele mai alese bucate de pe meleagurile moldave.</t>
   </si>
   <si>
@@ -1090,252 +1306,6 @@
   <si>
     <t>Comenzile plasate sunt pregătite și livrate cât mai rapid posibil, pentru a asigura satisfacția maximă clienților noștri.</t>
   </si>
-  <si>
-    <t>Stadiu introductiv</t>
-  </si>
-  <si>
-    <t>România</t>
-  </si>
-  <si>
-    <t>Dimensiunea industriei de catering (serviciilor de mâncărie gătite) se așteaptă să atingă valoarea US$2,540.05 miliarde (potrivit IBISWorld).</t>
-  </si>
-  <si>
-    <t>Dimensiunea pieței-țintă din România este de US$4 miliarde.</t>
-  </si>
-  <si>
-    <t>Pe plan local, în limitele României, dimensiunea pieței atinge valoarea de US$4 miliarde.</t>
-  </si>
-  <si>
-    <t>Noi țintim o cotă de 5% acțiuni în 5 ani.</t>
-  </si>
-  <si>
-    <t>Principalii actori din această industrie sunt Tazz by Emag, FoodPanda, TakeAway, Bolt, UberEats.</t>
-  </si>
-  <si>
-    <t>Trendul general este în descreștere, din cauza ameliorării pandemiei.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principalele provocări din domeniu sunt: încrederea în procesul de manipulare a alimentelor, metodele de livrare, cererea de </t>
-  </si>
-  <si>
-    <t>tranzacții fără contact, lipsa forței de muncă.</t>
-  </si>
-  <si>
-    <t>Oportunitate medie de creștere</t>
-  </si>
-  <si>
-    <t>Europa</t>
-  </si>
-  <si>
-    <t>Timiș</t>
-  </si>
-  <si>
-    <t>Timișoara</t>
-  </si>
-  <si>
-    <t>Tineri, adulți</t>
-  </si>
-  <si>
-    <t>Venit mediu spre ridicat</t>
-  </si>
-  <si>
-    <t>Toate identitățile de gen</t>
-  </si>
-  <si>
-    <t>Familiari cu serviciile digitale, online banking, tranzacții online</t>
-  </si>
-  <si>
-    <t>Adulți încadrați în procesul de muncă, angajați</t>
-  </si>
-  <si>
-    <t>Persoane cu puțin timp pentru gătit</t>
-  </si>
-  <si>
-    <t>Dimensiunea industriei de catering la nivel global se așteaptă să atingă valoarea US$2,540.05 miliarde (estimat de IBISWorld).</t>
-  </si>
-  <si>
-    <t>Ratele anuale de creștere a vânzărilor în industria de catering din România, în ultimii 5 ani, variază între 10 și 20%.</t>
-  </si>
-  <si>
-    <t>Familiaritate cu internetul și aplicațiile digitale</t>
-  </si>
-  <si>
-    <t>Tendințe de consumerism, specifice societății moderne de consum</t>
-  </si>
-  <si>
-    <t>Persoane care sărbătoresc anumite evenimente, întâlniri de grup și familie, întruniri, teambuilding-uri</t>
-  </si>
-  <si>
-    <t>Membrii asociațiilor de basarabeni</t>
-  </si>
-  <si>
-    <t>Persoane cu rădăcini/cunoștințe din Moldova</t>
-  </si>
-  <si>
-    <t>Persoane dornice, nostalgice după Moldova</t>
-  </si>
-  <si>
-    <t>OcaziI: sărbători naționale, tradiționale, religioase moldovenești</t>
-  </si>
-  <si>
-    <t>Interacțiunea cu branduri autohtone moldovenești: Asconi Winery, Cricova, Mileștii Mici, Chateau Vartely</t>
-  </si>
-  <si>
-    <t>Persoane interesate de bucătăria moldovenească</t>
-  </si>
-  <si>
-    <t>Preț</t>
-  </si>
-  <si>
-    <t>Calitate</t>
-  </si>
-  <si>
-    <t>Fiabilitate</t>
-  </si>
-  <si>
-    <t>Expertiză</t>
-  </si>
-  <si>
-    <t>Locație</t>
-  </si>
-  <si>
-    <t>Imagine</t>
-  </si>
-  <si>
-    <t>Reputație</t>
-  </si>
-  <si>
-    <t>Model de Business</t>
-  </si>
-  <si>
-    <t>Publicitate</t>
-  </si>
-  <si>
-    <t>Mancaruri moldovenesti</t>
-  </si>
-  <si>
-    <t>Restaurant Nora</t>
-  </si>
-  <si>
-    <t>Restaurant Tinecz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinecz este prezent pe piața din Timișoara încă din 1996. Început ca o afacere de familie, având la bază meniurile tradiționale românești, brandul și-a </t>
-  </si>
-  <si>
-    <t>câștigat o reputație solidă de-a lungul anilor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurantul Nora – cu o capacitate de 90 locuri, vă oferă un climat confortabil, iar maeștrii bucătari vă vor încânta cu gusturile și savuroasele preparate din </t>
-  </si>
-  <si>
-    <t>bucătaria românească și internațională, oferindu-vă astfel, o experiență culinară unică.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noi prestăm servicii gastronomice cu specific moldovenesc prin intermediul platformelor de catering. </t>
-  </si>
-  <si>
-    <t>Capacitatea de cumpărare este mare</t>
-  </si>
-  <si>
-    <t>Piața este mare</t>
-  </si>
-  <si>
-    <t>Piața este sensibilă la modificarea prețurilor</t>
-  </si>
-  <si>
-    <t>Partea distributivă este amplă</t>
-  </si>
-  <si>
-    <t>Unicitatea produselor este redusă</t>
-  </si>
-  <si>
-    <t>Distribuitorii au o influență considerabilă asupra prețurilor serviciilor noastre</t>
-  </si>
-  <si>
-    <t>Intrarea în industrie este ușoară</t>
-  </si>
-  <si>
-    <t>Dar necesită timp pentru integrare</t>
-  </si>
-  <si>
-    <t>Diferențierea produselor pe piață</t>
-  </si>
-  <si>
-    <t>Restaurnatele tradiționale clasice ca alternnativă la serviciile de catering</t>
-  </si>
-  <si>
-    <t>Este complicat să ocupi o cotă de piață</t>
-  </si>
-  <si>
-    <t>Performanța înaltă a concurenților</t>
-  </si>
-  <si>
-    <t>Număr mari de concurenți pe piață</t>
-  </si>
-  <si>
-    <t>Fidelitate de start scăzută a clienților</t>
-  </si>
-  <si>
-    <t>Necesitatea promovării și a publicității în spațiul media</t>
-  </si>
-  <si>
-    <t>Plan de business robust</t>
-  </si>
-  <si>
-    <t>Unicitatea produselor culinare</t>
-  </si>
-  <si>
-    <t>Piață țintă desfășurată</t>
-  </si>
-  <si>
-    <t>Raport preț/calitate avantajos</t>
-  </si>
-  <si>
-    <t>Personal calificat</t>
-  </si>
-  <si>
-    <t>Lipsa unui bucătar șef cu experiență în domeniu</t>
-  </si>
-  <si>
-    <t>Lipsa de experineță în afaceri</t>
-  </si>
-  <si>
-    <t>Posibile probleme cu resursele financiare</t>
-  </si>
-  <si>
-    <t>Piața în stadiu de evoluție</t>
-  </si>
-  <si>
-    <t>Criza pandemică, ca opurtunitate de extindere a bazei de clienți</t>
-  </si>
-  <si>
-    <t>Componența etnică locală</t>
-  </si>
-  <si>
-    <t>Riscul de adaptare a ideilor proprii de către concurenți</t>
-  </si>
-  <si>
-    <t>Dificultăți în asigurarea personalului cu lucrători calificați pe termen lung</t>
-  </si>
-  <si>
-    <t>Noi nu vom avea un spațiu fizic de deservire .</t>
-  </si>
-  <si>
-    <t>Strategia noastră de ditstribuție va fi diferită în dependeță de tipul comenzii</t>
-  </si>
-  <si>
-    <t>Pentru evenimente se va plasa comanda pe site-ul nostru</t>
-  </si>
-  <si>
-    <t>Pentru comenzi individuale se vor utiliza serviciile prestate de Tazz și Glovo</t>
-  </si>
-  <si>
-    <t>Noi vom vinde prin intermediul propriei pagini web</t>
-  </si>
-  <si>
-    <t>Noi vom vinde prin intermediul serviciilor de catering Tazz și Glovo</t>
-  </si>
 </sst>
 </file>
 
@@ -1346,7 +1316,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="&quot;₺&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1720,35 +1690,8 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1881,14 +1824,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6DCE5"/>
-        <bgColor rgb="FFD6DCE4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="116">
+  <borders count="114">
     <border>
       <left/>
       <right/>
@@ -3191,36 +3128,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF767171"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF767171"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF767171"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF767171"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3233,7 +3140,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3866,6 +3773,10 @@
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4193,10 +4104,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4219,6 +4126,14 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4297,15 +4212,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -4398,46 +4305,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="48" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8983,8 +8850,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11600010" y="203301"/>
-          <a:ext cx="1897546" cy="289928"/>
+          <a:off x="11562516" y="202410"/>
+          <a:ext cx="1915447" cy="287257"/>
           <a:chOff x="11182351" y="287833"/>
           <a:chExt cx="1905000" cy="289100"/>
         </a:xfrm>
@@ -9317,8 +9184,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1459</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9403,8 +9270,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1459</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9498,8 +9365,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1459</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9584,8 +9451,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1459</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9679,8 +9546,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1459</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9765,8 +9632,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1459</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9860,8 +9727,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1459</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10578,8 +10445,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>312865</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11211,8 +11078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8924324" y="131111"/>
-          <a:ext cx="1045545" cy="451201"/>
+          <a:off x="8924925" y="131025"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -38083,8 +37950,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11395364" y="134216"/>
-          <a:ext cx="1042268" cy="444804"/>
+          <a:off x="11458575" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -39468,8 +39335,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11742026" y="129737"/>
-          <a:ext cx="1044657" cy="448686"/>
+          <a:off x="11744325" y="133350"/>
+          <a:ext cx="1044000" cy="450000"/>
           <a:chOff x="6972831" y="127063"/>
           <a:chExt cx="1044000" cy="450000"/>
         </a:xfrm>
@@ -39936,7 +39803,7 @@
   </sheetPr>
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -39971,11 +39838,11 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="328" t="s">
-        <v>236</v>
+      <c r="B2" s="329" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="247"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="219"/>
       <c r="F2" s="219"/>
       <c r="G2" s="219"/>
@@ -39989,11 +39856,11 @@
       <c r="O2" s="220"/>
     </row>
     <row r="3" spans="1:15" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="329" t="s">
-        <v>237</v>
+      <c r="B3" s="330" t="s">
+        <v>303</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="248"/>
+      <c r="D3" s="249"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -40060,7 +39927,7 @@
     <row r="7" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="168" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="D7" s="168"/>
       <c r="E7" s="168"/>
@@ -40092,18 +39959,18 @@
     <row r="9" spans="1:15" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="165"/>
-      <c r="D9" s="244" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
+      <c r="D9" s="245" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
       <c r="G9" s="155"/>
       <c r="H9" s="160"/>
-      <c r="I9" s="244" t="s">
-        <v>233</v>
-      </c>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
+      <c r="I9" s="245" t="s">
+        <v>299</v>
+      </c>
+      <c r="J9" s="245"/>
+      <c r="K9" s="245"/>
       <c r="L9" s="157"/>
       <c r="M9" s="153"/>
       <c r="N9" s="17"/>
@@ -40127,15 +39994,15 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="117"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="246" t="s">
+      <c r="E11" s="246"/>
+      <c r="F11" s="247" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="155"/>
       <c r="H11" s="155"/>
       <c r="I11" s="117"/>
       <c r="J11" s="234"/>
-      <c r="K11" s="246" t="s">
+      <c r="K11" s="247" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="159"/>
@@ -40160,18 +40027,18 @@
     <row r="13" spans="1:15" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="164"/>
-      <c r="D13" s="244" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
+      <c r="D13" s="245" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="245"/>
+      <c r="F13" s="245"/>
       <c r="G13" s="155"/>
       <c r="H13" s="161"/>
-      <c r="I13" s="244" t="s">
-        <v>234</v>
-      </c>
-      <c r="J13" s="244"/>
-      <c r="K13" s="244"/>
+      <c r="I13" s="245" t="s">
+        <v>300</v>
+      </c>
+      <c r="J13" s="245"/>
+      <c r="K13" s="245"/>
       <c r="L13" s="157"/>
       <c r="M13" s="153"/>
       <c r="N13" s="17"/>
@@ -40196,14 +40063,14 @@
       <c r="C15" s="16"/>
       <c r="D15" s="117"/>
       <c r="E15" s="234"/>
-      <c r="F15" s="246" t="s">
+      <c r="F15" s="247" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="155"/>
       <c r="H15" s="155"/>
       <c r="I15" s="117"/>
       <c r="J15" s="234"/>
-      <c r="K15" s="246" t="s">
+      <c r="K15" s="247" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="159"/>
@@ -40230,14 +40097,14 @@
       <c r="C17" s="16"/>
       <c r="D17" s="117"/>
       <c r="E17" s="234"/>
-      <c r="F17" s="246" t="s">
+      <c r="F17" s="247" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="155"/>
       <c r="H17" s="155"/>
       <c r="I17" s="117"/>
       <c r="J17" s="234"/>
-      <c r="K17" s="246" t="s">
+      <c r="K17" s="247" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="159"/>
@@ -40262,16 +40129,16 @@
     <row r="19" spans="2:20" s="10" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="163"/>
-      <c r="D19" s="244" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="244"/>
-      <c r="F19" s="244"/>
+      <c r="D19" s="245" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="245"/>
+      <c r="F19" s="245"/>
       <c r="G19" s="155"/>
       <c r="H19" s="155"/>
       <c r="I19" s="117"/>
       <c r="J19" s="234"/>
-      <c r="K19" s="246" t="s">
+      <c r="K19" s="247" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="159"/>
@@ -40298,14 +40165,14 @@
       <c r="C21" s="16"/>
       <c r="D21" s="117"/>
       <c r="E21" s="234"/>
-      <c r="F21" s="246" t="s">
+      <c r="F21" s="247" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="155"/>
       <c r="H21" s="155"/>
       <c r="I21" s="117"/>
       <c r="J21" s="234"/>
-      <c r="K21" s="246" t="s">
+      <c r="K21" s="247" t="s">
         <v>9</v>
       </c>
       <c r="L21" s="159"/>
@@ -40332,14 +40199,14 @@
       <c r="C23" s="16"/>
       <c r="D23" s="117"/>
       <c r="E23" s="234"/>
-      <c r="F23" s="246" t="s">
+      <c r="F23" s="247" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="155"/>
       <c r="H23" s="155"/>
       <c r="I23" s="117"/>
       <c r="J23" s="234"/>
-      <c r="K23" s="246" t="s">
+      <c r="K23" s="247" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="159"/>
@@ -40368,16 +40235,16 @@
       <c r="C25" s="16"/>
       <c r="D25" s="117"/>
       <c r="E25" s="234"/>
-      <c r="F25" s="246" t="s">
+      <c r="F25" s="247" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="155"/>
       <c r="H25" s="162"/>
-      <c r="I25" s="244" t="s">
-        <v>235</v>
-      </c>
-      <c r="J25" s="244"/>
-      <c r="K25" s="244"/>
+      <c r="I25" s="245" t="s">
+        <v>301</v>
+      </c>
+      <c r="J25" s="245"/>
+      <c r="K25" s="245"/>
       <c r="L25" s="157"/>
       <c r="M25" s="153"/>
       <c r="N25" s="17"/>
@@ -40402,14 +40269,14 @@
       <c r="C27" s="16"/>
       <c r="D27" s="117"/>
       <c r="E27" s="234"/>
-      <c r="F27" s="246" t="s">
+      <c r="F27" s="247" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="155"/>
       <c r="H27" s="155"/>
       <c r="I27" s="117"/>
       <c r="J27" s="234"/>
-      <c r="K27" s="246" t="s">
+      <c r="K27" s="247" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="159"/>
@@ -40436,14 +40303,14 @@
       <c r="C29" s="16"/>
       <c r="D29" s="117"/>
       <c r="E29" s="234"/>
-      <c r="F29" s="246" t="s">
+      <c r="F29" s="247" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="155"/>
       <c r="H29" s="155"/>
       <c r="I29" s="117"/>
       <c r="J29" s="234"/>
-      <c r="K29" s="246" t="s">
+      <c r="K29" s="247" t="s">
         <v>9</v>
       </c>
       <c r="L29" s="159"/>
@@ -40470,14 +40337,14 @@
       <c r="C31" s="16"/>
       <c r="D31" s="117"/>
       <c r="E31" s="234"/>
-      <c r="F31" s="246" t="s">
+      <c r="F31" s="247" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="155"/>
       <c r="H31" s="155"/>
       <c r="I31" s="117"/>
       <c r="J31" s="234"/>
-      <c r="K31" s="246" t="s">
+      <c r="K31" s="247" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="159"/>
@@ -40571,10 +40438,10 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="111" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40591,15 +40458,15 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:4" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="328" t="s">
-        <v>236</v>
+      <c r="B2" s="329" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="329" t="s">
-        <v>251</v>
+      <c r="B3" s="330" t="s">
+        <v>319</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -40617,84 +40484,86 @@
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="290" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="290" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="290" t="s">
+      <c r="B6" s="291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="291" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="291" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="235" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="396" t="s">
+      <c r="D7" s="236" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="235" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="236" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="235" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="236" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="397" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="397" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="396" t="s">
+      <c r="C10" s="235" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="235"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="235" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="236" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="397" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="397"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="396" t="s">
+      <c r="C12" s="235" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="235"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="397" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="397" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="396" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="397" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="397"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="396" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="397" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="398" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="396" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="397" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="397"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="396" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="397" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="397"/>
+      <c r="C13" s="236" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="236"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="180"/>
@@ -40707,91 +40576,93 @@
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="360" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="361"/>
-      <c r="D16" s="362"/>
+      <c r="B16" s="362" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="363"/>
+      <c r="D16" s="364"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="399" t="s">
-        <v>359</v>
-      </c>
-      <c r="C17" s="399"/>
-      <c r="D17" s="399"/>
+      <c r="B17" s="344" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="365"/>
+      <c r="D17" s="345"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="399" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="399"/>
-      <c r="D18" s="399"/>
+      <c r="B18" s="340" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="361"/>
+      <c r="D18" s="341"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="399" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" s="399"/>
-      <c r="D19" s="399"/>
+      <c r="B19" s="340" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="361"/>
+      <c r="D19" s="341"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="340"/>
-      <c r="C20" s="359"/>
+      <c r="B20" s="340" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="361"/>
       <c r="D20" s="341"/>
     </row>
     <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="340"/>
-      <c r="C21" s="359"/>
+      <c r="C21" s="361"/>
       <c r="D21" s="341"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="340"/>
-      <c r="C22" s="359"/>
+      <c r="C22" s="361"/>
       <c r="D22" s="341"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="340"/>
-      <c r="C23" s="359"/>
+      <c r="C23" s="361"/>
       <c r="D23" s="341"/>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="340"/>
-      <c r="C24" s="359"/>
+      <c r="C24" s="361"/>
       <c r="D24" s="341"/>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="340"/>
-      <c r="C25" s="359"/>
+      <c r="C25" s="361"/>
       <c r="D25" s="341"/>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="340"/>
-      <c r="C26" s="359"/>
+      <c r="C26" s="361"/>
       <c r="D26" s="341"/>
     </row>
     <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="340"/>
-      <c r="C27" s="359"/>
+      <c r="C27" s="361"/>
       <c r="D27" s="341"/>
     </row>
     <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="340"/>
-      <c r="C28" s="359"/>
+      <c r="C28" s="361"/>
       <c r="D28" s="341"/>
     </row>
     <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340"/>
-      <c r="C29" s="359"/>
+      <c r="C29" s="361"/>
       <c r="D29" s="341"/>
     </row>
     <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340"/>
-      <c r="C30" s="359"/>
+      <c r="C30" s="361"/>
       <c r="D30" s="341"/>
     </row>
     <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="338"/>
-      <c r="C31" s="358"/>
+      <c r="C31" s="360"/>
       <c r="D31" s="339"/>
     </row>
   </sheetData>
@@ -40814,7 +40685,7 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B27:D27"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B14" xr:uid="{CF462609-70FD-4174-95B0-56CFEBAF0773}">
       <formula1>"✘,✓"</formula1>
     </dataValidation>
@@ -40855,16 +40726,16 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>252</v>
+      <c r="B3" s="332" t="s">
+        <v>320</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -40885,82 +40756,82 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="292" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="295"/>
+      <c r="B6" s="293" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="294"/>
+      <c r="D6" s="294"/>
+      <c r="E6" s="296"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="296" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="296" t="s">
-        <v>194</v>
+      <c r="B7" s="297" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="297" t="s">
+        <v>250</v>
       </c>
       <c r="D7" s="371" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E7" s="371"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="182" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="C8" s="183" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="D8" s="370" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="E8" s="366"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="182" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="C9" s="183" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="D9" s="370" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="E9" s="366"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="182" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="C10" s="183" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="D10" s="370" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="E10" s="366"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="182" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="C11" s="183" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="D11" s="370" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="E11" s="366"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="182" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="C12" s="183" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="D12" s="370" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="E12" s="366"/>
     </row>
@@ -41013,36 +40884,36 @@
       <c r="E20" s="366"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="300"/>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="292" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="293"/>
-      <c r="D22" s="293"/>
-      <c r="E22" s="294"/>
+      <c r="B22" s="293" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="294"/>
+      <c r="D22" s="294"/>
+      <c r="E22" s="295"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="297" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="289" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="289" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="298" t="s">
-        <v>28</v>
+      <c r="B23" s="298" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="290" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="290" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="299" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="185" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="C24" s="186">
         <v>5</v>
@@ -41057,7 +40928,7 @@
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="188" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="C25" s="189">
         <v>20</v>
@@ -41072,12 +40943,12 @@
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="188" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="C26" s="191">
         <v>10</v>
       </c>
-      <c r="D26" s="333">
+      <c r="D26" s="334">
         <v>25000</v>
       </c>
       <c r="E26" s="196">
@@ -41087,7 +40958,7 @@
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="188" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="C27" s="189">
         <v>3</v>
@@ -41102,7 +40973,7 @@
     </row>
     <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="188" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="C28" s="189">
         <v>8</v>
@@ -41136,7 +41007,7 @@
     <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="192"/>
       <c r="C31" s="189"/>
-      <c r="D31" s="333"/>
+      <c r="D31" s="334"/>
       <c r="E31" s="196" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -41199,7 +41070,7 @@
     <row r="38" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="193"/>
       <c r="C38" s="194"/>
-      <c r="D38" s="334"/>
+      <c r="D38" s="335"/>
       <c r="E38" s="197" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -41207,7 +41078,7 @@
     </row>
     <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="121" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C39" s="198">
         <f>IFERROR(SUM(C24:C38),"")</f>
@@ -41229,99 +41100,99 @@
       <c r="E40" s="120"/>
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="360" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="361"/>
-      <c r="D41" s="361"/>
-      <c r="E41" s="362"/>
+      <c r="B41" s="362" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="363"/>
+      <c r="D41" s="363"/>
+      <c r="E41" s="364"/>
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="363" t="s">
-        <v>210</v>
-      </c>
-      <c r="C42" s="364"/>
-      <c r="D42" s="364"/>
-      <c r="E42" s="365"/>
+      <c r="B42" s="344" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="365"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="345"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="340" t="s">
-        <v>262</v>
-      </c>
-      <c r="C43" s="359"/>
-      <c r="D43" s="359"/>
+        <v>333</v>
+      </c>
+      <c r="C43" s="361"/>
+      <c r="D43" s="361"/>
       <c r="E43" s="341"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="340"/>
-      <c r="C44" s="359"/>
-      <c r="D44" s="359"/>
+      <c r="C44" s="361"/>
+      <c r="D44" s="361"/>
       <c r="E44" s="341"/>
     </row>
     <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="340"/>
-      <c r="C45" s="359"/>
-      <c r="D45" s="359"/>
+      <c r="C45" s="361"/>
+      <c r="D45" s="361"/>
       <c r="E45" s="341"/>
     </row>
     <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="340"/>
-      <c r="C46" s="359"/>
-      <c r="D46" s="359"/>
+      <c r="C46" s="361"/>
+      <c r="D46" s="361"/>
       <c r="E46" s="341"/>
     </row>
     <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="340"/>
-      <c r="C47" s="359"/>
-      <c r="D47" s="359"/>
+      <c r="C47" s="361"/>
+      <c r="D47" s="361"/>
       <c r="E47" s="341"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="340"/>
-      <c r="C48" s="359"/>
-      <c r="D48" s="359"/>
+      <c r="C48" s="361"/>
+      <c r="D48" s="361"/>
       <c r="E48" s="341"/>
     </row>
     <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="340"/>
-      <c r="C49" s="359"/>
-      <c r="D49" s="359"/>
+      <c r="C49" s="361"/>
+      <c r="D49" s="361"/>
       <c r="E49" s="341"/>
     </row>
     <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="340"/>
-      <c r="C50" s="359"/>
-      <c r="D50" s="359"/>
+      <c r="C50" s="361"/>
+      <c r="D50" s="361"/>
       <c r="E50" s="341"/>
     </row>
     <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="340"/>
-      <c r="C51" s="359"/>
-      <c r="D51" s="359"/>
+      <c r="C51" s="361"/>
+      <c r="D51" s="361"/>
       <c r="E51" s="341"/>
     </row>
     <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="340"/>
-      <c r="C52" s="359"/>
-      <c r="D52" s="359"/>
+      <c r="C52" s="361"/>
+      <c r="D52" s="361"/>
       <c r="E52" s="341"/>
     </row>
     <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="340"/>
-      <c r="C53" s="359"/>
-      <c r="D53" s="359"/>
+      <c r="C53" s="361"/>
+      <c r="D53" s="361"/>
       <c r="E53" s="341"/>
     </row>
     <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="340"/>
-      <c r="C54" s="359"/>
-      <c r="D54" s="359"/>
+      <c r="C54" s="361"/>
+      <c r="D54" s="361"/>
       <c r="E54" s="341"/>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="340"/>
-      <c r="C55" s="359"/>
-      <c r="D55" s="359"/>
+      <c r="C55" s="361"/>
+      <c r="D55" s="361"/>
       <c r="E55" s="341"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41401,8 +41272,8 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -41411,8 +41282,8 @@
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>253</v>
+      <c r="B3" s="332" t="s">
+        <v>321</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -41440,7 +41311,7 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="200" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C6" s="176">
         <v>2022</v>
@@ -41460,7 +41331,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="202" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="C7" s="203">
         <v>1000000</v>
@@ -41480,7 +41351,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="188" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="C8" s="190">
         <v>5000000</v>
@@ -41605,7 +41476,7 @@
     <row r="22" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="233" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C23" s="198">
         <f>IFERROR(IF(LEN(C$6)=0,"",SUM(C7:C21)),"")</f>
@@ -41631,10 +41502,10 @@
     <row r="24" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="149" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C25" s="209" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D25" s="209">
         <f>IFERROR((D23-C23)/C23,"-")</f>
@@ -41655,7 +41526,7 @@
     </row>
     <row r="27" spans="2:7" s="150" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="372" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C27" s="373"/>
       <c r="D27" s="373"/>
@@ -41664,129 +41535,129 @@
       <c r="G27" s="374"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="363" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="364"/>
-      <c r="D28" s="364"/>
-      <c r="E28" s="364"/>
-      <c r="F28" s="364"/>
-      <c r="G28" s="365"/>
+      <c r="B28" s="344" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="365"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="365"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="345"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="340" t="s">
-        <v>263</v>
-      </c>
-      <c r="C29" s="359"/>
-      <c r="D29" s="359"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="359"/>
+        <v>334</v>
+      </c>
+      <c r="C29" s="361"/>
+      <c r="D29" s="361"/>
+      <c r="E29" s="361"/>
+      <c r="F29" s="361"/>
       <c r="G29" s="341"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="340" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="359"/>
-      <c r="D30" s="359"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="359"/>
+        <v>335</v>
+      </c>
+      <c r="C30" s="361"/>
+      <c r="D30" s="361"/>
+      <c r="E30" s="361"/>
+      <c r="F30" s="361"/>
       <c r="G30" s="341"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="340"/>
-      <c r="C31" s="359"/>
-      <c r="D31" s="359"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="359"/>
+      <c r="C31" s="361"/>
+      <c r="D31" s="361"/>
+      <c r="E31" s="361"/>
+      <c r="F31" s="361"/>
       <c r="G31" s="341"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="340"/>
-      <c r="C32" s="359"/>
-      <c r="D32" s="359"/>
-      <c r="E32" s="359"/>
-      <c r="F32" s="359"/>
+      <c r="C32" s="361"/>
+      <c r="D32" s="361"/>
+      <c r="E32" s="361"/>
+      <c r="F32" s="361"/>
       <c r="G32" s="341"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="340"/>
-      <c r="C33" s="359"/>
-      <c r="D33" s="359"/>
-      <c r="E33" s="359"/>
-      <c r="F33" s="359"/>
+      <c r="C33" s="361"/>
+      <c r="D33" s="361"/>
+      <c r="E33" s="361"/>
+      <c r="F33" s="361"/>
       <c r="G33" s="341"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="340"/>
-      <c r="C34" s="359"/>
-      <c r="D34" s="359"/>
-      <c r="E34" s="359"/>
-      <c r="F34" s="359"/>
+      <c r="C34" s="361"/>
+      <c r="D34" s="361"/>
+      <c r="E34" s="361"/>
+      <c r="F34" s="361"/>
       <c r="G34" s="341"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="340"/>
-      <c r="C35" s="359"/>
-      <c r="D35" s="359"/>
-      <c r="E35" s="359"/>
-      <c r="F35" s="359"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="361"/>
+      <c r="E35" s="361"/>
+      <c r="F35" s="361"/>
       <c r="G35" s="341"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="340"/>
-      <c r="C36" s="359"/>
-      <c r="D36" s="359"/>
-      <c r="E36" s="359"/>
-      <c r="F36" s="359"/>
+      <c r="C36" s="361"/>
+      <c r="D36" s="361"/>
+      <c r="E36" s="361"/>
+      <c r="F36" s="361"/>
       <c r="G36" s="341"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="340"/>
-      <c r="C37" s="359"/>
-      <c r="D37" s="359"/>
-      <c r="E37" s="359"/>
-      <c r="F37" s="359"/>
+      <c r="C37" s="361"/>
+      <c r="D37" s="361"/>
+      <c r="E37" s="361"/>
+      <c r="F37" s="361"/>
       <c r="G37" s="341"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="340"/>
-      <c r="C38" s="359"/>
-      <c r="D38" s="359"/>
-      <c r="E38" s="359"/>
-      <c r="F38" s="359"/>
+      <c r="C38" s="361"/>
+      <c r="D38" s="361"/>
+      <c r="E38" s="361"/>
+      <c r="F38" s="361"/>
       <c r="G38" s="341"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="340"/>
-      <c r="C39" s="359"/>
-      <c r="D39" s="359"/>
-      <c r="E39" s="359"/>
-      <c r="F39" s="359"/>
+      <c r="C39" s="361"/>
+      <c r="D39" s="361"/>
+      <c r="E39" s="361"/>
+      <c r="F39" s="361"/>
       <c r="G39" s="341"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="340"/>
-      <c r="C40" s="359"/>
-      <c r="D40" s="359"/>
-      <c r="E40" s="359"/>
-      <c r="F40" s="359"/>
+      <c r="C40" s="361"/>
+      <c r="D40" s="361"/>
+      <c r="E40" s="361"/>
+      <c r="F40" s="361"/>
       <c r="G40" s="341"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="340"/>
-      <c r="C41" s="359"/>
-      <c r="D41" s="359"/>
-      <c r="E41" s="359"/>
-      <c r="F41" s="359"/>
+      <c r="C41" s="361"/>
+      <c r="D41" s="361"/>
+      <c r="E41" s="361"/>
+      <c r="F41" s="361"/>
       <c r="G41" s="341"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="338"/>
-      <c r="C42" s="358"/>
-      <c r="D42" s="358"/>
-      <c r="E42" s="358"/>
-      <c r="F42" s="358"/>
+      <c r="C42" s="360"/>
+      <c r="D42" s="360"/>
+      <c r="E42" s="360"/>
+      <c r="F42" s="360"/>
       <c r="G42" s="339"/>
     </row>
   </sheetData>
@@ -41845,8 +41716,8 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -41857,8 +41728,8 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>254</v>
+      <c r="B3" s="332" t="s">
+        <v>322</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -41895,53 +41766,53 @@
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="74"/>
       <c r="C7" s="70"/>
-      <c r="D7" s="310">
+      <c r="D7" s="311">
         <v>2022</v>
       </c>
-      <c r="E7" s="310">
+      <c r="E7" s="311">
         <v>2023</v>
       </c>
-      <c r="F7" s="310">
+      <c r="F7" s="311">
         <v>2024</v>
       </c>
-      <c r="G7" s="310">
+      <c r="G7" s="311">
         <v>2025</v>
       </c>
-      <c r="H7" s="310">
+      <c r="H7" s="311">
         <v>2026</v>
       </c>
       <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
-      <c r="C8" s="306" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="307"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="307"/>
-      <c r="H8" s="307"/>
+      <c r="C8" s="307" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="308"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="308"/>
+      <c r="G8" s="308"/>
+      <c r="H8" s="308"/>
       <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="74"/>
       <c r="C9" s="210" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="300">
+        <v>108</v>
+      </c>
+      <c r="D9" s="301">
         <v>6000000</v>
       </c>
-      <c r="E9" s="300">
+      <c r="E9" s="301">
         <v>12000000</v>
       </c>
-      <c r="F9" s="300">
+      <c r="F9" s="301">
         <v>16000000</v>
       </c>
-      <c r="G9" s="300">
+      <c r="G9" s="301">
         <v>24000000</v>
       </c>
-      <c r="H9" s="300">
+      <c r="H9" s="301">
         <v>30000000</v>
       </c>
       <c r="I9" s="75"/>
@@ -41949,21 +41820,21 @@
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74"/>
       <c r="C10" s="211" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="301">
+        <v>110</v>
+      </c>
+      <c r="D10" s="302">
         <v>110000</v>
       </c>
-      <c r="E10" s="301">
+      <c r="E10" s="302">
         <v>230000</v>
       </c>
-      <c r="F10" s="301">
+      <c r="F10" s="302">
         <v>335000</v>
       </c>
-      <c r="G10" s="301">
+      <c r="G10" s="302">
         <v>485000</v>
       </c>
-      <c r="H10" s="301">
+      <c r="H10" s="302">
         <v>635000</v>
       </c>
       <c r="I10" s="75"/>
@@ -41971,35 +41842,35 @@
     <row r="11" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74"/>
       <c r="C11" s="129"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="303"/>
       <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="74"/>
       <c r="C12" s="134" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="303">
+        <v>111</v>
+      </c>
+      <c r="D12" s="304">
         <f>IFERROR(D9-D10,"")</f>
         <v>5890000</v>
       </c>
-      <c r="E12" s="303">
+      <c r="E12" s="304">
         <f t="shared" ref="E12:H12" si="0">IFERROR(E9-E10,"")</f>
         <v>11770000</v>
       </c>
-      <c r="F12" s="303">
+      <c r="F12" s="304">
         <f t="shared" si="0"/>
         <v>15665000</v>
       </c>
-      <c r="G12" s="303">
+      <c r="G12" s="304">
         <f t="shared" si="0"/>
         <v>23515000</v>
       </c>
-      <c r="H12" s="303">
+      <c r="H12" s="304">
         <f t="shared" si="0"/>
         <v>29365000</v>
       </c>
@@ -42008,31 +41879,31 @@
     <row r="13" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74"/>
       <c r="C13" s="135"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
+      <c r="D13" s="305"/>
+      <c r="E13" s="305"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="305"/>
+      <c r="H13" s="305"/>
       <c r="I13" s="75"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="74"/>
       <c r="C14" s="210" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="300">
+        <v>113</v>
+      </c>
+      <c r="D14" s="301">
         <v>2000000</v>
       </c>
-      <c r="E14" s="300">
+      <c r="E14" s="301">
         <v>2000000</v>
       </c>
-      <c r="F14" s="300">
+      <c r="F14" s="301">
         <v>2500000</v>
       </c>
-      <c r="G14" s="300">
+      <c r="G14" s="301">
         <v>2500000</v>
       </c>
-      <c r="H14" s="300">
+      <c r="H14" s="301">
         <v>2500000</v>
       </c>
       <c r="I14" s="75"/>
@@ -42040,35 +41911,35 @@
     <row r="15" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="74"/>
       <c r="C15" s="129"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
-      <c r="H15" s="302"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="303"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="303"/>
       <c r="I15" s="75"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="74"/>
       <c r="C16" s="134" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="303">
+        <v>117</v>
+      </c>
+      <c r="D16" s="304">
         <f>IFERROR(D12-D14,"")</f>
         <v>3890000</v>
       </c>
-      <c r="E16" s="303">
+      <c r="E16" s="304">
         <f>IFERROR(E12-E14,"")</f>
         <v>9770000</v>
       </c>
-      <c r="F16" s="303">
+      <c r="F16" s="304">
         <f>IFERROR(F12-F14,"")</f>
         <v>13165000</v>
       </c>
-      <c r="G16" s="303">
+      <c r="G16" s="304">
         <f>IFERROR(G12-G14,"")</f>
         <v>21015000</v>
       </c>
-      <c r="H16" s="303">
+      <c r="H16" s="304">
         <f>IFERROR(H12-H14,"")</f>
         <v>26865000</v>
       </c>
@@ -42077,43 +41948,43 @@
     <row r="17" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="74"/>
       <c r="C17" s="129"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
       <c r="I17" s="75"/>
     </row>
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74"/>
-      <c r="C18" s="306" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="308"/>
-      <c r="E18" s="308"/>
-      <c r="F18" s="308"/>
-      <c r="G18" s="308"/>
-      <c r="H18" s="308"/>
+      <c r="C18" s="307" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="309"/>
       <c r="I18" s="75"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="74"/>
       <c r="C19" s="212" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="305">
+        <v>50</v>
+      </c>
+      <c r="D19" s="306">
         <v>1110000</v>
       </c>
-      <c r="E19" s="305">
+      <c r="E19" s="306">
         <v>1110000</v>
       </c>
-      <c r="F19" s="305">
+      <c r="F19" s="306">
         <v>1200000</v>
       </c>
-      <c r="G19" s="305">
+      <c r="G19" s="306">
         <v>1200000</v>
       </c>
-      <c r="H19" s="305">
+      <c r="H19" s="306">
         <v>1200000</v>
       </c>
       <c r="I19" s="75"/>
@@ -42121,21 +41992,21 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
       <c r="C20" s="211" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="301">
+        <v>51</v>
+      </c>
+      <c r="D20" s="302">
         <v>200000</v>
       </c>
-      <c r="E20" s="301">
+      <c r="E20" s="302">
         <v>200000</v>
       </c>
-      <c r="F20" s="301">
+      <c r="F20" s="302">
         <v>200000</v>
       </c>
-      <c r="G20" s="301">
+      <c r="G20" s="302">
         <v>200000</v>
       </c>
-      <c r="H20" s="301">
+      <c r="H20" s="302">
         <v>200000</v>
       </c>
       <c r="I20" s="75"/>
@@ -42143,21 +42014,21 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="74"/>
       <c r="C21" s="211" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="301">
+        <v>30</v>
+      </c>
+      <c r="D21" s="302">
         <v>200000</v>
       </c>
-      <c r="E21" s="301">
+      <c r="E21" s="302">
         <v>2000000</v>
       </c>
-      <c r="F21" s="301">
+      <c r="F21" s="302">
         <v>500000</v>
       </c>
-      <c r="G21" s="301">
+      <c r="G21" s="302">
         <v>500000</v>
       </c>
-      <c r="H21" s="301">
+      <c r="H21" s="302">
         <v>500000</v>
       </c>
       <c r="I21" s="75"/>
@@ -42165,21 +42036,21 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="211" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="301">
+        <v>52</v>
+      </c>
+      <c r="D22" s="302">
         <v>50000</v>
       </c>
-      <c r="E22" s="301">
+      <c r="E22" s="302">
         <v>50000</v>
       </c>
-      <c r="F22" s="301">
+      <c r="F22" s="302">
         <v>50000</v>
       </c>
-      <c r="G22" s="301">
+      <c r="G22" s="302">
         <v>50000</v>
       </c>
-      <c r="H22" s="301">
+      <c r="H22" s="302">
         <v>50000</v>
       </c>
       <c r="I22" s="75"/>
@@ -42187,21 +42058,21 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="301">
+        <v>53</v>
+      </c>
+      <c r="D23" s="302">
         <v>1000000</v>
       </c>
-      <c r="E23" s="301">
+      <c r="E23" s="302">
         <v>1000000</v>
       </c>
-      <c r="F23" s="301">
+      <c r="F23" s="302">
         <v>1000000</v>
       </c>
-      <c r="G23" s="301">
+      <c r="G23" s="302">
         <v>1000000</v>
       </c>
-      <c r="H23" s="301">
+      <c r="H23" s="302">
         <v>1000000</v>
       </c>
       <c r="I23" s="75"/>
@@ -42209,21 +42080,21 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="211" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="301">
+        <v>54</v>
+      </c>
+      <c r="D24" s="302">
         <v>12000</v>
       </c>
-      <c r="E24" s="301">
+      <c r="E24" s="302">
         <v>12000</v>
       </c>
-      <c r="F24" s="301">
+      <c r="F24" s="302">
         <v>12000</v>
       </c>
-      <c r="G24" s="301">
+      <c r="G24" s="302">
         <v>12000</v>
       </c>
-      <c r="H24" s="301">
+      <c r="H24" s="302">
         <v>12000</v>
       </c>
       <c r="I24" s="75"/>
@@ -42231,219 +42102,219 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="211" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="301"/>
-      <c r="E25" s="301"/>
-      <c r="F25" s="301"/>
-      <c r="G25" s="301"/>
-      <c r="H25" s="301"/>
+        <v>55</v>
+      </c>
+      <c r="D25" s="302"/>
+      <c r="E25" s="302"/>
+      <c r="F25" s="302"/>
+      <c r="G25" s="302"/>
+      <c r="H25" s="302"/>
       <c r="I25" s="75"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="74"/>
       <c r="C26" s="211" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="301"/>
-      <c r="E26" s="301"/>
-      <c r="F26" s="301"/>
-      <c r="G26" s="301"/>
-      <c r="H26" s="301"/>
+        <v>56</v>
+      </c>
+      <c r="D26" s="302"/>
+      <c r="E26" s="302"/>
+      <c r="F26" s="302"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="302"/>
       <c r="I26" s="75"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="74"/>
       <c r="C27" s="211" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="301"/>
-      <c r="E27" s="301"/>
-      <c r="F27" s="301"/>
-      <c r="G27" s="301"/>
-      <c r="H27" s="301"/>
+        <v>57</v>
+      </c>
+      <c r="D27" s="302"/>
+      <c r="E27" s="302"/>
+      <c r="F27" s="302"/>
+      <c r="G27" s="302"/>
+      <c r="H27" s="302"/>
       <c r="I27" s="75"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="74"/>
       <c r="C28" s="211" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="301"/>
-      <c r="E28" s="301"/>
-      <c r="F28" s="301"/>
-      <c r="G28" s="301"/>
-      <c r="H28" s="301"/>
+        <v>58</v>
+      </c>
+      <c r="D28" s="302"/>
+      <c r="E28" s="302"/>
+      <c r="F28" s="302"/>
+      <c r="G28" s="302"/>
+      <c r="H28" s="302"/>
       <c r="I28" s="75"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="74"/>
       <c r="C29" s="211" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="301"/>
-      <c r="E29" s="301"/>
-      <c r="F29" s="301"/>
-      <c r="G29" s="301"/>
-      <c r="H29" s="301"/>
+        <v>59</v>
+      </c>
+      <c r="D29" s="302"/>
+      <c r="E29" s="302"/>
+      <c r="F29" s="302"/>
+      <c r="G29" s="302"/>
+      <c r="H29" s="302"/>
       <c r="I29" s="75"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="74"/>
       <c r="C30" s="211" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="301"/>
-      <c r="E30" s="301"/>
-      <c r="F30" s="301"/>
-      <c r="G30" s="301"/>
-      <c r="H30" s="301"/>
+        <v>60</v>
+      </c>
+      <c r="D30" s="302"/>
+      <c r="E30" s="302"/>
+      <c r="F30" s="302"/>
+      <c r="G30" s="302"/>
+      <c r="H30" s="302"/>
       <c r="I30" s="75"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="74"/>
       <c r="C31" s="211" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="301"/>
-      <c r="E31" s="301"/>
-      <c r="F31" s="301"/>
-      <c r="G31" s="301"/>
-      <c r="H31" s="301"/>
+        <v>61</v>
+      </c>
+      <c r="D31" s="302"/>
+      <c r="E31" s="302"/>
+      <c r="F31" s="302"/>
+      <c r="G31" s="302"/>
+      <c r="H31" s="302"/>
       <c r="I31" s="75"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="74"/>
       <c r="C32" s="211" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="301"/>
-      <c r="E32" s="301"/>
-      <c r="F32" s="301"/>
-      <c r="G32" s="301"/>
-      <c r="H32" s="301"/>
+        <v>62</v>
+      </c>
+      <c r="D32" s="302"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="302"/>
+      <c r="G32" s="302"/>
+      <c r="H32" s="302"/>
       <c r="I32" s="75"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="74"/>
       <c r="C33" s="211" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="301"/>
-      <c r="E33" s="301"/>
-      <c r="F33" s="301"/>
-      <c r="G33" s="301"/>
-      <c r="H33" s="301"/>
+        <v>63</v>
+      </c>
+      <c r="D33" s="302"/>
+      <c r="E33" s="302"/>
+      <c r="F33" s="302"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="302"/>
       <c r="I33" s="75"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="74"/>
       <c r="C34" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="301"/>
-      <c r="E34" s="301"/>
-      <c r="F34" s="301"/>
-      <c r="G34" s="301"/>
-      <c r="H34" s="301"/>
+        <v>53</v>
+      </c>
+      <c r="D34" s="302"/>
+      <c r="E34" s="302"/>
+      <c r="F34" s="302"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="302"/>
       <c r="I34" s="75"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="74"/>
       <c r="C35" s="211" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="301"/>
-      <c r="G35" s="301"/>
-      <c r="H35" s="301"/>
+        <v>64</v>
+      </c>
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="302"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="302"/>
       <c r="I35" s="75"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="74"/>
       <c r="C36" s="211" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="301"/>
-      <c r="E36" s="301"/>
-      <c r="F36" s="301"/>
-      <c r="G36" s="301"/>
-      <c r="H36" s="301"/>
+        <v>65</v>
+      </c>
+      <c r="D36" s="302"/>
+      <c r="E36" s="302"/>
+      <c r="F36" s="302"/>
+      <c r="G36" s="302"/>
+      <c r="H36" s="302"/>
       <c r="I36" s="75"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="74"/>
       <c r="C37" s="211"/>
-      <c r="D37" s="301"/>
-      <c r="E37" s="301"/>
-      <c r="F37" s="301"/>
-      <c r="G37" s="301"/>
-      <c r="H37" s="301"/>
+      <c r="D37" s="302"/>
+      <c r="E37" s="302"/>
+      <c r="F37" s="302"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="302"/>
       <c r="I37" s="75"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="74"/>
       <c r="C38" s="211"/>
-      <c r="D38" s="301"/>
-      <c r="E38" s="301"/>
-      <c r="F38" s="301"/>
-      <c r="G38" s="301"/>
-      <c r="H38" s="301"/>
+      <c r="D38" s="302"/>
+      <c r="E38" s="302"/>
+      <c r="F38" s="302"/>
+      <c r="G38" s="302"/>
+      <c r="H38" s="302"/>
       <c r="I38" s="75"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="74"/>
       <c r="C39" s="211"/>
-      <c r="D39" s="301"/>
-      <c r="E39" s="301"/>
-      <c r="F39" s="301"/>
-      <c r="G39" s="301"/>
-      <c r="H39" s="301"/>
+      <c r="D39" s="302"/>
+      <c r="E39" s="302"/>
+      <c r="F39" s="302"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
       <c r="I39" s="75"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="74"/>
       <c r="C40" s="211"/>
-      <c r="D40" s="301"/>
-      <c r="E40" s="301"/>
-      <c r="F40" s="301"/>
-      <c r="G40" s="301"/>
-      <c r="H40" s="301"/>
+      <c r="D40" s="302"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
       <c r="I40" s="75"/>
     </row>
     <row r="41" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="74"/>
       <c r="C41" s="129"/>
-      <c r="D41" s="302"/>
-      <c r="E41" s="302"/>
-      <c r="F41" s="302"/>
-      <c r="G41" s="302"/>
-      <c r="H41" s="302"/>
+      <c r="D41" s="303"/>
+      <c r="E41" s="303"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="303"/>
       <c r="I41" s="75"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
       <c r="C42" s="134" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="303">
+        <v>112</v>
+      </c>
+      <c r="D42" s="304">
         <f>IFERROR(SUM(D19:D40),"")</f>
         <v>2572000</v>
       </c>
-      <c r="E42" s="303">
+      <c r="E42" s="304">
         <f t="shared" ref="E42:H42" si="1">IFERROR(SUM(E19:E40),"")</f>
         <v>4372000</v>
       </c>
-      <c r="F42" s="303">
+      <c r="F42" s="304">
         <f t="shared" si="1"/>
         <v>2962000</v>
       </c>
-      <c r="G42" s="303">
+      <c r="G42" s="304">
         <f t="shared" si="1"/>
         <v>2962000</v>
       </c>
-      <c r="H42" s="303">
+      <c r="H42" s="304">
         <f t="shared" si="1"/>
         <v>2962000</v>
       </c>
@@ -42452,35 +42323,35 @@
     <row r="43" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="74"/>
       <c r="C43" s="129"/>
-      <c r="D43" s="302"/>
-      <c r="E43" s="302"/>
-      <c r="F43" s="302"/>
-      <c r="G43" s="302"/>
-      <c r="H43" s="302"/>
+      <c r="D43" s="303"/>
+      <c r="E43" s="303"/>
+      <c r="F43" s="303"/>
+      <c r="G43" s="303"/>
+      <c r="H43" s="303"/>
       <c r="I43" s="75"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="74"/>
       <c r="C44" s="134" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="303">
+        <v>118</v>
+      </c>
+      <c r="D44" s="304">
         <f>IFERROR(D16-D42,"")</f>
         <v>1318000</v>
       </c>
-      <c r="E44" s="303">
+      <c r="E44" s="304">
         <f t="shared" ref="E44:H44" si="2">IFERROR(E16-E42,"")</f>
         <v>5398000</v>
       </c>
-      <c r="F44" s="303">
+      <c r="F44" s="304">
         <f t="shared" si="2"/>
         <v>10203000</v>
       </c>
-      <c r="G44" s="303">
+      <c r="G44" s="304">
         <f t="shared" si="2"/>
         <v>18053000</v>
       </c>
-      <c r="H44" s="303">
+      <c r="H44" s="304">
         <f t="shared" si="2"/>
         <v>23903000</v>
       </c>
@@ -42489,43 +42360,43 @@
     <row r="45" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="74"/>
       <c r="C45" s="129"/>
-      <c r="D45" s="302"/>
-      <c r="E45" s="302"/>
-      <c r="F45" s="302"/>
-      <c r="G45" s="302"/>
-      <c r="H45" s="302"/>
+      <c r="D45" s="303"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
       <c r="I45" s="75"/>
     </row>
     <row r="46" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="74"/>
-      <c r="C46" s="306" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="308"/>
-      <c r="E46" s="308"/>
-      <c r="F46" s="308"/>
-      <c r="G46" s="308"/>
-      <c r="H46" s="308"/>
+      <c r="C46" s="307" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="309"/>
+      <c r="E46" s="309"/>
+      <c r="F46" s="309"/>
+      <c r="G46" s="309"/>
+      <c r="H46" s="309"/>
       <c r="I46" s="75"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="74"/>
       <c r="C47" s="212" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="305">
+        <v>47</v>
+      </c>
+      <c r="D47" s="306">
         <v>20000</v>
       </c>
-      <c r="E47" s="305">
+      <c r="E47" s="306">
         <v>20000</v>
       </c>
-      <c r="F47" s="305">
+      <c r="F47" s="306">
         <v>20000</v>
       </c>
-      <c r="G47" s="305">
+      <c r="G47" s="306">
         <v>20000</v>
       </c>
-      <c r="H47" s="305">
+      <c r="H47" s="306">
         <v>20000</v>
       </c>
       <c r="I47" s="75"/>
@@ -42533,59 +42404,59 @@
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="74"/>
       <c r="C48" s="211" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="301"/>
-      <c r="E48" s="301"/>
-      <c r="F48" s="301"/>
-      <c r="G48" s="301"/>
-      <c r="H48" s="301"/>
+        <v>48</v>
+      </c>
+      <c r="D48" s="302"/>
+      <c r="E48" s="302"/>
+      <c r="F48" s="302"/>
+      <c r="G48" s="302"/>
+      <c r="H48" s="302"/>
       <c r="I48" s="75"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="74"/>
       <c r="C49" s="211" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="301"/>
-      <c r="E49" s="301"/>
-      <c r="F49" s="301"/>
-      <c r="G49" s="301"/>
-      <c r="H49" s="301"/>
+        <v>49</v>
+      </c>
+      <c r="D49" s="302"/>
+      <c r="E49" s="302"/>
+      <c r="F49" s="302"/>
+      <c r="G49" s="302"/>
+      <c r="H49" s="302"/>
       <c r="I49" s="75"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="74"/>
       <c r="C50" s="129"/>
-      <c r="D50" s="302"/>
-      <c r="E50" s="302"/>
-      <c r="F50" s="302"/>
-      <c r="G50" s="302"/>
-      <c r="H50" s="302"/>
+      <c r="D50" s="303"/>
+      <c r="E50" s="303"/>
+      <c r="F50" s="303"/>
+      <c r="G50" s="303"/>
+      <c r="H50" s="303"/>
       <c r="I50" s="75"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="74"/>
       <c r="C51" s="134" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="303">
+        <v>119</v>
+      </c>
+      <c r="D51" s="304">
         <f>IFERROR(D44+SUM(D47:D49),"")</f>
         <v>1338000</v>
       </c>
-      <c r="E51" s="303">
+      <c r="E51" s="304">
         <f>IFERROR(E44+SUM(E47:E49),"")</f>
         <v>5418000</v>
       </c>
-      <c r="F51" s="303">
+      <c r="F51" s="304">
         <f>IFERROR(F44+SUM(F47:F49),"")</f>
         <v>10223000</v>
       </c>
-      <c r="G51" s="303">
+      <c r="G51" s="304">
         <f>IFERROR(G44+SUM(G47:G49),"")</f>
         <v>18073000</v>
       </c>
-      <c r="H51" s="303">
+      <c r="H51" s="304">
         <f>IFERROR(H44+SUM(H47:H49),"")</f>
         <v>23923000</v>
       </c>
@@ -42594,43 +42465,43 @@
     <row r="52" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="74"/>
       <c r="C52" s="129"/>
-      <c r="D52" s="302"/>
-      <c r="E52" s="302"/>
-      <c r="F52" s="302"/>
-      <c r="G52" s="302"/>
-      <c r="H52" s="302"/>
+      <c r="D52" s="303"/>
+      <c r="E52" s="303"/>
+      <c r="F52" s="303"/>
+      <c r="G52" s="303"/>
+      <c r="H52" s="303"/>
       <c r="I52" s="75"/>
     </row>
     <row r="53" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="74"/>
-      <c r="C53" s="306" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="308"/>
-      <c r="E53" s="308"/>
-      <c r="F53" s="308"/>
-      <c r="G53" s="308"/>
-      <c r="H53" s="308"/>
+      <c r="C53" s="307" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="309"/>
+      <c r="E53" s="309"/>
+      <c r="F53" s="309"/>
+      <c r="G53" s="309"/>
+      <c r="H53" s="309"/>
       <c r="I53" s="76"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="74"/>
       <c r="C54" s="212" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="305">
+        <v>68</v>
+      </c>
+      <c r="D54" s="306">
         <v>821400</v>
       </c>
-      <c r="E54" s="305">
+      <c r="E54" s="306">
         <v>4385400</v>
       </c>
-      <c r="F54" s="305">
+      <c r="F54" s="306">
         <v>8226900</v>
       </c>
-      <c r="G54" s="305">
+      <c r="G54" s="306">
         <v>12681900</v>
       </c>
-      <c r="H54" s="305">
+      <c r="H54" s="306">
         <v>17136900</v>
       </c>
       <c r="I54" s="75"/>
@@ -42638,47 +42509,47 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="74"/>
       <c r="C55" s="211" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="301"/>
-      <c r="E55" s="301"/>
-      <c r="F55" s="301"/>
-      <c r="G55" s="301"/>
-      <c r="H55" s="301"/>
+        <v>121</v>
+      </c>
+      <c r="D55" s="302"/>
+      <c r="E55" s="302"/>
+      <c r="F55" s="302"/>
+      <c r="G55" s="302"/>
+      <c r="H55" s="302"/>
       <c r="I55" s="75"/>
     </row>
     <row r="56" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="74"/>
       <c r="C56" s="129"/>
-      <c r="D56" s="302"/>
-      <c r="E56" s="302"/>
-      <c r="F56" s="302"/>
-      <c r="G56" s="302"/>
-      <c r="H56" s="302"/>
+      <c r="D56" s="303"/>
+      <c r="E56" s="303"/>
+      <c r="F56" s="303"/>
+      <c r="G56" s="303"/>
+      <c r="H56" s="303"/>
       <c r="I56" s="75"/>
     </row>
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="74"/>
       <c r="C57" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="303">
+        <v>122</v>
+      </c>
+      <c r="D57" s="304">
         <f>IFERROR(SUM(D54:D55),"")</f>
         <v>821400</v>
       </c>
-      <c r="E57" s="303">
+      <c r="E57" s="304">
         <f t="shared" ref="E57:H57" si="3">IFERROR(SUM(E54:E55),"")</f>
         <v>4385400</v>
       </c>
-      <c r="F57" s="303">
+      <c r="F57" s="304">
         <f t="shared" si="3"/>
         <v>8226900</v>
       </c>
-      <c r="G57" s="303">
+      <c r="G57" s="304">
         <f t="shared" si="3"/>
         <v>12681900</v>
       </c>
-      <c r="H57" s="303">
+      <c r="H57" s="304">
         <f t="shared" si="3"/>
         <v>17136900</v>
       </c>
@@ -42687,35 +42558,35 @@
     <row r="58" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="74"/>
       <c r="C58" s="129"/>
-      <c r="D58" s="302"/>
-      <c r="E58" s="302"/>
-      <c r="F58" s="302"/>
-      <c r="G58" s="302"/>
-      <c r="H58" s="302"/>
+      <c r="D58" s="303"/>
+      <c r="E58" s="303"/>
+      <c r="F58" s="303"/>
+      <c r="G58" s="303"/>
+      <c r="H58" s="303"/>
       <c r="I58" s="75"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="74"/>
       <c r="C59" s="134" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="303">
+        <v>120</v>
+      </c>
+      <c r="D59" s="304">
         <f>IFERROR(D51-D57,"")</f>
         <v>516600</v>
       </c>
-      <c r="E59" s="303">
+      <c r="E59" s="304">
         <f t="shared" ref="E59:H59" si="4">IFERROR(E51-E57,"")</f>
         <v>1032600</v>
       </c>
-      <c r="F59" s="303">
+      <c r="F59" s="304">
         <f t="shared" si="4"/>
         <v>1996100</v>
       </c>
-      <c r="G59" s="303">
+      <c r="G59" s="304">
         <f t="shared" si="4"/>
         <v>5391100</v>
       </c>
-      <c r="H59" s="303">
+      <c r="H59" s="304">
         <f t="shared" si="4"/>
         <v>6786100</v>
       </c>
@@ -42767,8 +42638,8 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="328" t="s">
-        <v>236</v>
+      <c r="B2" s="329" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="219"/>
@@ -42779,8 +42650,8 @@
       <c r="I2" s="219"/>
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="329" t="s">
-        <v>255</v>
+      <c r="B3" s="330" t="s">
+        <v>323</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="7"/>
@@ -42811,33 +42682,33 @@
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="74"/>
       <c r="C7" s="70"/>
-      <c r="D7" s="310">
+      <c r="D7" s="311">
         <v>2022</v>
       </c>
-      <c r="E7" s="310">
+      <c r="E7" s="311">
         <v>2023</v>
       </c>
-      <c r="F7" s="310">
+      <c r="F7" s="311">
         <v>2024</v>
       </c>
-      <c r="G7" s="310">
+      <c r="G7" s="311">
         <v>2025</v>
       </c>
-      <c r="H7" s="310">
+      <c r="H7" s="311">
         <v>2026</v>
       </c>
       <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
-      <c r="C8" s="306" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="307"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="307"/>
-      <c r="H8" s="307"/>
+      <c r="C8" s="307" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="308"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="308"/>
+      <c r="G8" s="308"/>
+      <c r="H8" s="308"/>
       <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -42853,7 +42724,7 @@
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74"/>
       <c r="C10" s="126" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
@@ -42865,21 +42736,21 @@
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="213" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="311">
+        <v>124</v>
+      </c>
+      <c r="D11" s="312">
         <v>2500000</v>
       </c>
-      <c r="E11" s="311">
+      <c r="E11" s="312">
         <v>3200000</v>
       </c>
-      <c r="F11" s="311">
+      <c r="F11" s="312">
         <v>4200000</v>
       </c>
-      <c r="G11" s="311">
+      <c r="G11" s="312">
         <v>6800000</v>
       </c>
-      <c r="H11" s="311">
+      <c r="H11" s="312">
         <v>6850000</v>
       </c>
       <c r="I11" s="60"/>
@@ -42887,21 +42758,21 @@
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="214" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="312">
+        <v>139</v>
+      </c>
+      <c r="D12" s="313">
         <v>2000000</v>
       </c>
-      <c r="E12" s="312">
+      <c r="E12" s="313">
         <v>2200000</v>
       </c>
-      <c r="F12" s="312">
+      <c r="F12" s="313">
         <v>2200000</v>
       </c>
-      <c r="G12" s="312">
+      <c r="G12" s="313">
         <v>3000000</v>
       </c>
-      <c r="H12" s="312">
+      <c r="H12" s="313">
         <v>3000000</v>
       </c>
       <c r="I12" s="60"/>
@@ -42909,49 +42780,49 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="214" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="312"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="312"/>
-      <c r="G13" s="312"/>
-      <c r="H13" s="312"/>
+        <v>140</v>
+      </c>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
       <c r="I13" s="60"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="214" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="312"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="312"/>
-      <c r="G14" s="312"/>
-      <c r="H14" s="312"/>
+        <v>142</v>
+      </c>
+      <c r="D14" s="313"/>
+      <c r="E14" s="313"/>
+      <c r="F14" s="313"/>
+      <c r="G14" s="313"/>
+      <c r="H14" s="313"/>
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="59"/>
       <c r="C15" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="313">
+        <v>125</v>
+      </c>
+      <c r="D15" s="314">
         <f>IFERROR(SUM(D11:D14),"")</f>
         <v>4500000</v>
       </c>
-      <c r="E15" s="313">
+      <c r="E15" s="314">
         <f t="shared" ref="E15:H15" si="0">IFERROR(SUM(E11:E14),"")</f>
         <v>5400000</v>
       </c>
-      <c r="F15" s="313">
+      <c r="F15" s="314">
         <f t="shared" si="0"/>
         <v>6400000</v>
       </c>
-      <c r="G15" s="313">
+      <c r="G15" s="314">
         <f t="shared" si="0"/>
         <v>9800000</v>
       </c>
-      <c r="H15" s="313">
+      <c r="H15" s="314">
         <f t="shared" si="0"/>
         <v>9850000</v>
       </c>
@@ -42960,43 +42831,43 @@
     <row r="16" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
       <c r="C16" s="131"/>
-      <c r="D16" s="314"/>
-      <c r="E16" s="314"/>
-      <c r="F16" s="314"/>
-      <c r="G16" s="314"/>
-      <c r="H16" s="314"/>
+      <c r="D16" s="315"/>
+      <c r="E16" s="315"/>
+      <c r="F16" s="315"/>
+      <c r="G16" s="315"/>
+      <c r="H16" s="315"/>
       <c r="I16" s="60"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="59"/>
       <c r="C17" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="315"/>
-      <c r="E17" s="315"/>
-      <c r="F17" s="315"/>
-      <c r="G17" s="315"/>
-      <c r="H17" s="315"/>
+        <v>126</v>
+      </c>
+      <c r="D17" s="316"/>
+      <c r="E17" s="316"/>
+      <c r="F17" s="316"/>
+      <c r="G17" s="316"/>
+      <c r="H17" s="316"/>
       <c r="I17" s="60"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
       <c r="C18" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="312">
+        <v>127</v>
+      </c>
+      <c r="D18" s="313">
         <v>250000</v>
       </c>
-      <c r="E18" s="312">
+      <c r="E18" s="313">
         <v>250000</v>
       </c>
-      <c r="F18" s="312">
+      <c r="F18" s="313">
         <v>250000</v>
       </c>
-      <c r="G18" s="312">
+      <c r="G18" s="313">
         <v>250000</v>
       </c>
-      <c r="H18" s="312">
+      <c r="H18" s="313">
         <v>250000</v>
       </c>
       <c r="I18" s="60"/>
@@ -43004,21 +42875,21 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="C19" s="214" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="312">
+        <v>128</v>
+      </c>
+      <c r="D19" s="313">
         <v>50000</v>
       </c>
-      <c r="E19" s="312">
+      <c r="E19" s="313">
         <v>50000</v>
       </c>
-      <c r="F19" s="312">
+      <c r="F19" s="313">
         <v>350000</v>
       </c>
-      <c r="G19" s="312">
+      <c r="G19" s="313">
         <v>1250000</v>
       </c>
-      <c r="H19" s="312">
+      <c r="H19" s="313">
         <v>2200000</v>
       </c>
       <c r="I19" s="60"/>
@@ -43026,25 +42897,25 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="313">
+        <v>129</v>
+      </c>
+      <c r="D20" s="314">
         <f>IFERROR(SUM(D18:D19),"")</f>
         <v>300000</v>
       </c>
-      <c r="E20" s="313">
+      <c r="E20" s="314">
         <f t="shared" ref="E20:H20" si="1">IFERROR(SUM(E18:E19),"")</f>
         <v>300000</v>
       </c>
-      <c r="F20" s="313">
+      <c r="F20" s="314">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
-      <c r="G20" s="313">
+      <c r="G20" s="314">
         <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
-      <c r="H20" s="313">
+      <c r="H20" s="314">
         <f t="shared" si="1"/>
         <v>2450000</v>
       </c>
@@ -43053,35 +42924,35 @@
     <row r="21" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
       <c r="C21" s="131"/>
-      <c r="D21" s="314"/>
-      <c r="E21" s="314"/>
-      <c r="F21" s="314"/>
-      <c r="G21" s="314"/>
-      <c r="H21" s="314"/>
+      <c r="D21" s="315"/>
+      <c r="E21" s="315"/>
+      <c r="F21" s="315"/>
+      <c r="G21" s="315"/>
+      <c r="H21" s="315"/>
       <c r="I21" s="60"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="59"/>
       <c r="C22" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="316">
+        <v>71</v>
+      </c>
+      <c r="D22" s="317">
         <f>IFERROR(SUM(D15,D20),"")</f>
         <v>4800000</v>
       </c>
-      <c r="E22" s="316">
+      <c r="E22" s="317">
         <f t="shared" ref="E22:H22" si="2">IFERROR(SUM(E15,E20),"")</f>
         <v>5700000</v>
       </c>
-      <c r="F22" s="316">
+      <c r="F22" s="317">
         <f t="shared" si="2"/>
         <v>7000000</v>
       </c>
-      <c r="G22" s="316">
+      <c r="G22" s="317">
         <f t="shared" si="2"/>
         <v>11300000</v>
       </c>
-      <c r="H22" s="316">
+      <c r="H22" s="317">
         <f t="shared" si="2"/>
         <v>12300000</v>
       </c>
@@ -43090,65 +42961,65 @@
     <row r="23" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
       <c r="C23" s="131"/>
-      <c r="D23" s="314"/>
-      <c r="E23" s="314"/>
-      <c r="F23" s="314"/>
-      <c r="G23" s="314"/>
-      <c r="H23" s="314"/>
+      <c r="D23" s="315"/>
+      <c r="E23" s="315"/>
+      <c r="F23" s="315"/>
+      <c r="G23" s="315"/>
+      <c r="H23" s="315"/>
       <c r="I23" s="60"/>
     </row>
     <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="59"/>
-      <c r="C24" s="306" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="308"/>
-      <c r="E24" s="308"/>
-      <c r="F24" s="308"/>
-      <c r="G24" s="308"/>
-      <c r="H24" s="308"/>
+      <c r="C24" s="307" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="309"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="309"/>
+      <c r="H24" s="309"/>
       <c r="I24" s="60"/>
     </row>
     <row r="25" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59"/>
       <c r="C25" s="131"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
+      <c r="D25" s="315"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="315"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="315"/>
       <c r="I25" s="60"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
       <c r="C26" s="126" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="315"/>
-      <c r="E26" s="315"/>
-      <c r="F26" s="315"/>
-      <c r="G26" s="315"/>
-      <c r="H26" s="315"/>
+        <v>130</v>
+      </c>
+      <c r="D26" s="316"/>
+      <c r="E26" s="316"/>
+      <c r="F26" s="316"/>
+      <c r="G26" s="316"/>
+      <c r="H26" s="316"/>
       <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="59"/>
       <c r="C27" s="215" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="312">
+        <v>131</v>
+      </c>
+      <c r="D27" s="313">
         <v>2500000</v>
       </c>
-      <c r="E27" s="312">
+      <c r="E27" s="313">
         <v>3200000</v>
       </c>
-      <c r="F27" s="312">
+      <c r="F27" s="313">
         <v>4500000</v>
       </c>
-      <c r="G27" s="312">
+      <c r="G27" s="313">
         <v>8000000</v>
       </c>
-      <c r="H27" s="312">
+      <c r="H27" s="313">
         <v>9000000</v>
       </c>
       <c r="I27" s="60"/>
@@ -43156,21 +43027,21 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="214" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="312">
+        <v>141</v>
+      </c>
+      <c r="D28" s="313">
         <v>50000</v>
       </c>
-      <c r="E28" s="312">
+      <c r="E28" s="313">
         <v>50000</v>
       </c>
-      <c r="F28" s="312">
+      <c r="F28" s="313">
         <v>50000</v>
       </c>
-      <c r="G28" s="312">
+      <c r="G28" s="313">
         <v>50000</v>
       </c>
-      <c r="H28" s="312">
+      <c r="H28" s="313">
         <v>50000</v>
       </c>
       <c r="I28" s="60"/>
@@ -43178,37 +43049,37 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="59"/>
       <c r="C29" s="214" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="312"/>
-      <c r="E29" s="312"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="312"/>
-      <c r="H29" s="312"/>
+        <v>132</v>
+      </c>
+      <c r="D29" s="313"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="313"/>
+      <c r="G29" s="313"/>
+      <c r="H29" s="313"/>
       <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="313">
+        <v>133</v>
+      </c>
+      <c r="D30" s="314">
         <f>IFERROR(SUM(D27:D29),"")</f>
         <v>2550000</v>
       </c>
-      <c r="E30" s="313">
+      <c r="E30" s="314">
         <f t="shared" ref="E30:H30" si="3">IFERROR(SUM(E27:E29),"")</f>
         <v>3250000</v>
       </c>
-      <c r="F30" s="313">
+      <c r="F30" s="314">
         <f t="shared" si="3"/>
         <v>4550000</v>
       </c>
-      <c r="G30" s="313">
+      <c r="G30" s="314">
         <f t="shared" si="3"/>
         <v>8050000</v>
       </c>
-      <c r="H30" s="313">
+      <c r="H30" s="314">
         <f t="shared" si="3"/>
         <v>9050000</v>
       </c>
@@ -43217,43 +43088,43 @@
     <row r="31" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
       <c r="C31" s="131"/>
-      <c r="D31" s="314"/>
-      <c r="E31" s="314"/>
-      <c r="F31" s="314"/>
-      <c r="G31" s="314"/>
-      <c r="H31" s="314"/>
+      <c r="D31" s="315"/>
+      <c r="E31" s="315"/>
+      <c r="F31" s="315"/>
+      <c r="G31" s="315"/>
+      <c r="H31" s="315"/>
       <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="126" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="315"/>
-      <c r="E32" s="315"/>
-      <c r="F32" s="315"/>
-      <c r="G32" s="315"/>
-      <c r="H32" s="315"/>
+        <v>136</v>
+      </c>
+      <c r="D32" s="316"/>
+      <c r="E32" s="316"/>
+      <c r="F32" s="316"/>
+      <c r="G32" s="316"/>
+      <c r="H32" s="316"/>
       <c r="I32" s="60"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="59"/>
       <c r="C33" s="214" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="312">
+        <v>134</v>
+      </c>
+      <c r="D33" s="313">
         <v>1000000</v>
       </c>
-      <c r="E33" s="312">
+      <c r="E33" s="313">
         <v>1200000</v>
       </c>
-      <c r="F33" s="312">
+      <c r="F33" s="313">
         <v>1200000</v>
       </c>
-      <c r="G33" s="312">
+      <c r="G33" s="313">
         <v>1750000</v>
       </c>
-      <c r="H33" s="312">
+      <c r="H33" s="313">
         <v>1750000</v>
       </c>
       <c r="I33" s="60"/>
@@ -43261,37 +43132,37 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="59"/>
       <c r="C34" s="216" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="312"/>
-      <c r="E34" s="312"/>
-      <c r="F34" s="312"/>
-      <c r="G34" s="312"/>
-      <c r="H34" s="312"/>
+        <v>146</v>
+      </c>
+      <c r="D34" s="313"/>
+      <c r="E34" s="313"/>
+      <c r="F34" s="313"/>
+      <c r="G34" s="313"/>
+      <c r="H34" s="313"/>
       <c r="I34" s="60"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="59"/>
       <c r="C35" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="313">
+        <v>135</v>
+      </c>
+      <c r="D35" s="314">
         <f>IFERROR(SUM(D33:D34),"")</f>
         <v>1000000</v>
       </c>
-      <c r="E35" s="313">
+      <c r="E35" s="314">
         <f t="shared" ref="E35:H35" si="4">IFERROR(SUM(E33:E34),"")</f>
         <v>1200000</v>
       </c>
-      <c r="F35" s="313">
+      <c r="F35" s="314">
         <f t="shared" si="4"/>
         <v>1200000</v>
       </c>
-      <c r="G35" s="313">
+      <c r="G35" s="314">
         <f t="shared" si="4"/>
         <v>1750000</v>
       </c>
-      <c r="H35" s="313">
+      <c r="H35" s="314">
         <f t="shared" si="4"/>
         <v>1750000</v>
       </c>
@@ -43300,43 +43171,43 @@
     <row r="36" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="59"/>
       <c r="C36" s="131"/>
-      <c r="D36" s="314"/>
-      <c r="E36" s="314"/>
-      <c r="F36" s="314"/>
-      <c r="G36" s="314"/>
-      <c r="H36" s="314"/>
+      <c r="D36" s="315"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="315"/>
+      <c r="G36" s="315"/>
+      <c r="H36" s="315"/>
       <c r="I36" s="60"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="59"/>
       <c r="C37" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="315"/>
-      <c r="E37" s="315"/>
-      <c r="F37" s="315"/>
-      <c r="G37" s="315"/>
-      <c r="H37" s="315"/>
+        <v>143</v>
+      </c>
+      <c r="D37" s="316"/>
+      <c r="E37" s="316"/>
+      <c r="F37" s="316"/>
+      <c r="G37" s="316"/>
+      <c r="H37" s="316"/>
       <c r="I37" s="60"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="59"/>
       <c r="C38" s="214" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="312">
+        <v>144</v>
+      </c>
+      <c r="D38" s="313">
         <v>1250000</v>
       </c>
-      <c r="E38" s="312">
+      <c r="E38" s="313">
         <v>1250000</v>
       </c>
-      <c r="F38" s="312">
+      <c r="F38" s="313">
         <v>1250000</v>
       </c>
-      <c r="G38" s="312">
+      <c r="G38" s="313">
         <v>1500000</v>
       </c>
-      <c r="H38" s="312">
+      <c r="H38" s="313">
         <v>1500000</v>
       </c>
       <c r="I38" s="60"/>
@@ -43344,49 +43215,49 @@
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="59"/>
       <c r="C39" s="214" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="312"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="312"/>
-      <c r="G39" s="312"/>
-      <c r="H39" s="312"/>
+        <v>137</v>
+      </c>
+      <c r="D39" s="313"/>
+      <c r="E39" s="313"/>
+      <c r="F39" s="313"/>
+      <c r="G39" s="313"/>
+      <c r="H39" s="313"/>
       <c r="I39" s="60"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="59"/>
       <c r="C40" s="214" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="312"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="312"/>
-      <c r="G40" s="312"/>
-      <c r="H40" s="312"/>
+        <v>138</v>
+      </c>
+      <c r="D40" s="313"/>
+      <c r="E40" s="313"/>
+      <c r="F40" s="313"/>
+      <c r="G40" s="313"/>
+      <c r="H40" s="313"/>
       <c r="I40" s="60"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="132" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="313">
+        <v>145</v>
+      </c>
+      <c r="D41" s="314">
         <f>IFERROR(SUM(D38:D40),"")</f>
         <v>1250000</v>
       </c>
-      <c r="E41" s="313">
+      <c r="E41" s="314">
         <f t="shared" ref="E41:H41" si="5">IFERROR(SUM(E38:E40),"")</f>
         <v>1250000</v>
       </c>
-      <c r="F41" s="313">
+      <c r="F41" s="314">
         <f t="shared" si="5"/>
         <v>1250000</v>
       </c>
-      <c r="G41" s="313">
+      <c r="G41" s="314">
         <f t="shared" si="5"/>
         <v>1500000</v>
       </c>
-      <c r="H41" s="313">
+      <c r="H41" s="314">
         <f t="shared" si="5"/>
         <v>1500000</v>
       </c>
@@ -43395,35 +43266,35 @@
     <row r="42" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="59"/>
       <c r="C42" s="131"/>
-      <c r="D42" s="314"/>
-      <c r="E42" s="314"/>
-      <c r="F42" s="314"/>
-      <c r="G42" s="314"/>
-      <c r="H42" s="314"/>
+      <c r="D42" s="315"/>
+      <c r="E42" s="315"/>
+      <c r="F42" s="315"/>
+      <c r="G42" s="315"/>
+      <c r="H42" s="315"/>
       <c r="I42" s="60"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="59"/>
       <c r="C43" s="133" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="316">
+        <v>72</v>
+      </c>
+      <c r="D43" s="317">
         <f>IFERROR(SUM(D30,D35,D41),"")</f>
         <v>4800000</v>
       </c>
-      <c r="E43" s="316">
+      <c r="E43" s="317">
         <f t="shared" ref="E43:H43" si="6">IFERROR(SUM(E30,E35,E41),"")</f>
         <v>5700000</v>
       </c>
-      <c r="F43" s="316">
+      <c r="F43" s="317">
         <f t="shared" si="6"/>
         <v>7000000</v>
       </c>
-      <c r="G43" s="316">
+      <c r="G43" s="317">
         <f t="shared" si="6"/>
         <v>11300000</v>
       </c>
-      <c r="H43" s="316">
+      <c r="H43" s="317">
         <f t="shared" si="6"/>
         <v>12300000</v>
       </c>
@@ -43477,8 +43348,8 @@
       <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="328" t="s">
-        <v>236</v>
+      <c r="B2" s="329" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="222"/>
       <c r="D2" s="226"/>
@@ -43489,8 +43360,8 @@
       <c r="I2" s="226"/>
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="329" t="s">
-        <v>256</v>
+      <c r="B3" s="330" t="s">
+        <v>324</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="53"/>
@@ -43524,33 +43395,33 @@
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="59"/>
       <c r="C7" s="70"/>
-      <c r="D7" s="310">
+      <c r="D7" s="311">
         <v>2022</v>
       </c>
-      <c r="E7" s="310">
+      <c r="E7" s="311">
         <v>2023</v>
       </c>
-      <c r="F7" s="310">
+      <c r="F7" s="311">
         <v>2024</v>
       </c>
-      <c r="G7" s="310">
+      <c r="G7" s="311">
         <v>2025</v>
       </c>
-      <c r="H7" s="310">
+      <c r="H7" s="311">
         <v>2026</v>
       </c>
       <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="59"/>
-      <c r="C8" s="306" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="307"/>
-      <c r="E8" s="309"/>
-      <c r="F8" s="309"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="309"/>
+      <c r="C8" s="307" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="308"/>
+      <c r="E8" s="310"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="310"/>
+      <c r="H8" s="310"/>
       <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -43566,7 +43437,7 @@
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="123" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
@@ -43578,21 +43449,21 @@
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="217" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="312">
+        <v>109</v>
+      </c>
+      <c r="D11" s="313">
         <v>6000000</v>
       </c>
-      <c r="E11" s="312">
+      <c r="E11" s="313">
         <v>12000000</v>
       </c>
-      <c r="F11" s="312">
+      <c r="F11" s="313">
         <v>16000000</v>
       </c>
-      <c r="G11" s="312">
+      <c r="G11" s="313">
         <v>24000000</v>
       </c>
-      <c r="H11" s="312">
+      <c r="H11" s="313">
         <v>30000000</v>
       </c>
       <c r="I11" s="60"/>
@@ -43600,37 +43471,37 @@
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="217" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
-      <c r="G12" s="312"/>
-      <c r="H12" s="312"/>
+        <v>148</v>
+      </c>
+      <c r="D12" s="313"/>
+      <c r="E12" s="313"/>
+      <c r="F12" s="313"/>
+      <c r="G12" s="313"/>
+      <c r="H12" s="313"/>
       <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="130" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="313">
+        <v>153</v>
+      </c>
+      <c r="D13" s="314">
         <f>IFERROR(SUM(D11:D12),"")</f>
         <v>6000000</v>
       </c>
-      <c r="E13" s="313">
+      <c r="E13" s="314">
         <f t="shared" ref="E13:H13" si="0">IFERROR(SUM(E11:E12),"")</f>
         <v>12000000</v>
       </c>
-      <c r="F13" s="313">
+      <c r="F13" s="314">
         <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
-      <c r="G13" s="313">
+      <c r="G13" s="314">
         <f t="shared" si="0"/>
         <v>24000000</v>
       </c>
-      <c r="H13" s="313">
+      <c r="H13" s="314">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
@@ -43639,45 +43510,45 @@
     <row r="14" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="314"/>
-      <c r="E14" s="314"/>
-      <c r="F14" s="314"/>
-      <c r="G14" s="314"/>
-      <c r="H14" s="314"/>
+        <v>73</v>
+      </c>
+      <c r="D14" s="315"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="315"/>
+      <c r="H14" s="315"/>
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="59"/>
       <c r="C15" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="317"/>
-      <c r="E15" s="317"/>
-      <c r="F15" s="317"/>
-      <c r="G15" s="317"/>
-      <c r="H15" s="317"/>
+        <v>149</v>
+      </c>
+      <c r="D15" s="318"/>
+      <c r="E15" s="318"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="318"/>
+      <c r="H15" s="318"/>
       <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
       <c r="C16" s="217" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="312">
+        <v>150</v>
+      </c>
+      <c r="D16" s="313">
         <v>50000</v>
       </c>
-      <c r="E16" s="312">
+      <c r="E16" s="313">
         <v>50000</v>
       </c>
-      <c r="F16" s="312">
+      <c r="F16" s="313">
         <v>50000</v>
       </c>
-      <c r="G16" s="312">
+      <c r="G16" s="313">
         <v>50000</v>
       </c>
-      <c r="H16" s="312">
+      <c r="H16" s="313">
         <v>50000</v>
       </c>
       <c r="I16" s="60"/>
@@ -43685,21 +43556,21 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="59"/>
       <c r="C17" s="217" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="312">
+        <v>50</v>
+      </c>
+      <c r="D17" s="313">
         <v>1110000</v>
       </c>
-      <c r="E17" s="312">
+      <c r="E17" s="313">
         <v>1110000</v>
       </c>
-      <c r="F17" s="312">
+      <c r="F17" s="313">
         <v>1200000</v>
       </c>
-      <c r="G17" s="312">
+      <c r="G17" s="313">
         <v>1200000</v>
       </c>
-      <c r="H17" s="312">
+      <c r="H17" s="313">
         <v>1200000</v>
       </c>
       <c r="I17" s="60"/>
@@ -43707,21 +43578,21 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
       <c r="C18" s="217" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="312">
+        <v>151</v>
+      </c>
+      <c r="D18" s="313">
         <v>400000</v>
       </c>
-      <c r="E18" s="312">
+      <c r="E18" s="313">
         <v>2200000</v>
       </c>
-      <c r="F18" s="312">
+      <c r="F18" s="313">
         <v>700000</v>
       </c>
-      <c r="G18" s="312">
+      <c r="G18" s="313">
         <v>700000</v>
       </c>
-      <c r="H18" s="312">
+      <c r="H18" s="313">
         <v>700000</v>
       </c>
       <c r="I18" s="60"/>
@@ -43729,21 +43600,21 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="C19" s="217" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="312">
+        <v>200</v>
+      </c>
+      <c r="D19" s="313">
         <v>1000000</v>
       </c>
-      <c r="E19" s="312">
+      <c r="E19" s="313">
         <v>1000000</v>
       </c>
-      <c r="F19" s="312">
+      <c r="F19" s="313">
         <v>1000000</v>
       </c>
-      <c r="G19" s="312">
+      <c r="G19" s="313">
         <v>1000000</v>
       </c>
-      <c r="H19" s="312">
+      <c r="H19" s="313">
         <v>1000000</v>
       </c>
       <c r="I19" s="60"/>
@@ -43751,21 +43622,21 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="217" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="312">
+        <v>68</v>
+      </c>
+      <c r="D20" s="313">
         <v>821400</v>
       </c>
-      <c r="E20" s="312">
+      <c r="E20" s="313">
         <v>4385400</v>
       </c>
-      <c r="F20" s="312">
+      <c r="F20" s="313">
         <v>8226900</v>
       </c>
-      <c r="G20" s="312">
+      <c r="G20" s="313">
         <v>12681900</v>
       </c>
-      <c r="H20" s="312">
+      <c r="H20" s="313">
         <v>17136900</v>
       </c>
       <c r="I20" s="60"/>
@@ -43773,25 +43644,25 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
       <c r="C21" s="124" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="318">
+        <v>152</v>
+      </c>
+      <c r="D21" s="319">
         <f>IFERROR(SUM(D16:D20),"")</f>
         <v>3381400</v>
       </c>
-      <c r="E21" s="318">
+      <c r="E21" s="319">
         <f t="shared" ref="E21:H21" si="1">IFERROR(SUM(E16:E20),"")</f>
         <v>8745400</v>
       </c>
-      <c r="F21" s="318">
+      <c r="F21" s="319">
         <f t="shared" si="1"/>
         <v>11176900</v>
       </c>
-      <c r="G21" s="318">
+      <c r="G21" s="319">
         <f t="shared" si="1"/>
         <v>15631900</v>
       </c>
-      <c r="H21" s="318">
+      <c r="H21" s="319">
         <f t="shared" si="1"/>
         <v>20086900</v>
       </c>
@@ -43800,35 +43671,35 @@
     <row r="22" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="59"/>
       <c r="C22" s="122"/>
-      <c r="D22" s="314"/>
-      <c r="E22" s="314"/>
-      <c r="F22" s="314"/>
-      <c r="G22" s="314"/>
-      <c r="H22" s="314"/>
+      <c r="D22" s="315"/>
+      <c r="E22" s="315"/>
+      <c r="F22" s="315"/>
+      <c r="G22" s="315"/>
+      <c r="H22" s="315"/>
       <c r="I22" s="60"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
       <c r="C23" s="126" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="316">
+        <v>154</v>
+      </c>
+      <c r="D23" s="317">
         <f>IFERROR(D13-D21,"")</f>
         <v>2618600</v>
       </c>
-      <c r="E23" s="316">
+      <c r="E23" s="317">
         <f t="shared" ref="E23:H23" si="2">IFERROR(E13-E21,"")</f>
         <v>3254600</v>
       </c>
-      <c r="F23" s="316">
+      <c r="F23" s="317">
         <f t="shared" si="2"/>
         <v>4823100</v>
       </c>
-      <c r="G23" s="316">
+      <c r="G23" s="317">
         <f t="shared" si="2"/>
         <v>8368100</v>
       </c>
-      <c r="H23" s="316">
+      <c r="H23" s="317">
         <f t="shared" si="2"/>
         <v>9913100</v>
       </c>
@@ -43837,65 +43708,65 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="59"/>
       <c r="C24" s="122"/>
-      <c r="D24" s="314"/>
-      <c r="E24" s="314"/>
-      <c r="F24" s="314"/>
-      <c r="G24" s="314"/>
-      <c r="H24" s="314"/>
+      <c r="D24" s="315"/>
+      <c r="E24" s="315"/>
+      <c r="F24" s="315"/>
+      <c r="G24" s="315"/>
+      <c r="H24" s="315"/>
       <c r="I24" s="60"/>
     </row>
     <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
-      <c r="C25" s="306" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="308"/>
-      <c r="E25" s="308"/>
-      <c r="F25" s="308"/>
-      <c r="G25" s="308"/>
-      <c r="H25" s="308"/>
+      <c r="C25" s="307" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="309"/>
+      <c r="E25" s="309"/>
+      <c r="F25" s="309"/>
+      <c r="G25" s="309"/>
+      <c r="H25" s="309"/>
       <c r="I25" s="60"/>
     </row>
     <row r="26" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
       <c r="C26" s="122"/>
-      <c r="D26" s="314"/>
-      <c r="E26" s="314"/>
-      <c r="F26" s="314"/>
-      <c r="G26" s="314"/>
-      <c r="H26" s="314"/>
+      <c r="D26" s="315"/>
+      <c r="E26" s="315"/>
+      <c r="F26" s="315"/>
+      <c r="G26" s="315"/>
+      <c r="H26" s="315"/>
       <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="59"/>
       <c r="C27" s="123" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="317"/>
-      <c r="E27" s="317"/>
-      <c r="F27" s="317"/>
-      <c r="G27" s="317"/>
-      <c r="H27" s="317"/>
+        <v>155</v>
+      </c>
+      <c r="D27" s="318"/>
+      <c r="E27" s="318"/>
+      <c r="F27" s="318"/>
+      <c r="G27" s="318"/>
+      <c r="H27" s="318"/>
       <c r="I27" s="60"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="217" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="312">
+        <v>156</v>
+      </c>
+      <c r="D28" s="313">
         <v>800000</v>
       </c>
-      <c r="E28" s="312">
+      <c r="E28" s="313">
         <v>800000</v>
       </c>
-      <c r="F28" s="312">
+      <c r="F28" s="313">
         <v>800000</v>
       </c>
-      <c r="G28" s="312">
+      <c r="G28" s="313">
         <v>800000</v>
       </c>
-      <c r="H28" s="312">
+      <c r="H28" s="313">
         <v>800000</v>
       </c>
       <c r="I28" s="60"/>
@@ -43903,73 +43774,73 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="59"/>
       <c r="C29" s="217" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="312"/>
-      <c r="E29" s="312"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="312"/>
-      <c r="H29" s="312"/>
+        <v>157</v>
+      </c>
+      <c r="D29" s="313"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="313"/>
+      <c r="G29" s="313"/>
+      <c r="H29" s="313"/>
       <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="217" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="312"/>
-      <c r="E30" s="312"/>
-      <c r="F30" s="312"/>
-      <c r="G30" s="312"/>
-      <c r="H30" s="312"/>
+        <v>158</v>
+      </c>
+      <c r="D30" s="313"/>
+      <c r="E30" s="313"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="313"/>
       <c r="I30" s="60"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
       <c r="C31" s="217" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="312"/>
-      <c r="E31" s="312"/>
-      <c r="F31" s="312"/>
-      <c r="G31" s="312"/>
-      <c r="H31" s="312"/>
+        <v>201</v>
+      </c>
+      <c r="D31" s="313"/>
+      <c r="E31" s="313"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="313"/>
+      <c r="H31" s="313"/>
       <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="217" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="312"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="312"/>
-      <c r="G32" s="312"/>
-      <c r="H32" s="312"/>
+        <v>159</v>
+      </c>
+      <c r="D32" s="313"/>
+      <c r="E32" s="313"/>
+      <c r="F32" s="313"/>
+      <c r="G32" s="313"/>
+      <c r="H32" s="313"/>
       <c r="I32" s="60"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="59"/>
       <c r="C33" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="313">
+        <v>166</v>
+      </c>
+      <c r="D33" s="314">
         <f>IFERROR(SUM(D28:D32),"")</f>
         <v>800000</v>
       </c>
-      <c r="E33" s="313">
+      <c r="E33" s="314">
         <f t="shared" ref="E33:H33" si="3">IFERROR(SUM(E28:E32),"")</f>
         <v>800000</v>
       </c>
-      <c r="F33" s="313">
+      <c r="F33" s="314">
         <f t="shared" si="3"/>
         <v>800000</v>
       </c>
-      <c r="G33" s="313">
+      <c r="G33" s="314">
         <f t="shared" si="3"/>
         <v>800000</v>
       </c>
-      <c r="H33" s="313">
+      <c r="H33" s="314">
         <f t="shared" si="3"/>
         <v>800000</v>
       </c>
@@ -43978,45 +43849,45 @@
     <row r="34" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="59"/>
       <c r="C34" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="314"/>
-      <c r="E34" s="314"/>
-      <c r="F34" s="314"/>
-      <c r="G34" s="314"/>
-      <c r="H34" s="314"/>
+        <v>73</v>
+      </c>
+      <c r="D34" s="315"/>
+      <c r="E34" s="315"/>
+      <c r="F34" s="315"/>
+      <c r="G34" s="315"/>
+      <c r="H34" s="315"/>
       <c r="I34" s="60"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="59"/>
       <c r="C35" s="123" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="317"/>
-      <c r="E35" s="317"/>
-      <c r="F35" s="317"/>
-      <c r="G35" s="317"/>
-      <c r="H35" s="317"/>
+        <v>160</v>
+      </c>
+      <c r="D35" s="318"/>
+      <c r="E35" s="318"/>
+      <c r="F35" s="318"/>
+      <c r="G35" s="318"/>
+      <c r="H35" s="318"/>
       <c r="I35" s="60"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="59"/>
       <c r="C36" s="217" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="312">
+        <v>161</v>
+      </c>
+      <c r="D36" s="313">
         <v>500000</v>
       </c>
-      <c r="E36" s="312">
+      <c r="E36" s="313">
         <v>500000</v>
       </c>
-      <c r="F36" s="312">
+      <c r="F36" s="313">
         <v>500000</v>
       </c>
-      <c r="G36" s="312">
+      <c r="G36" s="313">
         <v>500000</v>
       </c>
-      <c r="H36" s="312">
+      <c r="H36" s="313">
         <v>500000</v>
       </c>
       <c r="I36" s="60"/>
@@ -44024,73 +43895,73 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="59"/>
       <c r="C37" s="217" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="312"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="312"/>
-      <c r="G37" s="312"/>
-      <c r="H37" s="312"/>
+        <v>162</v>
+      </c>
+      <c r="D37" s="313"/>
+      <c r="E37" s="313"/>
+      <c r="F37" s="313"/>
+      <c r="G37" s="313"/>
+      <c r="H37" s="313"/>
       <c r="I37" s="60"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="59"/>
       <c r="C38" s="217" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="312"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="312"/>
-      <c r="G38" s="312"/>
-      <c r="H38" s="312"/>
+        <v>163</v>
+      </c>
+      <c r="D38" s="313"/>
+      <c r="E38" s="313"/>
+      <c r="F38" s="313"/>
+      <c r="G38" s="313"/>
+      <c r="H38" s="313"/>
       <c r="I38" s="60"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="59"/>
       <c r="C39" s="217" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="312"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="312"/>
-      <c r="G39" s="312"/>
-      <c r="H39" s="312"/>
+        <v>164</v>
+      </c>
+      <c r="D39" s="313"/>
+      <c r="E39" s="313"/>
+      <c r="F39" s="313"/>
+      <c r="G39" s="313"/>
+      <c r="H39" s="313"/>
       <c r="I39" s="60"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="59"/>
       <c r="C40" s="217" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="312"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="312"/>
-      <c r="G40" s="312"/>
-      <c r="H40" s="312"/>
+        <v>165</v>
+      </c>
+      <c r="D40" s="313"/>
+      <c r="E40" s="313"/>
+      <c r="F40" s="313"/>
+      <c r="G40" s="313"/>
+      <c r="H40" s="313"/>
       <c r="I40" s="60"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="313">
+        <v>168</v>
+      </c>
+      <c r="D41" s="314">
         <f>IFERROR(SUM(D36:D40),"")</f>
         <v>500000</v>
       </c>
-      <c r="E41" s="313">
+      <c r="E41" s="314">
         <f t="shared" ref="E41:H41" si="4">IFERROR(SUM(E36:E40),"")</f>
         <v>500000</v>
       </c>
-      <c r="F41" s="313">
+      <c r="F41" s="314">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
-      <c r="G41" s="313">
+      <c r="G41" s="314">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
-      <c r="H41" s="313">
+      <c r="H41" s="314">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
@@ -44099,35 +43970,35 @@
     <row r="42" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="59"/>
       <c r="C42" s="122"/>
-      <c r="D42" s="314"/>
-      <c r="E42" s="314"/>
-      <c r="F42" s="314"/>
-      <c r="G42" s="314"/>
-      <c r="H42" s="314"/>
+      <c r="D42" s="315"/>
+      <c r="E42" s="315"/>
+      <c r="F42" s="315"/>
+      <c r="G42" s="315"/>
+      <c r="H42" s="315"/>
       <c r="I42" s="60"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="59"/>
       <c r="C43" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="316">
+        <v>167</v>
+      </c>
+      <c r="D43" s="317">
         <f>IFERROR(D33-D41,"")</f>
         <v>300000</v>
       </c>
-      <c r="E43" s="316">
+      <c r="E43" s="317">
         <f t="shared" ref="E43:H43" si="5">IFERROR(E33-E41,"")</f>
         <v>300000</v>
       </c>
-      <c r="F43" s="316">
+      <c r="F43" s="317">
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-      <c r="G43" s="316">
+      <c r="G43" s="317">
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-      <c r="H43" s="316">
+      <c r="H43" s="317">
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
@@ -44136,67 +44007,67 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="59"/>
       <c r="C44" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="314"/>
-      <c r="E44" s="314"/>
-      <c r="F44" s="314"/>
-      <c r="G44" s="314"/>
-      <c r="H44" s="314"/>
+        <v>73</v>
+      </c>
+      <c r="D44" s="315"/>
+      <c r="E44" s="315"/>
+      <c r="F44" s="315"/>
+      <c r="G44" s="315"/>
+      <c r="H44" s="315"/>
       <c r="I44" s="60"/>
     </row>
     <row r="45" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="59"/>
-      <c r="C45" s="306" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="308"/>
-      <c r="E45" s="308"/>
-      <c r="F45" s="308"/>
-      <c r="G45" s="308"/>
-      <c r="H45" s="308"/>
+      <c r="C45" s="307" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="309"/>
+      <c r="E45" s="309"/>
+      <c r="F45" s="309"/>
+      <c r="G45" s="309"/>
+      <c r="H45" s="309"/>
       <c r="I45" s="60"/>
     </row>
     <row r="46" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="59"/>
       <c r="C46" s="127"/>
-      <c r="D46" s="319"/>
-      <c r="E46" s="319"/>
-      <c r="F46" s="319"/>
-      <c r="G46" s="319"/>
-      <c r="H46" s="319"/>
+      <c r="D46" s="320"/>
+      <c r="E46" s="320"/>
+      <c r="F46" s="320"/>
+      <c r="G46" s="320"/>
+      <c r="H46" s="320"/>
       <c r="I46" s="60"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="59"/>
       <c r="C47" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="317"/>
-      <c r="E47" s="317"/>
-      <c r="F47" s="317"/>
-      <c r="G47" s="317"/>
-      <c r="H47" s="317"/>
+        <v>169</v>
+      </c>
+      <c r="D47" s="318"/>
+      <c r="E47" s="318"/>
+      <c r="F47" s="318"/>
+      <c r="G47" s="318"/>
+      <c r="H47" s="318"/>
       <c r="I47" s="60"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="59"/>
       <c r="C48" s="217" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="312">
+        <v>170</v>
+      </c>
+      <c r="D48" s="313">
         <v>1000000</v>
       </c>
-      <c r="E48" s="312">
+      <c r="E48" s="313">
         <v>1000000</v>
       </c>
-      <c r="F48" s="312">
+      <c r="F48" s="313">
         <v>1500000</v>
       </c>
-      <c r="G48" s="312">
+      <c r="G48" s="313">
         <v>1500000</v>
       </c>
-      <c r="H48" s="312">
+      <c r="H48" s="313">
         <v>1750000</v>
       </c>
       <c r="I48" s="60"/>
@@ -44204,49 +44075,49 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="59"/>
       <c r="C49" s="217" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="312"/>
-      <c r="E49" s="312"/>
-      <c r="F49" s="312"/>
-      <c r="G49" s="312"/>
-      <c r="H49" s="312"/>
+        <v>171</v>
+      </c>
+      <c r="D49" s="313"/>
+      <c r="E49" s="313"/>
+      <c r="F49" s="313"/>
+      <c r="G49" s="313"/>
+      <c r="H49" s="313"/>
       <c r="I49" s="60"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="59"/>
       <c r="C50" s="217" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="312"/>
-      <c r="E50" s="312"/>
-      <c r="F50" s="312"/>
-      <c r="G50" s="312"/>
-      <c r="H50" s="312"/>
+        <v>172</v>
+      </c>
+      <c r="D50" s="313"/>
+      <c r="E50" s="313"/>
+      <c r="F50" s="313"/>
+      <c r="G50" s="313"/>
+      <c r="H50" s="313"/>
       <c r="I50" s="60"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="59"/>
       <c r="C51" s="130" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="313">
+        <v>181</v>
+      </c>
+      <c r="D51" s="314">
         <f>IFERROR(SUM(D48:D50),"")</f>
         <v>1000000</v>
       </c>
-      <c r="E51" s="313">
+      <c r="E51" s="314">
         <f t="shared" ref="E51:H51" si="6">IFERROR(SUM(E48:E50),"")</f>
         <v>1000000</v>
       </c>
-      <c r="F51" s="313">
+      <c r="F51" s="314">
         <f t="shared" si="6"/>
         <v>1500000</v>
       </c>
-      <c r="G51" s="313">
+      <c r="G51" s="314">
         <f t="shared" si="6"/>
         <v>1500000</v>
       </c>
-      <c r="H51" s="313">
+      <c r="H51" s="314">
         <f t="shared" si="6"/>
         <v>1750000</v>
       </c>
@@ -44255,45 +44126,45 @@
     <row r="52" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="59"/>
       <c r="C52" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="314"/>
-      <c r="E52" s="314"/>
-      <c r="F52" s="314"/>
-      <c r="G52" s="314"/>
-      <c r="H52" s="314"/>
+        <v>73</v>
+      </c>
+      <c r="D52" s="315"/>
+      <c r="E52" s="315"/>
+      <c r="F52" s="315"/>
+      <c r="G52" s="315"/>
+      <c r="H52" s="315"/>
       <c r="I52" s="60"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="59"/>
       <c r="C53" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="317"/>
-      <c r="E53" s="317"/>
-      <c r="F53" s="317"/>
-      <c r="G53" s="317"/>
-      <c r="H53" s="317"/>
+        <v>173</v>
+      </c>
+      <c r="D53" s="318"/>
+      <c r="E53" s="318"/>
+      <c r="F53" s="318"/>
+      <c r="G53" s="318"/>
+      <c r="H53" s="318"/>
       <c r="I53" s="60"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="59"/>
       <c r="C54" s="217" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="312">
+        <v>174</v>
+      </c>
+      <c r="D54" s="313">
         <v>200000</v>
       </c>
-      <c r="E54" s="312">
+      <c r="E54" s="313">
         <v>250000</v>
       </c>
-      <c r="F54" s="312">
+      <c r="F54" s="313">
         <v>250000</v>
       </c>
-      <c r="G54" s="312">
+      <c r="G54" s="313">
         <v>300000</v>
       </c>
-      <c r="H54" s="312">
+      <c r="H54" s="313">
         <v>200000</v>
       </c>
       <c r="I54" s="60"/>
@@ -44301,21 +44172,21 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="59"/>
       <c r="C55" s="217" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="312">
+        <v>175</v>
+      </c>
+      <c r="D55" s="313">
         <v>100000</v>
       </c>
-      <c r="E55" s="312">
+      <c r="E55" s="313">
         <v>150000</v>
       </c>
-      <c r="F55" s="312">
+      <c r="F55" s="313">
         <v>150000</v>
       </c>
-      <c r="G55" s="312">
+      <c r="G55" s="313">
         <v>110000</v>
       </c>
-      <c r="H55" s="312">
+      <c r="H55" s="313">
         <v>110000</v>
       </c>
       <c r="I55" s="60"/>
@@ -44323,61 +44194,61 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="59"/>
       <c r="C56" s="217" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="312"/>
-      <c r="E56" s="312"/>
-      <c r="F56" s="312"/>
-      <c r="G56" s="312"/>
-      <c r="H56" s="312"/>
+        <v>176</v>
+      </c>
+      <c r="D56" s="313"/>
+      <c r="E56" s="313"/>
+      <c r="F56" s="313"/>
+      <c r="G56" s="313"/>
+      <c r="H56" s="313"/>
       <c r="I56" s="60"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="59"/>
       <c r="C57" s="217" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="312"/>
-      <c r="E57" s="312"/>
-      <c r="F57" s="312"/>
-      <c r="G57" s="312"/>
-      <c r="H57" s="312"/>
+        <v>177</v>
+      </c>
+      <c r="D57" s="313"/>
+      <c r="E57" s="313"/>
+      <c r="F57" s="313"/>
+      <c r="G57" s="313"/>
+      <c r="H57" s="313"/>
       <c r="I57" s="60"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="59"/>
       <c r="C58" s="217" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" s="312"/>
-      <c r="E58" s="312"/>
-      <c r="F58" s="312"/>
-      <c r="G58" s="312"/>
-      <c r="H58" s="312"/>
+        <v>178</v>
+      </c>
+      <c r="D58" s="313"/>
+      <c r="E58" s="313"/>
+      <c r="F58" s="313"/>
+      <c r="G58" s="313"/>
+      <c r="H58" s="313"/>
       <c r="I58" s="60"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
       <c r="C59" s="130" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="313">
+        <v>180</v>
+      </c>
+      <c r="D59" s="314">
         <f>IFERROR(SUM(D54:D58),"")</f>
         <v>300000</v>
       </c>
-      <c r="E59" s="313">
+      <c r="E59" s="314">
         <f t="shared" ref="E59:H59" si="7">IFERROR(SUM(E54:E58),"")</f>
         <v>400000</v>
       </c>
-      <c r="F59" s="313">
+      <c r="F59" s="314">
         <f t="shared" si="7"/>
         <v>400000</v>
       </c>
-      <c r="G59" s="313">
+      <c r="G59" s="314">
         <f t="shared" si="7"/>
         <v>410000</v>
       </c>
-      <c r="H59" s="313">
+      <c r="H59" s="314">
         <f t="shared" si="7"/>
         <v>310000</v>
       </c>
@@ -44386,35 +44257,35 @@
     <row r="60" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="122"/>
-      <c r="D60" s="314"/>
-      <c r="E60" s="314"/>
-      <c r="F60" s="314"/>
-      <c r="G60" s="314"/>
-      <c r="H60" s="314"/>
+      <c r="D60" s="315"/>
+      <c r="E60" s="315"/>
+      <c r="F60" s="315"/>
+      <c r="G60" s="315"/>
+      <c r="H60" s="315"/>
       <c r="I60" s="60"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
       <c r="C61" s="126" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="316">
+        <v>179</v>
+      </c>
+      <c r="D61" s="317">
         <f>IFERROR(D51-D59,"")</f>
         <v>700000</v>
       </c>
-      <c r="E61" s="316">
+      <c r="E61" s="317">
         <f t="shared" ref="E61:H61" si="8">IFERROR(E51-E59,"")</f>
         <v>600000</v>
       </c>
-      <c r="F61" s="316">
+      <c r="F61" s="317">
         <f t="shared" si="8"/>
         <v>1100000</v>
       </c>
-      <c r="G61" s="316">
+      <c r="G61" s="317">
         <f t="shared" si="8"/>
         <v>1090000</v>
       </c>
-      <c r="H61" s="316">
+      <c r="H61" s="317">
         <f t="shared" si="8"/>
         <v>1440000</v>
       </c>
@@ -44423,35 +44294,35 @@
     <row r="62" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="59"/>
       <c r="C62" s="122"/>
-      <c r="D62" s="314"/>
-      <c r="E62" s="314"/>
-      <c r="F62" s="314"/>
-      <c r="G62" s="314"/>
-      <c r="H62" s="314"/>
+      <c r="D62" s="315"/>
+      <c r="E62" s="315"/>
+      <c r="F62" s="315"/>
+      <c r="G62" s="315"/>
+      <c r="H62" s="315"/>
       <c r="I62" s="60"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="59"/>
       <c r="C63" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="320">
+        <v>182</v>
+      </c>
+      <c r="D63" s="321">
         <f>IFERROR(SUM(D23,D43,D61),"")</f>
         <v>3618600</v>
       </c>
-      <c r="E63" s="320">
+      <c r="E63" s="321">
         <f t="shared" ref="E63:H63" si="9">IFERROR(SUM(E23,E43,E61),"")</f>
         <v>4154600</v>
       </c>
-      <c r="F63" s="320">
+      <c r="F63" s="321">
         <f t="shared" si="9"/>
         <v>6223100</v>
       </c>
-      <c r="G63" s="320">
+      <c r="G63" s="321">
         <f t="shared" si="9"/>
         <v>9758100</v>
       </c>
-      <c r="H63" s="320">
+      <c r="H63" s="321">
         <f t="shared" si="9"/>
         <v>11653100</v>
       </c>
@@ -44460,39 +44331,39 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="59"/>
       <c r="C64" s="217" t="s">
-        <v>265</v>
-      </c>
-      <c r="D64" s="312">
+        <v>336</v>
+      </c>
+      <c r="D64" s="313">
         <v>1000000</v>
       </c>
-      <c r="E64" s="312"/>
-      <c r="F64" s="312"/>
-      <c r="G64" s="312"/>
-      <c r="H64" s="312"/>
+      <c r="E64" s="313"/>
+      <c r="F64" s="313"/>
+      <c r="G64" s="313"/>
+      <c r="H64" s="313"/>
       <c r="I64" s="60"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="59"/>
       <c r="C65" s="123" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="321">
+        <v>183</v>
+      </c>
+      <c r="D65" s="322">
         <f>IFERROR(SUM(D63,D64),"")</f>
         <v>4618600</v>
       </c>
-      <c r="E65" s="321">
+      <c r="E65" s="322">
         <f>IFERROR(SUM(E63,E64),"")</f>
         <v>4154600</v>
       </c>
-      <c r="F65" s="321">
+      <c r="F65" s="322">
         <f>IFERROR(SUM(F63,F64),"")</f>
         <v>6223100</v>
       </c>
-      <c r="G65" s="321">
+      <c r="G65" s="322">
         <f>IFERROR(SUM(G63,G64),"")</f>
         <v>9758100</v>
       </c>
-      <c r="H65" s="321">
+      <c r="H65" s="322">
         <f>IFERROR(SUM(H63,H64),"")</f>
         <v>11653100</v>
       </c>
@@ -44568,8 +44439,8 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:26" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="26"/>
@@ -44591,8 +44462,8 @@
       <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>257</v>
+      <c r="B3" s="332" t="s">
+        <v>325</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="6"/>
@@ -44727,7 +44598,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="114" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D10" s="113"/>
       <c r="E10" s="96"/>
@@ -44762,7 +44633,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="115" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D11" s="113"/>
       <c r="E11" s="96"/>
@@ -44797,7 +44668,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="115" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D12" s="113"/>
       <c r="E12" s="101"/>
@@ -44832,7 +44703,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="115" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D13" s="113"/>
       <c r="E13" s="101"/>
@@ -44867,7 +44738,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
       <c r="C14" s="116" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D14" s="113"/>
       <c r="E14" s="101"/>
@@ -45826,30 +45697,30 @@
     <row r="59" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="59"/>
       <c r="C59" s="342" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="348"/>
-      <c r="E59" s="348"/>
-      <c r="F59" s="348"/>
-      <c r="G59" s="348"/>
-      <c r="H59" s="348"/>
-      <c r="I59" s="348"/>
-      <c r="J59" s="348"/>
-      <c r="K59" s="348"/>
-      <c r="L59" s="348"/>
-      <c r="M59" s="348"/>
-      <c r="N59" s="348"/>
-      <c r="O59" s="348"/>
-      <c r="P59" s="348"/>
-      <c r="Q59" s="348"/>
-      <c r="R59" s="348"/>
+        <v>102</v>
+      </c>
+      <c r="D59" s="350"/>
+      <c r="E59" s="350"/>
+      <c r="F59" s="350"/>
+      <c r="G59" s="350"/>
+      <c r="H59" s="350"/>
+      <c r="I59" s="350"/>
+      <c r="J59" s="350"/>
+      <c r="K59" s="350"/>
+      <c r="L59" s="350"/>
+      <c r="M59" s="350"/>
+      <c r="N59" s="350"/>
+      <c r="O59" s="350"/>
+      <c r="P59" s="350"/>
+      <c r="Q59" s="350"/>
+      <c r="R59" s="350"/>
       <c r="S59" s="343"/>
       <c r="T59" s="60"/>
     </row>
     <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="381" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="D60" s="382"/>
       <c r="E60" s="382"/>
@@ -45872,7 +45743,7 @@
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="59"/>
       <c r="C61" s="378" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="D61" s="379"/>
       <c r="E61" s="379"/>
@@ -46238,8 +46109,8 @@
   <sheetData>
     <row r="1" spans="2:64" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:64" s="231" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="332" t="s">
-        <v>236</v>
+      <c r="B2" s="333" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="228"/>
       <c r="D2" s="229"/>
@@ -46292,8 +46163,8 @@
       <c r="AY2" s="227"/>
     </row>
     <row r="3" spans="2:64" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>258</v>
+      <c r="B3" s="332" t="s">
+        <v>326</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="7"/>
@@ -46349,7 +46220,7 @@
     <row r="5" spans="2:64" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA6" s="384" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="BB6" s="385"/>
       <c r="BC6" s="385"/>
@@ -46378,21 +46249,21 @@
       <c r="BL7" s="389"/>
     </row>
     <row r="8" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA8" s="236"/>
-      <c r="BB8" s="237"/>
-      <c r="BC8" s="237"/>
-      <c r="BD8" s="237"/>
-      <c r="BE8" s="237"/>
-      <c r="BF8" s="237"/>
-      <c r="BG8" s="237"/>
-      <c r="BH8" s="237"/>
-      <c r="BI8" s="237"/>
-      <c r="BJ8" s="237"/>
-      <c r="BK8" s="237"/>
-      <c r="BL8" s="238"/>
+      <c r="BA8" s="237"/>
+      <c r="BB8" s="238"/>
+      <c r="BC8" s="238"/>
+      <c r="BD8" s="238"/>
+      <c r="BE8" s="238"/>
+      <c r="BF8" s="238"/>
+      <c r="BG8" s="238"/>
+      <c r="BH8" s="238"/>
+      <c r="BI8" s="238"/>
+      <c r="BJ8" s="238"/>
+      <c r="BK8" s="238"/>
+      <c r="BL8" s="239"/>
     </row>
     <row r="9" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA9" s="239"/>
+      <c r="BA9" s="240"/>
       <c r="BB9" s="117"/>
       <c r="BC9" s="117"/>
       <c r="BD9" s="117"/>
@@ -46403,10 +46274,10 @@
       <c r="BI9" s="117"/>
       <c r="BJ9" s="117"/>
       <c r="BK9" s="117"/>
-      <c r="BL9" s="240"/>
+      <c r="BL9" s="241"/>
     </row>
     <row r="10" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA10" s="239"/>
+      <c r="BA10" s="240"/>
       <c r="BB10" s="117"/>
       <c r="BC10" s="117"/>
       <c r="BD10" s="117"/>
@@ -46417,10 +46288,10 @@
       <c r="BI10" s="117"/>
       <c r="BJ10" s="117"/>
       <c r="BK10" s="117"/>
-      <c r="BL10" s="240"/>
+      <c r="BL10" s="241"/>
     </row>
     <row r="11" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA11" s="239"/>
+      <c r="BA11" s="240"/>
       <c r="BB11" s="117"/>
       <c r="BC11" s="117"/>
       <c r="BD11" s="117"/>
@@ -46431,10 +46302,10 @@
       <c r="BI11" s="117"/>
       <c r="BJ11" s="117"/>
       <c r="BK11" s="117"/>
-      <c r="BL11" s="240"/>
+      <c r="BL11" s="241"/>
     </row>
     <row r="12" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA12" s="239"/>
+      <c r="BA12" s="240"/>
       <c r="BB12" s="117"/>
       <c r="BC12" s="117"/>
       <c r="BD12" s="117"/>
@@ -46445,10 +46316,10 @@
       <c r="BI12" s="117"/>
       <c r="BJ12" s="117"/>
       <c r="BK12" s="117"/>
-      <c r="BL12" s="240"/>
+      <c r="BL12" s="241"/>
     </row>
     <row r="13" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA13" s="239"/>
+      <c r="BA13" s="240"/>
       <c r="BB13" s="117"/>
       <c r="BC13" s="117"/>
       <c r="BD13" s="117"/>
@@ -46459,10 +46330,10 @@
       <c r="BI13" s="117"/>
       <c r="BJ13" s="117"/>
       <c r="BK13" s="117"/>
-      <c r="BL13" s="240"/>
+      <c r="BL13" s="241"/>
     </row>
     <row r="14" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA14" s="239"/>
+      <c r="BA14" s="240"/>
       <c r="BB14" s="117"/>
       <c r="BC14" s="117"/>
       <c r="BD14" s="117"/>
@@ -46473,10 +46344,10 @@
       <c r="BI14" s="117"/>
       <c r="BJ14" s="117"/>
       <c r="BK14" s="117"/>
-      <c r="BL14" s="240"/>
+      <c r="BL14" s="241"/>
     </row>
     <row r="15" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA15" s="239"/>
+      <c r="BA15" s="240"/>
       <c r="BB15" s="117"/>
       <c r="BC15" s="117"/>
       <c r="BD15" s="117"/>
@@ -46487,10 +46358,10 @@
       <c r="BI15" s="117"/>
       <c r="BJ15" s="117"/>
       <c r="BK15" s="117"/>
-      <c r="BL15" s="240"/>
+      <c r="BL15" s="241"/>
     </row>
     <row r="16" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA16" s="239"/>
+      <c r="BA16" s="240"/>
       <c r="BB16" s="117"/>
       <c r="BC16" s="117"/>
       <c r="BD16" s="117"/>
@@ -46501,10 +46372,10 @@
       <c r="BI16" s="117"/>
       <c r="BJ16" s="117"/>
       <c r="BK16" s="117"/>
-      <c r="BL16" s="240"/>
+      <c r="BL16" s="241"/>
     </row>
     <row r="17" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA17" s="239"/>
+      <c r="BA17" s="240"/>
       <c r="BB17" s="117"/>
       <c r="BC17" s="117"/>
       <c r="BD17" s="117"/>
@@ -46515,10 +46386,10 @@
       <c r="BI17" s="117"/>
       <c r="BJ17" s="117"/>
       <c r="BK17" s="117"/>
-      <c r="BL17" s="240"/>
+      <c r="BL17" s="241"/>
     </row>
     <row r="18" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA18" s="239"/>
+      <c r="BA18" s="240"/>
       <c r="BB18" s="117"/>
       <c r="BC18" s="117"/>
       <c r="BD18" s="117"/>
@@ -46529,10 +46400,10 @@
       <c r="BI18" s="117"/>
       <c r="BJ18" s="117"/>
       <c r="BK18" s="117"/>
-      <c r="BL18" s="240"/>
+      <c r="BL18" s="241"/>
     </row>
     <row r="19" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA19" s="239"/>
+      <c r="BA19" s="240"/>
       <c r="BB19" s="117"/>
       <c r="BC19" s="117"/>
       <c r="BD19" s="117"/>
@@ -46543,21 +46414,21 @@
       <c r="BI19" s="117"/>
       <c r="BJ19" s="117"/>
       <c r="BK19" s="117"/>
-      <c r="BL19" s="240"/>
+      <c r="BL19" s="241"/>
     </row>
     <row r="20" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BA20" s="241"/>
-      <c r="BB20" s="242"/>
-      <c r="BC20" s="242"/>
-      <c r="BD20" s="242"/>
-      <c r="BE20" s="242"/>
-      <c r="BF20" s="242"/>
-      <c r="BG20" s="242"/>
-      <c r="BH20" s="242"/>
-      <c r="BI20" s="242"/>
-      <c r="BJ20" s="242"/>
-      <c r="BK20" s="242"/>
-      <c r="BL20" s="243"/>
+      <c r="BA20" s="242"/>
+      <c r="BB20" s="243"/>
+      <c r="BC20" s="243"/>
+      <c r="BD20" s="243"/>
+      <c r="BE20" s="243"/>
+      <c r="BF20" s="243"/>
+      <c r="BG20" s="243"/>
+      <c r="BH20" s="243"/>
+      <c r="BI20" s="243"/>
+      <c r="BJ20" s="243"/>
+      <c r="BK20" s="243"/>
+      <c r="BL20" s="244"/>
     </row>
     <row r="21" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="53:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46632,16 +46503,16 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:5" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>259</v>
+      <c r="B3" s="332" t="s">
+        <v>327</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -46655,311 +46526,311 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="290" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="290" t="s">
+      <c r="B5" s="291" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="290" t="s">
-        <v>66</v>
+      <c r="D5" s="291" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="322" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="322" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="323">
+      <c r="B6" s="323" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="323" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="324">
         <v>44593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="324" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="324" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="325">
+      <c r="B7" s="325" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="325" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="326">
         <v>44597</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="324" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="325">
+      <c r="B8" s="325" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="325"/>
+      <c r="D8" s="326">
         <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="324" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="324"/>
-      <c r="D9" s="325">
+      <c r="B9" s="325" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="325"/>
+      <c r="D9" s="326">
         <v>44652</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="324" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="324" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="325">
+      <c r="B10" s="325" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="325" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="326">
         <v>44926</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="324" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="324" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="325">
+      <c r="B11" s="325" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="325" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="326">
         <v>44926</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="324" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="324"/>
-      <c r="D12" s="325">
+      <c r="B12" s="325" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="325"/>
+      <c r="D12" s="326">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="324" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="324"/>
-      <c r="D13" s="325">
+      <c r="B13" s="325" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="325"/>
+      <c r="D13" s="326">
         <v>45291</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="324" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="324" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="325">
+      <c r="B14" s="325" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="325" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="326">
         <v>46387</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="324"/>
-      <c r="C15" s="324"/>
-      <c r="D15" s="325"/>
+      <c r="B15" s="325"/>
+      <c r="C15" s="325"/>
+      <c r="D15" s="326"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="324"/>
-      <c r="C16" s="324"/>
-      <c r="D16" s="325"/>
+      <c r="B16" s="325"/>
+      <c r="C16" s="325"/>
+      <c r="D16" s="326"/>
     </row>
     <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="324"/>
-      <c r="C17" s="324"/>
-      <c r="D17" s="325"/>
+      <c r="B17" s="325"/>
+      <c r="C17" s="325"/>
+      <c r="D17" s="326"/>
     </row>
     <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="324"/>
-      <c r="C18" s="324"/>
-      <c r="D18" s="325"/>
+      <c r="B18" s="325"/>
+      <c r="C18" s="325"/>
+      <c r="D18" s="326"/>
     </row>
     <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="324"/>
-      <c r="C19" s="324"/>
-      <c r="D19" s="325"/>
+      <c r="B19" s="325"/>
+      <c r="C19" s="325"/>
+      <c r="D19" s="326"/>
     </row>
     <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="324"/>
-      <c r="C20" s="324"/>
-      <c r="D20" s="325"/>
+      <c r="B20" s="325"/>
+      <c r="C20" s="325"/>
+      <c r="D20" s="326"/>
     </row>
     <row r="21" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="324"/>
-      <c r="C21" s="324"/>
-      <c r="D21" s="325"/>
+      <c r="B21" s="325"/>
+      <c r="C21" s="325"/>
+      <c r="D21" s="326"/>
     </row>
     <row r="22" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="324"/>
-      <c r="C22" s="324"/>
-      <c r="D22" s="325"/>
+      <c r="B22" s="325"/>
+      <c r="C22" s="325"/>
+      <c r="D22" s="326"/>
     </row>
     <row r="23" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="324"/>
-      <c r="C23" s="324"/>
-      <c r="D23" s="325"/>
+      <c r="B23" s="325"/>
+      <c r="C23" s="325"/>
+      <c r="D23" s="326"/>
     </row>
     <row r="24" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="324"/>
-      <c r="C24" s="324"/>
-      <c r="D24" s="325"/>
+      <c r="B24" s="325"/>
+      <c r="C24" s="325"/>
+      <c r="D24" s="326"/>
     </row>
     <row r="25" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="324"/>
-      <c r="C25" s="324"/>
-      <c r="D25" s="325"/>
+      <c r="B25" s="325"/>
+      <c r="C25" s="325"/>
+      <c r="D25" s="326"/>
     </row>
     <row r="26" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="324"/>
-      <c r="C26" s="324"/>
-      <c r="D26" s="325"/>
+      <c r="B26" s="325"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="326"/>
     </row>
     <row r="27" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="324"/>
-      <c r="C27" s="324"/>
-      <c r="D27" s="325"/>
+      <c r="B27" s="325"/>
+      <c r="C27" s="325"/>
+      <c r="D27" s="326"/>
     </row>
     <row r="28" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="324"/>
-      <c r="C28" s="324"/>
-      <c r="D28" s="325"/>
+      <c r="B28" s="325"/>
+      <c r="C28" s="325"/>
+      <c r="D28" s="326"/>
     </row>
     <row r="29" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="324"/>
-      <c r="C29" s="324"/>
-      <c r="D29" s="325"/>
+      <c r="B29" s="325"/>
+      <c r="C29" s="325"/>
+      <c r="D29" s="326"/>
     </row>
     <row r="30" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="324"/>
-      <c r="C30" s="324"/>
-      <c r="D30" s="325"/>
+      <c r="B30" s="325"/>
+      <c r="C30" s="325"/>
+      <c r="D30" s="326"/>
     </row>
     <row r="31" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="324"/>
-      <c r="C31" s="324"/>
-      <c r="D31" s="325"/>
+      <c r="B31" s="325"/>
+      <c r="C31" s="325"/>
+      <c r="D31" s="326"/>
     </row>
     <row r="32" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="324"/>
-      <c r="C32" s="324"/>
-      <c r="D32" s="325"/>
+      <c r="B32" s="325"/>
+      <c r="C32" s="325"/>
+      <c r="D32" s="326"/>
     </row>
     <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="324"/>
-      <c r="C33" s="324"/>
-      <c r="D33" s="325"/>
+      <c r="B33" s="325"/>
+      <c r="C33" s="325"/>
+      <c r="D33" s="326"/>
     </row>
     <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="324"/>
-      <c r="C34" s="324"/>
-      <c r="D34" s="325"/>
+      <c r="B34" s="325"/>
+      <c r="C34" s="325"/>
+      <c r="D34" s="326"/>
     </row>
     <row r="35" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="324"/>
-      <c r="C35" s="324"/>
-      <c r="D35" s="325"/>
+      <c r="B35" s="325"/>
+      <c r="C35" s="325"/>
+      <c r="D35" s="326"/>
     </row>
     <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="324"/>
-      <c r="C36" s="324"/>
-      <c r="D36" s="325"/>
+      <c r="B36" s="325"/>
+      <c r="C36" s="325"/>
+      <c r="D36" s="326"/>
     </row>
     <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="324"/>
-      <c r="C37" s="324"/>
-      <c r="D37" s="325"/>
+      <c r="B37" s="325"/>
+      <c r="C37" s="325"/>
+      <c r="D37" s="326"/>
     </row>
     <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="324"/>
-      <c r="C38" s="324"/>
-      <c r="D38" s="325"/>
+      <c r="B38" s="325"/>
+      <c r="C38" s="325"/>
+      <c r="D38" s="326"/>
     </row>
     <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="324"/>
-      <c r="C39" s="324"/>
-      <c r="D39" s="325"/>
+      <c r="B39" s="325"/>
+      <c r="C39" s="325"/>
+      <c r="D39" s="326"/>
     </row>
     <row r="40" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="324"/>
-      <c r="C40" s="324"/>
-      <c r="D40" s="325"/>
+      <c r="B40" s="325"/>
+      <c r="C40" s="325"/>
+      <c r="D40" s="326"/>
     </row>
     <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="324"/>
-      <c r="C41" s="324"/>
-      <c r="D41" s="325"/>
+      <c r="B41" s="325"/>
+      <c r="C41" s="325"/>
+      <c r="D41" s="326"/>
     </row>
     <row r="42" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="324"/>
-      <c r="C42" s="324"/>
-      <c r="D42" s="325"/>
+      <c r="B42" s="325"/>
+      <c r="C42" s="325"/>
+      <c r="D42" s="326"/>
     </row>
     <row r="43" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="324"/>
-      <c r="C43" s="324"/>
-      <c r="D43" s="325"/>
+      <c r="B43" s="325"/>
+      <c r="C43" s="325"/>
+      <c r="D43" s="326"/>
     </row>
     <row r="44" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="324"/>
-      <c r="C44" s="324"/>
-      <c r="D44" s="325"/>
+      <c r="B44" s="325"/>
+      <c r="C44" s="325"/>
+      <c r="D44" s="326"/>
     </row>
     <row r="45" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="324"/>
-      <c r="C45" s="324"/>
-      <c r="D45" s="325"/>
+      <c r="B45" s="325"/>
+      <c r="C45" s="325"/>
+      <c r="D45" s="326"/>
     </row>
     <row r="46" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="324"/>
-      <c r="C46" s="324"/>
-      <c r="D46" s="325"/>
+      <c r="B46" s="325"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="326"/>
     </row>
     <row r="47" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="324"/>
-      <c r="C47" s="324"/>
-      <c r="D47" s="325"/>
+      <c r="B47" s="325"/>
+      <c r="C47" s="325"/>
+      <c r="D47" s="326"/>
     </row>
     <row r="48" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="324"/>
-      <c r="C48" s="324"/>
-      <c r="D48" s="325"/>
+      <c r="B48" s="325"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="326"/>
     </row>
     <row r="49" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="324"/>
-      <c r="C49" s="324"/>
-      <c r="D49" s="325"/>
+      <c r="B49" s="325"/>
+      <c r="C49" s="325"/>
+      <c r="D49" s="326"/>
     </row>
     <row r="50" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="324"/>
-      <c r="C50" s="324"/>
-      <c r="D50" s="325"/>
+      <c r="B50" s="325"/>
+      <c r="C50" s="325"/>
+      <c r="D50" s="326"/>
     </row>
     <row r="51" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="324"/>
-      <c r="C51" s="324"/>
-      <c r="D51" s="325"/>
+      <c r="B51" s="325"/>
+      <c r="C51" s="325"/>
+      <c r="D51" s="326"/>
     </row>
     <row r="52" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="324"/>
-      <c r="C52" s="324"/>
-      <c r="D52" s="325"/>
+      <c r="B52" s="325"/>
+      <c r="C52" s="325"/>
+      <c r="D52" s="326"/>
     </row>
     <row r="53" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="324"/>
-      <c r="C53" s="324"/>
-      <c r="D53" s="325"/>
+      <c r="B53" s="325"/>
+      <c r="C53" s="325"/>
+      <c r="D53" s="326"/>
     </row>
     <row r="54" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="324"/>
-      <c r="C54" s="324"/>
-      <c r="D54" s="325"/>
+      <c r="B54" s="325"/>
+      <c r="C54" s="325"/>
+      <c r="D54" s="326"/>
     </row>
     <row r="55" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="326"/>
-      <c r="C55" s="326"/>
-      <c r="D55" s="327"/>
+      <c r="B55" s="327"/>
+      <c r="C55" s="327"/>
+      <c r="D55" s="328"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BLBB/tNWE7V6vJy7wsZPCP7E5l/yfzPZJG25qvU2osFXbzA1yX7nP0ob19NhPqZNtgROGxiIIeUzFLpDAiOp9Q==" saltValue="Uzfj8dFR8RMA9x5mIRXT1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -46996,14 +46867,14 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>260</v>
+      <c r="B3" s="332" t="s">
+        <v>328</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -47035,7 +46906,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -47055,8 +46926,8 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="224"/>
       <c r="D2" s="30"/>
@@ -47064,8 +46935,8 @@
       <c r="F2" s="220"/>
     </row>
     <row r="3" spans="1:6" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>239</v>
+      <c r="B3" s="332" t="s">
+        <v>305</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="5"/>
@@ -47574,9 +47445,9 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="142" zoomScaleNormal="142" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47593,14 +47464,14 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="328" t="s">
-        <v>236</v>
+      <c r="B2" s="329" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="219"/>
     </row>
     <row r="3" spans="1:3" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="329" t="s">
-        <v>240</v>
+      <c r="B3" s="330" t="s">
+        <v>306</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -47615,59 +47486,59 @@
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="291" t="s">
+      <c r="B6" s="292" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="291" t="s">
-        <v>73</v>
+      <c r="B7" s="292" t="s">
+        <v>81</v>
       </c>
       <c r="C7" s="169" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="291" t="s">
+      <c r="B8" s="292" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="291" t="s">
-        <v>71</v>
+      <c r="B9" s="292" t="s">
+        <v>79</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="291" t="s">
+      <c r="B10" s="292" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="291" t="s">
+      <c r="B11" s="292" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="291" t="s">
-        <v>72</v>
+      <c r="B12" s="292" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="169" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -47687,10 +47558,10 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47707,14 +47578,14 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>241</v>
+      <c r="B3" s="332" t="s">
+        <v>307</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47729,75 +47600,75 @@
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="291" t="s">
-        <v>74</v>
+      <c r="B6" s="292" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="291" t="s">
-        <v>79</v>
+      <c r="B7" s="292" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="171" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="291" t="s">
-        <v>75</v>
+      <c r="B8" s="292" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="291" t="s">
-        <v>76</v>
+      <c r="B9" s="292" t="s">
+        <v>84</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="291" t="s">
-        <v>77</v>
+      <c r="B10" s="292" t="s">
+        <v>85</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="291" t="s">
-        <v>81</v>
+      <c r="B11" s="292" t="s">
+        <v>89</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="291" t="s">
-        <v>242</v>
+      <c r="B12" s="292" t="s">
+        <v>308</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="291" t="s">
-        <v>78</v>
+      <c r="B13" s="292" t="s">
+        <v>86</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="291" t="s">
-        <v>80</v>
+      <c r="B14" s="292" t="s">
+        <v>88</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -47836,14 +47707,14 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>243</v>
+      <c r="B3" s="332" t="s">
+        <v>309</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -47858,51 +47729,51 @@
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="291" t="s">
+      <c r="B6" s="292" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="292" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="291" t="s">
+      <c r="B8" s="292" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="291" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="249" t="s">
-        <v>282</v>
+      <c r="B9" s="292" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="250" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="291" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="249" t="s">
-        <v>283</v>
+      <c r="B10" s="292" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="250" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="291" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="249" t="s">
-        <v>292</v>
+      <c r="B11" s="292" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="250" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -47911,32 +47782,30 @@
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="342" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C13" s="343"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="340" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="341"/>
+      <c r="B14" s="344" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="345"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="340" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="C15" s="341"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="340" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="C16" s="341"/>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="340" t="s">
-        <v>303</v>
-      </c>
+      <c r="B17" s="340"/>
       <c r="C17" s="341"/>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -47944,27 +47813,19 @@
       <c r="C18" s="341"/>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="340" t="s">
-        <v>288</v>
-      </c>
+      <c r="B19" s="340"/>
       <c r="C19" s="341"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="340" t="s">
-        <v>289</v>
-      </c>
+      <c r="B20" s="340"/>
       <c r="C20" s="341"/>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="340" t="s">
-        <v>290</v>
-      </c>
+      <c r="B21" s="340"/>
       <c r="C21" s="341"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="340" t="s">
-        <v>291</v>
-      </c>
+      <c r="B22" s="340"/>
       <c r="C22" s="341"/>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48045,14 +47906,14 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>247</v>
+      <c r="B3" s="332" t="s">
+        <v>315</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -48067,174 +47928,162 @@
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="344" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="250" t="s">
-        <v>283</v>
+      <c r="B6" s="346" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="251" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="344"/>
-      <c r="C7" s="250" t="s">
-        <v>293</v>
+      <c r="B7" s="346"/>
+      <c r="C7" s="251" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="344"/>
-      <c r="C8" s="250" t="s">
-        <v>294</v>
+      <c r="B8" s="346"/>
+      <c r="C8" s="251" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="344"/>
-      <c r="C9" s="250" t="s">
-        <v>295</v>
-      </c>
+      <c r="B9" s="346"/>
+      <c r="C9" s="251"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="344"/>
-      <c r="C10" s="250"/>
+      <c r="B10" s="346"/>
+      <c r="C10" s="251"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="344"/>
-      <c r="C11" s="250"/>
+      <c r="B11" s="346"/>
+      <c r="C11" s="251"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="344"/>
-      <c r="C12" s="250"/>
+      <c r="B12" s="346"/>
+      <c r="C12" s="251"/>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
-      <c r="C13" s="251"/>
+      <c r="C13" s="252"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="345" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="252" t="s">
-        <v>298</v>
+      <c r="B14" s="347" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="253" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="345"/>
-      <c r="C15" s="252" t="s">
-        <v>296</v>
+      <c r="B15" s="347"/>
+      <c r="C15" s="253" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="345"/>
-      <c r="C16" s="252" t="s">
-        <v>297</v>
+      <c r="B16" s="347"/>
+      <c r="C16" s="253" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="345"/>
-      <c r="C17" s="252" t="s">
-        <v>299</v>
+      <c r="B17" s="347"/>
+      <c r="C17" s="253" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="345"/>
-      <c r="C18" s="252"/>
+      <c r="B18" s="347"/>
+      <c r="C18" s="253"/>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="345"/>
-      <c r="C19" s="252"/>
+      <c r="B19" s="347"/>
+      <c r="C19" s="253"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="345"/>
-      <c r="C20" s="252"/>
+      <c r="B20" s="347"/>
+      <c r="C20" s="253"/>
     </row>
     <row r="21" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="49"/>
-      <c r="C21" s="251"/>
+      <c r="C21" s="252"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="346" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="253" t="s">
-        <v>300</v>
+      <c r="B22" s="348" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="254" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="346"/>
-      <c r="C23" s="253" t="s">
-        <v>301</v>
+      <c r="B23" s="348"/>
+      <c r="C23" s="254" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="346"/>
-      <c r="C24" s="253" t="s">
-        <v>312</v>
+      <c r="B24" s="348"/>
+      <c r="C24" s="254" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="346"/>
-      <c r="C25" s="253" t="s">
-        <v>306</v>
-      </c>
+      <c r="B25" s="348"/>
+      <c r="C25" s="254"/>
     </row>
     <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="346"/>
-      <c r="C26" s="253" t="s">
-        <v>307</v>
-      </c>
+      <c r="B26" s="348"/>
+      <c r="C26" s="254"/>
     </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="346"/>
-      <c r="C27" s="253" t="s">
-        <v>308</v>
-      </c>
+      <c r="B27" s="348"/>
+      <c r="C27" s="254"/>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="346"/>
-      <c r="C28" s="253" t="s">
-        <v>309</v>
-      </c>
+      <c r="B28" s="348"/>
+      <c r="C28" s="254"/>
     </row>
     <row r="29" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="49"/>
-      <c r="C29" s="251"/>
+      <c r="C29" s="252"/>
     </row>
     <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="347" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="254" t="s">
-        <v>305</v>
+      <c r="B30" s="349" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="255" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="347"/>
-      <c r="C31" s="254" t="s">
-        <v>304</v>
+      <c r="B31" s="349"/>
+      <c r="C31" s="255" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="347"/>
-      <c r="C32" s="254" t="s">
-        <v>310</v>
+      <c r="B32" s="349"/>
+      <c r="C32" s="255" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="347"/>
-      <c r="C33" s="254" t="s">
-        <v>311</v>
-      </c>
+      <c r="B33" s="349"/>
+      <c r="C33" s="255"/>
     </row>
     <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="347"/>
-      <c r="C34" s="254"/>
+      <c r="B34" s="349"/>
+      <c r="C34" s="255"/>
     </row>
     <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="347"/>
-      <c r="C35" s="254"/>
+      <c r="B35" s="349"/>
+      <c r="C35" s="255"/>
     </row>
     <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="347"/>
-      <c r="C36" s="254"/>
+      <c r="B36" s="349"/>
+      <c r="C36" s="255"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QMK6Ki+K3Ou+zCBOXAwXfdJAPoMsXuaNVDg+NzI9KlH8lDvZfpUZvkR82W/vXLGbmK3lr92tek2xAyS9ivc0Ow==" saltValue="lIx7aLczycrWtQcvxcU6DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -48279,8 +48128,8 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:9" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="328" t="s">
-        <v>236</v>
+      <c r="B2" s="329" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -48291,8 +48140,8 @@
       <c r="I2" s="219"/>
     </row>
     <row r="3" spans="1:9" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="329" t="s">
-        <v>248</v>
+      <c r="B3" s="330" t="s">
+        <v>316</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -48329,26 +48178,30 @@
         <v>20</v>
       </c>
       <c r="C6" s="178" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="335" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="336" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="337" t="s">
-        <v>322</v>
-      </c>
-      <c r="F6" s="336" t="s">
-        <v>323</v>
+        <v>220</v>
+      </c>
+      <c r="F6" s="337" t="s">
+        <v>221</v>
       </c>
       <c r="G6" s="337" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="336"/>
-      <c r="I6" s="336"/>
+        <v>222</v>
+      </c>
+      <c r="H6" s="337" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="337" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="174" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="C7" s="175">
         <v>50</v>
@@ -48360,29 +48213,29 @@
         <v>5</v>
       </c>
       <c r="F7" s="175">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="175">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7" s="175"/>
       <c r="I7" s="175"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="174" t="s">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="C8" s="175">
         <v>80</v>
       </c>
       <c r="D8" s="175">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="175">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="175">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="175">
         <v>6</v>
@@ -48392,19 +48245,19 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="174" t="s">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="C9" s="175">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D9" s="175">
         <v>8</v>
       </c>
       <c r="E9" s="175">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="175">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="175">
         <v>7</v>
@@ -48414,35 +48267,35 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="174" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="C10" s="175">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D10" s="175">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="175">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="175">
         <v>7</v>
       </c>
       <c r="G10" s="175">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10" s="175"/>
       <c r="I10" s="175"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="174" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="C11" s="175">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11" s="175">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11" s="175">
         <v>7</v>
@@ -48451,95 +48304,95 @@
         <v>8</v>
       </c>
       <c r="G11" s="175">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="175"/>
       <c r="I11" s="175"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="174" t="s">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="C12" s="175">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D12" s="175">
+        <v>5</v>
+      </c>
+      <c r="E12" s="175">
         <v>6</v>
       </c>
-      <c r="E12" s="175">
-        <v>2</v>
-      </c>
       <c r="F12" s="175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="175">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H12" s="175"/>
       <c r="I12" s="175"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="174" t="s">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="C13" s="175">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D13" s="175">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E13" s="175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="175">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="175">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H13" s="175"/>
       <c r="I13" s="175"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="174" t="s">
-        <v>320</v>
+        <v>29</v>
       </c>
       <c r="C14" s="175">
         <v>50</v>
       </c>
       <c r="D14" s="175">
+        <v>8</v>
+      </c>
+      <c r="E14" s="175">
         <v>7</v>
       </c>
-      <c r="E14" s="175">
-        <v>2</v>
-      </c>
       <c r="F14" s="175">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G14" s="175">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H14" s="175"/>
       <c r="I14" s="175"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="174" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="C15" s="175">
         <v>80</v>
       </c>
       <c r="D15" s="175">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="175">
         <v>9</v>
       </c>
       <c r="G15" s="175">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H15" s="175"/>
       <c r="I15" s="175"/>
@@ -48656,23 +48509,23 @@
     </row>
     <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="118" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D27" s="179">
         <f>IFERROR(IF(COUNTA(D7:D26)=0,"",(SUMPRODUCT(D7:D26,$C$7:$C$26))/(SUM($C$7:$C$26))),"")</f>
-        <v>7.1</v>
+        <v>6.3461538461538458</v>
       </c>
       <c r="E27" s="179">
         <f t="shared" ref="E27:I27" si="0">IFERROR(IF(COUNTA(E7:E26)=0,"",(SUMPRODUCT(E7:E26,$C$7:$C$26))/(SUM($C$7:$C$26))),"")</f>
-        <v>3.02</v>
+        <v>5.884615384615385</v>
       </c>
       <c r="F27" s="179">
         <f t="shared" si="0"/>
-        <v>7.16</v>
+        <v>6.2884615384615383</v>
       </c>
       <c r="G27" s="179">
         <f t="shared" si="0"/>
-        <v>7.3</v>
+        <v>4.9423076923076925</v>
       </c>
       <c r="H27" s="179" t="str">
         <f t="shared" si="0"/>
@@ -48685,173 +48538,171 @@
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="342" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="348"/>
-      <c r="D29" s="348"/>
-      <c r="E29" s="348"/>
-      <c r="F29" s="348"/>
-      <c r="G29" s="348"/>
-      <c r="H29" s="348"/>
+        <v>31</v>
+      </c>
+      <c r="C29" s="350"/>
+      <c r="D29" s="350"/>
+      <c r="E29" s="350"/>
+      <c r="F29" s="350"/>
+      <c r="G29" s="350"/>
+      <c r="H29" s="350"/>
       <c r="I29" s="343"/>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="355" t="s">
-        <v>325</v>
-      </c>
-      <c r="C30" s="356"/>
-      <c r="D30" s="356"/>
-      <c r="E30" s="356"/>
-      <c r="F30" s="356"/>
-      <c r="G30" s="356"/>
-      <c r="H30" s="356"/>
-      <c r="I30" s="357"/>
+      <c r="B30" s="357" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="358"/>
+      <c r="D30" s="358"/>
+      <c r="E30" s="358"/>
+      <c r="F30" s="358"/>
+      <c r="G30" s="358"/>
+      <c r="H30" s="358"/>
+      <c r="I30" s="359"/>
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="352" t="s">
-        <v>326</v>
-      </c>
-      <c r="C31" s="353"/>
-      <c r="D31" s="353"/>
-      <c r="E31" s="353"/>
-      <c r="F31" s="353"/>
-      <c r="G31" s="353"/>
-      <c r="H31" s="353"/>
-      <c r="I31" s="354"/>
+      <c r="B31" s="354" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="355"/>
+      <c r="D31" s="355"/>
+      <c r="E31" s="355"/>
+      <c r="F31" s="355"/>
+      <c r="G31" s="355"/>
+      <c r="H31" s="355"/>
+      <c r="I31" s="356"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="352" t="s">
-        <v>327</v>
-      </c>
-      <c r="C32" s="353"/>
-      <c r="D32" s="353"/>
-      <c r="E32" s="353"/>
-      <c r="F32" s="353"/>
-      <c r="G32" s="353"/>
-      <c r="H32" s="353"/>
-      <c r="I32" s="354"/>
+      <c r="B32" s="354" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="355"/>
+      <c r="D32" s="355"/>
+      <c r="E32" s="355"/>
+      <c r="F32" s="355"/>
+      <c r="G32" s="355"/>
+      <c r="H32" s="355"/>
+      <c r="I32" s="356"/>
     </row>
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="352" t="s">
-        <v>328</v>
-      </c>
-      <c r="C33" s="353"/>
-      <c r="D33" s="353"/>
-      <c r="E33" s="353"/>
-      <c r="F33" s="353"/>
-      <c r="G33" s="353"/>
-      <c r="H33" s="353"/>
-      <c r="I33" s="354"/>
+      <c r="B33" s="354"/>
+      <c r="C33" s="355"/>
+      <c r="D33" s="355"/>
+      <c r="E33" s="355"/>
+      <c r="F33" s="355"/>
+      <c r="G33" s="355"/>
+      <c r="H33" s="355"/>
+      <c r="I33" s="356"/>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="352"/>
-      <c r="C34" s="353"/>
-      <c r="D34" s="353"/>
-      <c r="E34" s="353"/>
-      <c r="F34" s="353"/>
-      <c r="G34" s="353"/>
-      <c r="H34" s="353"/>
-      <c r="I34" s="354"/>
+      <c r="B34" s="354"/>
+      <c r="C34" s="355"/>
+      <c r="D34" s="355"/>
+      <c r="E34" s="355"/>
+      <c r="F34" s="355"/>
+      <c r="G34" s="355"/>
+      <c r="H34" s="355"/>
+      <c r="I34" s="356"/>
     </row>
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="352"/>
-      <c r="C35" s="353"/>
-      <c r="D35" s="353"/>
-      <c r="E35" s="353"/>
-      <c r="F35" s="353"/>
-      <c r="G35" s="353"/>
-      <c r="H35" s="353"/>
-      <c r="I35" s="354"/>
+      <c r="B35" s="354"/>
+      <c r="C35" s="355"/>
+      <c r="D35" s="355"/>
+      <c r="E35" s="355"/>
+      <c r="F35" s="355"/>
+      <c r="G35" s="355"/>
+      <c r="H35" s="355"/>
+      <c r="I35" s="356"/>
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="352"/>
-      <c r="C36" s="353"/>
-      <c r="D36" s="353"/>
-      <c r="E36" s="353"/>
-      <c r="F36" s="353"/>
-      <c r="G36" s="353"/>
-      <c r="H36" s="353"/>
-      <c r="I36" s="354"/>
+      <c r="B36" s="354"/>
+      <c r="C36" s="355"/>
+      <c r="D36" s="355"/>
+      <c r="E36" s="355"/>
+      <c r="F36" s="355"/>
+      <c r="G36" s="355"/>
+      <c r="H36" s="355"/>
+      <c r="I36" s="356"/>
     </row>
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="352"/>
-      <c r="C37" s="353"/>
-      <c r="D37" s="353"/>
-      <c r="E37" s="353"/>
-      <c r="F37" s="353"/>
-      <c r="G37" s="353"/>
-      <c r="H37" s="353"/>
-      <c r="I37" s="354"/>
+      <c r="B37" s="354"/>
+      <c r="C37" s="355"/>
+      <c r="D37" s="355"/>
+      <c r="E37" s="355"/>
+      <c r="F37" s="355"/>
+      <c r="G37" s="355"/>
+      <c r="H37" s="355"/>
+      <c r="I37" s="356"/>
     </row>
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="352"/>
-      <c r="C38" s="353"/>
-      <c r="D38" s="353"/>
-      <c r="E38" s="353"/>
-      <c r="F38" s="353"/>
-      <c r="G38" s="353"/>
-      <c r="H38" s="353"/>
-      <c r="I38" s="354"/>
+      <c r="B38" s="354"/>
+      <c r="C38" s="355"/>
+      <c r="D38" s="355"/>
+      <c r="E38" s="355"/>
+      <c r="F38" s="355"/>
+      <c r="G38" s="355"/>
+      <c r="H38" s="355"/>
+      <c r="I38" s="356"/>
     </row>
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="352"/>
-      <c r="C39" s="353"/>
-      <c r="D39" s="353"/>
-      <c r="E39" s="353"/>
-      <c r="F39" s="353"/>
-      <c r="G39" s="353"/>
-      <c r="H39" s="353"/>
-      <c r="I39" s="354"/>
+      <c r="B39" s="354"/>
+      <c r="C39" s="355"/>
+      <c r="D39" s="355"/>
+      <c r="E39" s="355"/>
+      <c r="F39" s="355"/>
+      <c r="G39" s="355"/>
+      <c r="H39" s="355"/>
+      <c r="I39" s="356"/>
     </row>
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="352"/>
-      <c r="C40" s="353"/>
-      <c r="D40" s="353"/>
-      <c r="E40" s="353"/>
-      <c r="F40" s="353"/>
-      <c r="G40" s="353"/>
-      <c r="H40" s="353"/>
-      <c r="I40" s="354"/>
+      <c r="B40" s="354"/>
+      <c r="C40" s="355"/>
+      <c r="D40" s="355"/>
+      <c r="E40" s="355"/>
+      <c r="F40" s="355"/>
+      <c r="G40" s="355"/>
+      <c r="H40" s="355"/>
+      <c r="I40" s="356"/>
     </row>
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="352"/>
-      <c r="C41" s="353"/>
-      <c r="D41" s="353"/>
-      <c r="E41" s="353"/>
-      <c r="F41" s="353"/>
-      <c r="G41" s="353"/>
-      <c r="H41" s="353"/>
-      <c r="I41" s="354"/>
+      <c r="B41" s="354"/>
+      <c r="C41" s="355"/>
+      <c r="D41" s="355"/>
+      <c r="E41" s="355"/>
+      <c r="F41" s="355"/>
+      <c r="G41" s="355"/>
+      <c r="H41" s="355"/>
+      <c r="I41" s="356"/>
     </row>
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="352"/>
-      <c r="C42" s="353"/>
-      <c r="D42" s="353"/>
-      <c r="E42" s="353"/>
-      <c r="F42" s="353"/>
-      <c r="G42" s="353"/>
-      <c r="H42" s="353"/>
-      <c r="I42" s="354"/>
+      <c r="B42" s="354"/>
+      <c r="C42" s="355"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="355"/>
+      <c r="F42" s="355"/>
+      <c r="G42" s="355"/>
+      <c r="H42" s="355"/>
+      <c r="I42" s="356"/>
     </row>
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="352"/>
-      <c r="C43" s="353"/>
-      <c r="D43" s="353"/>
-      <c r="E43" s="353"/>
-      <c r="F43" s="353"/>
-      <c r="G43" s="353"/>
-      <c r="H43" s="353"/>
-      <c r="I43" s="354"/>
+      <c r="B43" s="354"/>
+      <c r="C43" s="355"/>
+      <c r="D43" s="355"/>
+      <c r="E43" s="355"/>
+      <c r="F43" s="355"/>
+      <c r="G43" s="355"/>
+      <c r="H43" s="355"/>
+      <c r="I43" s="356"/>
     </row>
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="349"/>
-      <c r="C44" s="350"/>
-      <c r="D44" s="350"/>
-      <c r="E44" s="350"/>
-      <c r="F44" s="350"/>
-      <c r="G44" s="350"/>
-      <c r="H44" s="350"/>
-      <c r="I44" s="351"/>
+      <c r="B44" s="351"/>
+      <c r="C44" s="352"/>
+      <c r="D44" s="352"/>
+      <c r="E44" s="352"/>
+      <c r="F44" s="352"/>
+      <c r="G44" s="352"/>
+      <c r="H44" s="352"/>
+      <c r="I44" s="353"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XEq06WUJi5XGJM5wDJcHVyTPef8KG6rhUQXzoHL0yiWbfkE8nPSjKg/pXI7pFSYa9Uv7eAFpkTD1juDk6LGI7Q==" saltValue="6YDFbsbANdRWvvi77R+eYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -48897,10 +48748,10 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J7:J9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48930,8 +48781,8 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="330" t="s">
-        <v>236</v>
+      <c r="B2" s="331" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -48943,8 +48794,8 @@
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331" t="s">
-        <v>249</v>
+      <c r="B3" s="332" t="s">
+        <v>317</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -48980,275 +48831,277 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="263" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="264" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="255"/>
-      <c r="F6" s="265" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="255"/>
-      <c r="H6" s="266" t="s">
-        <v>261</v>
-      </c>
-      <c r="I6" s="255"/>
-      <c r="J6" s="267" t="s">
+      <c r="B6" s="264" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="256"/>
+      <c r="D6" s="265" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="256"/>
+      <c r="F6" s="266" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="256"/>
+      <c r="H6" s="267" t="s">
+        <v>329</v>
+      </c>
+      <c r="I6" s="256"/>
+      <c r="J6" s="268" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="390" t="s">
+      <c r="B7" s="257" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="258"/>
+      <c r="D7" s="259" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="260"/>
+      <c r="F7" s="261" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="260"/>
+      <c r="H7" s="262" t="s">
+        <v>235</v>
+      </c>
+      <c r="I7" s="260"/>
+      <c r="J7" s="263" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="257" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="258"/>
+      <c r="D8" s="259" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="260"/>
+      <c r="F8" s="261" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="260"/>
+      <c r="H8" s="262" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="260"/>
+      <c r="J8" s="263" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="257" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="391" t="s">
-        <v>333</v>
-      </c>
-      <c r="E7" s="259"/>
-      <c r="F7" s="392" t="s">
-        <v>336</v>
-      </c>
-      <c r="G7" s="259"/>
-      <c r="H7" s="393" t="s">
-        <v>339</v>
-      </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="394" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="390" t="s">
-        <v>331</v>
-      </c>
-      <c r="C8" s="257"/>
-      <c r="D8" s="391" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" s="259"/>
-      <c r="F8" s="392" t="s">
-        <v>337</v>
-      </c>
-      <c r="G8" s="259"/>
-      <c r="H8" s="393" t="s">
-        <v>340</v>
-      </c>
-      <c r="I8" s="259"/>
-      <c r="J8" s="394" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="390" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="257"/>
-      <c r="D9" s="391" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="259"/>
-      <c r="F9" s="392" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="259"/>
-      <c r="H9" s="393" t="s">
-        <v>341</v>
-      </c>
-      <c r="I9" s="259"/>
-      <c r="J9" s="394" t="s">
-        <v>344</v>
+      <c r="C9" s="258"/>
+      <c r="D9" s="259" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="260"/>
+      <c r="F9" s="261" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="260"/>
+      <c r="H9" s="262" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" s="260"/>
+      <c r="J9" s="263" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="256"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="261"/>
-      <c r="I10" s="259"/>
-      <c r="J10" s="262"/>
+      <c r="B10" s="257" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="258"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="261"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="262"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="263"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="256"/>
-      <c r="C11" s="257"/>
-      <c r="D11" s="258"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="262"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="262"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="263"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="256"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="258"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="261"/>
-      <c r="I12" s="259"/>
-      <c r="J12" s="262"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="260"/>
+      <c r="F12" s="261"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="262"/>
+      <c r="I12" s="260"/>
+      <c r="J12" s="263"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="256"/>
-      <c r="C13" s="257"/>
-      <c r="D13" s="258"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="262"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="261"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="262"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="263"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="256"/>
-      <c r="C14" s="257"/>
-      <c r="D14" s="258"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="261"/>
-      <c r="I14" s="259"/>
-      <c r="J14" s="262"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="261"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="262"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="263"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="256"/>
-      <c r="C15" s="257"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="259"/>
-      <c r="J15" s="262"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="261"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="262"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="263"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="256"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="258"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="262"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="260"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="262"/>
+      <c r="I16" s="260"/>
+      <c r="J16" s="263"/>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="256"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="259"/>
-      <c r="H17" s="261"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="262"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="260"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="262"/>
+      <c r="I17" s="260"/>
+      <c r="J17" s="263"/>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="256"/>
-      <c r="C18" s="257"/>
-      <c r="D18" s="258"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="259"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="262"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="262"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="263"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="256"/>
-      <c r="C19" s="257"/>
-      <c r="D19" s="258"/>
-      <c r="E19" s="259"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="262"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="260"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="262"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="263"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="256"/>
-      <c r="C20" s="257"/>
-      <c r="D20" s="258"/>
-      <c r="E20" s="259"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="259"/>
-      <c r="H20" s="261"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="262"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="260"/>
+      <c r="F20" s="261"/>
+      <c r="G20" s="260"/>
+      <c r="H20" s="262"/>
+      <c r="I20" s="260"/>
+      <c r="J20" s="263"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="256"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="259"/>
-      <c r="H21" s="261"/>
-      <c r="I21" s="259"/>
-      <c r="J21" s="262"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="260"/>
+      <c r="H21" s="262"/>
+      <c r="I21" s="260"/>
+      <c r="J21" s="263"/>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="256"/>
-      <c r="C22" s="257"/>
-      <c r="D22" s="258"/>
-      <c r="E22" s="259"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="259"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="259"/>
-      <c r="J22" s="262"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="260"/>
+      <c r="H22" s="262"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="263"/>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="256"/>
-      <c r="C23" s="257"/>
-      <c r="D23" s="258"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="259"/>
-      <c r="J23" s="262"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="261"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="262"/>
+      <c r="I23" s="260"/>
+      <c r="J23" s="263"/>
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="256"/>
-      <c r="C24" s="257"/>
-      <c r="D24" s="258"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="261"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="262"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="260"/>
+      <c r="F24" s="261"/>
+      <c r="G24" s="260"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="260"/>
+      <c r="J24" s="263"/>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="256"/>
-      <c r="C25" s="257"/>
-      <c r="D25" s="258"/>
-      <c r="E25" s="259"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="259"/>
-      <c r="H25" s="261"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="262"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="260"/>
+      <c r="F25" s="261"/>
+      <c r="G25" s="260"/>
+      <c r="H25" s="262"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="263"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="256"/>
-      <c r="C26" s="257"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="259"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="259"/>
-      <c r="H26" s="261"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="262"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="260"/>
+      <c r="F26" s="261"/>
+      <c r="G26" s="260"/>
+      <c r="H26" s="262"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="263"/>
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49278,10 +49131,10 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="G1" zoomScale="116" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10:H12"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49303,8 +49156,8 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="218" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="328" t="s">
-        <v>236</v>
+      <c r="B2" s="329" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -49314,8 +49167,8 @@
       <c r="H2" s="219"/>
     </row>
     <row r="3" spans="1:8" s="221" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="329" t="s">
-        <v>250</v>
+      <c r="B3" s="330" t="s">
+        <v>318</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -49345,309 +49198,303 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="271"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="275"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="283"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="269"/>
+      <c r="H6" s="284"/>
     </row>
     <row r="7" spans="1:8" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="272" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="269"/>
-      <c r="D7" s="276" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="269"/>
-      <c r="F7" s="280" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="269"/>
-      <c r="H7" s="284" t="s">
-        <v>70</v>
+      <c r="B7" s="273" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="270"/>
+      <c r="D7" s="277" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="270"/>
+      <c r="F7" s="281" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="270"/>
+      <c r="H7" s="285" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="273" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="270"/>
-      <c r="D8" s="277" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="270"/>
-      <c r="F8" s="281" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="270"/>
-      <c r="H8" s="285" t="s">
-        <v>180</v>
+      <c r="B8" s="274" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="271"/>
+      <c r="D8" s="278" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="271"/>
+      <c r="F8" s="282" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="271"/>
+      <c r="H8" s="286" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="274"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="268"/>
-      <c r="H9" s="286"/>
+      <c r="B9" s="275"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="287"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="395" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10" s="288"/>
-      <c r="D10" s="393" t="s">
-        <v>350</v>
-      </c>
-      <c r="E10" s="288"/>
-      <c r="F10" s="392" t="s">
-        <v>353</v>
-      </c>
-      <c r="G10" s="288"/>
-      <c r="H10" s="394" t="s">
-        <v>342</v>
+      <c r="B10" s="288" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="289"/>
+      <c r="D10" s="262" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="289"/>
+      <c r="F10" s="261" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="289"/>
+      <c r="H10" s="263" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="395" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="288"/>
-      <c r="D11" s="393" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="288"/>
-      <c r="F11" s="392" t="s">
-        <v>354</v>
-      </c>
-      <c r="G11" s="288"/>
-      <c r="H11" s="394" t="s">
-        <v>356</v>
+      <c r="B11" s="288" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="289"/>
+      <c r="D11" s="262" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="289"/>
+      <c r="F11" s="261" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="289"/>
+      <c r="H11" s="263" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="395" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="288"/>
-      <c r="D12" s="393" t="s">
-        <v>352</v>
-      </c>
-      <c r="E12" s="288"/>
-      <c r="F12" s="392" t="s">
-        <v>355</v>
-      </c>
-      <c r="G12" s="288"/>
-      <c r="H12" s="394" t="s">
-        <v>357</v>
-      </c>
+      <c r="B12" s="288" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="289"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="261" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="289"/>
+      <c r="H12" s="263"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="395" t="s">
-        <v>348</v>
-      </c>
-      <c r="C13" s="288"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="262"/>
+      <c r="B13" s="288" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="289"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="289"/>
+      <c r="F13" s="261"/>
+      <c r="G13" s="289"/>
+      <c r="H13" s="263"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="395" t="s">
-        <v>349</v>
-      </c>
-      <c r="C14" s="288"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="288"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="288"/>
-      <c r="H14" s="262"/>
+      <c r="B14" s="288"/>
+      <c r="C14" s="289"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="289"/>
+      <c r="F14" s="261"/>
+      <c r="G14" s="289"/>
+      <c r="H14" s="263"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="287"/>
-      <c r="C15" s="288"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="288"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="288"/>
-      <c r="H15" s="262"/>
+      <c r="B15" s="288"/>
+      <c r="C15" s="289"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="261"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="263"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="287"/>
-      <c r="C16" s="288"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="288"/>
-      <c r="H16" s="262"/>
+      <c r="B16" s="288"/>
+      <c r="C16" s="289"/>
+      <c r="D16" s="262"/>
+      <c r="E16" s="289"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="289"/>
+      <c r="H16" s="263"/>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="287"/>
-      <c r="C17" s="288"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="288"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="288"/>
-      <c r="H17" s="262"/>
+      <c r="B17" s="288"/>
+      <c r="C17" s="289"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="289"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="289"/>
+      <c r="H17" s="263"/>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="287"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="288"/>
-      <c r="H18" s="262"/>
+      <c r="B18" s="288"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="263"/>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="287"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="261"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="288"/>
-      <c r="H19" s="262"/>
+      <c r="B19" s="288"/>
+      <c r="C19" s="289"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="289"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="263"/>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="287"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="261"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="288"/>
-      <c r="H20" s="262"/>
+      <c r="B20" s="288"/>
+      <c r="C20" s="289"/>
+      <c r="D20" s="262"/>
+      <c r="E20" s="289"/>
+      <c r="F20" s="261"/>
+      <c r="G20" s="289"/>
+      <c r="H20" s="263"/>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="287"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="262"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="289"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="289"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="289"/>
+      <c r="H21" s="263"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="287"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="261"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="288"/>
-      <c r="H22" s="262"/>
+      <c r="B22" s="288"/>
+      <c r="C22" s="289"/>
+      <c r="D22" s="262"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="289"/>
+      <c r="H22" s="263"/>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="287"/>
-      <c r="C23" s="288"/>
-      <c r="D23" s="261"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="288"/>
-      <c r="H23" s="262"/>
+      <c r="B23" s="288"/>
+      <c r="C23" s="289"/>
+      <c r="D23" s="262"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="261"/>
+      <c r="G23" s="289"/>
+      <c r="H23" s="263"/>
     </row>
     <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="287"/>
-      <c r="C24" s="288"/>
-      <c r="D24" s="261"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="288"/>
-      <c r="H24" s="262"/>
+      <c r="B24" s="288"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="262"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="261"/>
+      <c r="G24" s="289"/>
+      <c r="H24" s="263"/>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="287"/>
-      <c r="C25" s="288"/>
-      <c r="D25" s="261"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="288"/>
-      <c r="H25" s="262"/>
+      <c r="B25" s="288"/>
+      <c r="C25" s="289"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="289"/>
+      <c r="F25" s="261"/>
+      <c r="G25" s="289"/>
+      <c r="H25" s="263"/>
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="287"/>
-      <c r="C26" s="288"/>
-      <c r="D26" s="261"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="288"/>
-      <c r="H26" s="262"/>
+      <c r="B26" s="288"/>
+      <c r="C26" s="289"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="289"/>
+      <c r="F26" s="261"/>
+      <c r="G26" s="289"/>
+      <c r="H26" s="263"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="287"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="261"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="288"/>
-      <c r="H27" s="262"/>
+      <c r="B27" s="288"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="289"/>
+      <c r="H27" s="263"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="287"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="261"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="288"/>
-      <c r="H28" s="262"/>
+      <c r="B28" s="288"/>
+      <c r="C28" s="289"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="289"/>
+      <c r="F28" s="261"/>
+      <c r="G28" s="289"/>
+      <c r="H28" s="263"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="287"/>
-      <c r="C29" s="288"/>
-      <c r="D29" s="261"/>
-      <c r="E29" s="288"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="288"/>
-      <c r="H29" s="262"/>
+      <c r="B29" s="288"/>
+      <c r="C29" s="289"/>
+      <c r="D29" s="262"/>
+      <c r="E29" s="289"/>
+      <c r="F29" s="261"/>
+      <c r="G29" s="289"/>
+      <c r="H29" s="263"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="287"/>
-      <c r="C30" s="288"/>
-      <c r="D30" s="261"/>
-      <c r="E30" s="288"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="288"/>
-      <c r="H30" s="262"/>
+      <c r="B30" s="288"/>
+      <c r="C30" s="289"/>
+      <c r="D30" s="262"/>
+      <c r="E30" s="289"/>
+      <c r="F30" s="261"/>
+      <c r="G30" s="289"/>
+      <c r="H30" s="263"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="287"/>
-      <c r="C31" s="288"/>
-      <c r="D31" s="261"/>
-      <c r="E31" s="288"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="288"/>
-      <c r="H31" s="262"/>
+      <c r="B31" s="288"/>
+      <c r="C31" s="289"/>
+      <c r="D31" s="262"/>
+      <c r="E31" s="289"/>
+      <c r="F31" s="261"/>
+      <c r="G31" s="289"/>
+      <c r="H31" s="263"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="287"/>
-      <c r="C32" s="288"/>
-      <c r="D32" s="261"/>
-      <c r="E32" s="288"/>
-      <c r="F32" s="260"/>
-      <c r="G32" s="288"/>
-      <c r="H32" s="262"/>
+      <c r="B32" s="288"/>
+      <c r="C32" s="289"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="289"/>
+      <c r="F32" s="261"/>
+      <c r="G32" s="289"/>
+      <c r="H32" s="263"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="287"/>
-      <c r="C33" s="288"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="288"/>
-      <c r="F33" s="260"/>
-      <c r="G33" s="288"/>
-      <c r="H33" s="262"/>
+      <c r="B33" s="288"/>
+      <c r="C33" s="289"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="289"/>
+      <c r="F33" s="261"/>
+      <c r="G33" s="289"/>
+      <c r="H33" s="263"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="287"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="261"/>
-      <c r="E34" s="288"/>
-      <c r="F34" s="260"/>
-      <c r="G34" s="288"/>
-      <c r="H34" s="262"/>
+      <c r="B34" s="288"/>
+      <c r="C34" s="289"/>
+      <c r="D34" s="262"/>
+      <c r="E34" s="289"/>
+      <c r="F34" s="261"/>
+      <c r="G34" s="289"/>
+      <c r="H34" s="263"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QpV7EnfhppgCXrNWoyIqqke07ToNMpzSSQ0GGDKtkpbszsaUeGUVgZwGP4Xlf29lgbBkPgQdrKP9kG71gLvH0Q==" saltValue="OJ6BEjMbf0aVjjUa0ARQJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
